--- a/all_data.xlsx
+++ b/all_data.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26606"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5d0fdce2262705b7/University of Ottawa/Winter 2016/CSI 2132 - Databases I/Assignments/Movie_Recommender/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/qufeichen/Documents/Repos/Movie_Recommender/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9510" firstSheet="10" activeTab="18"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28260" windowHeight="14480" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="users" sheetId="1" r:id="rId1"/>
@@ -32,9 +32,12 @@
     <sheet name="studios" sheetId="17" r:id="rId18"/>
     <sheet name="sponsors" sheetId="18" r:id="rId19"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -293,7 +296,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -321,22 +324,22 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
@@ -346,7 +349,7 @@
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom/>
@@ -354,10 +357,10 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom/>
@@ -365,14 +368,14 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -380,23 +383,23 @@
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -734,15 +737,15 @@
       <selection activeCell="K2" sqref="K2:K21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="1" customWidth="1"/>
-    <col min="2" max="9" width="11.42578125" style="2" customWidth="1"/>
-    <col min="10" max="10" width="11.42578125" style="3" customWidth="1"/>
-    <col min="11" max="11" width="134.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.5" style="1" customWidth="1"/>
+    <col min="2" max="9" width="11.5" style="2" customWidth="1"/>
+    <col min="10" max="10" width="11.5" style="3" customWidth="1"/>
+    <col min="11" max="11" width="134.83203125" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -777,7 +780,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>41</v>
       </c>
@@ -786,7 +789,7 @@
         <v>INSERT INTO users(user_id, email, password, first_name, last_name, year_born, city, province, country, type_id) VALUES (DEFAULT, '', '', '', '', , '', '', '', );</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>41</v>
       </c>
@@ -795,7 +798,7 @@
         <v>INSERT INTO users(user_id, email, password, first_name, last_name, year_born, city, province, country, type_id) VALUES (DEFAULT, '', '', '', '', , '', '', '', );</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>41</v>
       </c>
@@ -804,7 +807,7 @@
         <v>INSERT INTO users(user_id, email, password, first_name, last_name, year_born, city, province, country, type_id) VALUES (DEFAULT, '', '', '', '', , '', '', '', );</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>41</v>
       </c>
@@ -813,7 +816,7 @@
         <v>INSERT INTO users(user_id, email, password, first_name, last_name, year_born, city, province, country, type_id) VALUES (DEFAULT, '', '', '', '', , '', '', '', );</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>41</v>
       </c>
@@ -822,7 +825,7 @@
         <v>INSERT INTO users(user_id, email, password, first_name, last_name, year_born, city, province, country, type_id) VALUES (DEFAULT, '', '', '', '', , '', '', '', );</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>41</v>
       </c>
@@ -831,7 +834,7 @@
         <v>INSERT INTO users(user_id, email, password, first_name, last_name, year_born, city, province, country, type_id) VALUES (DEFAULT, '', '', '', '', , '', '', '', );</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>41</v>
       </c>
@@ -840,7 +843,7 @@
         <v>INSERT INTO users(user_id, email, password, first_name, last_name, year_born, city, province, country, type_id) VALUES (DEFAULT, '', '', '', '', , '', '', '', );</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>41</v>
       </c>
@@ -849,7 +852,7 @@
         <v>INSERT INTO users(user_id, email, password, first_name, last_name, year_born, city, province, country, type_id) VALUES (DEFAULT, '', '', '', '', , '', '', '', );</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>41</v>
       </c>
@@ -858,7 +861,7 @@
         <v>INSERT INTO users(user_id, email, password, first_name, last_name, year_born, city, province, country, type_id) VALUES (DEFAULT, '', '', '', '', , '', '', '', );</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>41</v>
       </c>
@@ -867,7 +870,7 @@
         <v>INSERT INTO users(user_id, email, password, first_name, last_name, year_born, city, province, country, type_id) VALUES (DEFAULT, '', '', '', '', , '', '', '', );</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>41</v>
       </c>
@@ -876,7 +879,7 @@
         <v>INSERT INTO users(user_id, email, password, first_name, last_name, year_born, city, province, country, type_id) VALUES (DEFAULT, '', '', '', '', , '', '', '', );</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>41</v>
       </c>
@@ -885,7 +888,7 @@
         <v>INSERT INTO users(user_id, email, password, first_name, last_name, year_born, city, province, country, type_id) VALUES (DEFAULT, '', '', '', '', , '', '', '', );</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>41</v>
       </c>
@@ -894,7 +897,7 @@
         <v>INSERT INTO users(user_id, email, password, first_name, last_name, year_born, city, province, country, type_id) VALUES (DEFAULT, '', '', '', '', , '', '', '', );</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>41</v>
       </c>
@@ -903,7 +906,7 @@
         <v>INSERT INTO users(user_id, email, password, first_name, last_name, year_born, city, province, country, type_id) VALUES (DEFAULT, '', '', '', '', , '', '', '', );</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>41</v>
       </c>
@@ -912,7 +915,7 @@
         <v>INSERT INTO users(user_id, email, password, first_name, last_name, year_born, city, province, country, type_id) VALUES (DEFAULT, '', '', '', '', , '', '', '', );</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>41</v>
       </c>
@@ -921,7 +924,7 @@
         <v>INSERT INTO users(user_id, email, password, first_name, last_name, year_born, city, province, country, type_id) VALUES (DEFAULT, '', '', '', '', , '', '', '', );</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>41</v>
       </c>
@@ -930,7 +933,7 @@
         <v>INSERT INTO users(user_id, email, password, first_name, last_name, year_born, city, province, country, type_id) VALUES (DEFAULT, '', '', '', '', , '', '', '', );</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>41</v>
       </c>
@@ -939,7 +942,7 @@
         <v>INSERT INTO users(user_id, email, password, first_name, last_name, year_born, city, province, country, type_id) VALUES (DEFAULT, '', '', '', '', , '', '', '', );</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>41</v>
       </c>
@@ -948,7 +951,7 @@
         <v>INSERT INTO users(user_id, email, password, first_name, last_name, year_born, city, province, country, type_id) VALUES (DEFAULT, '', '', '', '', , '', '', '', );</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>41</v>
       </c>
@@ -970,15 +973,15 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="1" customWidth="1"/>
-    <col min="2" max="5" width="11.42578125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="11.42578125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="111.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.5" style="1" customWidth="1"/>
+    <col min="2" max="5" width="11.5" style="2" customWidth="1"/>
+    <col min="6" max="6" width="11.5" style="3" customWidth="1"/>
+    <col min="7" max="7" width="111.33203125" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>30</v>
       </c>
@@ -1001,7 +1004,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>41</v>
       </c>
@@ -1019,18 +1022,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="61.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5" style="3" customWidth="1"/>
+    <col min="3" max="3" width="61.83203125" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>35</v>
       </c>
@@ -1041,7 +1042,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>41</v>
       </c>
@@ -1063,15 +1064,15 @@
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" customWidth="1"/>
-    <col min="2" max="2" width="18.7109375" customWidth="1"/>
-    <col min="3" max="3" width="70.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" customWidth="1"/>
+    <col min="1" max="1" width="11.5" customWidth="1"/>
+    <col min="2" max="2" width="18.6640625" customWidth="1"/>
+    <col min="3" max="3" width="70.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>33</v>
       </c>
@@ -1082,7 +1083,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>41</v>
       </c>
@@ -1094,7 +1095,7 @@
         <v>INSERT INTO roles(role_id, character_name) VALUES (DEFAULT, 'Lead');</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>41</v>
       </c>
@@ -1106,7 +1107,7 @@
         <v>INSERT INTO roles(role_id, character_name) VALUES (DEFAULT, 'Supporting');</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>41</v>
       </c>
@@ -1131,13 +1132,13 @@
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="3" width="11.42578125" customWidth="1"/>
-    <col min="4" max="4" width="64.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="3" width="11.5" customWidth="1"/>
+    <col min="4" max="4" width="64.83203125" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>18</v>
       </c>
@@ -1151,7 +1152,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D2" s="4" t="str">
         <f xml:space="preserve"> "INSERT INTO movie_casts("&amp;A$1&amp;", "&amp;B$1&amp;", "&amp;C$1&amp;") VALUES ("&amp;A2&amp;", "&amp;B2&amp;", "&amp;C2&amp;");"</f>
         <v>INSERT INTO movie_casts(movie_id, actor_id, cast_id) VALUES (, , );</v>
@@ -1170,13 +1171,13 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="11.42578125" customWidth="1"/>
-    <col min="3" max="3" width="53.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="11.5" customWidth="1"/>
+    <col min="3" max="3" width="53.5" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>30</v>
       </c>
@@ -1187,7 +1188,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C2" s="4" t="str">
         <f xml:space="preserve"> "INSERT INTO actor_roles("&amp;A$1&amp;", "&amp;B$1&amp;") VALUES ("&amp;A2&amp;", "&amp;B2&amp;");"</f>
         <v>INSERT INTO actor_roles(actor_id, role_id) VALUES (, );</v>
@@ -1206,13 +1207,13 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="11.42578125" customWidth="1"/>
-    <col min="3" max="3" width="54.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="11.5" customWidth="1"/>
+    <col min="3" max="3" width="54.6640625" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>18</v>
       </c>
@@ -1223,7 +1224,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C2" s="4" t="str">
         <f xml:space="preserve"> "INSERT INTO movie_roles("&amp;A$1&amp;", "&amp;B$1&amp;") VALUES ("&amp;A2&amp;", "&amp;B2&amp;");"</f>
         <v>INSERT INTO movie_roles(movie_id, role_id) VALUES (, );</v>
@@ -1242,14 +1243,14 @@
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="4" width="11.42578125" customWidth="1"/>
+    <col min="1" max="4" width="11.5" customWidth="1"/>
     <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="98.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="98.1640625" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>37</v>
       </c>
@@ -1269,7 +1270,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>41</v>
       </c>
@@ -1291,13 +1292,13 @@
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="11.42578125" customWidth="1"/>
-    <col min="3" max="3" width="57.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="11.5" customWidth="1"/>
+    <col min="3" max="3" width="57.33203125" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>37</v>
       </c>
@@ -1308,7 +1309,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C2" s="4" t="str">
         <f xml:space="preserve"> "INSERT INTO directs("&amp;A$1&amp;", "&amp;B$1&amp;") VALUES ("&amp;A2&amp;", "&amp;B2&amp;");"</f>
         <v>INSERT INTO directs(director_id, movie_id) VALUES (, );</v>
@@ -1327,15 +1328,15 @@
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" customWidth="1"/>
-    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" customWidth="1"/>
+    <col min="1" max="1" width="11.5" customWidth="1"/>
+    <col min="2" max="2" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5" customWidth="1"/>
     <col min="4" max="4" width="69" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>38</v>
       </c>
@@ -1349,7 +1350,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>41</v>
       </c>
@@ -1367,17 +1368,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="11.42578125" customWidth="1"/>
-    <col min="3" max="3" width="52.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="11.5" customWidth="1"/>
+    <col min="3" max="3" width="52.5" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>38</v>
       </c>
@@ -1388,7 +1389,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C2" s="4" t="str">
         <f xml:space="preserve"> "INSERT INTO sponsors("&amp;A$1&amp;", "&amp;B$1&amp;") VALUES ("&amp;A2&amp;", "&amp;B2&amp;");"</f>
         <v>INSERT INTO sponsors(studio_id, movie_id) VALUES (, );</v>
@@ -1407,15 +1408,15 @@
       <selection activeCell="E2" sqref="E2:E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="1" customWidth="1"/>
-    <col min="2" max="3" width="11.42578125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="72.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.5" style="1" customWidth="1"/>
+    <col min="2" max="3" width="11.5" style="2" customWidth="1"/>
+    <col min="4" max="4" width="11.5" style="3" customWidth="1"/>
+    <col min="5" max="5" width="72.33203125" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1432,121 +1433,121 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E2" s="4" t="str">
         <f xml:space="preserve"> "INSERT INTO profiles("&amp;A$1&amp;", "&amp;B$1&amp;", "&amp;C$1&amp;", "&amp;D$1&amp;") VALUES ("&amp;A2&amp;", '"&amp;B2&amp;"', '"&amp;C2&amp;"', '"&amp;D2&amp;"');"</f>
         <v>INSERT INTO profiles(user_id, age_range, gender, occupation) VALUES (, '', '', '');</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E3" s="4" t="str">
         <f t="shared" ref="E3:E21" si="0" xml:space="preserve"> "INSERT INTO profiles("&amp;A$1&amp;", "&amp;B$1&amp;", "&amp;C$1&amp;", "&amp;D$1&amp;") VALUES ("&amp;A3&amp;", '"&amp;B3&amp;"', '"&amp;C3&amp;"', '"&amp;D3&amp;"');"</f>
         <v>INSERT INTO profiles(user_id, age_range, gender, occupation) VALUES (, '', '', '');</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E4" s="4" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO profiles(user_id, age_range, gender, occupation) VALUES (, '', '', '');</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E5" s="4" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO profiles(user_id, age_range, gender, occupation) VALUES (, '', '', '');</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E6" s="4" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO profiles(user_id, age_range, gender, occupation) VALUES (, '', '', '');</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E7" s="4" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO profiles(user_id, age_range, gender, occupation) VALUES (, '', '', '');</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E8" s="4" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO profiles(user_id, age_range, gender, occupation) VALUES (, '', '', '');</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E9" s="4" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO profiles(user_id, age_range, gender, occupation) VALUES (, '', '', '');</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E10" s="4" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO profiles(user_id, age_range, gender, occupation) VALUES (, '', '', '');</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E11" s="4" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO profiles(user_id, age_range, gender, occupation) VALUES (, '', '', '');</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E12" s="4" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO profiles(user_id, age_range, gender, occupation) VALUES (, '', '', '');</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E13" s="4" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO profiles(user_id, age_range, gender, occupation) VALUES (, '', '', '');</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E14" s="4" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO profiles(user_id, age_range, gender, occupation) VALUES (, '', '', '');</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E15" s="4" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO profiles(user_id, age_range, gender, occupation) VALUES (, '', '', '');</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E16" s="4" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO profiles(user_id, age_range, gender, occupation) VALUES (, '', '', '');</v>
       </c>
     </row>
-    <row r="17" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E17" s="4" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO profiles(user_id, age_range, gender, occupation) VALUES (, '', '', '');</v>
       </c>
     </row>
-    <row r="18" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E18" s="4" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO profiles(user_id, age_range, gender, occupation) VALUES (, '', '', '');</v>
       </c>
     </row>
-    <row r="19" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E19" s="4" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO profiles(user_id, age_range, gender, occupation) VALUES (, '', '', '');</v>
       </c>
     </row>
-    <row r="20" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E20" s="4" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO profiles(user_id, age_range, gender, occupation) VALUES (, '', '', '');</v>
       </c>
     </row>
-    <row r="21" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E21" s="4" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO profiles(user_id, age_range, gender, occupation) VALUES (, '', '', '');</v>
@@ -1565,14 +1566,14 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="61.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5" style="3" customWidth="1"/>
+    <col min="3" max="3" width="61.6640625" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>9</v>
       </c>
@@ -1583,7 +1584,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>41</v>
       </c>
@@ -1602,17 +1603,17 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" customWidth="1"/>
-    <col min="3" max="3" width="74.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.5" customWidth="1"/>
+    <col min="2" max="2" width="12.83203125" customWidth="1"/>
+    <col min="3" max="3" width="74.1640625" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>14</v>
       </c>
@@ -1623,7 +1624,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>41</v>
       </c>
@@ -1635,7 +1636,7 @@
         <v>INSERT INTO devices(device_id, device_name) VALUES (DEFAULT, 'Desktop');</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>41</v>
       </c>
@@ -1647,7 +1648,7 @@
         <v>INSERT INTO devices(device_id, device_name) VALUES (DEFAULT, 'Laptop');</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>41</v>
       </c>
@@ -1659,7 +1660,7 @@
         <v>INSERT INTO devices(device_id, device_name) VALUES (DEFAULT, 'Tablet');</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>41</v>
       </c>
@@ -1671,7 +1672,7 @@
         <v>INSERT INTO devices(device_id, device_name) VALUES (DEFAULT, 'Smartphone');</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>41</v>
       </c>
@@ -1683,7 +1684,7 @@
         <v>INSERT INTO devices(device_id, device_name) VALUES (DEFAULT, 'Console');</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>41</v>
       </c>
@@ -1695,7 +1696,7 @@
         <v>INSERT INTO devices(device_id, device_name) VALUES (DEFAULT, 'Smart TV');</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>41</v>
       </c>
@@ -1720,14 +1721,14 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="53.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5" style="3" customWidth="1"/>
+    <col min="3" max="3" width="53.5" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1738,7 +1739,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C2" s="4" t="str">
         <f xml:space="preserve"> "INSERT INTO devices_used("&amp;A$1&amp;", "&amp;B$1&amp;") VALUES ("&amp;A2&amp;", "&amp;B2&amp;");"</f>
         <v>INSERT INTO devices_used(user_id, device_id) VALUES (, );</v>
@@ -1757,14 +1758,14 @@
       <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="66.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="66.5" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>16</v>
       </c>
@@ -1775,7 +1776,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>41</v>
       </c>
@@ -1787,7 +1788,7 @@
         <v>INSERT INTO topics(topic_id, genre) VALUES (DEFAULT, 'Action');</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>41</v>
       </c>
@@ -1799,7 +1800,7 @@
         <v>INSERT INTO topics(topic_id, genre) VALUES (DEFAULT, 'Adventure');</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>41</v>
       </c>
@@ -1811,7 +1812,7 @@
         <v>INSERT INTO topics(topic_id, genre) VALUES (DEFAULT, 'Animation');</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>41</v>
       </c>
@@ -1823,7 +1824,7 @@
         <v>INSERT INTO topics(topic_id, genre) VALUES (DEFAULT, 'Biography');</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>41</v>
       </c>
@@ -1835,7 +1836,7 @@
         <v>INSERT INTO topics(topic_id, genre) VALUES (DEFAULT, 'Comedy');</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>41</v>
       </c>
@@ -1847,7 +1848,7 @@
         <v>INSERT INTO topics(topic_id, genre) VALUES (DEFAULT, 'Crime');</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>41</v>
       </c>
@@ -1859,7 +1860,7 @@
         <v>INSERT INTO topics(topic_id, genre) VALUES (DEFAULT, 'Documentary');</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>41</v>
       </c>
@@ -1871,7 +1872,7 @@
         <v>INSERT INTO topics(topic_id, genre) VALUES (DEFAULT, 'Drama');</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>41</v>
       </c>
@@ -1883,7 +1884,7 @@
         <v>INSERT INTO topics(topic_id, genre) VALUES (DEFAULT, 'Family');</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>41</v>
       </c>
@@ -1895,7 +1896,7 @@
         <v>INSERT INTO topics(topic_id, genre) VALUES (DEFAULT, 'Fantasy');</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>41</v>
       </c>
@@ -1907,7 +1908,7 @@
         <v>INSERT INTO topics(topic_id, genre) VALUES (DEFAULT, 'Film-Noir');</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>41</v>
       </c>
@@ -1919,7 +1920,7 @@
         <v>INSERT INTO topics(topic_id, genre) VALUES (DEFAULT, 'History');</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>41</v>
       </c>
@@ -1931,7 +1932,7 @@
         <v>INSERT INTO topics(topic_id, genre) VALUES (DEFAULT, 'Horror');</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>41</v>
       </c>
@@ -1943,7 +1944,7 @@
         <v>INSERT INTO topics(topic_id, genre) VALUES (DEFAULT, 'Romance');</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>41</v>
       </c>
@@ -1955,7 +1956,7 @@
         <v>INSERT INTO topics(topic_id, genre) VALUES (DEFAULT, 'Musical');</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>41</v>
       </c>
@@ -1967,7 +1968,7 @@
         <v>INSERT INTO topics(topic_id, genre) VALUES (DEFAULT, 'Mystery');</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>41</v>
       </c>
@@ -1979,7 +1980,7 @@
         <v>INSERT INTO topics(topic_id, genre) VALUES (DEFAULT, 'Science Fiction');</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>41</v>
       </c>
@@ -1991,7 +1992,7 @@
         <v>INSERT INTO topics(topic_id, genre) VALUES (DEFAULT, 'Sport');</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>41</v>
       </c>
@@ -2003,7 +2004,7 @@
         <v>INSERT INTO topics(topic_id, genre) VALUES (DEFAULT, 'Thriller');</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>41</v>
       </c>
@@ -2015,7 +2016,7 @@
         <v>INSERT INTO topics(topic_id, genre) VALUES (DEFAULT, 'War');</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>41</v>
       </c>
@@ -2027,7 +2028,7 @@
         <v>INSERT INTO topics(topic_id, genre) VALUES (DEFAULT, 'Western');</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>41</v>
       </c>
@@ -2039,7 +2040,7 @@
         <v>INSERT INTO topics(topic_id, genre) VALUES (DEFAULT, 'Anime');</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>41</v>
       </c>
@@ -2051,7 +2052,7 @@
         <v>INSERT INTO topics(topic_id, genre) VALUES (DEFAULT, 'Adult');</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>41</v>
       </c>
@@ -2063,7 +2064,7 @@
         <v>INSERT INTO topics(topic_id, genre) VALUES (DEFAULT, 'Space');</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>41</v>
       </c>
@@ -2075,7 +2076,7 @@
         <v>INSERT INTO topics(topic_id, genre) VALUES (DEFAULT, 'Political');</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>41</v>
       </c>
@@ -2087,7 +2088,7 @@
         <v>INSERT INTO topics(topic_id, genre) VALUES (DEFAULT, 'Faith');</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>41</v>
       </c>
@@ -2099,7 +2100,7 @@
         <v>INSERT INTO topics(topic_id, genre) VALUES (DEFAULT, 'Independent');</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>41</v>
       </c>
@@ -2111,7 +2112,7 @@
         <v>INSERT INTO topics(topic_id, genre) VALUES (DEFAULT, 'Video Game');</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>41</v>
       </c>
@@ -2123,7 +2124,7 @@
         <v>INSERT INTO topics(topic_id, genre) VALUES (DEFAULT, 'Novel');</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>41</v>
       </c>
@@ -2148,15 +2149,15 @@
       <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="1" customWidth="1"/>
-    <col min="2" max="9" width="11.42578125" style="2" customWidth="1"/>
-    <col min="10" max="10" width="11.42578125" style="3" customWidth="1"/>
-    <col min="11" max="11" width="145.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.5" style="1" customWidth="1"/>
+    <col min="2" max="9" width="11.5" style="2" customWidth="1"/>
+    <col min="10" max="10" width="11.5" style="3" customWidth="1"/>
+    <col min="11" max="11" width="145.33203125" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>18</v>
       </c>
@@ -2191,7 +2192,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>41</v>
       </c>
@@ -2200,7 +2201,7 @@
         <v>INSERT INTO movies(movie_id, name, description, date_released, duration, language, subtitles, dubbed, country, age_rating) VALUES (DEFAULT, '', '', '', '', '', '', '', '', '');</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>41</v>
       </c>
@@ -2209,7 +2210,7 @@
         <v>INSERT INTO movies(movie_id, name, description, date_released, duration, language, subtitles, dubbed, country, age_rating) VALUES (DEFAULT, '', '', '', '', '', '', '', '', '');</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>41</v>
       </c>
@@ -2218,7 +2219,7 @@
         <v>INSERT INTO movies(movie_id, name, description, date_released, duration, language, subtitles, dubbed, country, age_rating) VALUES (DEFAULT, '', '', '', '', '', '', '', '', '');</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>41</v>
       </c>
@@ -2227,7 +2228,7 @@
         <v>INSERT INTO movies(movie_id, name, description, date_released, duration, language, subtitles, dubbed, country, age_rating) VALUES (DEFAULT, '', '', '', '', '', '', '', '', '');</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>41</v>
       </c>
@@ -2236,7 +2237,7 @@
         <v>INSERT INTO movies(movie_id, name, description, date_released, duration, language, subtitles, dubbed, country, age_rating) VALUES (DEFAULT, '', '', '', '', '', '', '', '', '');</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>41</v>
       </c>
@@ -2245,7 +2246,7 @@
         <v>INSERT INTO movies(movie_id, name, description, date_released, duration, language, subtitles, dubbed, country, age_rating) VALUES (DEFAULT, '', '', '', '', '', '', '', '', '');</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>41</v>
       </c>
@@ -2254,7 +2255,7 @@
         <v>INSERT INTO movies(movie_id, name, description, date_released, duration, language, subtitles, dubbed, country, age_rating) VALUES (DEFAULT, '', '', '', '', '', '', '', '', '');</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>41</v>
       </c>
@@ -2263,7 +2264,7 @@
         <v>INSERT INTO movies(movie_id, name, description, date_released, duration, language, subtitles, dubbed, country, age_rating) VALUES (DEFAULT, '', '', '', '', '', '', '', '', '');</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>41</v>
       </c>
@@ -2272,7 +2273,7 @@
         <v>INSERT INTO movies(movie_id, name, description, date_released, duration, language, subtitles, dubbed, country, age_rating) VALUES (DEFAULT, '', '', '', '', '', '', '', '', '');</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>41</v>
       </c>
@@ -2281,7 +2282,7 @@
         <v>INSERT INTO movies(movie_id, name, description, date_released, duration, language, subtitles, dubbed, country, age_rating) VALUES (DEFAULT, '', '', '', '', '', '', '', '', '');</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>41</v>
       </c>
@@ -2290,7 +2291,7 @@
         <v>INSERT INTO movies(movie_id, name, description, date_released, duration, language, subtitles, dubbed, country, age_rating) VALUES (DEFAULT, '', '', '', '', '', '', '', '', '');</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>41</v>
       </c>
@@ -2299,7 +2300,7 @@
         <v>INSERT INTO movies(movie_id, name, description, date_released, duration, language, subtitles, dubbed, country, age_rating) VALUES (DEFAULT, '', '', '', '', '', '', '', '', '');</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>41</v>
       </c>
@@ -2308,7 +2309,7 @@
         <v>INSERT INTO movies(movie_id, name, description, date_released, duration, language, subtitles, dubbed, country, age_rating) VALUES (DEFAULT, '', '', '', '', '', '', '', '', '');</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>41</v>
       </c>
@@ -2317,7 +2318,7 @@
         <v>INSERT INTO movies(movie_id, name, description, date_released, duration, language, subtitles, dubbed, country, age_rating) VALUES (DEFAULT, '', '', '', '', '', '', '', '', '');</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>41</v>
       </c>
@@ -2326,7 +2327,7 @@
         <v>INSERT INTO movies(movie_id, name, description, date_released, duration, language, subtitles, dubbed, country, age_rating) VALUES (DEFAULT, '', '', '', '', '', '', '', '', '');</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>41</v>
       </c>
@@ -2335,7 +2336,7 @@
         <v>INSERT INTO movies(movie_id, name, description, date_released, duration, language, subtitles, dubbed, country, age_rating) VALUES (DEFAULT, '', '', '', '', '', '', '', '', '');</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>41</v>
       </c>
@@ -2344,7 +2345,7 @@
         <v>INSERT INTO movies(movie_id, name, description, date_released, duration, language, subtitles, dubbed, country, age_rating) VALUES (DEFAULT, '', '', '', '', '', '', '', '', '');</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>41</v>
       </c>
@@ -2353,7 +2354,7 @@
         <v>INSERT INTO movies(movie_id, name, description, date_released, duration, language, subtitles, dubbed, country, age_rating) VALUES (DEFAULT, '', '', '', '', '', '', '', '', '');</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>41</v>
       </c>
@@ -2362,7 +2363,7 @@
         <v>INSERT INTO movies(movie_id, name, description, date_released, duration, language, subtitles, dubbed, country, age_rating) VALUES (DEFAULT, '', '', '', '', '', '', '', '', '');</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>41</v>
       </c>
@@ -2371,7 +2372,7 @@
         <v>INSERT INTO movies(movie_id, name, description, date_released, duration, language, subtitles, dubbed, country, age_rating) VALUES (DEFAULT, '', '', '', '', '', '', '', '', '');</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>41</v>
       </c>
@@ -2380,7 +2381,7 @@
         <v>INSERT INTO movies(movie_id, name, description, date_released, duration, language, subtitles, dubbed, country, age_rating) VALUES (DEFAULT, '', '', '', '', '', '', '', '', '');</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>41</v>
       </c>
@@ -2389,7 +2390,7 @@
         <v>INSERT INTO movies(movie_id, name, description, date_released, duration, language, subtitles, dubbed, country, age_rating) VALUES (DEFAULT, '', '', '', '', '', '', '', '', '');</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>41</v>
       </c>
@@ -2398,7 +2399,7 @@
         <v>INSERT INTO movies(movie_id, name, description, date_released, duration, language, subtitles, dubbed, country, age_rating) VALUES (DEFAULT, '', '', '', '', '', '', '', '', '');</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>41</v>
       </c>
@@ -2407,7 +2408,7 @@
         <v>INSERT INTO movies(movie_id, name, description, date_released, duration, language, subtitles, dubbed, country, age_rating) VALUES (DEFAULT, '', '', '', '', '', '', '', '', '');</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>41</v>
       </c>
@@ -2416,7 +2417,7 @@
         <v>INSERT INTO movies(movie_id, name, description, date_released, duration, language, subtitles, dubbed, country, age_rating) VALUES (DEFAULT, '', '', '', '', '', '', '', '', '');</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>41</v>
       </c>
@@ -2425,7 +2426,7 @@
         <v>INSERT INTO movies(movie_id, name, description, date_released, duration, language, subtitles, dubbed, country, age_rating) VALUES (DEFAULT, '', '', '', '', '', '', '', '', '');</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>41</v>
       </c>
@@ -2434,7 +2435,7 @@
         <v>INSERT INTO movies(movie_id, name, description, date_released, duration, language, subtitles, dubbed, country, age_rating) VALUES (DEFAULT, '', '', '', '', '', '', '', '', '');</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>41</v>
       </c>
@@ -2443,7 +2444,7 @@
         <v>INSERT INTO movies(movie_id, name, description, date_released, duration, language, subtitles, dubbed, country, age_rating) VALUES (DEFAULT, '', '', '', '', '', '', '', '', '');</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>41</v>
       </c>
@@ -2452,7 +2453,7 @@
         <v>INSERT INTO movies(movie_id, name, description, date_released, duration, language, subtitles, dubbed, country, age_rating) VALUES (DEFAULT, '', '', '', '', '', '', '', '', '');</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>41</v>
       </c>
@@ -2461,7 +2462,7 @@
         <v>INSERT INTO movies(movie_id, name, description, date_released, duration, language, subtitles, dubbed, country, age_rating) VALUES (DEFAULT, '', '', '', '', '', '', '', '', '');</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>41</v>
       </c>
@@ -2470,7 +2471,7 @@
         <v>INSERT INTO movies(movie_id, name, description, date_released, duration, language, subtitles, dubbed, country, age_rating) VALUES (DEFAULT, '', '', '', '', '', '', '', '', '');</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>41</v>
       </c>
@@ -2479,7 +2480,7 @@
         <v>INSERT INTO movies(movie_id, name, description, date_released, duration, language, subtitles, dubbed, country, age_rating) VALUES (DEFAULT, '', '', '', '', '', '', '', '', '');</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>41</v>
       </c>
@@ -2488,7 +2489,7 @@
         <v>INSERT INTO movies(movie_id, name, description, date_released, duration, language, subtitles, dubbed, country, age_rating) VALUES (DEFAULT, '', '', '', '', '', '', '', '', '');</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>41</v>
       </c>
@@ -2497,7 +2498,7 @@
         <v>INSERT INTO movies(movie_id, name, description, date_released, duration, language, subtitles, dubbed, country, age_rating) VALUES (DEFAULT, '', '', '', '', '', '', '', '', '');</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>41</v>
       </c>
@@ -2506,7 +2507,7 @@
         <v>INSERT INTO movies(movie_id, name, description, date_released, duration, language, subtitles, dubbed, country, age_rating) VALUES (DEFAULT, '', '', '', '', '', '', '', '', '');</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>41</v>
       </c>
@@ -2515,7 +2516,7 @@
         <v>INSERT INTO movies(movie_id, name, description, date_released, duration, language, subtitles, dubbed, country, age_rating) VALUES (DEFAULT, '', '', '', '', '', '', '', '', '');</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>41</v>
       </c>
@@ -2524,7 +2525,7 @@
         <v>INSERT INTO movies(movie_id, name, description, date_released, duration, language, subtitles, dubbed, country, age_rating) VALUES (DEFAULT, '', '', '', '', '', '', '', '', '');</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>41</v>
       </c>
@@ -2533,7 +2534,7 @@
         <v>INSERT INTO movies(movie_id, name, description, date_released, duration, language, subtitles, dubbed, country, age_rating) VALUES (DEFAULT, '', '', '', '', '', '', '', '', '');</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>41</v>
       </c>
@@ -2542,7 +2543,7 @@
         <v>INSERT INTO movies(movie_id, name, description, date_released, duration, language, subtitles, dubbed, country, age_rating) VALUES (DEFAULT, '', '', '', '', '', '', '', '', '');</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>41</v>
       </c>
@@ -2564,15 +2565,15 @@
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="1" customWidth="1"/>
-    <col min="2" max="4" width="11.42578125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="87.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.5" style="1" customWidth="1"/>
+    <col min="2" max="4" width="11.5" style="2" customWidth="1"/>
+    <col min="5" max="5" width="11.5" style="3" customWidth="1"/>
+    <col min="6" max="6" width="87.5" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -2592,7 +2593,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F2" s="4" t="str">
         <f xml:space="preserve"> "INSERT INTO watches("&amp;A$1&amp;", "&amp;B$1&amp;", "&amp;C$1&amp;", "&amp;D$1&amp;", "&amp;E$1&amp;") VALUES ("&amp;A2&amp;", "&amp;B2&amp;", '"&amp;C2&amp;"', "&amp;D2&amp;", '"&amp;E$2&amp;"');"</f>
         <v>INSERT INTO watches(user_id, movie_id, date_watched, user_rating, review) VALUES (, , '', , '');</v>
@@ -2611,14 +2612,14 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="55.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5" style="3" customWidth="1"/>
+    <col min="3" max="3" width="55.5" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>18</v>
       </c>
@@ -2629,7 +2630,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C2" s="4" t="str">
         <f xml:space="preserve"> "INSERT INTO movie_topics("&amp;A$1&amp;", "&amp;B$1&amp;") VALUES ("&amp;A2&amp;", "&amp;B2&amp;");"</f>
         <v>INSERT INTO movie_topics(movie_id, topic_id) VALUES (, );</v>

--- a/all_data.xlsx
+++ b/all_data.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5d0fdce2262705b7/University of Ottawa/Winter 2016/CSI 2132 - Databases I/Assignments/Movie_Recommender/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jonathan\OneDrive\University of Ottawa\Winter 2016\CSI 2132 - Databases I\Assignments\Movie_Recommender\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9510" firstSheet="10" activeTab="18"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9510" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="users" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="84">
   <si>
     <t>user_id</t>
   </si>
@@ -288,6 +288,12 @@
   </si>
   <si>
     <t>Cameo</t>
+  </si>
+  <si>
+    <t>admin</t>
+  </si>
+  <si>
+    <t>member</t>
   </si>
 </sst>
 </file>
@@ -1367,7 +1373,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
@@ -1559,17 +1565,17 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.42578125" style="1" customWidth="1"/>
     <col min="2" max="2" width="11.42578125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="61.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="67.7109375" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -1587,9 +1593,24 @@
       <c r="A2" s="1" t="s">
         <v>41</v>
       </c>
+      <c r="B2" s="3" t="s">
+        <v>82</v>
+      </c>
       <c r="C2" s="4" t="str">
         <f xml:space="preserve"> "INSERT INTO user_types("&amp;A$1&amp;", "&amp;B$1&amp;") VALUES ("&amp;A2&amp;", '"&amp;B2&amp;"');"</f>
-        <v>INSERT INTO user_types(type_id, type_name) VALUES (DEFAULT, '');</v>
+        <v>INSERT INTO user_types(type_id, type_name) VALUES (DEFAULT, 'admin');</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C3" s="4" t="str">
+        <f xml:space="preserve"> "INSERT INTO user_types("&amp;A$1&amp;", "&amp;B$1&amp;") VALUES ("&amp;A3&amp;", '"&amp;B3&amp;"');"</f>
+        <v>INSERT INTO user_types(type_id, type_name) VALUES (DEFAULT, 'member');</v>
       </c>
     </row>
   </sheetData>

--- a/all_data.xlsx
+++ b/all_data.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jonathan\OneDrive\University of Ottawa\Winter 2016\CSI 2132 - Databases I\Assignments\Movie_Recommender\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23970" windowHeight="8880" firstSheet="2" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23970" windowHeight="8880" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="users" sheetId="1" r:id="rId1"/>
@@ -17,11 +17,11 @@
     <sheet name="user_types" sheetId="3" r:id="rId3"/>
     <sheet name="devices" sheetId="4" r:id="rId4"/>
     <sheet name="used_devices" sheetId="5" r:id="rId5"/>
-    <sheet name="genres" sheetId="6" r:id="rId6"/>
-    <sheet name="likes_genres" sheetId="7" r:id="rId7"/>
+    <sheet name="topics" sheetId="6" r:id="rId6"/>
+    <sheet name="likes_topics" sheetId="7" r:id="rId7"/>
     <sheet name="movies" sheetId="8" r:id="rId8"/>
     <sheet name="movie_ratings" sheetId="9" r:id="rId9"/>
-    <sheet name="movie_genres" sheetId="10" r:id="rId10"/>
+    <sheet name="movie_topics" sheetId="10" r:id="rId10"/>
     <sheet name="actors" sheetId="11" r:id="rId11"/>
     <sheet name="casting_types" sheetId="12" r:id="rId12"/>
     <sheet name="roles" sheetId="13" r:id="rId13"/>
@@ -33,7 +33,7 @@
     <sheet name="studios" sheetId="19" r:id="rId19"/>
     <sheet name="sponsors" sheetId="20" r:id="rId20"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1300" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1531" uniqueCount="384">
   <si>
     <t>id</t>
   </si>
@@ -198,9 +198,6 @@
     <t>profile_id</t>
   </si>
   <si>
-    <t>genre_id</t>
-  </si>
-  <si>
     <t>movie_name</t>
   </si>
   <si>
@@ -693,9 +690,6 @@
     <t>N</t>
   </si>
   <si>
-    <t>n</t>
-  </si>
-  <si>
     <t>PG-13</t>
   </si>
   <si>
@@ -919,13 +913,295 @@
   </si>
   <si>
     <t>http://cosmouk.cdnds.net/15/10/1280x1986/gallery_nrm_1425399318-pretty-woman-poster.jpg</t>
+  </si>
+  <si>
+    <t>http://ecx.images-amazon.com/images/I/61PF6Oi%2BUhL._SY355_.jpg</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/en/8/8a/Say_Anything.jpg</t>
+  </si>
+  <si>
+    <t>http://cdn.traileraddict.com/content/paramount-pictures/titanic.jpg</t>
+  </si>
+  <si>
+    <t>https://natashastander.files.wordpress.com/2014/01/ps-i-love-you-poster.jpg</t>
+  </si>
+  <si>
+    <t>https://www.movieposter.com/posters/archive/main/63/MPW-31979</t>
+  </si>
+  <si>
+    <t>http://img.goldposter.com/2015/04/Se7en_poster_goldposter_com_1.jpg</t>
+  </si>
+  <si>
+    <t>http://static.rogerebert.com/uploads/movie/movie_poster/house-of-flying-daggers-2004/large_Ar5Ev4nycoJsrPYaabMCrTvPHIe.jpg</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/en/b/b8/Troy2004Poster.jpg</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/en/0/08/Hero_poster.jpg</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/en/c/cf/Redcliffposter.jpg</t>
+  </si>
+  <si>
+    <t>http://oneguyrambling.com/wp-content/uploads/2009/12/red-cliff-2.jpg</t>
+  </si>
+  <si>
+    <t>Terminator</t>
+  </si>
+  <si>
+    <t>Alien</t>
+  </si>
+  <si>
+    <t>Prometheus</t>
+  </si>
+  <si>
+    <t>Sphere</t>
+  </si>
+  <si>
+    <t>Star Wars: Episode IV – A New Hope</t>
+  </si>
+  <si>
+    <t>Shall We Dance?</t>
+  </si>
+  <si>
+    <t>Les Miserables</t>
+  </si>
+  <si>
+    <t>Gattica</t>
+  </si>
+  <si>
+    <t>Up</t>
+  </si>
+  <si>
+    <t>Star Trek: Into Darkness</t>
+  </si>
+  <si>
+    <t>Batman Begins</t>
+  </si>
+  <si>
+    <t>Avatar</t>
+  </si>
+  <si>
+    <t>Deadpool</t>
+  </si>
+  <si>
+    <t>The Big Short</t>
+  </si>
+  <si>
+    <t>Amelie</t>
+  </si>
+  <si>
+    <t>French</t>
+  </si>
+  <si>
+    <t>Forest Gump</t>
+  </si>
+  <si>
+    <t>Larry Crowne</t>
+  </si>
+  <si>
+    <t>Bridge of Spies</t>
+  </si>
+  <si>
+    <t>Toy Story</t>
+  </si>
+  <si>
+    <t>http://ia.media-imdb.com/images/M/MV5BODE1MDczNTUxOV5BMl5BanBnXkFtZTcwMTA0NDQyNA@@._V1_UX182_CR0,0,182,268_AL_.jpg</t>
+  </si>
+  <si>
+    <t>A human-looking indestructible cyborg is sent from 2029 to 1984 to assassinate a waitress, whose unborn son will lead humanity in a war against the machines, while a soldier from that war is sent to protect her at all costs.</t>
+  </si>
+  <si>
+    <t>http://ia.media-imdb.com/images/M/MV5BMTU1ODQ4NjQyOV5BMl5BanBnXkFtZTgwOTQ3NDU2MTE@._V1_UX182_CR0,0,182,268_AL_.jpg</t>
+  </si>
+  <si>
+    <t>After a space merchant vessel perceives an unknown transmission as distress call, their landing on the source planet finds one of the crew attacked by a mysterious lifeform. </t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=lHz95RYUbik</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=LjLamj-b0I8</t>
+  </si>
+  <si>
+    <t>Following clues to the origin of mankind a team journey across the universe and find a structure on a distant planet containing a monolithic statue of a humanoid head and stone cylinders of alien blood but they soon find they are not alone.</t>
+  </si>
+  <si>
+    <t>http://ia.media-imdb.com/images/M/MV5BMTY3NzIyNTA2NV5BMl5BanBnXkFtZTcwNzE2NjI4Nw@@._V1_UX182_CR0,0,182,268_AL_.jpg</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=sftuxbvGwiU</t>
+  </si>
+  <si>
+    <t>A spaceship is discovered under three hundred years' worth of coral growth at the bottom of the ocean.</t>
+  </si>
+  <si>
+    <t>http://ia.media-imdb.com/images/M/MV5BMTUyNTE2MjEyNV5BMl5BanBnXkFtZTcwODQ0NTYxMQ@@._V1_UY268_CR6,0,182,268_AL_.jpg</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=kozds_anirw</t>
+  </si>
+  <si>
+    <t>Luke Skywalker joins forces with a Jedi Knight, a cocky pilot, a wookiee and two droids to save the galaxy from the Empire's world-destroying battle-station, while also attempting to rescue Princess Leia from the evil Darth Vader.</t>
+  </si>
+  <si>
+    <t>http://ia.media-imdb.com/images/M/MV5BOTIyMDY2NGQtOGJjNi00OTk4LWFhMDgtYmE3M2NiYzM0YTVmXkEyXkFqcGdeQXVyNTU1NTcwOTk@._V1_UX182_CR0,0,182,268_AL_.jpg</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=1g3_CFmnU7k</t>
+  </si>
+  <si>
+    <t>Four denizens in the world of high-finance predict the credit and housing bubble collapse of the mid-2000s, and decide to take on the big banks for their greed and lack of foresight.</t>
+  </si>
+  <si>
+    <t>http://ia.media-imdb.com/images/M/MV5BMjM2MTQ2MzcxOF5BMl5BanBnXkFtZTgwNzE4NTUyNzE@._V1_UX182_CR0,0,182,268_AL_.jpg</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=vgqG3ITMv1Q</t>
+  </si>
+  <si>
+    <t>A successful but unhappy Japanese accountant finds the missing passion in his life when he begins to secretly take ballroom dance lessons.</t>
+  </si>
+  <si>
+    <t>http://ia.media-imdb.com/images/M/MV5BMTk2Nzk4MTcyMF5BMl5BanBnXkFtZTcwMDI0NDMzMQ@@._V1_UY268_CR3,0,182,268_AL_.jpg</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=zQWEhPYwuY4</t>
+  </si>
+  <si>
+    <t>A romantic comedy where a bored, overworked Estate Lawyer, upon first sight of a beautiful instructor, signs up for ballroom dancing lessons.</t>
+  </si>
+  <si>
+    <t>http://ia.media-imdb.com/images/M/MV5BMTcwODUwMTMxN15BMl5BanBnXkFtZTcwNzc3MjcyMQ@@._V1_UX182_CR0,0,182,268_AL_.jpg</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=UGtS3CL-zpo</t>
+  </si>
+  <si>
+    <t>Forrest Gump, while not intelligent, has accidentally been present at many historic moments, but his true love, Jenny Curran, eludes him.</t>
+  </si>
+  <si>
+    <t>http://ia.media-imdb.com/images/M/MV5BMTI1Nzk1MzQwMV5BMl5BanBnXkFtZTYwODkxOTA5._V1_UY268_CR2,0,182,268_AL_.jpg</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=uPIEn0M8su0</t>
+  </si>
+  <si>
+    <t>In 19th-century France, Jean Valjean, who for decades has been hunted by the ruthless policeman Javert after breaking parole, agrees to care for a factory worker's daughter. The decision changes their lives forever.</t>
+  </si>
+  <si>
+    <t>http://ia.media-imdb.com/images/M/MV5BMTQ4NDI3NDg4M15BMl5BanBnXkFtZTcwMjY5OTI1OA@@._V1_UX182_CR0,0,182,268_AL_.jpg</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=YmvHzCLP6ug</t>
+  </si>
+  <si>
+    <t>A genetically inferior man assumes the identity of a superior one in order to pursue his lifelong dream of space travel.</t>
+  </si>
+  <si>
+    <t>http://ia.media-imdb.com/images/M/MV5BNzQxMzU3OTQwNF5BMl5BanBnXkFtZTYwNDUyNTE5._V1_UY268_CR3,0,182,268_AL_.jpg</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=hWjlUj7Czlk</t>
+  </si>
+  <si>
+    <t>After losing his job, a middle-aged man reinvents himself by going back to college.</t>
+  </si>
+  <si>
+    <t>http://ia.media-imdb.com/images/M/MV5BMTM1NzAyNTEwN15BMl5BanBnXkFtZTcwODYyNTEzNQ@@._V1._CR68,54,886,1396_UX182_CR0,0,182,268_AL_.jpg</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=1UNtrqRG7GA</t>
+  </si>
+  <si>
+    <t>Seventy-eight year old Carl Fredricksen travels to Paradise Falls in his home equipped with balloons, inadvertently taking a young stowaway.</t>
+  </si>
+  <si>
+    <t>http://ia.media-imdb.com/images/M/MV5BMTk3NDE2NzI4NF5BMl5BanBnXkFtZTgwNzE1MzEyMTE@._V1_UX182_CR0,0,182,268_AL_.jpg</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=qas5lWp7_R0</t>
+  </si>
+  <si>
+    <t>A cowboy doll is profoundly threatened and jealous when a new spaceman figure supplants him as top toy in a boy's room.</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>http://ia.media-imdb.com/images/M/MV5BMTgwMjI4MzU5N15BMl5BanBnXkFtZTcwMTMyNTk3OA@@._V1_UY268_CR9,0,182,268_AL_.jpg</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=KYz2wyBy3kc</t>
+  </si>
+  <si>
+    <t>After the crew of the Enterprise find an unstoppable force of terror from within their own organization, Captain Kirk leads a manhunt to a war-zone world to capture a one-man weapon of mass destruction.</t>
+  </si>
+  <si>
+    <t>http://ia.media-imdb.com/images/M/MV5BMTk2NzczOTgxNF5BMl5BanBnXkFtZTcwODQ5ODczOQ@@._V1_UX182_CR0,0,182,268_AL_.jpg</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=QAEkuVgt6Aw</t>
+  </si>
+  <si>
+    <t>After training with his mentor, Batman begins his war on crime to free the crime-ridden Gotham City from corruption that the Scarecrow and the League of Shadows have cast upon it.</t>
+  </si>
+  <si>
+    <t>http://ia.media-imdb.com/images/M/MV5BNTM3OTc0MzM2OV5BMl5BanBnXkFtZTYwNzUwMTI3._V1_UX182_CR0,0,182,268_AL_.jpg</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=neY2xVmOfUM</t>
+  </si>
+  <si>
+    <t>During the Cold War, an American lawyer is recruited to defend an arrested Soviet spy in court, and then help the CIA facilitate an exchange of the spy for the Soviet captured American U2 spy plane pilot, Francis Gary Powers.</t>
+  </si>
+  <si>
+    <t>http://ia.media-imdb.com/images/M/MV5BMjIxOTI0MjU5NV5BMl5BanBnXkFtZTgwNzM4OTk4NTE@._V1_UX182_CR0,0,182,268_AL_.jpg</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=mBBuzHrZBro</t>
+  </si>
+  <si>
+    <t>A paraplegic marine dispatched to the moon Pandora on a unique mission becomes torn between following his orders and protecting the world he feels is his home.</t>
+  </si>
+  <si>
+    <t>http://ia.media-imdb.com/images/M/MV5BMTYwOTEwNjAzMl5BMl5BanBnXkFtZTcwODc5MTUwMw@@._V1_UX182_CR0,0,182,268_AL_.jpg</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=5PSNL1qE6VY</t>
+  </si>
+  <si>
+    <t>A former Special Forces operative turned mercenary is subjected to a rogue experiment that leaves him with accelerated healing powers, adopting the alter ego Deadpool.</t>
+  </si>
+  <si>
+    <t>http://ia.media-imdb.com/images/M/MV5BMjQyODg5Njc4N15BMl5BanBnXkFtZTgwMzExMjE3NzE@._V1_UY268_CR1,0,182,268_AL_.jpg</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=ZIM1HydF9UA</t>
+  </si>
+  <si>
+    <t>Amelie is an innocent and naive girl in Paris with her own sense of justice. She decides to help those around her and, along the way, discovers love.</t>
+  </si>
+  <si>
+    <t>France</t>
+  </si>
+  <si>
+    <t>http://ia.media-imdb.com/images/M/MV5BMTYzNjkxMTczOF5BMl5BanBnXkFtZTgwODg5NDc2MjE@._V1_UX182_CR0,0,182,268_AL_.jpg</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=2UT5xaAfxWU</t>
+  </si>
+  <si>
+    <t>topic_id</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -946,6 +1222,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF333333"/>
+      <name val="Verdana"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1032,7 +1314,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -1042,6 +1324,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1360,7 +1643,7 @@
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B3"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1398,501 +1681,501 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D2" t="str">
         <f xml:space="preserve"> "(SELECT id FROM user_types WHERE type_name = 'Member')"</f>
         <v>(SELECT id FROM user_types WHERE type_name = 'Member')</v>
       </c>
       <c r="E2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G2" s="6" t="str">
-        <f xml:space="preserve"> "INSERT INTO users("&amp;A$1&amp;", "&amp;B$1&amp;", "&amp;C$1&amp;", "&amp;D$1&amp;", "&amp;E$1&amp;", "&amp;F$1&amp;") VALUES ("&amp;A2&amp;", '"&amp;B2&amp;"', '"&amp;C2&amp;"', "&amp;D2&amp;", "&amp;E2&amp;", "&amp;F2&amp;");"</f>
+        <f t="shared" ref="G2:G21" si="0" xml:space="preserve"> "INSERT INTO users("&amp;A$1&amp;", "&amp;B$1&amp;", "&amp;C$1&amp;", "&amp;D$1&amp;", "&amp;E$1&amp;", "&amp;F$1&amp;") VALUES ("&amp;A2&amp;", '"&amp;B2&amp;"', '"&amp;C2&amp;"', "&amp;D2&amp;", "&amp;E2&amp;", "&amp;F2&amp;");"</f>
         <v>INSERT INTO users(id, email, password, user_type_id, created_at, updated_at) VALUES (DEFAULT, 'user1@movie.com', 'password1', (SELECT id FROM user_types WHERE type_name = 'Member'), now(), now());</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D3" t="str">
-        <f t="shared" ref="D3:D20" si="0" xml:space="preserve"> "(SELECT id FROM user_types WHERE type_name = 'Member')"</f>
+        <f t="shared" ref="D3:D20" si="1" xml:space="preserve"> "(SELECT id FROM user_types WHERE type_name = 'Member')"</f>
         <v>(SELECT id FROM user_types WHERE type_name = 'Member')</v>
       </c>
       <c r="E3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G3" s="6" t="str">
-        <f xml:space="preserve"> "INSERT INTO users("&amp;A$1&amp;", "&amp;B$1&amp;", "&amp;C$1&amp;", "&amp;D$1&amp;", "&amp;E$1&amp;", "&amp;F$1&amp;") VALUES ("&amp;A3&amp;", '"&amp;B3&amp;"', '"&amp;C3&amp;"', "&amp;D3&amp;", "&amp;E3&amp;", "&amp;F3&amp;");"</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO users(id, email, password, user_type_id, created_at, updated_at) VALUES (DEFAULT, 'user2@movie.com', 'password2', (SELECT id FROM user_types WHERE type_name = 'Member'), now(), now());</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>(SELECT id FROM user_types WHERE type_name = 'Member')</v>
       </c>
       <c r="E4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G4" s="6" t="str">
-        <f xml:space="preserve"> "INSERT INTO users("&amp;A$1&amp;", "&amp;B$1&amp;", "&amp;C$1&amp;", "&amp;D$1&amp;", "&amp;E$1&amp;", "&amp;F$1&amp;") VALUES ("&amp;A4&amp;", '"&amp;B4&amp;"', '"&amp;C4&amp;"', "&amp;D4&amp;", "&amp;E4&amp;", "&amp;F4&amp;");"</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO users(id, email, password, user_type_id, created_at, updated_at) VALUES (DEFAULT, 'user3@movie.com', 'password3', (SELECT id FROM user_types WHERE type_name = 'Member'), now(), now());</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>(SELECT id FROM user_types WHERE type_name = 'Member')</v>
       </c>
       <c r="E5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G5" s="6" t="str">
-        <f xml:space="preserve"> "INSERT INTO users("&amp;A$1&amp;", "&amp;B$1&amp;", "&amp;C$1&amp;", "&amp;D$1&amp;", "&amp;E$1&amp;", "&amp;F$1&amp;") VALUES ("&amp;A5&amp;", '"&amp;B5&amp;"', '"&amp;C5&amp;"', "&amp;D5&amp;", "&amp;E5&amp;", "&amp;F5&amp;");"</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO users(id, email, password, user_type_id, created_at, updated_at) VALUES (DEFAULT, 'user4@movie.com', 'password4', (SELECT id FROM user_types WHERE type_name = 'Member'), now(), now());</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D6" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>(SELECT id FROM user_types WHERE type_name = 'Member')</v>
       </c>
       <c r="E6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G6" s="6" t="str">
-        <f xml:space="preserve"> "INSERT INTO users("&amp;A$1&amp;", "&amp;B$1&amp;", "&amp;C$1&amp;", "&amp;D$1&amp;", "&amp;E$1&amp;", "&amp;F$1&amp;") VALUES ("&amp;A6&amp;", '"&amp;B6&amp;"', '"&amp;C6&amp;"', "&amp;D6&amp;", "&amp;E6&amp;", "&amp;F6&amp;");"</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO users(id, email, password, user_type_id, created_at, updated_at) VALUES (DEFAULT, 'user5@movie.com', 'password5', (SELECT id FROM user_types WHERE type_name = 'Member'), now(), now());</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>(SELECT id FROM user_types WHERE type_name = 'Member')</v>
       </c>
       <c r="E7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G7" s="6" t="str">
-        <f xml:space="preserve"> "INSERT INTO users("&amp;A$1&amp;", "&amp;B$1&amp;", "&amp;C$1&amp;", "&amp;D$1&amp;", "&amp;E$1&amp;", "&amp;F$1&amp;") VALUES ("&amp;A7&amp;", '"&amp;B7&amp;"', '"&amp;C7&amp;"', "&amp;D7&amp;", "&amp;E7&amp;", "&amp;F7&amp;");"</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO users(id, email, password, user_type_id, created_at, updated_at) VALUES (DEFAULT, 'user6@movie.com', 'password6', (SELECT id FROM user_types WHERE type_name = 'Member'), now(), now());</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D8" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>(SELECT id FROM user_types WHERE type_name = 'Member')</v>
       </c>
       <c r="E8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G8" s="6" t="str">
-        <f xml:space="preserve"> "INSERT INTO users("&amp;A$1&amp;", "&amp;B$1&amp;", "&amp;C$1&amp;", "&amp;D$1&amp;", "&amp;E$1&amp;", "&amp;F$1&amp;") VALUES ("&amp;A8&amp;", '"&amp;B8&amp;"', '"&amp;C8&amp;"', "&amp;D8&amp;", "&amp;E8&amp;", "&amp;F8&amp;");"</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO users(id, email, password, user_type_id, created_at, updated_at) VALUES (DEFAULT, 'user7@movie.com', 'password7', (SELECT id FROM user_types WHERE type_name = 'Member'), now(), now());</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D9" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>(SELECT id FROM user_types WHERE type_name = 'Member')</v>
       </c>
       <c r="E9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G9" s="6" t="str">
-        <f xml:space="preserve"> "INSERT INTO users("&amp;A$1&amp;", "&amp;B$1&amp;", "&amp;C$1&amp;", "&amp;D$1&amp;", "&amp;E$1&amp;", "&amp;F$1&amp;") VALUES ("&amp;A9&amp;", '"&amp;B9&amp;"', '"&amp;C9&amp;"', "&amp;D9&amp;", "&amp;E9&amp;", "&amp;F9&amp;");"</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO users(id, email, password, user_type_id, created_at, updated_at) VALUES (DEFAULT, 'user8@movie.com', 'password8', (SELECT id FROM user_types WHERE type_name = 'Member'), now(), now());</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D10" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>(SELECT id FROM user_types WHERE type_name = 'Member')</v>
       </c>
       <c r="E10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G10" s="6" t="str">
-        <f xml:space="preserve"> "INSERT INTO users("&amp;A$1&amp;", "&amp;B$1&amp;", "&amp;C$1&amp;", "&amp;D$1&amp;", "&amp;E$1&amp;", "&amp;F$1&amp;") VALUES ("&amp;A10&amp;", '"&amp;B10&amp;"', '"&amp;C10&amp;"', "&amp;D10&amp;", "&amp;E10&amp;", "&amp;F10&amp;");"</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO users(id, email, password, user_type_id, created_at, updated_at) VALUES (DEFAULT, 'user9@movie.com', 'password9', (SELECT id FROM user_types WHERE type_name = 'Member'), now(), now());</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D11" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>(SELECT id FROM user_types WHERE type_name = 'Member')</v>
       </c>
       <c r="E11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G11" s="6" t="str">
-        <f xml:space="preserve"> "INSERT INTO users("&amp;A$1&amp;", "&amp;B$1&amp;", "&amp;C$1&amp;", "&amp;D$1&amp;", "&amp;E$1&amp;", "&amp;F$1&amp;") VALUES ("&amp;A11&amp;", '"&amp;B11&amp;"', '"&amp;C11&amp;"', "&amp;D11&amp;", "&amp;E11&amp;", "&amp;F11&amp;");"</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO users(id, email, password, user_type_id, created_at, updated_at) VALUES (DEFAULT, 'user10@movie.com', 'password10', (SELECT id FROM user_types WHERE type_name = 'Member'), now(), now());</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C12" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>(SELECT id FROM user_types WHERE type_name = 'Member')</v>
       </c>
       <c r="E12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G12" s="6" t="str">
-        <f xml:space="preserve"> "INSERT INTO users("&amp;A$1&amp;", "&amp;B$1&amp;", "&amp;C$1&amp;", "&amp;D$1&amp;", "&amp;E$1&amp;", "&amp;F$1&amp;") VALUES ("&amp;A12&amp;", '"&amp;B12&amp;"', '"&amp;C12&amp;"', "&amp;D12&amp;", "&amp;E12&amp;", "&amp;F12&amp;");"</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO users(id, email, password, user_type_id, created_at, updated_at) VALUES (DEFAULT, 'user11@movie.com', 'password11', (SELECT id FROM user_types WHERE type_name = 'Member'), now(), now());</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B13" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C13" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D13" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>(SELECT id FROM user_types WHERE type_name = 'Member')</v>
       </c>
       <c r="E13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G13" s="6" t="str">
-        <f xml:space="preserve"> "INSERT INTO users("&amp;A$1&amp;", "&amp;B$1&amp;", "&amp;C$1&amp;", "&amp;D$1&amp;", "&amp;E$1&amp;", "&amp;F$1&amp;") VALUES ("&amp;A13&amp;", '"&amp;B13&amp;"', '"&amp;C13&amp;"', "&amp;D13&amp;", "&amp;E13&amp;", "&amp;F13&amp;");"</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO users(id, email, password, user_type_id, created_at, updated_at) VALUES (DEFAULT, 'user12@movie.com', 'password12', (SELECT id FROM user_types WHERE type_name = 'Member'), now(), now());</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B14" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C14" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D14" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>(SELECT id FROM user_types WHERE type_name = 'Member')</v>
       </c>
       <c r="E14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G14" s="6" t="str">
-        <f xml:space="preserve"> "INSERT INTO users("&amp;A$1&amp;", "&amp;B$1&amp;", "&amp;C$1&amp;", "&amp;D$1&amp;", "&amp;E$1&amp;", "&amp;F$1&amp;") VALUES ("&amp;A14&amp;", '"&amp;B14&amp;"', '"&amp;C14&amp;"', "&amp;D14&amp;", "&amp;E14&amp;", "&amp;F14&amp;");"</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO users(id, email, password, user_type_id, created_at, updated_at) VALUES (DEFAULT, 'user13@movie.com', 'password13', (SELECT id FROM user_types WHERE type_name = 'Member'), now(), now());</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B15" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C15" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D15" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>(SELECT id FROM user_types WHERE type_name = 'Member')</v>
       </c>
       <c r="E15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G15" s="6" t="str">
-        <f xml:space="preserve"> "INSERT INTO users("&amp;A$1&amp;", "&amp;B$1&amp;", "&amp;C$1&amp;", "&amp;D$1&amp;", "&amp;E$1&amp;", "&amp;F$1&amp;") VALUES ("&amp;A15&amp;", '"&amp;B15&amp;"', '"&amp;C15&amp;"', "&amp;D15&amp;", "&amp;E15&amp;", "&amp;F15&amp;");"</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO users(id, email, password, user_type_id, created_at, updated_at) VALUES (DEFAULT, 'user14@movie.com', 'password14', (SELECT id FROM user_types WHERE type_name = 'Member'), now(), now());</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C16" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D16" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>(SELECT id FROM user_types WHERE type_name = 'Member')</v>
       </c>
       <c r="E16" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F16" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G16" s="6" t="str">
-        <f xml:space="preserve"> "INSERT INTO users("&amp;A$1&amp;", "&amp;B$1&amp;", "&amp;C$1&amp;", "&amp;D$1&amp;", "&amp;E$1&amp;", "&amp;F$1&amp;") VALUES ("&amp;A16&amp;", '"&amp;B16&amp;"', '"&amp;C16&amp;"', "&amp;D16&amp;", "&amp;E16&amp;", "&amp;F16&amp;");"</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO users(id, email, password, user_type_id, created_at, updated_at) VALUES (DEFAULT, 'user15@movie.com', 'password15', (SELECT id FROM user_types WHERE type_name = 'Member'), now(), now());</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B17" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C17" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D17" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>(SELECT id FROM user_types WHERE type_name = 'Member')</v>
       </c>
       <c r="E17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G17" s="6" t="str">
-        <f xml:space="preserve"> "INSERT INTO users("&amp;A$1&amp;", "&amp;B$1&amp;", "&amp;C$1&amp;", "&amp;D$1&amp;", "&amp;E$1&amp;", "&amp;F$1&amp;") VALUES ("&amp;A17&amp;", '"&amp;B17&amp;"', '"&amp;C17&amp;"', "&amp;D17&amp;", "&amp;E17&amp;", "&amp;F17&amp;");"</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO users(id, email, password, user_type_id, created_at, updated_at) VALUES (DEFAULT, 'user16@movie.com', 'password16', (SELECT id FROM user_types WHERE type_name = 'Member'), now(), now());</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B18" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C18" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D18" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>(SELECT id FROM user_types WHERE type_name = 'Member')</v>
       </c>
       <c r="E18" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F18" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G18" s="6" t="str">
-        <f xml:space="preserve"> "INSERT INTO users("&amp;A$1&amp;", "&amp;B$1&amp;", "&amp;C$1&amp;", "&amp;D$1&amp;", "&amp;E$1&amp;", "&amp;F$1&amp;") VALUES ("&amp;A18&amp;", '"&amp;B18&amp;"', '"&amp;C18&amp;"', "&amp;D18&amp;", "&amp;E18&amp;", "&amp;F18&amp;");"</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO users(id, email, password, user_type_id, created_at, updated_at) VALUES (DEFAULT, 'user17@movie.com', 'password17', (SELECT id FROM user_types WHERE type_name = 'Member'), now(), now());</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B19" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C19" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D19" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>(SELECT id FROM user_types WHERE type_name = 'Member')</v>
       </c>
       <c r="E19" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F19" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G19" s="6" t="str">
-        <f xml:space="preserve"> "INSERT INTO users("&amp;A$1&amp;", "&amp;B$1&amp;", "&amp;C$1&amp;", "&amp;D$1&amp;", "&amp;E$1&amp;", "&amp;F$1&amp;") VALUES ("&amp;A19&amp;", '"&amp;B19&amp;"', '"&amp;C19&amp;"', "&amp;D19&amp;", "&amp;E19&amp;", "&amp;F19&amp;");"</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO users(id, email, password, user_type_id, created_at, updated_at) VALUES (DEFAULT, 'user18@movie.com', 'password18', (SELECT id FROM user_types WHERE type_name = 'Member'), now(), now());</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B20" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C20" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D20" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>(SELECT id FROM user_types WHERE type_name = 'Member')</v>
       </c>
       <c r="E20" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F20" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G20" s="6" t="str">
-        <f xml:space="preserve"> "INSERT INTO users("&amp;A$1&amp;", "&amp;B$1&amp;", "&amp;C$1&amp;", "&amp;D$1&amp;", "&amp;E$1&amp;", "&amp;F$1&amp;") VALUES ("&amp;A20&amp;", '"&amp;B20&amp;"', '"&amp;C20&amp;"', "&amp;D20&amp;", "&amp;E20&amp;", "&amp;F20&amp;");"</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO users(id, email, password, user_type_id, created_at, updated_at) VALUES (DEFAULT, 'user19@movie.com', 'password19', (SELECT id FROM user_types WHERE type_name = 'Member'), now(), now());</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B21" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C21" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D21" t="str">
         <f xml:space="preserve"> "(SELECT id FROM user_types WHERE type_name = 'Member')"</f>
         <v>(SELECT id FROM user_types WHERE type_name = 'Member')</v>
       </c>
       <c r="E21" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F21" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G21" s="6" t="str">
-        <f xml:space="preserve"> "INSERT INTO users("&amp;A$1&amp;", "&amp;B$1&amp;", "&amp;C$1&amp;", "&amp;D$1&amp;", "&amp;E$1&amp;", "&amp;F$1&amp;") VALUES ("&amp;A21&amp;", '"&amp;B21&amp;"', '"&amp;C21&amp;"', "&amp;D21&amp;", "&amp;E21&amp;", "&amp;F21&amp;");"</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO users(id, email, password, user_type_id, created_at, updated_at) VALUES (DEFAULT, 'user20@movie.com', 'password20', (SELECT id FROM user_types WHERE type_name = 'Member'), now(), now());</v>
       </c>
     </row>
@@ -1907,7 +2190,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1921,10 +2204,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>51</v>
+        <v>383</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>4</v>
@@ -1938,11 +2221,11 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F2" s="6" t="str">
         <f xml:space="preserve"> "INSERT INTO movie_genres("&amp;A$1&amp;", "&amp;B$1&amp;", "&amp;C$1&amp;", "&amp;D$1&amp;", "&amp;E$1&amp;") VALUES ("&amp;A2&amp;", "&amp;B2&amp;", "&amp;C2&amp;", "&amp;D2&amp;", "&amp;E2&amp;");"</f>
-        <v>INSERT INTO movie_genres(id, movie_id, genre_id, created_at, updated_at) VALUES (DEFAULT, , , , );</v>
+        <v>INSERT INTO movie_genres(id, movie_id, topic_id, created_at, updated_at) VALUES (DEFAULT, , , , );</v>
       </c>
     </row>
   </sheetData>
@@ -1978,7 +2261,7 @@
         <v>10</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>11</v>
@@ -1998,7 +2281,7 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J2" s="6" t="str">
         <f xml:space="preserve"> "INSERT INTO actors("&amp;A$1&amp;", "&amp;B$1&amp;", "&amp;C$1&amp;", "&amp;D$1&amp;", "&amp;E$1&amp;", "&amp;F$1&amp;", "&amp;G$1&amp;", "&amp;H$1&amp;", "&amp;I$1&amp;") VALUES ("&amp;A2&amp;", '"&amp;B2&amp;"', '"&amp;C2&amp;"', '"&amp;D2&amp;"', '"&amp;E2&amp;"', '"&amp;F2&amp;"', '"&amp;G2&amp;"', "&amp;H2&amp;", "&amp;I2&amp;");"</f>
@@ -2029,7 +2312,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>4</v>
@@ -2043,7 +2326,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E2" s="6" t="str">
         <f xml:space="preserve"> "INSERT INTO casting_types("&amp;A$1&amp;", "&amp;B$1&amp;", "&amp;C$1&amp;", "&amp;D$1&amp;") VALUES ("&amp;A2&amp;", '"&amp;B2&amp;"', "&amp;C2&amp;", "&amp;D2&amp;");"</f>
@@ -2074,7 +2357,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>4</v>
@@ -2088,7 +2371,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E2" s="6" t="str">
         <f xml:space="preserve"> "INSERT INTO roles("&amp;A$1&amp;", "&amp;B$1&amp;", "&amp;C$1&amp;", "&amp;D$1&amp;") VALUES ("&amp;A2&amp;", '"&amp;B2&amp;"', "&amp;C2&amp;", "&amp;D2&amp;");"</f>
@@ -2119,13 +2402,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>70</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>71</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>4</v>
@@ -2139,7 +2422,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G2" s="6" t="str">
         <f xml:space="preserve"> "INSERT INTO movie_casts("&amp;A$1&amp;", "&amp;B$1&amp;", "&amp;C$1&amp;", "&amp;D$1&amp;", "&amp;E$1&amp;", "&amp;F$1&amp;") VALUES ("&amp;A2&amp;", "&amp;B2&amp;", "&amp;C2&amp;", "&amp;D2&amp;", "&amp;E2&amp;", "&amp;F2&amp;");"</f>
@@ -2170,10 +2453,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>4</v>
@@ -2187,7 +2470,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F2" s="6" t="str">
         <f xml:space="preserve"> "INSERT INTO actor_roles("&amp;A$1&amp;", "&amp;B$1&amp;", "&amp;C$1&amp;", "&amp;D$1&amp;", "&amp;E$1&amp;") VALUES ("&amp;A2&amp;", "&amp;B2&amp;", "&amp;C2&amp;", "&amp;D2&amp;", "&amp;E2&amp;");"</f>
@@ -2218,10 +2501,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>4</v>
@@ -2235,7 +2518,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F2" s="6" t="str">
         <f xml:space="preserve"> "INSERT INTO movie_roles("&amp;A$1&amp;", "&amp;B$1&amp;", "&amp;C$1&amp;", "&amp;D$1&amp;", "&amp;E$1&amp;") VALUES ("&amp;A2&amp;", "&amp;B2&amp;", "&amp;C2&amp;", "&amp;D2&amp;", "&amp;E2&amp;");"</f>
@@ -2275,7 +2558,7 @@
         <v>10</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>11</v>
@@ -2295,7 +2578,7 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J2" s="6" t="str">
         <f xml:space="preserve"> "INSERT INTO directors("&amp;A$1&amp;", "&amp;B$1&amp;", "&amp;C$1&amp;", "&amp;D$1&amp;", "&amp;E$1&amp;", "&amp;F$1&amp;", "&amp;G$1&amp;", "&amp;H$1&amp;", "&amp;I$1&amp;") VALUES ("&amp;A2&amp;", '"&amp;B2&amp;"', '"&amp;C2&amp;"', '"&amp;D2&amp;"', '"&amp;E2&amp;"', '"&amp;F2&amp;"', '"&amp;G2&amp;"', "&amp;H2&amp;", "&amp;I2&amp;");"</f>
@@ -2326,10 +2609,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>4</v>
@@ -2343,7 +2626,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F2" s="6" t="str">
         <f xml:space="preserve"> "INSERT INTO directs("&amp;A$1&amp;", "&amp;B$1&amp;", "&amp;C$1&amp;", "&amp;D$1&amp;", "&amp;E$1&amp;") VALUES ("&amp;A2&amp;", "&amp;B2&amp;", "&amp;C2&amp;", "&amp;D2&amp;", "&amp;E2&amp;");"</f>
@@ -2374,7 +2657,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>14</v>
@@ -2394,7 +2677,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G2" s="6" t="str">
         <f xml:space="preserve"> "INSERT INTO studios("&amp;A$1&amp;", "&amp;B$1&amp;", "&amp;C$1&amp;", "&amp;D$1&amp;", "&amp;E$1&amp;", "&amp;F$1&amp;") VALUES ("&amp;A2&amp;", '"&amp;B2&amp;"', '"&amp;C2&amp;"', '"&amp;D2&amp;"', "&amp;E2&amp;", "&amp;F2&amp;");"</f>
@@ -2468,38 +2751,38 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B2" s="7" t="str">
         <f xml:space="preserve"> "(SELECT id FROM users WHERE email = '"&amp;users!B2&amp;"')"</f>
         <v>(SELECT id FROM users WHERE email = 'user1@movie.com')</v>
       </c>
       <c r="C2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D2" t="s">
         <v>125</v>
       </c>
-      <c r="D2" t="s">
-        <v>126</v>
-      </c>
       <c r="F2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G2" t="s">
+        <v>164</v>
+      </c>
+      <c r="H2" t="s">
         <v>165</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>166</v>
       </c>
-      <c r="I2" t="s">
-        <v>167</v>
-      </c>
       <c r="J2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N2" s="6" t="str">
         <f xml:space="preserve"> "INSERT INTO profiles("&amp;A$1&amp;", "&amp;B$1&amp;", "&amp;C$1&amp;", "&amp;D$1&amp;", "&amp;E$1&amp;", "&amp;F$1&amp;", "&amp;G$1&amp;", "&amp;H$1&amp;", "&amp;I$1&amp;", "&amp;J$1&amp;", "&amp;K$1&amp;", "&amp;L$1&amp;", "&amp;M$1&amp;") VALUES ("&amp;A2&amp;", "&amp;B2&amp;", '"&amp;C2&amp;"', '"&amp;D2&amp;"', '"&amp;E2&amp;"', '"&amp;F2&amp;"', '"&amp;G2&amp;"', '"&amp;H2&amp;"', '"&amp;I2&amp;"', '"&amp;J2&amp;"', '"&amp;K2&amp;"', "&amp;L2&amp;", "&amp;M2&amp;");"</f>
@@ -2508,38 +2791,38 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B3" s="7" t="str">
         <f xml:space="preserve"> "(SELECT id FROM users WHERE email = '"&amp;users!B3&amp;"')"</f>
         <v>(SELECT id FROM users WHERE email = 'user2@movie.com')</v>
       </c>
       <c r="C3" t="s">
+        <v>126</v>
+      </c>
+      <c r="D3" t="s">
         <v>127</v>
       </c>
-      <c r="D3" t="s">
-        <v>128</v>
-      </c>
       <c r="F3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G3" t="s">
+        <v>167</v>
+      </c>
+      <c r="H3" t="s">
         <v>168</v>
       </c>
-      <c r="H3" t="s">
-        <v>169</v>
-      </c>
       <c r="I3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="L3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N3" s="6" t="str">
         <f t="shared" ref="N3:N21" si="0" xml:space="preserve"> "INSERT INTO profiles("&amp;A$1&amp;", "&amp;B$1&amp;", "&amp;C$1&amp;", "&amp;D$1&amp;", "&amp;E$1&amp;", "&amp;F$1&amp;", "&amp;G$1&amp;", "&amp;H$1&amp;", "&amp;I$1&amp;", "&amp;J$1&amp;", "&amp;K$1&amp;", "&amp;L$1&amp;", "&amp;M$1&amp;") VALUES ("&amp;A3&amp;", "&amp;B3&amp;", '"&amp;C3&amp;"', '"&amp;D3&amp;"', '"&amp;E3&amp;"', '"&amp;F3&amp;"', '"&amp;G3&amp;"', '"&amp;H3&amp;"', '"&amp;I3&amp;"', '"&amp;J3&amp;"', '"&amp;K3&amp;"', "&amp;L3&amp;", "&amp;M3&amp;");"</f>
@@ -2548,38 +2831,38 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B4" s="7" t="str">
         <f xml:space="preserve"> "(SELECT id FROM users WHERE email = '"&amp;users!B4&amp;"')"</f>
         <v>(SELECT id FROM users WHERE email = 'user3@movie.com')</v>
       </c>
       <c r="C4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G4" t="s">
+        <v>169</v>
+      </c>
+      <c r="H4" t="s">
         <v>170</v>
       </c>
-      <c r="H4" t="s">
-        <v>171</v>
-      </c>
       <c r="I4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="L4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N4" s="6" t="str">
         <f t="shared" si="0"/>
@@ -2588,38 +2871,38 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B5" s="7" t="str">
         <f xml:space="preserve"> "(SELECT id FROM users WHERE email = '"&amp;users!B5&amp;"')"</f>
         <v>(SELECT id FROM users WHERE email = 'user4@movie.com')</v>
       </c>
       <c r="C5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G5" t="s">
+        <v>171</v>
+      </c>
+      <c r="H5" t="s">
         <v>172</v>
       </c>
-      <c r="H5" t="s">
-        <v>173</v>
-      </c>
       <c r="I5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="L5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N5" s="6" t="str">
         <f t="shared" si="0"/>
@@ -2628,38 +2911,38 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B6" s="7" t="str">
         <f xml:space="preserve"> "(SELECT id FROM users WHERE email = '"&amp;users!B6&amp;"')"</f>
         <v>(SELECT id FROM users WHERE email = 'user5@movie.com')</v>
       </c>
       <c r="C6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H6" t="s">
+        <v>165</v>
+      </c>
+      <c r="I6" t="s">
         <v>166</v>
       </c>
-      <c r="I6" t="s">
-        <v>167</v>
-      </c>
       <c r="J6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="L6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N6" s="6" t="str">
         <f t="shared" si="0"/>
@@ -2668,38 +2951,38 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B7" s="7" t="str">
         <f xml:space="preserve"> "(SELECT id FROM users WHERE email = '"&amp;users!B7&amp;"')"</f>
         <v>(SELECT id FROM users WHERE email = 'user6@movie.com')</v>
       </c>
       <c r="C7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H7" t="s">
+        <v>165</v>
+      </c>
+      <c r="I7" t="s">
         <v>166</v>
       </c>
-      <c r="I7" t="s">
-        <v>167</v>
-      </c>
       <c r="J7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="L7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N7" s="6" t="str">
         <f t="shared" si="0"/>
@@ -2708,38 +2991,38 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B8" s="7" t="str">
         <f xml:space="preserve"> "(SELECT id FROM users WHERE email = '"&amp;users!B8&amp;"')"</f>
         <v>(SELECT id FROM users WHERE email = 'user7@movie.com')</v>
       </c>
       <c r="C8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F8" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G8" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H8" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I8" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J8" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="L8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N8" s="6" t="str">
         <f t="shared" si="0"/>
@@ -2748,38 +3031,38 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B9" s="7" t="str">
         <f xml:space="preserve"> "(SELECT id FROM users WHERE email = '"&amp;users!B9&amp;"')"</f>
         <v>(SELECT id FROM users WHERE email = 'user8@movie.com')</v>
       </c>
       <c r="C9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D9" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F9" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G9" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H9" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I9" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="L9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N9" s="6" t="str">
         <f t="shared" si="0"/>
@@ -2788,38 +3071,38 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B10" s="7" t="str">
         <f xml:space="preserve"> "(SELECT id FROM users WHERE email = '"&amp;users!B10&amp;"')"</f>
         <v>(SELECT id FROM users WHERE email = 'user9@movie.com')</v>
       </c>
       <c r="C10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D10" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F10" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G10" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H10" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I10" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J10" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="L10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N10" s="6" t="str">
         <f t="shared" si="0"/>
@@ -2828,38 +3111,38 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B11" s="7" t="str">
         <f xml:space="preserve"> "(SELECT id FROM users WHERE email = '"&amp;users!B11&amp;"')"</f>
         <v>(SELECT id FROM users WHERE email = 'user10@movie.com')</v>
       </c>
       <c r="C11" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D11" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F11" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G11" t="s">
+        <v>178</v>
+      </c>
+      <c r="H11" t="s">
         <v>179</v>
       </c>
-      <c r="H11" t="s">
+      <c r="I11" t="s">
         <v>180</v>
       </c>
-      <c r="I11" t="s">
-        <v>181</v>
-      </c>
       <c r="J11" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N11" s="6" t="str">
         <f t="shared" si="0"/>
@@ -2868,38 +3151,38 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B12" s="7" t="str">
         <f xml:space="preserve"> "(SELECT id FROM users WHERE email = '"&amp;users!B12&amp;"')"</f>
         <v>(SELECT id FROM users WHERE email = 'user11@movie.com')</v>
       </c>
       <c r="C12" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D12" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F12" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G12" t="s">
+        <v>181</v>
+      </c>
+      <c r="H12" t="s">
         <v>182</v>
       </c>
-      <c r="H12" t="s">
-        <v>183</v>
-      </c>
       <c r="I12" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="J12" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="L12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N12" s="6" t="str">
         <f t="shared" si="0"/>
@@ -2908,38 +3191,38 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B13" s="7" t="str">
         <f xml:space="preserve"> "(SELECT id FROM users WHERE email = '"&amp;users!B13&amp;"')"</f>
         <v>(SELECT id FROM users WHERE email = 'user12@movie.com')</v>
       </c>
       <c r="C13" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D13" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F13" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G13" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H13" t="s">
+        <v>165</v>
+      </c>
+      <c r="I13" t="s">
         <v>166</v>
       </c>
-      <c r="I13" t="s">
-        <v>167</v>
-      </c>
       <c r="J13" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="L13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N13" s="6" t="str">
         <f t="shared" si="0"/>
@@ -2948,38 +3231,38 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B14" s="7" t="str">
         <f xml:space="preserve"> "(SELECT id FROM users WHERE email = '"&amp;users!B14&amp;"')"</f>
         <v>(SELECT id FROM users WHERE email = 'user13@movie.com')</v>
       </c>
       <c r="C14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D14" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F14" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G14" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H14" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I14" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J14" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="L14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N14" s="6" t="str">
         <f t="shared" si="0"/>
@@ -2988,38 +3271,38 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B15" s="7" t="str">
         <f xml:space="preserve"> "(SELECT id FROM users WHERE email = '"&amp;users!B15&amp;"')"</f>
         <v>(SELECT id FROM users WHERE email = 'user14@movie.com')</v>
       </c>
       <c r="C15" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D15" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F15" t="s">
+        <v>163</v>
+      </c>
+      <c r="G15" t="s">
         <v>164</v>
       </c>
-      <c r="G15" t="s">
+      <c r="H15" t="s">
         <v>165</v>
       </c>
-      <c r="H15" t="s">
+      <c r="I15" t="s">
         <v>166</v>
       </c>
-      <c r="I15" t="s">
-        <v>167</v>
-      </c>
       <c r="J15" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="L15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N15" s="6" t="str">
         <f t="shared" si="0"/>
@@ -3028,38 +3311,38 @@
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B16" s="7" t="str">
         <f xml:space="preserve"> "(SELECT id FROM users WHERE email = '"&amp;users!B16&amp;"')"</f>
         <v>(SELECT id FROM users WHERE email = 'user15@movie.com')</v>
       </c>
       <c r="C16" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D16" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F16" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G16" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H16" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="I16" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="J16" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="L16" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M16" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N16" s="6" t="str">
         <f t="shared" si="0"/>
@@ -3068,38 +3351,38 @@
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B17" s="7" t="str">
         <f xml:space="preserve"> "(SELECT id FROM users WHERE email = '"&amp;users!B17&amp;"')"</f>
         <v>(SELECT id FROM users WHERE email = 'user16@movie.com')</v>
       </c>
       <c r="C17" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D17" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F17" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G17" t="s">
+        <v>167</v>
+      </c>
+      <c r="H17" t="s">
         <v>168</v>
       </c>
-      <c r="H17" t="s">
-        <v>169</v>
-      </c>
       <c r="I17" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J17" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="L17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N17" s="6" t="str">
         <f t="shared" si="0"/>
@@ -3108,38 +3391,38 @@
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B18" s="7" t="str">
         <f xml:space="preserve"> "(SELECT id FROM users WHERE email = '"&amp;users!B18&amp;"')"</f>
         <v>(SELECT id FROM users WHERE email = 'user17@movie.com')</v>
       </c>
       <c r="C18" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D18" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F18" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G18" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H18" t="s">
+        <v>165</v>
+      </c>
+      <c r="I18" t="s">
         <v>166</v>
       </c>
-      <c r="I18" t="s">
-        <v>167</v>
-      </c>
       <c r="J18" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="L18" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M18" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N18" s="6" t="str">
         <f t="shared" si="0"/>
@@ -3148,38 +3431,38 @@
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B19" s="7" t="str">
         <f xml:space="preserve"> "(SELECT id FROM users WHERE email = '"&amp;users!B19&amp;"')"</f>
         <v>(SELECT id FROM users WHERE email = 'user18@movie.com')</v>
       </c>
       <c r="C19" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F19" t="s">
+        <v>163</v>
+      </c>
+      <c r="G19" t="s">
         <v>164</v>
       </c>
-      <c r="G19" t="s">
+      <c r="H19" t="s">
         <v>165</v>
       </c>
-      <c r="H19" t="s">
+      <c r="I19" t="s">
         <v>166</v>
       </c>
-      <c r="I19" t="s">
-        <v>167</v>
-      </c>
       <c r="J19" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="L19" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M19" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N19" s="6" t="str">
         <f t="shared" si="0"/>
@@ -3188,38 +3471,38 @@
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B20" s="7" t="str">
         <f xml:space="preserve"> "(SELECT id FROM users WHERE email = '"&amp;users!B20&amp;"')"</f>
         <v>(SELECT id FROM users WHERE email = 'user19@movie.com')</v>
       </c>
       <c r="C20" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D20" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F20" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G20" t="s">
+        <v>167</v>
+      </c>
+      <c r="H20" t="s">
         <v>168</v>
       </c>
-      <c r="H20" t="s">
-        <v>169</v>
-      </c>
       <c r="I20" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J20" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="L20" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M20" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N20" s="6" t="str">
         <f t="shared" si="0"/>
@@ -3228,38 +3511,38 @@
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B21" s="7" t="str">
         <f xml:space="preserve"> "(SELECT id FROM users WHERE email = '"&amp;users!B21&amp;"')"</f>
         <v>(SELECT id FROM users WHERE email = 'user20@movie.com')</v>
       </c>
       <c r="C21" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D21" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F21" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G21" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H21" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I21" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J21" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="L21" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M21" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N21" s="6" t="str">
         <f t="shared" si="0"/>
@@ -3268,10 +3551,10 @@
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
+        <v>207</v>
+      </c>
+      <c r="J32" t="s">
         <v>208</v>
-      </c>
-      <c r="J32" t="s">
-        <v>209</v>
       </c>
     </row>
   </sheetData>
@@ -3298,10 +3581,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>4</v>
@@ -3315,7 +3598,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F2" s="6" t="str">
         <f xml:space="preserve"> "INSERT INTO sponsors("&amp;A$1&amp;", "&amp;B$1&amp;", "&amp;C$1&amp;", "&amp;D$1&amp;", "&amp;E$1&amp;") VALUES ("&amp;A2&amp;", "&amp;B2&amp;", "&amp;C2&amp;", "&amp;D2&amp;", "&amp;E2&amp;");"</f>
@@ -3331,7 +3614,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
@@ -3362,16 +3645,16 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B2" t="s">
         <v>76</v>
       </c>
-      <c r="B2" t="s">
-        <v>77</v>
-      </c>
       <c r="C2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E2" s="6" t="str">
         <f xml:space="preserve"> "INSERT INTO user_types("&amp;A$1&amp;", "&amp;B$1&amp;", "&amp;C$1&amp;", "&amp;D$1&amp;") VALUES ("&amp;A2&amp;", '"&amp;B2&amp;"', "&amp;C2&amp;", "&amp;D2&amp;");"</f>
@@ -3380,16 +3663,16 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E3" s="6" t="str">
         <f xml:space="preserve"> "INSERT INTO user_types("&amp;A$1&amp;", "&amp;B$1&amp;", "&amp;C$1&amp;", "&amp;D$1&amp;") VALUES ("&amp;A3&amp;", '"&amp;B3&amp;"', "&amp;C3&amp;", "&amp;D3&amp;");"</f>
@@ -3434,16 +3717,16 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E2" s="6" t="str">
         <f xml:space="preserve"> "INSERT INTO devices("&amp;A$1&amp;", "&amp;B$1&amp;", "&amp;C$1&amp;", "&amp;D$1&amp;") VALUES ("&amp;A2&amp;", '"&amp;B2&amp;"', "&amp;C2&amp;", "&amp;D2&amp;");"</f>
@@ -3452,16 +3735,16 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E3" s="6" t="str">
         <f t="shared" ref="E3:E7" si="0" xml:space="preserve"> "INSERT INTO devices("&amp;A$1&amp;", "&amp;B$1&amp;", "&amp;C$1&amp;", "&amp;D$1&amp;") VALUES ("&amp;A3&amp;", '"&amp;B3&amp;"', "&amp;C3&amp;", "&amp;D3&amp;");"</f>
@@ -3470,16 +3753,16 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E4" s="6" t="str">
         <f t="shared" si="0"/>
@@ -3488,16 +3771,16 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E5" s="6" t="str">
         <f t="shared" si="0"/>
@@ -3506,16 +3789,16 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E6" s="6" t="str">
         <f t="shared" si="0"/>
@@ -3524,16 +3807,16 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E7" s="6" t="str">
         <f t="shared" si="0"/>
@@ -3582,20 +3865,20 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B2" t="str">
         <f>users!B2</f>
         <v>user1@movie.com</v>
       </c>
       <c r="C2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F2" s="6" t="str">
         <f xml:space="preserve"> "INSERT INTO used_devices("&amp;A$1&amp;", "&amp;B$1&amp;", "&amp;C$1&amp;", "&amp;D$1&amp;", "&amp;E$1&amp;") VALUES ("&amp;A2&amp;", (SELECT id FROM users WHERE email = '"&amp;B2&amp;"'), (SELECT id FROM devices WHERE device_name = '"&amp;C2&amp;"'), "&amp;D2&amp;", "&amp;E2&amp;");"</f>
@@ -3604,20 +3887,20 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B3" t="str">
         <f>users!B3</f>
         <v>user2@movie.com</v>
       </c>
       <c r="C3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F3" s="6" t="str">
         <f t="shared" ref="F3:F21" si="0" xml:space="preserve"> "INSERT INTO used_devices("&amp;A$1&amp;", "&amp;B$1&amp;", "&amp;C$1&amp;", "&amp;D$1&amp;", "&amp;E$1&amp;") VALUES ("&amp;A3&amp;", (SELECT id FROM users WHERE email = '"&amp;B3&amp;"'), (SELECT id FROM devices WHERE device_name = '"&amp;C3&amp;"'), "&amp;D3&amp;", "&amp;E3&amp;");"</f>
@@ -3626,20 +3909,20 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B4" t="str">
         <f>users!B4</f>
         <v>user3@movie.com</v>
       </c>
       <c r="C4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F4" s="6" t="str">
         <f t="shared" si="0"/>
@@ -3648,20 +3931,20 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B5" t="str">
         <f>users!B5</f>
         <v>user4@movie.com</v>
       </c>
       <c r="C5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F5" s="6" t="str">
         <f t="shared" si="0"/>
@@ -3670,20 +3953,20 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B6" t="str">
         <f>users!B6</f>
         <v>user5@movie.com</v>
       </c>
       <c r="C6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F6" s="6" t="str">
         <f t="shared" si="0"/>
@@ -3692,20 +3975,20 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B7" t="str">
         <f>users!B7</f>
         <v>user6@movie.com</v>
       </c>
       <c r="C7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F7" s="6" t="str">
         <f t="shared" si="0"/>
@@ -3714,20 +3997,20 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B8" t="str">
         <f>users!B8</f>
         <v>user7@movie.com</v>
       </c>
       <c r="C8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F8" s="6" t="str">
         <f t="shared" si="0"/>
@@ -3736,20 +4019,20 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B9" t="str">
         <f>users!B9</f>
         <v>user8@movie.com</v>
       </c>
       <c r="C9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F9" s="6" t="str">
         <f t="shared" si="0"/>
@@ -3758,20 +4041,20 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B10" t="str">
         <f>users!B10</f>
         <v>user9@movie.com</v>
       </c>
       <c r="C10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F10" s="6" t="str">
         <f t="shared" si="0"/>
@@ -3780,20 +4063,20 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B11" t="str">
         <f>users!B11</f>
         <v>user10@movie.com</v>
       </c>
       <c r="C11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F11" s="6" t="str">
         <f t="shared" si="0"/>
@@ -3802,20 +4085,20 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B12" t="str">
         <f>users!B12</f>
         <v>user11@movie.com</v>
       </c>
       <c r="C12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F12" s="6" t="str">
         <f t="shared" si="0"/>
@@ -3824,20 +4107,20 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B13" t="str">
         <f>users!B13</f>
         <v>user12@movie.com</v>
       </c>
       <c r="C13" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F13" s="6" t="str">
         <f t="shared" si="0"/>
@@ -3846,20 +4129,20 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B14" t="str">
         <f>users!B14</f>
         <v>user13@movie.com</v>
       </c>
       <c r="C14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F14" s="6" t="str">
         <f t="shared" si="0"/>
@@ -3868,20 +4151,20 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B15" t="str">
         <f>users!B15</f>
         <v>user14@movie.com</v>
       </c>
       <c r="C15" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F15" s="6" t="str">
         <f t="shared" si="0"/>
@@ -3890,20 +4173,20 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B16" t="str">
         <f>users!B16</f>
         <v>user15@movie.com</v>
       </c>
       <c r="C16" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D16" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E16" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F16" s="6" t="str">
         <f t="shared" si="0"/>
@@ -3912,20 +4195,20 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B17" t="str">
         <f>users!B17</f>
         <v>user16@movie.com</v>
       </c>
       <c r="C17" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F17" s="6" t="str">
         <f t="shared" si="0"/>
@@ -3934,20 +4217,20 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B18" t="str">
         <f>users!B18</f>
         <v>user17@movie.com</v>
       </c>
       <c r="C18" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D18" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E18" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F18" s="6" t="str">
         <f t="shared" si="0"/>
@@ -3956,20 +4239,20 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B19" t="str">
         <f>users!B19</f>
         <v>user18@movie.com</v>
       </c>
       <c r="C19" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D19" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E19" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F19" s="6" t="str">
         <f t="shared" si="0"/>
@@ -3978,20 +4261,20 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B20" t="str">
         <f>users!B20</f>
         <v>user19@movie.com</v>
       </c>
       <c r="C20" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D20" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E20" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F20" s="6" t="str">
         <f t="shared" si="0"/>
@@ -4000,20 +4283,20 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B21" t="str">
         <f>users!B21</f>
         <v>user20@movie.com</v>
       </c>
       <c r="C21" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D21" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E21" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F21" s="6" t="str">
         <f t="shared" si="0"/>
@@ -4030,7 +4313,7 @@
   <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4060,16 +4343,16 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E2" s="6" t="str">
         <f xml:space="preserve"> "INSERT INTO genres("&amp;A$1&amp;", "&amp;B$1&amp;", "&amp;C$1&amp;", "&amp;D$1&amp;") VALUES ("&amp;A2&amp;", '"&amp;B2&amp;"', "&amp;C2&amp;", "&amp;D2&amp;");"</f>
@@ -4078,34 +4361,34 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E3" s="6" t="str">
-        <f t="shared" ref="E3:E31" si="0" xml:space="preserve"> "INSERT INTO genres("&amp;A$1&amp;", "&amp;B$1&amp;", "&amp;C$1&amp;", "&amp;D$1&amp;") VALUES ("&amp;A3&amp;", '"&amp;B3&amp;"', "&amp;C3&amp;", "&amp;D3&amp;");"</f>
+        <f t="shared" ref="E3:E30" si="0" xml:space="preserve"> "INSERT INTO genres("&amp;A$1&amp;", "&amp;B$1&amp;", "&amp;C$1&amp;", "&amp;D$1&amp;") VALUES ("&amp;A3&amp;", '"&amp;B3&amp;"', "&amp;C3&amp;", "&amp;D3&amp;");"</f>
         <v>INSERT INTO genres(id, genre_name, created_at, updated_at) VALUES (DEFAULT, 'Adventure', now(), now());</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E4" s="6" t="str">
         <f t="shared" si="0"/>
@@ -4114,16 +4397,16 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E5" s="6" t="str">
         <f t="shared" si="0"/>
@@ -4132,16 +4415,16 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E6" s="6" t="str">
         <f t="shared" si="0"/>
@@ -4150,16 +4433,16 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E7" s="6" t="str">
         <f t="shared" si="0"/>
@@ -4168,16 +4451,16 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>27</v>
       </c>
       <c r="C8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E8" s="6" t="str">
         <f t="shared" si="0"/>
@@ -4186,16 +4469,16 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E9" s="6" t="str">
         <f t="shared" si="0"/>
@@ -4204,16 +4487,16 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E10" s="6" t="str">
         <f t="shared" si="0"/>
@@ -4222,16 +4505,16 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>30</v>
       </c>
       <c r="C11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E11" s="6" t="str">
         <f t="shared" si="0"/>
@@ -4240,16 +4523,16 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>31</v>
       </c>
       <c r="C12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E12" s="6" t="str">
         <f t="shared" si="0"/>
@@ -4258,16 +4541,16 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>32</v>
       </c>
       <c r="C13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E13" s="6" t="str">
         <f t="shared" si="0"/>
@@ -4276,16 +4559,16 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>33</v>
       </c>
       <c r="C14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E14" s="6" t="str">
         <f t="shared" si="0"/>
@@ -4294,16 +4577,16 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>34</v>
       </c>
       <c r="C15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E15" s="6" t="str">
         <f t="shared" si="0"/>
@@ -4312,16 +4595,16 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>35</v>
       </c>
       <c r="C16" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D16" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E16" s="6" t="str">
         <f t="shared" si="0"/>
@@ -4330,16 +4613,16 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>36</v>
       </c>
       <c r="C17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E17" s="6" t="str">
         <f t="shared" si="0"/>
@@ -4348,16 +4631,16 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>37</v>
       </c>
       <c r="C18" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D18" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E18" s="6" t="str">
         <f t="shared" si="0"/>
@@ -4366,16 +4649,16 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>38</v>
       </c>
       <c r="C19" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D19" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E19" s="6" t="str">
         <f t="shared" si="0"/>
@@ -4384,16 +4667,16 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>39</v>
       </c>
       <c r="C20" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D20" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E20" s="6" t="str">
         <f t="shared" si="0"/>
@@ -4402,16 +4685,16 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>40</v>
       </c>
       <c r="C21" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D21" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E21" s="6" t="str">
         <f t="shared" si="0"/>
@@ -4420,16 +4703,16 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>41</v>
       </c>
       <c r="C22" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D22" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E22" s="6" t="str">
         <f t="shared" si="0"/>
@@ -4438,16 +4721,16 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>42</v>
       </c>
       <c r="C23" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D23" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E23" s="6" t="str">
         <f t="shared" si="0"/>
@@ -4456,16 +4739,16 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>43</v>
       </c>
       <c r="C24" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D24" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E24" s="6" t="str">
         <f t="shared" si="0"/>
@@ -4474,16 +4757,16 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>44</v>
       </c>
       <c r="C25" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D25" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E25" s="6" t="str">
         <f t="shared" si="0"/>
@@ -4492,16 +4775,16 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>45</v>
       </c>
       <c r="C26" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D26" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E26" s="6" t="str">
         <f t="shared" si="0"/>
@@ -4510,16 +4793,16 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>46</v>
       </c>
       <c r="C27" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D27" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E27" s="6" t="str">
         <f t="shared" si="0"/>
@@ -4528,16 +4811,16 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>47</v>
       </c>
       <c r="C28" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D28" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E28" s="6" t="str">
         <f t="shared" si="0"/>
@@ -4546,16 +4829,16 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>48</v>
       </c>
       <c r="C29" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D29" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E29" s="6" t="str">
         <f t="shared" si="0"/>
@@ -4564,16 +4847,16 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>49</v>
       </c>
       <c r="C30" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D30" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E30" s="6" t="str">
         <f t="shared" si="0"/>
@@ -4593,7 +4876,7 @@
   <dimension ref="A1:F117"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4612,7 +4895,7 @@
         <v>50</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>51</v>
+        <v>383</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>4</v>
@@ -4626,2004 +4909,2004 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B2" t="str">
-        <f xml:space="preserve"> "(SELECT id FROM profiles WHERE users.id = profile.user_id AND users.email = '"&amp;users!B2&amp;"')"</f>
-        <v>(SELECT id FROM profiles WHERE users.id = profile.user_id AND users.email = 'user1@movie.com')</v>
+        <f xml:space="preserve"> "(SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = '"&amp;users!B2&amp;"')"</f>
+        <v>(SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = 'user1@movie.com')</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F2" s="6" t="str">
         <f xml:space="preserve"> "INSERT INTO likes_genres("&amp;A$1&amp;", "&amp;B$1&amp;", "&amp;C$1&amp;", "&amp;D$1&amp;", "&amp;E$1&amp;") VALUES ("&amp;A2&amp;", "&amp;B2&amp;", (SELECT id FROM profiles WHERE genre_name = '"&amp;C2&amp;"'), "&amp;D2&amp;", "&amp;E2&amp;");"</f>
-        <v>INSERT INTO likes_genres(id, profile_id, genre_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM profiles WHERE users.id = profile.user_id AND users.email = 'user1@movie.com'), (SELECT id FROM profiles WHERE genre_name = 'Action'), now(), now());</v>
+        <v>INSERT INTO likes_genres(id, profile_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = 'user1@movie.com'), (SELECT id FROM profiles WHERE genre_name = 'Action'), now(), now());</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B3" t="str">
-        <f xml:space="preserve"> "(SELECT id FROM profiles WHERE users.id = profile.user_id AND users.email = '"&amp;users!B3&amp;"')"</f>
-        <v>(SELECT id FROM profiles WHERE users.id = profile.user_id AND users.email = 'user2@movie.com')</v>
+        <f xml:space="preserve"> "(SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = '"&amp;users!B3&amp;"')"</f>
+        <v>(SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = 'user2@movie.com')</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F3" s="6" t="str">
         <f t="shared" ref="F3:F66" si="0" xml:space="preserve"> "INSERT INTO likes_genres("&amp;A$1&amp;", "&amp;B$1&amp;", "&amp;C$1&amp;", "&amp;D$1&amp;", "&amp;E$1&amp;") VALUES ("&amp;A3&amp;", "&amp;B3&amp;", (SELECT id FROM profiles WHERE genre_name = '"&amp;C3&amp;"'), "&amp;D3&amp;", "&amp;E3&amp;");"</f>
-        <v>INSERT INTO likes_genres(id, profile_id, genre_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM profiles WHERE users.id = profile.user_id AND users.email = 'user2@movie.com'), (SELECT id FROM profiles WHERE genre_name = 'Adventure'), now(), now());</v>
+        <v>INSERT INTO likes_genres(id, profile_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = 'user2@movie.com'), (SELECT id FROM profiles WHERE genre_name = 'Adventure'), now(), now());</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B4" t="str">
-        <f xml:space="preserve"> "(SELECT id FROM profiles WHERE users.id = profile.user_id AND users.email = '"&amp;users!B4&amp;"')"</f>
-        <v>(SELECT id FROM profiles WHERE users.id = profile.user_id AND users.email = 'user3@movie.com')</v>
+        <f xml:space="preserve"> "(SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = '"&amp;users!B4&amp;"')"</f>
+        <v>(SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = 'user3@movie.com')</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F4" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO likes_genres(id, profile_id, genre_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM profiles WHERE users.id = profile.user_id AND users.email = 'user3@movie.com'), (SELECT id FROM profiles WHERE genre_name = 'Animation'), now(), now());</v>
+        <v>INSERT INTO likes_genres(id, profile_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = 'user3@movie.com'), (SELECT id FROM profiles WHERE genre_name = 'Animation'), now(), now());</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B5" t="str">
-        <f xml:space="preserve"> "(SELECT id FROM profiles WHERE users.id = profile.user_id AND users.email = '"&amp;users!B5&amp;"')"</f>
-        <v>(SELECT id FROM profiles WHERE users.id = profile.user_id AND users.email = 'user4@movie.com')</v>
+        <f xml:space="preserve"> "(SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = '"&amp;users!B5&amp;"')"</f>
+        <v>(SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = 'user4@movie.com')</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F5" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO likes_genres(id, profile_id, genre_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM profiles WHERE users.id = profile.user_id AND users.email = 'user4@movie.com'), (SELECT id FROM profiles WHERE genre_name = 'Biography'), now(), now());</v>
+        <v>INSERT INTO likes_genres(id, profile_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = 'user4@movie.com'), (SELECT id FROM profiles WHERE genre_name = 'Biography'), now(), now());</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B6" t="str">
-        <f xml:space="preserve"> "(SELECT id FROM profiles WHERE users.id = profile.user_id AND users.email = '"&amp;users!B6&amp;"')"</f>
-        <v>(SELECT id FROM profiles WHERE users.id = profile.user_id AND users.email = 'user5@movie.com')</v>
+        <f xml:space="preserve"> "(SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = '"&amp;users!B6&amp;"')"</f>
+        <v>(SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = 'user5@movie.com')</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F6" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO likes_genres(id, profile_id, genre_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM profiles WHERE users.id = profile.user_id AND users.email = 'user5@movie.com'), (SELECT id FROM profiles WHERE genre_name = 'Comedy'), now(), now());</v>
+        <v>INSERT INTO likes_genres(id, profile_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = 'user5@movie.com'), (SELECT id FROM profiles WHERE genre_name = 'Comedy'), now(), now());</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B7" t="str">
-        <f xml:space="preserve"> "(SELECT id FROM profiles WHERE users.id = profile.user_id AND users.email = '"&amp;users!B7&amp;"')"</f>
-        <v>(SELECT id FROM profiles WHERE users.id = profile.user_id AND users.email = 'user6@movie.com')</v>
+        <f xml:space="preserve"> "(SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = '"&amp;users!B7&amp;"')"</f>
+        <v>(SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = 'user6@movie.com')</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F7" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO likes_genres(id, profile_id, genre_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM profiles WHERE users.id = profile.user_id AND users.email = 'user6@movie.com'), (SELECT id FROM profiles WHERE genre_name = 'Crime'), now(), now());</v>
+        <v>INSERT INTO likes_genres(id, profile_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = 'user6@movie.com'), (SELECT id FROM profiles WHERE genre_name = 'Crime'), now(), now());</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B8" t="str">
-        <f xml:space="preserve"> "(SELECT id FROM profiles WHERE users.id = profile.user_id AND users.email = '"&amp;users!B8&amp;"')"</f>
-        <v>(SELECT id FROM profiles WHERE users.id = profile.user_id AND users.email = 'user7@movie.com')</v>
+        <f xml:space="preserve"> "(SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = '"&amp;users!B8&amp;"')"</f>
+        <v>(SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = 'user7@movie.com')</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F8" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO likes_genres(id, profile_id, genre_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM profiles WHERE users.id = profile.user_id AND users.email = 'user7@movie.com'), (SELECT id FROM profiles WHERE genre_name = 'Documentary'), now(), now());</v>
+        <v>INSERT INTO likes_genres(id, profile_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = 'user7@movie.com'), (SELECT id FROM profiles WHERE genre_name = 'Documentary'), now(), now());</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B9" t="str">
-        <f xml:space="preserve"> "(SELECT id FROM profiles WHERE users.id = profile.user_id AND users.email = '"&amp;users!B9&amp;"')"</f>
-        <v>(SELECT id FROM profiles WHERE users.id = profile.user_id AND users.email = 'user8@movie.com')</v>
+        <f xml:space="preserve"> "(SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = '"&amp;users!B9&amp;"')"</f>
+        <v>(SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = 'user8@movie.com')</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F9" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO likes_genres(id, profile_id, genre_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM profiles WHERE users.id = profile.user_id AND users.email = 'user8@movie.com'), (SELECT id FROM profiles WHERE genre_name = 'Drama'), now(), now());</v>
+        <v>INSERT INTO likes_genres(id, profile_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = 'user8@movie.com'), (SELECT id FROM profiles WHERE genre_name = 'Drama'), now(), now());</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B10" t="str">
-        <f xml:space="preserve"> "(SELECT id FROM profiles WHERE users.id = profile.user_id AND users.email = '"&amp;users!B10&amp;"')"</f>
-        <v>(SELECT id FROM profiles WHERE users.id = profile.user_id AND users.email = 'user9@movie.com')</v>
+        <f xml:space="preserve"> "(SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = '"&amp;users!B10&amp;"')"</f>
+        <v>(SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = 'user9@movie.com')</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F10" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO likes_genres(id, profile_id, genre_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM profiles WHERE users.id = profile.user_id AND users.email = 'user9@movie.com'), (SELECT id FROM profiles WHERE genre_name = 'Family'), now(), now());</v>
+        <v>INSERT INTO likes_genres(id, profile_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = 'user9@movie.com'), (SELECT id FROM profiles WHERE genre_name = 'Family'), now(), now());</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B11" t="str">
-        <f xml:space="preserve"> "(SELECT id FROM profiles WHERE users.id = profile.user_id AND users.email = '"&amp;users!B11&amp;"')"</f>
-        <v>(SELECT id FROM profiles WHERE users.id = profile.user_id AND users.email = 'user10@movie.com')</v>
+        <f xml:space="preserve"> "(SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = '"&amp;users!B11&amp;"')"</f>
+        <v>(SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = 'user10@movie.com')</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F11" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO likes_genres(id, profile_id, genre_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM profiles WHERE users.id = profile.user_id AND users.email = 'user10@movie.com'), (SELECT id FROM profiles WHERE genre_name = 'Fantasy'), now(), now());</v>
+        <v>INSERT INTO likes_genres(id, profile_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = 'user10@movie.com'), (SELECT id FROM profiles WHERE genre_name = 'Fantasy'), now(), now());</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B12" t="str">
-        <f xml:space="preserve"> "(SELECT id FROM profiles WHERE users.id = profile.user_id AND users.email = '"&amp;users!B12&amp;"')"</f>
-        <v>(SELECT id FROM profiles WHERE users.id = profile.user_id AND users.email = 'user11@movie.com')</v>
+        <f xml:space="preserve"> "(SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = '"&amp;users!B12&amp;"')"</f>
+        <v>(SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = 'user11@movie.com')</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>31</v>
       </c>
       <c r="D12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F12" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO likes_genres(id, profile_id, genre_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM profiles WHERE users.id = profile.user_id AND users.email = 'user11@movie.com'), (SELECT id FROM profiles WHERE genre_name = 'Film-Noir'), now(), now());</v>
+        <v>INSERT INTO likes_genres(id, profile_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = 'user11@movie.com'), (SELECT id FROM profiles WHERE genre_name = 'Film-Noir'), now(), now());</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B13" t="str">
-        <f xml:space="preserve"> "(SELECT id FROM profiles WHERE users.id = profile.user_id AND users.email = '"&amp;users!B13&amp;"')"</f>
-        <v>(SELECT id FROM profiles WHERE users.id = profile.user_id AND users.email = 'user12@movie.com')</v>
+        <f xml:space="preserve"> "(SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = '"&amp;users!B13&amp;"')"</f>
+        <v>(SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = 'user12@movie.com')</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>32</v>
       </c>
       <c r="D13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F13" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO likes_genres(id, profile_id, genre_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM profiles WHERE users.id = profile.user_id AND users.email = 'user12@movie.com'), (SELECT id FROM profiles WHERE genre_name = 'History'), now(), now());</v>
+        <v>INSERT INTO likes_genres(id, profile_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = 'user12@movie.com'), (SELECT id FROM profiles WHERE genre_name = 'History'), now(), now());</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B14" t="str">
-        <f xml:space="preserve"> "(SELECT id FROM profiles WHERE users.id = profile.user_id AND users.email = '"&amp;users!B14&amp;"')"</f>
-        <v>(SELECT id FROM profiles WHERE users.id = profile.user_id AND users.email = 'user13@movie.com')</v>
+        <f xml:space="preserve"> "(SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = '"&amp;users!B14&amp;"')"</f>
+        <v>(SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = 'user13@movie.com')</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F14" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO likes_genres(id, profile_id, genre_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM profiles WHERE users.id = profile.user_id AND users.email = 'user13@movie.com'), (SELECT id FROM profiles WHERE genre_name = 'Horror'), now(), now());</v>
+        <v>INSERT INTO likes_genres(id, profile_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = 'user13@movie.com'), (SELECT id FROM profiles WHERE genre_name = 'Horror'), now(), now());</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B15" t="str">
-        <f xml:space="preserve"> "(SELECT id FROM profiles WHERE users.id = profile.user_id AND users.email = '"&amp;users!B15&amp;"')"</f>
-        <v>(SELECT id FROM profiles WHERE users.id = profile.user_id AND users.email = 'user14@movie.com')</v>
+        <f xml:space="preserve"> "(SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = '"&amp;users!B15&amp;"')"</f>
+        <v>(SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = 'user14@movie.com')</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F15" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO likes_genres(id, profile_id, genre_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM profiles WHERE users.id = profile.user_id AND users.email = 'user14@movie.com'), (SELECT id FROM profiles WHERE genre_name = 'Romance'), now(), now());</v>
+        <v>INSERT INTO likes_genres(id, profile_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = 'user14@movie.com'), (SELECT id FROM profiles WHERE genre_name = 'Romance'), now(), now());</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B16" t="str">
-        <f xml:space="preserve"> "(SELECT id FROM profiles WHERE users.id = profile.user_id AND users.email = '"&amp;users!B16&amp;"')"</f>
-        <v>(SELECT id FROM profiles WHERE users.id = profile.user_id AND users.email = 'user15@movie.com')</v>
+        <f xml:space="preserve"> "(SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = '"&amp;users!B16&amp;"')"</f>
+        <v>(SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = 'user15@movie.com')</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D16" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E16" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F16" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO likes_genres(id, profile_id, genre_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM profiles WHERE users.id = profile.user_id AND users.email = 'user15@movie.com'), (SELECT id FROM profiles WHERE genre_name = 'Musical'), now(), now());</v>
+        <v>INSERT INTO likes_genres(id, profile_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = 'user15@movie.com'), (SELECT id FROM profiles WHERE genre_name = 'Musical'), now(), now());</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B17" t="str">
-        <f xml:space="preserve"> "(SELECT id FROM profiles WHERE users.id = profile.user_id AND users.email = '"&amp;users!B17&amp;"')"</f>
-        <v>(SELECT id FROM profiles WHERE users.id = profile.user_id AND users.email = 'user16@movie.com')</v>
+        <f xml:space="preserve"> "(SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = '"&amp;users!B17&amp;"')"</f>
+        <v>(SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = 'user16@movie.com')</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F17" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO likes_genres(id, profile_id, genre_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM profiles WHERE users.id = profile.user_id AND users.email = 'user16@movie.com'), (SELECT id FROM profiles WHERE genre_name = 'Mystery'), now(), now());</v>
+        <v>INSERT INTO likes_genres(id, profile_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = 'user16@movie.com'), (SELECT id FROM profiles WHERE genre_name = 'Mystery'), now(), now());</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B18" t="str">
-        <f xml:space="preserve"> "(SELECT id FROM profiles WHERE users.id = profile.user_id AND users.email = '"&amp;users!B18&amp;"')"</f>
-        <v>(SELECT id FROM profiles WHERE users.id = profile.user_id AND users.email = 'user17@movie.com')</v>
+        <f xml:space="preserve"> "(SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = '"&amp;users!B18&amp;"')"</f>
+        <v>(SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = 'user17@movie.com')</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D18" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E18" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F18" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO likes_genres(id, profile_id, genre_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM profiles WHERE users.id = profile.user_id AND users.email = 'user17@movie.com'), (SELECT id FROM profiles WHERE genre_name = 'Science Fiction'), now(), now());</v>
+        <v>INSERT INTO likes_genres(id, profile_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = 'user17@movie.com'), (SELECT id FROM profiles WHERE genre_name = 'Science Fiction'), now(), now());</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B19" t="str">
-        <f xml:space="preserve"> "(SELECT id FROM profiles WHERE users.id = profile.user_id AND users.email = '"&amp;users!B19&amp;"')"</f>
-        <v>(SELECT id FROM profiles WHERE users.id = profile.user_id AND users.email = 'user18@movie.com')</v>
+        <f xml:space="preserve"> "(SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = '"&amp;users!B19&amp;"')"</f>
+        <v>(SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = 'user18@movie.com')</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D19" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E19" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F19" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO likes_genres(id, profile_id, genre_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM profiles WHERE users.id = profile.user_id AND users.email = 'user18@movie.com'), (SELECT id FROM profiles WHERE genre_name = 'Sport'), now(), now());</v>
+        <v>INSERT INTO likes_genres(id, profile_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = 'user18@movie.com'), (SELECT id FROM profiles WHERE genre_name = 'Sport'), now(), now());</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B20" t="str">
-        <f xml:space="preserve"> "(SELECT id FROM profiles WHERE users.id = profile.user_id AND users.email = '"&amp;users!B20&amp;"')"</f>
-        <v>(SELECT id FROM profiles WHERE users.id = profile.user_id AND users.email = 'user19@movie.com')</v>
+        <f xml:space="preserve"> "(SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = '"&amp;users!B20&amp;"')"</f>
+        <v>(SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = 'user19@movie.com')</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D20" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E20" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F20" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO likes_genres(id, profile_id, genre_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM profiles WHERE users.id = profile.user_id AND users.email = 'user19@movie.com'), (SELECT id FROM profiles WHERE genre_name = 'Thriller'), now(), now());</v>
+        <v>INSERT INTO likes_genres(id, profile_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = 'user19@movie.com'), (SELECT id FROM profiles WHERE genre_name = 'Thriller'), now(), now());</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B21" t="str">
-        <f xml:space="preserve"> "(SELECT id FROM profiles WHERE users.id = profile.user_id AND users.email = '"&amp;users!B21&amp;"')"</f>
-        <v>(SELECT id FROM profiles WHERE users.id = profile.user_id AND users.email = 'user20@movie.com')</v>
+        <f xml:space="preserve"> "(SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = '"&amp;users!B21&amp;"')"</f>
+        <v>(SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = 'user20@movie.com')</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D21" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E21" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F21" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO likes_genres(id, profile_id, genre_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM profiles WHERE users.id = profile.user_id AND users.email = 'user20@movie.com'), (SELECT id FROM profiles WHERE genre_name = 'War'), now(), now());</v>
+        <v>INSERT INTO likes_genres(id, profile_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = 'user20@movie.com'), (SELECT id FROM profiles WHERE genre_name = 'War'), now(), now());</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B22" t="str">
-        <f xml:space="preserve"> "(SELECT id FROM profiles WHERE users.id = profile.user_id AND users.email = '"&amp;users!B2&amp;"')"</f>
-        <v>(SELECT id FROM profiles WHERE users.id = profile.user_id AND users.email = 'user1@movie.com')</v>
+        <f xml:space="preserve"> "(SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = '"&amp;users!B2&amp;"')"</f>
+        <v>(SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = 'user1@movie.com')</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D22" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E22" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F22" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO likes_genres(id, profile_id, genre_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM profiles WHERE users.id = profile.user_id AND users.email = 'user1@movie.com'), (SELECT id FROM profiles WHERE genre_name = 'Western'), now(), now());</v>
+        <v>INSERT INTO likes_genres(id, profile_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = 'user1@movie.com'), (SELECT id FROM profiles WHERE genre_name = 'Western'), now(), now());</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B23" t="str">
-        <f xml:space="preserve"> "(SELECT id FROM profiles WHERE users.id = profile.user_id AND users.email = '"&amp;users!B3&amp;"')"</f>
-        <v>(SELECT id FROM profiles WHERE users.id = profile.user_id AND users.email = 'user2@movie.com')</v>
+        <f xml:space="preserve"> "(SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = '"&amp;users!B3&amp;"')"</f>
+        <v>(SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = 'user2@movie.com')</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D23" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E23" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F23" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO likes_genres(id, profile_id, genre_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM profiles WHERE users.id = profile.user_id AND users.email = 'user2@movie.com'), (SELECT id FROM profiles WHERE genre_name = 'Anime'), now(), now());</v>
+        <v>INSERT INTO likes_genres(id, profile_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = 'user2@movie.com'), (SELECT id FROM profiles WHERE genre_name = 'Anime'), now(), now());</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B24" t="str">
-        <f xml:space="preserve"> "(SELECT id FROM profiles WHERE users.id = profile.user_id AND users.email = '"&amp;users!B4&amp;"')"</f>
-        <v>(SELECT id FROM profiles WHERE users.id = profile.user_id AND users.email = 'user3@movie.com')</v>
+        <f xml:space="preserve"> "(SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = '"&amp;users!B4&amp;"')"</f>
+        <v>(SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = 'user3@movie.com')</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D24" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E24" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F24" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO likes_genres(id, profile_id, genre_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM profiles WHERE users.id = profile.user_id AND users.email = 'user3@movie.com'), (SELECT id FROM profiles WHERE genre_name = 'Adult'), now(), now());</v>
+        <v>INSERT INTO likes_genres(id, profile_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = 'user3@movie.com'), (SELECT id FROM profiles WHERE genre_name = 'Adult'), now(), now());</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B25" t="str">
-        <f xml:space="preserve"> "(SELECT id FROM profiles WHERE users.id = profile.user_id AND users.email = '"&amp;users!B5&amp;"')"</f>
-        <v>(SELECT id FROM profiles WHERE users.id = profile.user_id AND users.email = 'user4@movie.com')</v>
+        <f xml:space="preserve"> "(SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = '"&amp;users!B5&amp;"')"</f>
+        <v>(SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = 'user4@movie.com')</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D25" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E25" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F25" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO likes_genres(id, profile_id, genre_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM profiles WHERE users.id = profile.user_id AND users.email = 'user4@movie.com'), (SELECT id FROM profiles WHERE genre_name = 'Space'), now(), now());</v>
+        <v>INSERT INTO likes_genres(id, profile_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = 'user4@movie.com'), (SELECT id FROM profiles WHERE genre_name = 'Space'), now(), now());</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B26" t="str">
-        <f xml:space="preserve"> "(SELECT id FROM profiles WHERE users.id = profile.user_id AND users.email = '"&amp;users!B6&amp;"')"</f>
-        <v>(SELECT id FROM profiles WHERE users.id = profile.user_id AND users.email = 'user5@movie.com')</v>
+        <f xml:space="preserve"> "(SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = '"&amp;users!B6&amp;"')"</f>
+        <v>(SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = 'user5@movie.com')</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D26" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E26" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F26" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO likes_genres(id, profile_id, genre_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM profiles WHERE users.id = profile.user_id AND users.email = 'user5@movie.com'), (SELECT id FROM profiles WHERE genre_name = 'Political'), now(), now());</v>
+        <v>INSERT INTO likes_genres(id, profile_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = 'user5@movie.com'), (SELECT id FROM profiles WHERE genre_name = 'Political'), now(), now());</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B27" t="str">
-        <f xml:space="preserve"> "(SELECT id FROM profiles WHERE users.id = profile.user_id AND users.email = '"&amp;users!B7&amp;"')"</f>
-        <v>(SELECT id FROM profiles WHERE users.id = profile.user_id AND users.email = 'user6@movie.com')</v>
+        <f xml:space="preserve"> "(SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = '"&amp;users!B7&amp;"')"</f>
+        <v>(SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = 'user6@movie.com')</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D27" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E27" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F27" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO likes_genres(id, profile_id, genre_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM profiles WHERE users.id = profile.user_id AND users.email = 'user6@movie.com'), (SELECT id FROM profiles WHERE genre_name = 'Faith'), now(), now());</v>
+        <v>INSERT INTO likes_genres(id, profile_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = 'user6@movie.com'), (SELECT id FROM profiles WHERE genre_name = 'Faith'), now(), now());</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B28" t="str">
-        <f xml:space="preserve"> "(SELECT id FROM profiles WHERE users.id = profile.user_id AND users.email = '"&amp;users!B8&amp;"')"</f>
-        <v>(SELECT id FROM profiles WHERE users.id = profile.user_id AND users.email = 'user7@movie.com')</v>
+        <f xml:space="preserve"> "(SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = '"&amp;users!B8&amp;"')"</f>
+        <v>(SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = 'user7@movie.com')</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D28" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E28" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F28" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO likes_genres(id, profile_id, genre_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM profiles WHERE users.id = profile.user_id AND users.email = 'user7@movie.com'), (SELECT id FROM profiles WHERE genre_name = 'Independent'), now(), now());</v>
+        <v>INSERT INTO likes_genres(id, profile_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = 'user7@movie.com'), (SELECT id FROM profiles WHERE genre_name = 'Independent'), now(), now());</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B29" t="str">
-        <f xml:space="preserve"> "(SELECT id FROM profiles WHERE users.id = profile.user_id AND users.email = '"&amp;users!B9&amp;"')"</f>
-        <v>(SELECT id FROM profiles WHERE users.id = profile.user_id AND users.email = 'user8@movie.com')</v>
+        <f xml:space="preserve"> "(SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = '"&amp;users!B9&amp;"')"</f>
+        <v>(SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = 'user8@movie.com')</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>48</v>
       </c>
       <c r="D29" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E29" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F29" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO likes_genres(id, profile_id, genre_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM profiles WHERE users.id = profile.user_id AND users.email = 'user8@movie.com'), (SELECT id FROM profiles WHERE genre_name = 'Video Game'), now(), now());</v>
+        <v>INSERT INTO likes_genres(id, profile_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = 'user8@movie.com'), (SELECT id FROM profiles WHERE genre_name = 'Video Game'), now(), now());</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B30" t="str">
-        <f xml:space="preserve"> "(SELECT id FROM profiles WHERE users.id = profile.user_id AND users.email = '"&amp;users!B10&amp;"')"</f>
-        <v>(SELECT id FROM profiles WHERE users.id = profile.user_id AND users.email = 'user9@movie.com')</v>
+        <f xml:space="preserve"> "(SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = '"&amp;users!B10&amp;"')"</f>
+        <v>(SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = 'user9@movie.com')</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D30" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E30" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F30" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO likes_genres(id, profile_id, genre_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM profiles WHERE users.id = profile.user_id AND users.email = 'user9@movie.com'), (SELECT id FROM profiles WHERE genre_name = 'Novel'), now(), now());</v>
+        <v>INSERT INTO likes_genres(id, profile_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = 'user9@movie.com'), (SELECT id FROM profiles WHERE genre_name = 'Novel'), now(), now());</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B31" t="str">
-        <f xml:space="preserve"> "(SELECT id FROM profiles WHERE users.id = profile.user_id AND users.email = '"&amp;users!B11&amp;"')"</f>
-        <v>(SELECT id FROM profiles WHERE users.id = profile.user_id AND users.email = 'user10@movie.com')</v>
+        <f xml:space="preserve"> "(SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = '"&amp;users!B11&amp;"')"</f>
+        <v>(SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = 'user10@movie.com')</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D31" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E31" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F31" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO likes_genres(id, profile_id, genre_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM profiles WHERE users.id = profile.user_id AND users.email = 'user10@movie.com'), (SELECT id FROM profiles WHERE genre_name = 'Action'), now(), now());</v>
+        <v>INSERT INTO likes_genres(id, profile_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = 'user10@movie.com'), (SELECT id FROM profiles WHERE genre_name = 'Action'), now(), now());</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B32" t="str">
-        <f xml:space="preserve"> "(SELECT id FROM profiles WHERE users.id = profile.user_id AND users.email = '"&amp;users!B12&amp;"')"</f>
-        <v>(SELECT id FROM profiles WHERE users.id = profile.user_id AND users.email = 'user11@movie.com')</v>
+        <f xml:space="preserve"> "(SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = '"&amp;users!B12&amp;"')"</f>
+        <v>(SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = 'user11@movie.com')</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D32" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E32" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F32" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO likes_genres(id, profile_id, genre_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM profiles WHERE users.id = profile.user_id AND users.email = 'user11@movie.com'), (SELECT id FROM profiles WHERE genre_name = 'Adventure'), now(), now());</v>
+        <v>INSERT INTO likes_genres(id, profile_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = 'user11@movie.com'), (SELECT id FROM profiles WHERE genre_name = 'Adventure'), now(), now());</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B33" t="str">
-        <f xml:space="preserve"> "(SELECT id FROM profiles WHERE users.id = profile.user_id AND users.email = '"&amp;users!B13&amp;"')"</f>
-        <v>(SELECT id FROM profiles WHERE users.id = profile.user_id AND users.email = 'user12@movie.com')</v>
+        <f xml:space="preserve"> "(SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = '"&amp;users!B13&amp;"')"</f>
+        <v>(SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = 'user12@movie.com')</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D33" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E33" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F33" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO likes_genres(id, profile_id, genre_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM profiles WHERE users.id = profile.user_id AND users.email = 'user12@movie.com'), (SELECT id FROM profiles WHERE genre_name = 'Animation'), now(), now());</v>
+        <v>INSERT INTO likes_genres(id, profile_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = 'user12@movie.com'), (SELECT id FROM profiles WHERE genre_name = 'Animation'), now(), now());</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B34" t="str">
-        <f xml:space="preserve"> "(SELECT id FROM profiles WHERE users.id = profile.user_id AND users.email = '"&amp;users!B14&amp;"')"</f>
-        <v>(SELECT id FROM profiles WHERE users.id = profile.user_id AND users.email = 'user13@movie.com')</v>
+        <f xml:space="preserve"> "(SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = '"&amp;users!B14&amp;"')"</f>
+        <v>(SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = 'user13@movie.com')</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D34" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E34" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F34" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO likes_genres(id, profile_id, genre_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM profiles WHERE users.id = profile.user_id AND users.email = 'user13@movie.com'), (SELECT id FROM profiles WHERE genre_name = 'Biography'), now(), now());</v>
+        <v>INSERT INTO likes_genres(id, profile_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = 'user13@movie.com'), (SELECT id FROM profiles WHERE genre_name = 'Biography'), now(), now());</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B35" t="str">
-        <f xml:space="preserve"> "(SELECT id FROM profiles WHERE users.id = profile.user_id AND users.email = '"&amp;users!B15&amp;"')"</f>
-        <v>(SELECT id FROM profiles WHERE users.id = profile.user_id AND users.email = 'user14@movie.com')</v>
+        <f xml:space="preserve"> "(SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = '"&amp;users!B15&amp;"')"</f>
+        <v>(SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = 'user14@movie.com')</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>25</v>
       </c>
       <c r="D35" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E35" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F35" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO likes_genres(id, profile_id, genre_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM profiles WHERE users.id = profile.user_id AND users.email = 'user14@movie.com'), (SELECT id FROM profiles WHERE genre_name = 'Comedy'), now(), now());</v>
+        <v>INSERT INTO likes_genres(id, profile_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = 'user14@movie.com'), (SELECT id FROM profiles WHERE genre_name = 'Comedy'), now(), now());</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B36" t="str">
-        <f xml:space="preserve"> "(SELECT id FROM profiles WHERE users.id = profile.user_id AND users.email = '"&amp;users!B16&amp;"')"</f>
-        <v>(SELECT id FROM profiles WHERE users.id = profile.user_id AND users.email = 'user15@movie.com')</v>
+        <f xml:space="preserve"> "(SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = '"&amp;users!B16&amp;"')"</f>
+        <v>(SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = 'user15@movie.com')</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D36" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E36" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F36" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO likes_genres(id, profile_id, genre_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM profiles WHERE users.id = profile.user_id AND users.email = 'user15@movie.com'), (SELECT id FROM profiles WHERE genre_name = 'Crime'), now(), now());</v>
+        <v>INSERT INTO likes_genres(id, profile_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = 'user15@movie.com'), (SELECT id FROM profiles WHERE genre_name = 'Crime'), now(), now());</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B37" t="str">
-        <f xml:space="preserve"> "(SELECT id FROM profiles WHERE users.id = profile.user_id AND users.email = '"&amp;users!B17&amp;"')"</f>
-        <v>(SELECT id FROM profiles WHERE users.id = profile.user_id AND users.email = 'user16@movie.com')</v>
+        <f xml:space="preserve"> "(SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = '"&amp;users!B17&amp;"')"</f>
+        <v>(SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = 'user16@movie.com')</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D37" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E37" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F37" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO likes_genres(id, profile_id, genre_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM profiles WHERE users.id = profile.user_id AND users.email = 'user16@movie.com'), (SELECT id FROM profiles WHERE genre_name = 'Documentary'), now(), now());</v>
+        <v>INSERT INTO likes_genres(id, profile_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = 'user16@movie.com'), (SELECT id FROM profiles WHERE genre_name = 'Documentary'), now(), now());</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B38" t="str">
-        <f xml:space="preserve"> "(SELECT id FROM profiles WHERE users.id = profile.user_id AND users.email = '"&amp;users!B18&amp;"')"</f>
-        <v>(SELECT id FROM profiles WHERE users.id = profile.user_id AND users.email = 'user17@movie.com')</v>
+        <f xml:space="preserve"> "(SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = '"&amp;users!B18&amp;"')"</f>
+        <v>(SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = 'user17@movie.com')</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D38" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E38" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F38" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO likes_genres(id, profile_id, genre_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM profiles WHERE users.id = profile.user_id AND users.email = 'user17@movie.com'), (SELECT id FROM profiles WHERE genre_name = 'Drama'), now(), now());</v>
+        <v>INSERT INTO likes_genres(id, profile_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = 'user17@movie.com'), (SELECT id FROM profiles WHERE genre_name = 'Drama'), now(), now());</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B39" t="str">
-        <f xml:space="preserve"> "(SELECT id FROM profiles WHERE users.id = profile.user_id AND users.email = '"&amp;users!B19&amp;"')"</f>
-        <v>(SELECT id FROM profiles WHERE users.id = profile.user_id AND users.email = 'user18@movie.com')</v>
+        <f xml:space="preserve"> "(SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = '"&amp;users!B19&amp;"')"</f>
+        <v>(SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = 'user18@movie.com')</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D39" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E39" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F39" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO likes_genres(id, profile_id, genre_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM profiles WHERE users.id = profile.user_id AND users.email = 'user18@movie.com'), (SELECT id FROM profiles WHERE genre_name = 'Family'), now(), now());</v>
+        <v>INSERT INTO likes_genres(id, profile_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = 'user18@movie.com'), (SELECT id FROM profiles WHERE genre_name = 'Family'), now(), now());</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B40" t="str">
-        <f xml:space="preserve"> "(SELECT id FROM profiles WHERE users.id = profile.user_id AND users.email = '"&amp;users!B20&amp;"')"</f>
-        <v>(SELECT id FROM profiles WHERE users.id = profile.user_id AND users.email = 'user19@movie.com')</v>
+        <f xml:space="preserve"> "(SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = '"&amp;users!B20&amp;"')"</f>
+        <v>(SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = 'user19@movie.com')</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D40" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E40" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F40" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO likes_genres(id, profile_id, genre_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM profiles WHERE users.id = profile.user_id AND users.email = 'user19@movie.com'), (SELECT id FROM profiles WHERE genre_name = 'Fantasy'), now(), now());</v>
+        <v>INSERT INTO likes_genres(id, profile_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = 'user19@movie.com'), (SELECT id FROM profiles WHERE genre_name = 'Fantasy'), now(), now());</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B41" t="str">
-        <f xml:space="preserve"> "(SELECT id FROM profiles WHERE users.id = profile.user_id AND users.email = '"&amp;users!B21&amp;"')"</f>
-        <v>(SELECT id FROM profiles WHERE users.id = profile.user_id AND users.email = 'user20@movie.com')</v>
+        <f xml:space="preserve"> "(SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = '"&amp;users!B21&amp;"')"</f>
+        <v>(SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = 'user20@movie.com')</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>31</v>
       </c>
       <c r="D41" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E41" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F41" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO likes_genres(id, profile_id, genre_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM profiles WHERE users.id = profile.user_id AND users.email = 'user20@movie.com'), (SELECT id FROM profiles WHERE genre_name = 'Film-Noir'), now(), now());</v>
+        <v>INSERT INTO likes_genres(id, profile_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = 'user20@movie.com'), (SELECT id FROM profiles WHERE genre_name = 'Film-Noir'), now(), now());</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B42" t="str">
-        <f xml:space="preserve"> "(SELECT id FROM profiles WHERE users.id = profile.user_id AND users.email = '"&amp;users!B2&amp;"')"</f>
-        <v>(SELECT id FROM profiles WHERE users.id = profile.user_id AND users.email = 'user1@movie.com')</v>
+        <f xml:space="preserve"> "(SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = '"&amp;users!B2&amp;"')"</f>
+        <v>(SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = 'user1@movie.com')</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>32</v>
       </c>
       <c r="D42" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E42" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F42" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO likes_genres(id, profile_id, genre_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM profiles WHERE users.id = profile.user_id AND users.email = 'user1@movie.com'), (SELECT id FROM profiles WHERE genre_name = 'History'), now(), now());</v>
+        <v>INSERT INTO likes_genres(id, profile_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = 'user1@movie.com'), (SELECT id FROM profiles WHERE genre_name = 'History'), now(), now());</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B43" t="str">
-        <f xml:space="preserve"> "(SELECT id FROM profiles WHERE users.id = profile.user_id AND users.email = '"&amp;users!B3&amp;"')"</f>
-        <v>(SELECT id FROM profiles WHERE users.id = profile.user_id AND users.email = 'user2@movie.com')</v>
+        <f xml:space="preserve"> "(SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = '"&amp;users!B3&amp;"')"</f>
+        <v>(SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = 'user2@movie.com')</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D43" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E43" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F43" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO likes_genres(id, profile_id, genre_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM profiles WHERE users.id = profile.user_id AND users.email = 'user2@movie.com'), (SELECT id FROM profiles WHERE genre_name = 'Horror'), now(), now());</v>
+        <v>INSERT INTO likes_genres(id, profile_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = 'user2@movie.com'), (SELECT id FROM profiles WHERE genre_name = 'Horror'), now(), now());</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B44" t="str">
-        <f xml:space="preserve"> "(SELECT id FROM profiles WHERE users.id = profile.user_id AND users.email = '"&amp;users!B4&amp;"')"</f>
-        <v>(SELECT id FROM profiles WHERE users.id = profile.user_id AND users.email = 'user3@movie.com')</v>
+        <f xml:space="preserve"> "(SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = '"&amp;users!B4&amp;"')"</f>
+        <v>(SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = 'user3@movie.com')</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D44" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E44" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F44" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO likes_genres(id, profile_id, genre_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM profiles WHERE users.id = profile.user_id AND users.email = 'user3@movie.com'), (SELECT id FROM profiles WHERE genre_name = 'Romance'), now(), now());</v>
+        <v>INSERT INTO likes_genres(id, profile_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = 'user3@movie.com'), (SELECT id FROM profiles WHERE genre_name = 'Romance'), now(), now());</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B45" t="str">
-        <f xml:space="preserve"> "(SELECT id FROM profiles WHERE users.id = profile.user_id AND users.email = '"&amp;users!B5&amp;"')"</f>
-        <v>(SELECT id FROM profiles WHERE users.id = profile.user_id AND users.email = 'user4@movie.com')</v>
+        <f xml:space="preserve"> "(SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = '"&amp;users!B5&amp;"')"</f>
+        <v>(SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = 'user4@movie.com')</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D45" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E45" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F45" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO likes_genres(id, profile_id, genre_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM profiles WHERE users.id = profile.user_id AND users.email = 'user4@movie.com'), (SELECT id FROM profiles WHERE genre_name = 'Musical'), now(), now());</v>
+        <v>INSERT INTO likes_genres(id, profile_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = 'user4@movie.com'), (SELECT id FROM profiles WHERE genre_name = 'Musical'), now(), now());</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B46" t="str">
-        <f xml:space="preserve"> "(SELECT id FROM profiles WHERE users.id = profile.user_id AND users.email = '"&amp;users!B6&amp;"')"</f>
-        <v>(SELECT id FROM profiles WHERE users.id = profile.user_id AND users.email = 'user5@movie.com')</v>
+        <f xml:space="preserve"> "(SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = '"&amp;users!B6&amp;"')"</f>
+        <v>(SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = 'user5@movie.com')</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D46" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E46" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F46" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO likes_genres(id, profile_id, genre_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM profiles WHERE users.id = profile.user_id AND users.email = 'user5@movie.com'), (SELECT id FROM profiles WHERE genre_name = 'Mystery'), now(), now());</v>
+        <v>INSERT INTO likes_genres(id, profile_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = 'user5@movie.com'), (SELECT id FROM profiles WHERE genre_name = 'Mystery'), now(), now());</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B47" t="str">
-        <f xml:space="preserve"> "(SELECT id FROM profiles WHERE users.id = profile.user_id AND users.email = '"&amp;users!B7&amp;"')"</f>
-        <v>(SELECT id FROM profiles WHERE users.id = profile.user_id AND users.email = 'user6@movie.com')</v>
+        <f xml:space="preserve"> "(SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = '"&amp;users!B7&amp;"')"</f>
+        <v>(SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = 'user6@movie.com')</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D47" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E47" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F47" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO likes_genres(id, profile_id, genre_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM profiles WHERE users.id = profile.user_id AND users.email = 'user6@movie.com'), (SELECT id FROM profiles WHERE genre_name = 'Science Fiction'), now(), now());</v>
+        <v>INSERT INTO likes_genres(id, profile_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = 'user6@movie.com'), (SELECT id FROM profiles WHERE genre_name = 'Science Fiction'), now(), now());</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B48" t="str">
-        <f xml:space="preserve"> "(SELECT id FROM profiles WHERE users.id = profile.user_id AND users.email = '"&amp;users!B8&amp;"')"</f>
-        <v>(SELECT id FROM profiles WHERE users.id = profile.user_id AND users.email = 'user7@movie.com')</v>
+        <f xml:space="preserve"> "(SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = '"&amp;users!B8&amp;"')"</f>
+        <v>(SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = 'user7@movie.com')</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D48" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E48" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F48" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO likes_genres(id, profile_id, genre_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM profiles WHERE users.id = profile.user_id AND users.email = 'user7@movie.com'), (SELECT id FROM profiles WHERE genre_name = 'Sport'), now(), now());</v>
+        <v>INSERT INTO likes_genres(id, profile_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = 'user7@movie.com'), (SELECT id FROM profiles WHERE genre_name = 'Sport'), now(), now());</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B49" t="str">
-        <f xml:space="preserve"> "(SELECT id FROM profiles WHERE users.id = profile.user_id AND users.email = '"&amp;users!B9&amp;"')"</f>
-        <v>(SELECT id FROM profiles WHERE users.id = profile.user_id AND users.email = 'user8@movie.com')</v>
+        <f xml:space="preserve"> "(SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = '"&amp;users!B9&amp;"')"</f>
+        <v>(SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = 'user8@movie.com')</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D49" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E49" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F49" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO likes_genres(id, profile_id, genre_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM profiles WHERE users.id = profile.user_id AND users.email = 'user8@movie.com'), (SELECT id FROM profiles WHERE genre_name = 'Thriller'), now(), now());</v>
+        <v>INSERT INTO likes_genres(id, profile_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = 'user8@movie.com'), (SELECT id FROM profiles WHERE genre_name = 'Thriller'), now(), now());</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B50" t="str">
-        <f xml:space="preserve"> "(SELECT id FROM profiles WHERE users.id = profile.user_id AND users.email = '"&amp;users!B10&amp;"')"</f>
-        <v>(SELECT id FROM profiles WHERE users.id = profile.user_id AND users.email = 'user9@movie.com')</v>
+        <f xml:space="preserve"> "(SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = '"&amp;users!B10&amp;"')"</f>
+        <v>(SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = 'user9@movie.com')</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D50" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E50" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F50" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO likes_genres(id, profile_id, genre_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM profiles WHERE users.id = profile.user_id AND users.email = 'user9@movie.com'), (SELECT id FROM profiles WHERE genre_name = 'War'), now(), now());</v>
+        <v>INSERT INTO likes_genres(id, profile_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = 'user9@movie.com'), (SELECT id FROM profiles WHERE genre_name = 'War'), now(), now());</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B51" t="str">
-        <f xml:space="preserve"> "(SELECT id FROM profiles WHERE users.id = profile.user_id AND users.email = '"&amp;users!B11&amp;"')"</f>
-        <v>(SELECT id FROM profiles WHERE users.id = profile.user_id AND users.email = 'user10@movie.com')</v>
+        <f xml:space="preserve"> "(SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = '"&amp;users!B11&amp;"')"</f>
+        <v>(SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = 'user10@movie.com')</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D51" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E51" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F51" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO likes_genres(id, profile_id, genre_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM profiles WHERE users.id = profile.user_id AND users.email = 'user10@movie.com'), (SELECT id FROM profiles WHERE genre_name = 'Western'), now(), now());</v>
+        <v>INSERT INTO likes_genres(id, profile_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = 'user10@movie.com'), (SELECT id FROM profiles WHERE genre_name = 'Western'), now(), now());</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B52" t="str">
-        <f xml:space="preserve"> "(SELECT id FROM profiles WHERE users.id = profile.user_id AND users.email = '"&amp;users!B12&amp;"')"</f>
-        <v>(SELECT id FROM profiles WHERE users.id = profile.user_id AND users.email = 'user11@movie.com')</v>
+        <f xml:space="preserve"> "(SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = '"&amp;users!B12&amp;"')"</f>
+        <v>(SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = 'user11@movie.com')</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D52" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E52" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F52" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO likes_genres(id, profile_id, genre_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM profiles WHERE users.id = profile.user_id AND users.email = 'user11@movie.com'), (SELECT id FROM profiles WHERE genre_name = 'Anime'), now(), now());</v>
+        <v>INSERT INTO likes_genres(id, profile_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = 'user11@movie.com'), (SELECT id FROM profiles WHERE genre_name = 'Anime'), now(), now());</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B53" t="str">
-        <f xml:space="preserve"> "(SELECT id FROM profiles WHERE users.id = profile.user_id AND users.email = '"&amp;users!B13&amp;"')"</f>
-        <v>(SELECT id FROM profiles WHERE users.id = profile.user_id AND users.email = 'user12@movie.com')</v>
+        <f xml:space="preserve"> "(SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = '"&amp;users!B13&amp;"')"</f>
+        <v>(SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = 'user12@movie.com')</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D53" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E53" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F53" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO likes_genres(id, profile_id, genre_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM profiles WHERE users.id = profile.user_id AND users.email = 'user12@movie.com'), (SELECT id FROM profiles WHERE genre_name = 'Adult'), now(), now());</v>
+        <v>INSERT INTO likes_genres(id, profile_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = 'user12@movie.com'), (SELECT id FROM profiles WHERE genre_name = 'Adult'), now(), now());</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B54" t="str">
-        <f xml:space="preserve"> "(SELECT id FROM profiles WHERE users.id = profile.user_id AND users.email = '"&amp;users!B14&amp;"')"</f>
-        <v>(SELECT id FROM profiles WHERE users.id = profile.user_id AND users.email = 'user13@movie.com')</v>
+        <f xml:space="preserve"> "(SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = '"&amp;users!B14&amp;"')"</f>
+        <v>(SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = 'user13@movie.com')</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D54" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E54" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F54" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO likes_genres(id, profile_id, genre_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM profiles WHERE users.id = profile.user_id AND users.email = 'user13@movie.com'), (SELECT id FROM profiles WHERE genre_name = 'Space'), now(), now());</v>
+        <v>INSERT INTO likes_genres(id, profile_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = 'user13@movie.com'), (SELECT id FROM profiles WHERE genre_name = 'Space'), now(), now());</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B55" t="str">
-        <f xml:space="preserve"> "(SELECT id FROM profiles WHERE users.id = profile.user_id AND users.email = '"&amp;users!B15&amp;"')"</f>
-        <v>(SELECT id FROM profiles WHERE users.id = profile.user_id AND users.email = 'user14@movie.com')</v>
+        <f xml:space="preserve"> "(SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = '"&amp;users!B15&amp;"')"</f>
+        <v>(SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = 'user14@movie.com')</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D55" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E55" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F55" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO likes_genres(id, profile_id, genre_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM profiles WHERE users.id = profile.user_id AND users.email = 'user14@movie.com'), (SELECT id FROM profiles WHERE genre_name = 'Political'), now(), now());</v>
+        <v>INSERT INTO likes_genres(id, profile_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = 'user14@movie.com'), (SELECT id FROM profiles WHERE genre_name = 'Political'), now(), now());</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B56" t="str">
-        <f xml:space="preserve"> "(SELECT id FROM profiles WHERE users.id = profile.user_id AND users.email = '"&amp;users!B16&amp;"')"</f>
-        <v>(SELECT id FROM profiles WHERE users.id = profile.user_id AND users.email = 'user15@movie.com')</v>
+        <f xml:space="preserve"> "(SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = '"&amp;users!B16&amp;"')"</f>
+        <v>(SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = 'user15@movie.com')</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D56" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E56" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F56" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO likes_genres(id, profile_id, genre_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM profiles WHERE users.id = profile.user_id AND users.email = 'user15@movie.com'), (SELECT id FROM profiles WHERE genre_name = 'Faith'), now(), now());</v>
+        <v>INSERT INTO likes_genres(id, profile_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = 'user15@movie.com'), (SELECT id FROM profiles WHERE genre_name = 'Faith'), now(), now());</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B57" t="str">
-        <f xml:space="preserve"> "(SELECT id FROM profiles WHERE users.id = profile.user_id AND users.email = '"&amp;users!B17&amp;"')"</f>
-        <v>(SELECT id FROM profiles WHERE users.id = profile.user_id AND users.email = 'user16@movie.com')</v>
+        <f xml:space="preserve"> "(SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = '"&amp;users!B17&amp;"')"</f>
+        <v>(SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = 'user16@movie.com')</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D57" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E57" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F57" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO likes_genres(id, profile_id, genre_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM profiles WHERE users.id = profile.user_id AND users.email = 'user16@movie.com'), (SELECT id FROM profiles WHERE genre_name = 'Independent'), now(), now());</v>
+        <v>INSERT INTO likes_genres(id, profile_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = 'user16@movie.com'), (SELECT id FROM profiles WHERE genre_name = 'Independent'), now(), now());</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B58" t="str">
-        <f xml:space="preserve"> "(SELECT id FROM profiles WHERE users.id = profile.user_id AND users.email = '"&amp;users!B18&amp;"')"</f>
-        <v>(SELECT id FROM profiles WHERE users.id = profile.user_id AND users.email = 'user17@movie.com')</v>
+        <f xml:space="preserve"> "(SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = '"&amp;users!B18&amp;"')"</f>
+        <v>(SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = 'user17@movie.com')</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>48</v>
       </c>
       <c r="D58" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E58" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F58" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO likes_genres(id, profile_id, genre_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM profiles WHERE users.id = profile.user_id AND users.email = 'user17@movie.com'), (SELECT id FROM profiles WHERE genre_name = 'Video Game'), now(), now());</v>
+        <v>INSERT INTO likes_genres(id, profile_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = 'user17@movie.com'), (SELECT id FROM profiles WHERE genre_name = 'Video Game'), now(), now());</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B59" t="str">
-        <f xml:space="preserve"> "(SELECT id FROM profiles WHERE users.id = profile.user_id AND users.email = '"&amp;users!B19&amp;"')"</f>
-        <v>(SELECT id FROM profiles WHERE users.id = profile.user_id AND users.email = 'user18@movie.com')</v>
+        <f xml:space="preserve"> "(SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = '"&amp;users!B19&amp;"')"</f>
+        <v>(SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = 'user18@movie.com')</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D59" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E59" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F59" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO likes_genres(id, profile_id, genre_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM profiles WHERE users.id = profile.user_id AND users.email = 'user18@movie.com'), (SELECT id FROM profiles WHERE genre_name = 'Novel'), now(), now());</v>
+        <v>INSERT INTO likes_genres(id, profile_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = 'user18@movie.com'), (SELECT id FROM profiles WHERE genre_name = 'Novel'), now(), now());</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B60" t="str">
-        <f xml:space="preserve"> "(SELECT id FROM profiles WHERE users.id = profile.user_id AND users.email = '"&amp;users!B20&amp;"')"</f>
-        <v>(SELECT id FROM profiles WHERE users.id = profile.user_id AND users.email = 'user19@movie.com')</v>
+        <f xml:space="preserve"> "(SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = '"&amp;users!B20&amp;"')"</f>
+        <v>(SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = 'user19@movie.com')</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D60" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E60" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F60" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO likes_genres(id, profile_id, genre_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM profiles WHERE users.id = profile.user_id AND users.email = 'user19@movie.com'), (SELECT id FROM profiles WHERE genre_name = 'Action'), now(), now());</v>
+        <v>INSERT INTO likes_genres(id, profile_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = 'user19@movie.com'), (SELECT id FROM profiles WHERE genre_name = 'Action'), now(), now());</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B61" t="str">
-        <f xml:space="preserve"> "(SELECT id FROM profiles WHERE users.id = profile.user_id AND users.email = '"&amp;users!B21&amp;"')"</f>
-        <v>(SELECT id FROM profiles WHERE users.id = profile.user_id AND users.email = 'user20@movie.com')</v>
+        <f xml:space="preserve"> "(SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = '"&amp;users!B21&amp;"')"</f>
+        <v>(SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = 'user20@movie.com')</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D61" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E61" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F61" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO likes_genres(id, profile_id, genre_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM profiles WHERE users.id = profile.user_id AND users.email = 'user20@movie.com'), (SELECT id FROM profiles WHERE genre_name = 'Adventure'), now(), now());</v>
+        <v>INSERT INTO likes_genres(id, profile_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = 'user20@movie.com'), (SELECT id FROM profiles WHERE genre_name = 'Adventure'), now(), now());</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B62" t="str">
-        <f xml:space="preserve"> "(SELECT id FROM profiles WHERE users.id = profile.user_id AND users.email = '"&amp;users!B2&amp;"')"</f>
-        <v>(SELECT id FROM profiles WHERE users.id = profile.user_id AND users.email = 'user1@movie.com')</v>
+        <f xml:space="preserve"> "(SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = '"&amp;users!B2&amp;"')"</f>
+        <v>(SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = 'user1@movie.com')</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D62" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E62" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F62" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO likes_genres(id, profile_id, genre_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM profiles WHERE users.id = profile.user_id AND users.email = 'user1@movie.com'), (SELECT id FROM profiles WHERE genre_name = 'Animation'), now(), now());</v>
+        <v>INSERT INTO likes_genres(id, profile_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = 'user1@movie.com'), (SELECT id FROM profiles WHERE genre_name = 'Animation'), now(), now());</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B63" t="str">
-        <f xml:space="preserve"> "(SELECT id FROM profiles WHERE users.id = profile.user_id AND users.email = '"&amp;users!B3&amp;"')"</f>
-        <v>(SELECT id FROM profiles WHERE users.id = profile.user_id AND users.email = 'user2@movie.com')</v>
+        <f xml:space="preserve"> "(SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = '"&amp;users!B3&amp;"')"</f>
+        <v>(SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = 'user2@movie.com')</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D63" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E63" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F63" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO likes_genres(id, profile_id, genre_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM profiles WHERE users.id = profile.user_id AND users.email = 'user2@movie.com'), (SELECT id FROM profiles WHERE genre_name = 'Biography'), now(), now());</v>
+        <v>INSERT INTO likes_genres(id, profile_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = 'user2@movie.com'), (SELECT id FROM profiles WHERE genre_name = 'Biography'), now(), now());</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B64" t="str">
-        <f xml:space="preserve"> "(SELECT id FROM profiles WHERE users.id = profile.user_id AND users.email = '"&amp;users!B4&amp;"')"</f>
-        <v>(SELECT id FROM profiles WHERE users.id = profile.user_id AND users.email = 'user3@movie.com')</v>
+        <f xml:space="preserve"> "(SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = '"&amp;users!B4&amp;"')"</f>
+        <v>(SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = 'user3@movie.com')</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>25</v>
       </c>
       <c r="D64" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E64" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F64" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO likes_genres(id, profile_id, genre_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM profiles WHERE users.id = profile.user_id AND users.email = 'user3@movie.com'), (SELECT id FROM profiles WHERE genre_name = 'Comedy'), now(), now());</v>
+        <v>INSERT INTO likes_genres(id, profile_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = 'user3@movie.com'), (SELECT id FROM profiles WHERE genre_name = 'Comedy'), now(), now());</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B65" t="str">
-        <f xml:space="preserve"> "(SELECT id FROM profiles WHERE users.id = profile.user_id AND users.email = '"&amp;users!B5&amp;"')"</f>
-        <v>(SELECT id FROM profiles WHERE users.id = profile.user_id AND users.email = 'user4@movie.com')</v>
+        <f xml:space="preserve"> "(SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = '"&amp;users!B5&amp;"')"</f>
+        <v>(SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = 'user4@movie.com')</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D65" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E65" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F65" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO likes_genres(id, profile_id, genre_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM profiles WHERE users.id = profile.user_id AND users.email = 'user4@movie.com'), (SELECT id FROM profiles WHERE genre_name = 'Crime'), now(), now());</v>
+        <v>INSERT INTO likes_genres(id, profile_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = 'user4@movie.com'), (SELECT id FROM profiles WHERE genre_name = 'Crime'), now(), now());</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B66" t="str">
-        <f xml:space="preserve"> "(SELECT id FROM profiles WHERE users.id = profile.user_id AND users.email = '"&amp;users!B6&amp;"')"</f>
-        <v>(SELECT id FROM profiles WHERE users.id = profile.user_id AND users.email = 'user5@movie.com')</v>
+        <f xml:space="preserve"> "(SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = '"&amp;users!B6&amp;"')"</f>
+        <v>(SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = 'user5@movie.com')</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D66" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E66" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F66" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO likes_genres(id, profile_id, genre_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM profiles WHERE users.id = profile.user_id AND users.email = 'user5@movie.com'), (SELECT id FROM profiles WHERE genre_name = 'Documentary'), now(), now());</v>
+        <v>INSERT INTO likes_genres(id, profile_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = 'user5@movie.com'), (SELECT id FROM profiles WHERE genre_name = 'Documentary'), now(), now());</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B67" t="str">
-        <f xml:space="preserve"> "(SELECT id FROM profiles WHERE users.id = profile.user_id AND users.email = '"&amp;users!B7&amp;"')"</f>
-        <v>(SELECT id FROM profiles WHERE users.id = profile.user_id AND users.email = 'user6@movie.com')</v>
+        <f xml:space="preserve"> "(SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = '"&amp;users!B7&amp;"')"</f>
+        <v>(SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = 'user6@movie.com')</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D67" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E67" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F67" s="6" t="str">
         <f t="shared" ref="F67:F92" si="1" xml:space="preserve"> "INSERT INTO likes_genres("&amp;A$1&amp;", "&amp;B$1&amp;", "&amp;C$1&amp;", "&amp;D$1&amp;", "&amp;E$1&amp;") VALUES ("&amp;A67&amp;", "&amp;B67&amp;", (SELECT id FROM profiles WHERE genre_name = '"&amp;C67&amp;"'), "&amp;D67&amp;", "&amp;E67&amp;");"</f>
-        <v>INSERT INTO likes_genres(id, profile_id, genre_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM profiles WHERE users.id = profile.user_id AND users.email = 'user6@movie.com'), (SELECT id FROM profiles WHERE genre_name = 'Drama'), now(), now());</v>
+        <v>INSERT INTO likes_genres(id, profile_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = 'user6@movie.com'), (SELECT id FROM profiles WHERE genre_name = 'Drama'), now(), now());</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B68" t="str">
-        <f xml:space="preserve"> "(SELECT id FROM profiles WHERE users.id = profile.user_id AND users.email = '"&amp;users!B8&amp;"')"</f>
-        <v>(SELECT id FROM profiles WHERE users.id = profile.user_id AND users.email = 'user7@movie.com')</v>
+        <f xml:space="preserve"> "(SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = '"&amp;users!B8&amp;"')"</f>
+        <v>(SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = 'user7@movie.com')</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D68" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E68" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F68" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO likes_genres(id, profile_id, genre_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM profiles WHERE users.id = profile.user_id AND users.email = 'user7@movie.com'), (SELECT id FROM profiles WHERE genre_name = 'Family'), now(), now());</v>
+        <v>INSERT INTO likes_genres(id, profile_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = 'user7@movie.com'), (SELECT id FROM profiles WHERE genre_name = 'Family'), now(), now());</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B69" t="str">
-        <f xml:space="preserve"> "(SELECT id FROM profiles WHERE users.id = profile.user_id AND users.email = '"&amp;users!B9&amp;"')"</f>
-        <v>(SELECT id FROM profiles WHERE users.id = profile.user_id AND users.email = 'user8@movie.com')</v>
+        <f xml:space="preserve"> "(SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = '"&amp;users!B9&amp;"')"</f>
+        <v>(SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = 'user8@movie.com')</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D69" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E69" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F69" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO likes_genres(id, profile_id, genre_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM profiles WHERE users.id = profile.user_id AND users.email = 'user8@movie.com'), (SELECT id FROM profiles WHERE genre_name = 'Fantasy'), now(), now());</v>
+        <v>INSERT INTO likes_genres(id, profile_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = 'user8@movie.com'), (SELECT id FROM profiles WHERE genre_name = 'Fantasy'), now(), now());</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B70" t="str">
-        <f xml:space="preserve"> "(SELECT id FROM profiles WHERE users.id = profile.user_id AND users.email = '"&amp;users!B10&amp;"')"</f>
-        <v>(SELECT id FROM profiles WHERE users.id = profile.user_id AND users.email = 'user9@movie.com')</v>
+        <f xml:space="preserve"> "(SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = '"&amp;users!B10&amp;"')"</f>
+        <v>(SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = 'user9@movie.com')</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>31</v>
       </c>
       <c r="D70" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E70" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F70" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO likes_genres(id, profile_id, genre_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM profiles WHERE users.id = profile.user_id AND users.email = 'user9@movie.com'), (SELECT id FROM profiles WHERE genre_name = 'Film-Noir'), now(), now());</v>
+        <v>INSERT INTO likes_genres(id, profile_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = 'user9@movie.com'), (SELECT id FROM profiles WHERE genre_name = 'Film-Noir'), now(), now());</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B71" t="str">
-        <f xml:space="preserve"> "(SELECT id FROM profiles WHERE users.id = profile.user_id AND users.email = '"&amp;users!B11&amp;"')"</f>
-        <v>(SELECT id FROM profiles WHERE users.id = profile.user_id AND users.email = 'user10@movie.com')</v>
+        <f xml:space="preserve"> "(SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = '"&amp;users!B11&amp;"')"</f>
+        <v>(SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = 'user10@movie.com')</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>32</v>
       </c>
       <c r="D71" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E71" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F71" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO likes_genres(id, profile_id, genre_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM profiles WHERE users.id = profile.user_id AND users.email = 'user10@movie.com'), (SELECT id FROM profiles WHERE genre_name = 'History'), now(), now());</v>
+        <v>INSERT INTO likes_genres(id, profile_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = 'user10@movie.com'), (SELECT id FROM profiles WHERE genre_name = 'History'), now(), now());</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B72" t="str">
-        <f xml:space="preserve"> "(SELECT id FROM profiles WHERE users.id = profile.user_id AND users.email = '"&amp;users!B12&amp;"')"</f>
-        <v>(SELECT id FROM profiles WHERE users.id = profile.user_id AND users.email = 'user11@movie.com')</v>
+        <f xml:space="preserve"> "(SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = '"&amp;users!B12&amp;"')"</f>
+        <v>(SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = 'user11@movie.com')</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D72" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E72" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F72" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO likes_genres(id, profile_id, genre_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM profiles WHERE users.id = profile.user_id AND users.email = 'user11@movie.com'), (SELECT id FROM profiles WHERE genre_name = 'Horror'), now(), now());</v>
+        <v>INSERT INTO likes_genres(id, profile_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = 'user11@movie.com'), (SELECT id FROM profiles WHERE genre_name = 'Horror'), now(), now());</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B73" t="str">
-        <f xml:space="preserve"> "(SELECT id FROM profiles WHERE users.id = profile.user_id AND users.email = '"&amp;users!B13&amp;"')"</f>
-        <v>(SELECT id FROM profiles WHERE users.id = profile.user_id AND users.email = 'user12@movie.com')</v>
+        <f xml:space="preserve"> "(SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = '"&amp;users!B13&amp;"')"</f>
+        <v>(SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = 'user12@movie.com')</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D73" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E73" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F73" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO likes_genres(id, profile_id, genre_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM profiles WHERE users.id = profile.user_id AND users.email = 'user12@movie.com'), (SELECT id FROM profiles WHERE genre_name = 'Romance'), now(), now());</v>
+        <v>INSERT INTO likes_genres(id, profile_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = 'user12@movie.com'), (SELECT id FROM profiles WHERE genre_name = 'Romance'), now(), now());</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B74" t="str">
-        <f xml:space="preserve"> "(SELECT id FROM profiles WHERE users.id = profile.user_id AND users.email = '"&amp;users!B14&amp;"')"</f>
-        <v>(SELECT id FROM profiles WHERE users.id = profile.user_id AND users.email = 'user13@movie.com')</v>
+        <f xml:space="preserve"> "(SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = '"&amp;users!B14&amp;"')"</f>
+        <v>(SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = 'user13@movie.com')</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D74" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E74" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F74" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO likes_genres(id, profile_id, genre_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM profiles WHERE users.id = profile.user_id AND users.email = 'user13@movie.com'), (SELECT id FROM profiles WHERE genre_name = 'Musical'), now(), now());</v>
+        <v>INSERT INTO likes_genres(id, profile_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = 'user13@movie.com'), (SELECT id FROM profiles WHERE genre_name = 'Musical'), now(), now());</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B75" t="str">
-        <f xml:space="preserve"> "(SELECT id FROM profiles WHERE users.id = profile.user_id AND users.email = '"&amp;users!B15&amp;"')"</f>
-        <v>(SELECT id FROM profiles WHERE users.id = profile.user_id AND users.email = 'user14@movie.com')</v>
+        <f xml:space="preserve"> "(SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = '"&amp;users!B15&amp;"')"</f>
+        <v>(SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = 'user14@movie.com')</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D75" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E75" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F75" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO likes_genres(id, profile_id, genre_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM profiles WHERE users.id = profile.user_id AND users.email = 'user14@movie.com'), (SELECT id FROM profiles WHERE genre_name = 'Mystery'), now(), now());</v>
+        <v>INSERT INTO likes_genres(id, profile_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = 'user14@movie.com'), (SELECT id FROM profiles WHERE genre_name = 'Mystery'), now(), now());</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B76" t="str">
-        <f xml:space="preserve"> "(SELECT id FROM profiles WHERE users.id = profile.user_id AND users.email = '"&amp;users!B16&amp;"')"</f>
-        <v>(SELECT id FROM profiles WHERE users.id = profile.user_id AND users.email = 'user15@movie.com')</v>
+        <f xml:space="preserve"> "(SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = '"&amp;users!B16&amp;"')"</f>
+        <v>(SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = 'user15@movie.com')</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D76" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E76" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F76" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO likes_genres(id, profile_id, genre_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM profiles WHERE users.id = profile.user_id AND users.email = 'user15@movie.com'), (SELECT id FROM profiles WHERE genre_name = 'Science Fiction'), now(), now());</v>
+        <v>INSERT INTO likes_genres(id, profile_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = 'user15@movie.com'), (SELECT id FROM profiles WHERE genre_name = 'Science Fiction'), now(), now());</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B77" t="str">
-        <f xml:space="preserve"> "(SELECT id FROM profiles WHERE users.id = profile.user_id AND users.email = '"&amp;users!B17&amp;"')"</f>
-        <v>(SELECT id FROM profiles WHERE users.id = profile.user_id AND users.email = 'user16@movie.com')</v>
+        <f xml:space="preserve"> "(SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = '"&amp;users!B17&amp;"')"</f>
+        <v>(SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = 'user16@movie.com')</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D77" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E77" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F77" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO likes_genres(id, profile_id, genre_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM profiles WHERE users.id = profile.user_id AND users.email = 'user16@movie.com'), (SELECT id FROM profiles WHERE genre_name = 'Sport'), now(), now());</v>
+        <v>INSERT INTO likes_genres(id, profile_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = 'user16@movie.com'), (SELECT id FROM profiles WHERE genre_name = 'Sport'), now(), now());</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B78" t="str">
-        <f xml:space="preserve"> "(SELECT id FROM profiles WHERE users.id = profile.user_id AND users.email = '"&amp;users!B18&amp;"')"</f>
-        <v>(SELECT id FROM profiles WHERE users.id = profile.user_id AND users.email = 'user17@movie.com')</v>
+        <f xml:space="preserve"> "(SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = '"&amp;users!B18&amp;"')"</f>
+        <v>(SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = 'user17@movie.com')</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D78" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E78" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F78" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO likes_genres(id, profile_id, genre_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM profiles WHERE users.id = profile.user_id AND users.email = 'user17@movie.com'), (SELECT id FROM profiles WHERE genre_name = 'Thriller'), now(), now());</v>
+        <v>INSERT INTO likes_genres(id, profile_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = 'user17@movie.com'), (SELECT id FROM profiles WHERE genre_name = 'Thriller'), now(), now());</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B79" t="str">
-        <f xml:space="preserve"> "(SELECT id FROM profiles WHERE users.id = profile.user_id AND users.email = '"&amp;users!B19&amp;"')"</f>
-        <v>(SELECT id FROM profiles WHERE users.id = profile.user_id AND users.email = 'user18@movie.com')</v>
+        <f xml:space="preserve"> "(SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = '"&amp;users!B19&amp;"')"</f>
+        <v>(SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = 'user18@movie.com')</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D79" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E79" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F79" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO likes_genres(id, profile_id, genre_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM profiles WHERE users.id = profile.user_id AND users.email = 'user18@movie.com'), (SELECT id FROM profiles WHERE genre_name = 'War'), now(), now());</v>
+        <v>INSERT INTO likes_genres(id, profile_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = 'user18@movie.com'), (SELECT id FROM profiles WHERE genre_name = 'War'), now(), now());</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B80" t="str">
-        <f xml:space="preserve"> "(SELECT id FROM profiles WHERE users.id = profile.user_id AND users.email = '"&amp;users!B20&amp;"')"</f>
-        <v>(SELECT id FROM profiles WHERE users.id = profile.user_id AND users.email = 'user19@movie.com')</v>
+        <f xml:space="preserve"> "(SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = '"&amp;users!B20&amp;"')"</f>
+        <v>(SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = 'user19@movie.com')</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D80" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E80" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F80" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO likes_genres(id, profile_id, genre_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM profiles WHERE users.id = profile.user_id AND users.email = 'user19@movie.com'), (SELECT id FROM profiles WHERE genre_name = 'Western'), now(), now());</v>
+        <v>INSERT INTO likes_genres(id, profile_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = 'user19@movie.com'), (SELECT id FROM profiles WHERE genre_name = 'Western'), now(), now());</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B81" t="str">
-        <f xml:space="preserve"> "(SELECT id FROM profiles WHERE users.id = profile.user_id AND users.email = '"&amp;users!B21&amp;"')"</f>
-        <v>(SELECT id FROM profiles WHERE users.id = profile.user_id AND users.email = 'user20@movie.com')</v>
+        <f xml:space="preserve"> "(SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = '"&amp;users!B21&amp;"')"</f>
+        <v>(SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = 'user20@movie.com')</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D81" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E81" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F81" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO likes_genres(id, profile_id, genre_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM profiles WHERE users.id = profile.user_id AND users.email = 'user20@movie.com'), (SELECT id FROM profiles WHERE genre_name = 'Anime'), now(), now());</v>
+        <v>INSERT INTO likes_genres(id, profile_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = 'user20@movie.com'), (SELECT id FROM profiles WHERE genre_name = 'Anime'), now(), now());</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B82" t="str">
-        <f xml:space="preserve"> "(SELECT id FROM profiles WHERE users.id = profile.user_id AND users.email = '"&amp;users!B2&amp;"')"</f>
-        <v>(SELECT id FROM profiles WHERE users.id = profile.user_id AND users.email = 'user1@movie.com')</v>
+        <f xml:space="preserve"> "(SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = '"&amp;users!B2&amp;"')"</f>
+        <v>(SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = 'user1@movie.com')</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D82" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E82" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F82" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO likes_genres(id, profile_id, genre_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM profiles WHERE users.id = profile.user_id AND users.email = 'user1@movie.com'), (SELECT id FROM profiles WHERE genre_name = 'Adult'), now(), now());</v>
+        <v>INSERT INTO likes_genres(id, profile_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = 'user1@movie.com'), (SELECT id FROM profiles WHERE genre_name = 'Adult'), now(), now());</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B83" t="str">
-        <f xml:space="preserve"> "(SELECT id FROM profiles WHERE users.id = profile.user_id AND users.email = '"&amp;users!B3&amp;"')"</f>
-        <v>(SELECT id FROM profiles WHERE users.id = profile.user_id AND users.email = 'user2@movie.com')</v>
+        <f xml:space="preserve"> "(SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = '"&amp;users!B3&amp;"')"</f>
+        <v>(SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = 'user2@movie.com')</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D83" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E83" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F83" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO likes_genres(id, profile_id, genre_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM profiles WHERE users.id = profile.user_id AND users.email = 'user2@movie.com'), (SELECT id FROM profiles WHERE genre_name = 'Space'), now(), now());</v>
+        <v>INSERT INTO likes_genres(id, profile_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = 'user2@movie.com'), (SELECT id FROM profiles WHERE genre_name = 'Space'), now(), now());</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B84" t="str">
-        <f xml:space="preserve"> "(SELECT id FROM profiles WHERE users.id = profile.user_id AND users.email = '"&amp;users!B4&amp;"')"</f>
-        <v>(SELECT id FROM profiles WHERE users.id = profile.user_id AND users.email = 'user3@movie.com')</v>
+        <f xml:space="preserve"> "(SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = '"&amp;users!B4&amp;"')"</f>
+        <v>(SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = 'user3@movie.com')</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D84" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F84" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO likes_genres(id, profile_id, genre_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM profiles WHERE users.id = profile.user_id AND users.email = 'user3@movie.com'), (SELECT id FROM profiles WHERE genre_name = 'Political'), now(), now());</v>
+        <v>INSERT INTO likes_genres(id, profile_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = 'user3@movie.com'), (SELECT id FROM profiles WHERE genre_name = 'Political'), now(), now());</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B85" t="str">
-        <f xml:space="preserve"> "(SELECT id FROM profiles WHERE users.id = profile.user_id AND users.email = '"&amp;users!B5&amp;"')"</f>
-        <v>(SELECT id FROM profiles WHERE users.id = profile.user_id AND users.email = 'user4@movie.com')</v>
+        <f xml:space="preserve"> "(SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = '"&amp;users!B5&amp;"')"</f>
+        <v>(SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = 'user4@movie.com')</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D85" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E85" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F85" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO likes_genres(id, profile_id, genre_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM profiles WHERE users.id = profile.user_id AND users.email = 'user4@movie.com'), (SELECT id FROM profiles WHERE genre_name = 'Faith'), now(), now());</v>
+        <v>INSERT INTO likes_genres(id, profile_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = 'user4@movie.com'), (SELECT id FROM profiles WHERE genre_name = 'Faith'), now(), now());</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B86" t="str">
-        <f xml:space="preserve"> "(SELECT id FROM profiles WHERE users.id = profile.user_id AND users.email = '"&amp;users!B6&amp;"')"</f>
-        <v>(SELECT id FROM profiles WHERE users.id = profile.user_id AND users.email = 'user5@movie.com')</v>
+        <f xml:space="preserve"> "(SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = '"&amp;users!B6&amp;"')"</f>
+        <v>(SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = 'user5@movie.com')</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D86" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E86" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F86" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO likes_genres(id, profile_id, genre_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM profiles WHERE users.id = profile.user_id AND users.email = 'user5@movie.com'), (SELECT id FROM profiles WHERE genre_name = 'Independent'), now(), now());</v>
+        <v>INSERT INTO likes_genres(id, profile_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = 'user5@movie.com'), (SELECT id FROM profiles WHERE genre_name = 'Independent'), now(), now());</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B87" t="str">
-        <f xml:space="preserve"> "(SELECT id FROM profiles WHERE users.id = profile.user_id AND users.email = '"&amp;users!B7&amp;"')"</f>
-        <v>(SELECT id FROM profiles WHERE users.id = profile.user_id AND users.email = 'user6@movie.com')</v>
+        <f xml:space="preserve"> "(SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = '"&amp;users!B7&amp;"')"</f>
+        <v>(SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = 'user6@movie.com')</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>48</v>
       </c>
       <c r="D87" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E87" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F87" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO likes_genres(id, profile_id, genre_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM profiles WHERE users.id = profile.user_id AND users.email = 'user6@movie.com'), (SELECT id FROM profiles WHERE genre_name = 'Video Game'), now(), now());</v>
+        <v>INSERT INTO likes_genres(id, profile_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = 'user6@movie.com'), (SELECT id FROM profiles WHERE genre_name = 'Video Game'), now(), now());</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B88" t="str">
-        <f xml:space="preserve"> "(SELECT id FROM profiles WHERE users.id = profile.user_id AND users.email = '"&amp;users!B8&amp;"')"</f>
-        <v>(SELECT id FROM profiles WHERE users.id = profile.user_id AND users.email = 'user7@movie.com')</v>
+        <f xml:space="preserve"> "(SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = '"&amp;users!B8&amp;"')"</f>
+        <v>(SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = 'user7@movie.com')</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D88" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E88" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F88" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO likes_genres(id, profile_id, genre_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM profiles WHERE users.id = profile.user_id AND users.email = 'user7@movie.com'), (SELECT id FROM profiles WHERE genre_name = 'Novel'), now(), now());</v>
+        <v>INSERT INTO likes_genres(id, profile_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = 'user7@movie.com'), (SELECT id FROM profiles WHERE genre_name = 'Novel'), now(), now());</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B89" t="str">
-        <f xml:space="preserve"> "(SELECT id FROM profiles WHERE users.id = profile.user_id AND users.email = '"&amp;users!B9&amp;"')"</f>
-        <v>(SELECT id FROM profiles WHERE users.id = profile.user_id AND users.email = 'user8@movie.com')</v>
+        <f xml:space="preserve"> "(SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = '"&amp;users!B9&amp;"')"</f>
+        <v>(SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = 'user8@movie.com')</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D89" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E89" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F89" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO likes_genres(id, profile_id, genre_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM profiles WHERE users.id = profile.user_id AND users.email = 'user8@movie.com'), (SELECT id FROM profiles WHERE genre_name = 'Action'), now(), now());</v>
+        <v>INSERT INTO likes_genres(id, profile_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = 'user8@movie.com'), (SELECT id FROM profiles WHERE genre_name = 'Action'), now(), now());</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B90" t="str">
-        <f xml:space="preserve"> "(SELECT id FROM profiles WHERE users.id = profile.user_id AND users.email = '"&amp;users!B10&amp;"')"</f>
-        <v>(SELECT id FROM profiles WHERE users.id = profile.user_id AND users.email = 'user9@movie.com')</v>
+        <f xml:space="preserve"> "(SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = '"&amp;users!B10&amp;"')"</f>
+        <v>(SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = 'user9@movie.com')</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D90" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E90" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F90" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO likes_genres(id, profile_id, genre_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM profiles WHERE users.id = profile.user_id AND users.email = 'user9@movie.com'), (SELECT id FROM profiles WHERE genre_name = 'Adventure'), now(), now());</v>
+        <v>INSERT INTO likes_genres(id, profile_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = 'user9@movie.com'), (SELECT id FROM profiles WHERE genre_name = 'Adventure'), now(), now());</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B91" t="str">
-        <f xml:space="preserve"> "(SELECT id FROM profiles WHERE users.id = profile.user_id AND users.email = '"&amp;users!B11&amp;"')"</f>
-        <v>(SELECT id FROM profiles WHERE users.id = profile.user_id AND users.email = 'user10@movie.com')</v>
+        <f xml:space="preserve"> "(SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = '"&amp;users!B11&amp;"')"</f>
+        <v>(SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = 'user10@movie.com')</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D91" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E91" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F91" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO likes_genres(id, profile_id, genre_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM profiles WHERE users.id = profile.user_id AND users.email = 'user10@movie.com'), (SELECT id FROM profiles WHERE genre_name = 'Animation'), now(), now());</v>
+        <v>INSERT INTO likes_genres(id, profile_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = 'user10@movie.com'), (SELECT id FROM profiles WHERE genre_name = 'Animation'), now(), now());</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B92" t="str">
-        <f xml:space="preserve"> "(SELECT id FROM profiles WHERE users.id = profile.user_id AND users.email = '"&amp;users!B12&amp;"')"</f>
-        <v>(SELECT id FROM profiles WHERE users.id = profile.user_id AND users.email = 'user11@movie.com')</v>
+        <f xml:space="preserve"> "(SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = '"&amp;users!B12&amp;"')"</f>
+        <v>(SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = 'user11@movie.com')</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D92" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E92" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F92" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO likes_genres(id, profile_id, genre_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM profiles WHERE users.id = profile.user_id AND users.email = 'user11@movie.com'), (SELECT id FROM profiles WHERE genre_name = 'Political'), now(), now());</v>
+        <v>INSERT INTO likes_genres(id, profile_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = 'user11@movie.com'), (SELECT id FROM profiles WHERE genre_name = 'Political'), now(), now());</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
@@ -6710,8 +6993,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6725,43 +7008,43 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>54</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>55</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>14</v>
       </c>
       <c r="G1" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>60</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>61</v>
       </c>
       <c r="M1" s="3" t="s">
         <v>4</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O1" s="5" t="s">
         <v>6</v>
@@ -6769,13 +7052,13 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B2" t="s">
+        <v>211</v>
+      </c>
+      <c r="C2" t="s">
         <v>212</v>
-      </c>
-      <c r="C2" t="s">
-        <v>213</v>
       </c>
       <c r="D2" s="8">
         <v>37244</v>
@@ -6784,43 +7067,43 @@
         <v>178</v>
       </c>
       <c r="F2" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G2" t="s">
+        <v>213</v>
+      </c>
+      <c r="H2" t="s">
         <v>214</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
+        <v>214</v>
+      </c>
+      <c r="J2" t="s">
         <v>215</v>
       </c>
-      <c r="I2" t="s">
-        <v>216</v>
-      </c>
-      <c r="J2" t="s">
-        <v>217</v>
-      </c>
       <c r="K2" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="L2" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="M2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O2" s="6" t="str">
         <f xml:space="preserve"> "INSERT INTO profiles("&amp;A$1&amp;", "&amp;B$1&amp;", "&amp;C$1&amp;", "&amp;D$1&amp;", "&amp;E$1&amp;", "&amp;F$1&amp;", "&amp;G$1&amp;", "&amp;H$1&amp;", "&amp;I$1&amp;", "&amp;J$1&amp;", "&amp;K$1&amp;", "&amp;L$1&amp;", "&amp;M$1&amp;", "&amp;N$1&amp;") VALUES ("&amp;A2&amp;", '"&amp;B2&amp;"', '"&amp;C2&amp;"', '"&amp;D2&amp;"', '"&amp;E2&amp;"', '"&amp;F2&amp;"', '"&amp;G2&amp;"', '"&amp;H2&amp;"', '"&amp;I2&amp;"', '"&amp;J2&amp;"', '"&amp;K2&amp;"', '"&amp;L2&amp;"', "&amp;M2&amp;", "&amp;N2&amp;");"</f>
-        <v>INSERT INTO profiles(id, movie_name, description, date_released, duration, country, language, subtitles, dubbed, age_rating, poster, trailer, created_at, update_at) VALUES (DEFAULT, 'The Lord of the Rings: The Fellowship of the Ring', 'A meek Hobbit and eight companions set out on a journey to destroy the One Ring and the Dark Lord Sauron.', '37244', '178', 'USA', 'English', 'N', 'n', 'PG-13', 'http://vignette3.wikia.nocookie.net/lotr/images/7/74/LOTRFOTRmovie.jpg/revision/latest?cb=20150203040819', 'https://www.youtube.com/watch?v=V75dMMIW2B4', now(), now());</v>
+        <v>INSERT INTO profiles(id, movie_name, description, date_released, duration, country, language, subtitles, dubbed, age_rating, poster, trailer, created_at, update_at) VALUES (DEFAULT, 'The Lord of the Rings: The Fellowship of the Ring', 'A meek Hobbit and eight companions set out on a journey to destroy the One Ring and the Dark Lord Sauron.', '37244', '178', 'USA', 'English', 'N', 'N', 'PG-13', 'http://vignette3.wikia.nocookie.net/lotr/images/7/74/LOTRFOTRmovie.jpg/revision/latest?cb=20150203040819', 'https://www.youtube.com/watch?v=V75dMMIW2B4', now(), now());</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B3" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D3" s="8">
         <v>37608</v>
@@ -6829,31 +7112,31 @@
         <v>179</v>
       </c>
       <c r="F3" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G3" t="s">
+        <v>213</v>
+      </c>
+      <c r="H3" t="s">
         <v>214</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
+        <v>214</v>
+      </c>
+      <c r="J3" t="s">
         <v>215</v>
       </c>
-      <c r="I3" t="s">
-        <v>215</v>
-      </c>
-      <c r="J3" t="s">
-        <v>217</v>
-      </c>
       <c r="K3" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="L3" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="M3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O3" s="6" t="str">
         <f t="shared" ref="O3:O41" si="0" xml:space="preserve"> "INSERT INTO profiles("&amp;A$1&amp;", "&amp;B$1&amp;", "&amp;C$1&amp;", "&amp;D$1&amp;", "&amp;E$1&amp;", "&amp;F$1&amp;", "&amp;G$1&amp;", "&amp;H$1&amp;", "&amp;I$1&amp;", "&amp;J$1&amp;", "&amp;K$1&amp;", "&amp;L$1&amp;", "&amp;M$1&amp;", "&amp;N$1&amp;") VALUES ("&amp;A3&amp;", '"&amp;B3&amp;"', '"&amp;C3&amp;"', '"&amp;D3&amp;"', '"&amp;E3&amp;"', '"&amp;F3&amp;"', '"&amp;G3&amp;"', '"&amp;H3&amp;"', '"&amp;I3&amp;"', '"&amp;J3&amp;"', '"&amp;K3&amp;"', '"&amp;L3&amp;"', "&amp;M3&amp;", "&amp;N3&amp;");"</f>
@@ -6862,13 +7145,13 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B4" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C4" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D4" s="8">
         <v>37972</v>
@@ -6877,31 +7160,31 @@
         <v>201</v>
       </c>
       <c r="F4" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G4" t="s">
+        <v>213</v>
+      </c>
+      <c r="H4" t="s">
         <v>214</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
+        <v>214</v>
+      </c>
+      <c r="J4" t="s">
         <v>215</v>
       </c>
-      <c r="I4" t="s">
-        <v>215</v>
-      </c>
-      <c r="J4" t="s">
-        <v>217</v>
-      </c>
       <c r="K4" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="L4" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="M4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O4" s="6" t="str">
         <f t="shared" si="0"/>
@@ -6910,13 +7193,13 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B5" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C5" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D5" s="8">
         <v>38520</v>
@@ -6925,31 +7208,31 @@
         <v>119</v>
       </c>
       <c r="F5" t="s">
+        <v>222</v>
+      </c>
+      <c r="G5" t="s">
+        <v>223</v>
+      </c>
+      <c r="H5" t="s">
         <v>224</v>
       </c>
-      <c r="G5" t="s">
+      <c r="I5" t="s">
+        <v>224</v>
+      </c>
+      <c r="J5" t="s">
         <v>225</v>
       </c>
-      <c r="H5" t="s">
-        <v>226</v>
-      </c>
-      <c r="I5" t="s">
-        <v>226</v>
-      </c>
-      <c r="J5" t="s">
-        <v>227</v>
-      </c>
       <c r="K5" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="L5" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="M5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O5" s="6" t="str">
         <f t="shared" si="0"/>
@@ -6958,13 +7241,13 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B6" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C6" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D6" s="8">
         <v>33067</v>
@@ -6973,31 +7256,31 @@
         <v>127</v>
       </c>
       <c r="F6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G6" t="s">
+        <v>213</v>
+      </c>
+      <c r="H6" t="s">
         <v>214</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
+        <v>214</v>
+      </c>
+      <c r="J6" t="s">
         <v>215</v>
       </c>
-      <c r="I6" t="s">
-        <v>215</v>
-      </c>
-      <c r="J6" t="s">
-        <v>217</v>
-      </c>
       <c r="K6" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="L6" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="M6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O6" s="6" t="str">
         <f t="shared" si="0"/>
@@ -7006,13 +7289,13 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B7" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C7" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D7" s="8">
         <v>38163</v>
@@ -7021,31 +7304,31 @@
         <v>123</v>
       </c>
       <c r="F7" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G7" t="s">
+        <v>213</v>
+      </c>
+      <c r="H7" t="s">
         <v>214</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
+        <v>214</v>
+      </c>
+      <c r="J7" t="s">
         <v>215</v>
       </c>
-      <c r="I7" t="s">
-        <v>215</v>
-      </c>
-      <c r="J7" t="s">
-        <v>217</v>
-      </c>
       <c r="K7" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="L7" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="M7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O7" s="6" t="str">
         <f t="shared" si="0"/>
@@ -7054,13 +7337,13 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B8" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C8" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D8" s="8">
         <v>37281</v>
@@ -7069,31 +7352,31 @@
         <v>101</v>
       </c>
       <c r="F8" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G8" t="s">
+        <v>213</v>
+      </c>
+      <c r="H8" t="s">
         <v>214</v>
       </c>
-      <c r="H8" t="s">
-        <v>215</v>
-      </c>
       <c r="I8" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="J8" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="K8" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="L8" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="M8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O8" s="6" t="str">
         <f t="shared" si="0"/>
@@ -7102,13 +7385,13 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B9" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C9" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D9" s="8">
         <v>32010</v>
@@ -7117,43 +7400,46 @@
         <v>100</v>
       </c>
       <c r="F9" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G9" t="s">
+        <v>213</v>
+      </c>
+      <c r="H9" t="s">
         <v>214</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
+        <v>214</v>
+      </c>
+      <c r="J9" t="s">
         <v>215</v>
       </c>
-      <c r="I9" t="s">
-        <v>215</v>
-      </c>
-      <c r="J9" t="s">
-        <v>217</v>
+      <c r="K9" t="s">
+        <v>290</v>
       </c>
       <c r="L9" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="M9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O9" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO profiles(id, movie_name, description, date_released, duration, country, language, subtitles, dubbed, age_rating, poster, trailer, created_at, update_at) VALUES (DEFAULT, 'Dirty Dancing', 'Spending the summer at a Catskills resort with her family, Frances "Baby" Houseman falls in love with the camp''s dance instructor, Johnny Castle.', '32010', '100', 'USA', 'English', 'N', 'N', 'PG-13', '', 'https://www.youtube.com/watch?v=wcra0-0Gu4U', now(), now());</v>
+        <v>INSERT INTO profiles(id, movie_name, description, date_released, duration, country, language, subtitles, dubbed, age_rating, poster, trailer, created_at, update_at) VALUES (DEFAULT, 'Dirty Dancing', 'Spending the summer at a Catskills resort with her family, Frances "Baby" Houseman falls in love with the camp''s dance instructor, Johnny Castle.', '32010', '100', 'USA', 'English', 'N', 'N', 'PG-13', 'http://ecx.images-amazon.com/images/I/61PF6Oi%2BUhL._SY355_.jpg', 'https://www.youtube.com/watch?v=wcra0-0Gu4U', now(), now());</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B10" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C10" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D10" s="8">
         <v>36308</v>
@@ -7162,31 +7448,31 @@
         <v>124</v>
       </c>
       <c r="F10" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G10" t="s">
+        <v>213</v>
+      </c>
+      <c r="H10" t="s">
         <v>214</v>
       </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
+        <v>214</v>
+      </c>
+      <c r="J10" t="s">
         <v>215</v>
       </c>
-      <c r="I10" t="s">
-        <v>215</v>
-      </c>
-      <c r="J10" t="s">
-        <v>217</v>
-      </c>
       <c r="K10" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="L10" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="M10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O10" s="6" t="str">
         <f t="shared" si="0"/>
@@ -7195,13 +7481,13 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B11" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C11" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D11" s="8">
         <v>32955</v>
@@ -7210,31 +7496,31 @@
         <v>119</v>
       </c>
       <c r="F11" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G11" t="s">
+        <v>213</v>
+      </c>
+      <c r="H11" t="s">
         <v>214</v>
       </c>
-      <c r="H11" t="s">
-        <v>215</v>
-      </c>
       <c r="I11" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="J11" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="K11" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="L11" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="M11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O11" s="6" t="str">
         <f t="shared" si="0"/>
@@ -7243,13 +7529,13 @@
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B12" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C12" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D12" s="8">
         <v>32612</v>
@@ -7258,43 +7544,46 @@
         <v>100</v>
       </c>
       <c r="F12" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G12" t="s">
+        <v>213</v>
+      </c>
+      <c r="H12" t="s">
         <v>214</v>
       </c>
-      <c r="H12" t="s">
+      <c r="I12" t="s">
+        <v>214</v>
+      </c>
+      <c r="J12" t="s">
         <v>215</v>
       </c>
-      <c r="I12" t="s">
-        <v>215</v>
-      </c>
-      <c r="J12" t="s">
-        <v>217</v>
+      <c r="K12" t="s">
+        <v>291</v>
       </c>
       <c r="L12" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="M12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O12" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO profiles(id, movie_name, description, date_released, duration, country, language, subtitles, dubbed, age_rating, poster, trailer, created_at, update_at) VALUES (DEFAULT, 'Say Anything', 'A noble underachiever and a beautiful valedictorian fall in love the summer before she goes off to college.', '32612', '100', 'USA', 'English', 'N', 'N', 'PG-13', '', 'https://www.youtube.com/watch?v=QeUnT3f7eAA', now(), now());</v>
+        <v>INSERT INTO profiles(id, movie_name, description, date_released, duration, country, language, subtitles, dubbed, age_rating, poster, trailer, created_at, update_at) VALUES (DEFAULT, 'Say Anything', 'A noble underachiever and a beautiful valedictorian fall in love the summer before she goes off to college.', '32612', '100', 'USA', 'English', 'N', 'N', 'PG-13', 'https://upload.wikimedia.org/wikipedia/en/8/8a/Say_Anything.jpg', 'https://www.youtube.com/watch?v=QeUnT3f7eAA', now(), now());</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B13" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C13" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D13" s="8">
         <v>35783</v>
@@ -7303,43 +7592,46 @@
         <v>194</v>
       </c>
       <c r="F13" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G13" t="s">
+        <v>213</v>
+      </c>
+      <c r="H13" t="s">
         <v>214</v>
       </c>
-      <c r="H13" t="s">
+      <c r="I13" t="s">
+        <v>214</v>
+      </c>
+      <c r="J13" t="s">
         <v>215</v>
       </c>
-      <c r="I13" t="s">
-        <v>215</v>
-      </c>
-      <c r="J13" t="s">
-        <v>217</v>
+      <c r="K13" t="s">
+        <v>292</v>
       </c>
       <c r="L13" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="M13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O13" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO profiles(id, movie_name, description, date_released, duration, country, language, subtitles, dubbed, age_rating, poster, trailer, created_at, update_at) VALUES (DEFAULT, 'Titanic', 'A seventeen-year-old aristocrat falls in love with a kind, but poor artist aboard the luxurious, ill-fated R.M.S. Titanic.', '35783', '194', 'USA', 'English', 'N', 'N', 'PG-13', '', 'https://www.youtube.com/watch?v=zCy5WQ9S4c0', now(), now());</v>
+        <v>INSERT INTO profiles(id, movie_name, description, date_released, duration, country, language, subtitles, dubbed, age_rating, poster, trailer, created_at, update_at) VALUES (DEFAULT, 'Titanic', 'A seventeen-year-old aristocrat falls in love with a kind, but poor artist aboard the luxurious, ill-fated R.M.S. Titanic.', '35783', '194', 'USA', 'English', 'N', 'N', 'PG-13', 'http://cdn.traileraddict.com/content/paramount-pictures/titanic.jpg', 'https://www.youtube.com/watch?v=zCy5WQ9S4c0', now(), now());</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B14" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C14" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D14" s="8">
         <v>39437</v>
@@ -7348,43 +7640,46 @@
         <v>126</v>
       </c>
       <c r="F14" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G14" t="s">
+        <v>213</v>
+      </c>
+      <c r="H14" t="s">
         <v>214</v>
       </c>
-      <c r="H14" t="s">
+      <c r="I14" t="s">
+        <v>214</v>
+      </c>
+      <c r="J14" t="s">
         <v>215</v>
       </c>
-      <c r="I14" t="s">
-        <v>215</v>
-      </c>
-      <c r="J14" t="s">
-        <v>217</v>
+      <c r="K14" t="s">
+        <v>293</v>
       </c>
       <c r="L14" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="M14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O14" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO profiles(id, movie_name, description, date_released, duration, country, language, subtitles, dubbed, age_rating, poster, trailer, created_at, update_at) VALUES (DEFAULT, 'P.S. I Love You', 'A young widow discovers that her late husband has left her 10 messages intended to help ease her pain and start a new life.', '39437', '126', 'USA', 'English', 'N', 'N', 'PG-13', '', 'https://www.youtube.com/watch?v=CZzW6_hR068', now(), now());</v>
+        <v>INSERT INTO profiles(id, movie_name, description, date_released, duration, country, language, subtitles, dubbed, age_rating, poster, trailer, created_at, update_at) VALUES (DEFAULT, 'P.S. I Love You', 'A young widow discovers that her late husband has left her 10 messages intended to help ease her pain and start a new life.', '39437', '126', 'USA', 'English', 'N', 'N', 'PG-13', 'https://natashastander.files.wordpress.com/2014/01/ps-i-love-you-poster.jpg', 'https://www.youtube.com/watch?v=CZzW6_hR068', now(), now());</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B15" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C15" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D15" s="8">
         <v>34712</v>
@@ -7393,43 +7688,46 @@
         <v>133</v>
       </c>
       <c r="F15" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G15" t="s">
+        <v>213</v>
+      </c>
+      <c r="H15" t="s">
         <v>214</v>
       </c>
-      <c r="H15" t="s">
-        <v>215</v>
-      </c>
       <c r="I15" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="J15" t="s">
-        <v>240</v>
+        <v>238</v>
+      </c>
+      <c r="K15" t="s">
+        <v>294</v>
       </c>
       <c r="L15" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="M15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O15" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO profiles(id, movie_name, description, date_released, duration, country, language, subtitles, dubbed, age_rating, poster, trailer, created_at, update_at) VALUES (DEFAULT, 'Legends of the Fall', 'Epic tale of three brothers and their father living in the remote wilderness of 1900s USA and how their lives are affected by nature, history, war, love and betrayal.', '34712', '133', 'USA', 'English', 'N', 'N', 'R', '', 'https://www.youtube.com/watch?v=oEr4rhfDKcQ', now(), now());</v>
+        <v>INSERT INTO profiles(id, movie_name, description, date_released, duration, country, language, subtitles, dubbed, age_rating, poster, trailer, created_at, update_at) VALUES (DEFAULT, 'Legends of the Fall', 'Epic tale of three brothers and their father living in the remote wilderness of 1900s USA and how their lives are affected by nature, history, war, love and betrayal.', '34712', '133', 'USA', 'English', 'N', 'N', 'R', 'https://www.movieposter.com/posters/archive/main/63/MPW-31979', 'https://www.youtube.com/watch?v=oEr4rhfDKcQ', now(), now());</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B16" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C16" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D16" s="8">
         <v>38121</v>
@@ -7438,43 +7736,46 @@
         <v>163</v>
       </c>
       <c r="F16" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G16" t="s">
+        <v>213</v>
+      </c>
+      <c r="H16" t="s">
         <v>214</v>
       </c>
-      <c r="H16" t="s">
-        <v>215</v>
-      </c>
       <c r="I16" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="J16" t="s">
-        <v>240</v>
+        <v>238</v>
+      </c>
+      <c r="K16" t="s">
+        <v>297</v>
       </c>
       <c r="L16" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="M16" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N16" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O16" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO profiles(id, movie_name, description, date_released, duration, country, language, subtitles, dubbed, age_rating, poster, trailer, created_at, update_at) VALUES (DEFAULT, 'Troy', 'An adaptation of Homer''s great epic, the film follows the assault on Troy by the united Greek forces and chronicles the fates of the men involved.', '38121', '163', 'USA', 'English', 'N', 'N', 'R', '', 'https://www.youtube.com/watch?v=znTLzRJimeY', now(), now());</v>
+        <v>INSERT INTO profiles(id, movie_name, description, date_released, duration, country, language, subtitles, dubbed, age_rating, poster, trailer, created_at, update_at) VALUES (DEFAULT, 'Troy', 'An adaptation of Homer''s great epic, the film follows the assault on Troy by the united Greek forces and chronicles the fates of the men involved.', '38121', '163', 'USA', 'English', 'N', 'N', 'R', 'https://upload.wikimedia.org/wikipedia/en/b/b8/Troy2004Poster.jpg', 'https://www.youtube.com/watch?v=znTLzRJimeY', now(), now());</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B17" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C17" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D17" s="8">
         <v>34964</v>
@@ -7483,43 +7784,46 @@
         <v>127</v>
       </c>
       <c r="F17" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G17" t="s">
+        <v>213</v>
+      </c>
+      <c r="H17" t="s">
         <v>214</v>
       </c>
-      <c r="H17" t="s">
-        <v>215</v>
-      </c>
       <c r="I17" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="J17" t="s">
-        <v>240</v>
+        <v>238</v>
+      </c>
+      <c r="K17" t="s">
+        <v>295</v>
       </c>
       <c r="L17" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="M17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O17" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO profiles(id, movie_name, description, date_released, duration, country, language, subtitles, dubbed, age_rating, poster, trailer, created_at, update_at) VALUES (DEFAULT, 'Se7en', 'Two detectives, a rookie and a veteran, hunt a serial killer who uses the seven deadly sins as his modus operandi.', '34964', '127', 'USA', 'English', 'N', 'N', 'R', '', 'https://www.youtube.com/watch?v=J4YV2_TcCoE', now(), now());</v>
+        <v>INSERT INTO profiles(id, movie_name, description, date_released, duration, country, language, subtitles, dubbed, age_rating, poster, trailer, created_at, update_at) VALUES (DEFAULT, 'Se7en', 'Two detectives, a rookie and a veteran, hunt a serial killer who uses the seven deadly sins as his modus operandi.', '34964', '127', 'USA', 'English', 'N', 'N', 'R', 'http://img.goldposter.com/2015/04/Se7en_poster_goldposter_com_1.jpg', 'https://www.youtube.com/watch?v=J4YV2_TcCoE', now(), now());</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B18" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C18" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D18" s="8">
         <v>38184</v>
@@ -7528,43 +7832,46 @@
         <v>119</v>
       </c>
       <c r="F18" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="G18" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="H18" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="I18" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="J18" t="s">
-        <v>217</v>
+        <v>215</v>
+      </c>
+      <c r="K18" t="s">
+        <v>296</v>
       </c>
       <c r="L18" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="M18" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N18" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O18" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO profiles(id, movie_name, description, date_released, duration, country, language, subtitles, dubbed, age_rating, poster, trailer, created_at, update_at) VALUES (DEFAULT, 'House of Flying Daggers', 'A romantic police captain breaks a beautiful member of a rebel group out of prison to help her rejoin her fellows, but things are not what they seem.', '38184', '119', 'China', 'Mandarin', 'Y', 'Y', 'PG-13', '', 'https://www.youtube.com/watch?v=-GLVaSYzAvg', now(), now());</v>
+        <v>INSERT INTO profiles(id, movie_name, description, date_released, duration, country, language, subtitles, dubbed, age_rating, poster, trailer, created_at, update_at) VALUES (DEFAULT, 'House of Flying Daggers', 'A romantic police captain breaks a beautiful member of a rebel group out of prison to help her rejoin her fellows, but things are not what they seem.', '38184', '119', 'China', 'Mandarin', 'Y', 'Y', 'PG-13', 'http://static.rogerebert.com/uploads/movie/movie_poster/house-of-flying-daggers-2004/large_Ar5Ev4nycoJsrPYaabMCrTvPHIe.jpg', 'https://www.youtube.com/watch?v=-GLVaSYzAvg', now(), now());</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B19" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C19" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D19" s="8">
         <v>37553</v>
@@ -7573,43 +7880,46 @@
         <v>99</v>
       </c>
       <c r="F19" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="G19" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="H19" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="I19" t="s">
+        <v>214</v>
+      </c>
+      <c r="J19" t="s">
         <v>215</v>
       </c>
-      <c r="J19" t="s">
-        <v>217</v>
+      <c r="K19" t="s">
+        <v>298</v>
       </c>
       <c r="L19" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="M19" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N19" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O19" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO profiles(id, movie_name, description, date_released, duration, country, language, subtitles, dubbed, age_rating, poster, trailer, created_at, update_at) VALUES (DEFAULT, 'Hero', 'A defense officer, Nameless, was summoned by the King of Qin regarding his success of terminating three warriors.', '37553', '99', 'China', 'Mandarin', 'Y', 'N', 'PG-13', '', 'https://www.youtube.com/watch?v=srFhXDZhUZI', now(), now());</v>
+        <v>INSERT INTO profiles(id, movie_name, description, date_released, duration, country, language, subtitles, dubbed, age_rating, poster, trailer, created_at, update_at) VALUES (DEFAULT, 'Hero', 'A defense officer, Nameless, was summoned by the King of Qin regarding his success of terminating three warriors.', '37553', '99', 'China', 'Mandarin', 'Y', 'N', 'PG-13', 'https://upload.wikimedia.org/wikipedia/en/0/08/Hero_poster.jpg', 'https://www.youtube.com/watch?v=srFhXDZhUZI', now(), now());</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B20" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C20" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D20" s="8">
         <v>39639</v>
@@ -7618,43 +7928,46 @@
         <v>148</v>
       </c>
       <c r="F20" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="G20" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="H20" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="I20" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="J20" t="s">
-        <v>240</v>
+        <v>238</v>
+      </c>
+      <c r="K20" t="s">
+        <v>299</v>
       </c>
       <c r="L20" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="M20" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N20" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O20" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO profiles(id, movie_name, description, date_released, duration, country, language, subtitles, dubbed, age_rating, poster, trailer, created_at, update_at) VALUES (DEFAULT, 'Red Cliff', 'The first chapter of a two-part story centered on a battle fought in China''s Three Kingdoms period (220-280 A.D.).', '39639', '148', 'China', 'Mandarin', 'Y', 'N', 'R', '', 'https://www.youtube.com/watch?v=pd0bqLQrtdE', now(), now());</v>
+        <v>INSERT INTO profiles(id, movie_name, description, date_released, duration, country, language, subtitles, dubbed, age_rating, poster, trailer, created_at, update_at) VALUES (DEFAULT, 'Red Cliff', 'The first chapter of a two-part story centered on a battle fought in China''s Three Kingdoms period (220-280 A.D.).', '39639', '148', 'China', 'Mandarin', 'Y', 'N', 'R', 'https://upload.wikimedia.org/wikipedia/en/c/cf/Redcliffposter.jpg', 'https://www.youtube.com/watch?v=pd0bqLQrtdE', now(), now());</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B21" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C21" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D21" s="8">
         <v>39820</v>
@@ -7663,216 +7976,1000 @@
         <v>99</v>
       </c>
       <c r="F21" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="G21" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="H21" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="I21" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="J21" t="s">
-        <v>240</v>
+        <v>238</v>
+      </c>
+      <c r="K21" t="s">
+        <v>300</v>
       </c>
       <c r="L21" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="M21" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N21" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O21" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO profiles(id, movie_name, description, date_released, duration, country, language, subtitles, dubbed, age_rating, poster, trailer, created_at, update_at) VALUES (DEFAULT, 'Red Cliff II', 'In this sequel to Red Cliff, Chancellor Cao Cao convinces Emperor Xian of the Han to initiate a battle against the two Kingdoms of Shu and Wu, who have become allied forces, against all expectations. Red Cliff will be the site for the gigantic battle.', '39820', '99', 'China', 'Mandarin', 'Y', 'N', 'R', '', 'https://www.youtube.com/watch?v=M2KkencnKKc', now(), now());</v>
+        <v>INSERT INTO profiles(id, movie_name, description, date_released, duration, country, language, subtitles, dubbed, age_rating, poster, trailer, created_at, update_at) VALUES (DEFAULT, 'Red Cliff II', 'In this sequel to Red Cliff, Chancellor Cao Cao convinces Emperor Xian of the Han to initiate a battle against the two Kingdoms of Shu and Wu, who have become allied forces, against all expectations. Red Cliff will be the site for the gigantic battle.', '39820', '99', 'China', 'Mandarin', 'Y', 'N', 'R', 'http://oneguyrambling.com/wp-content/uploads/2009/12/red-cliff-2.jpg', 'https://www.youtube.com/watch?v=M2KkencnKKc', now(), now());</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>76</v>
+        <v>75</v>
+      </c>
+      <c r="B22" t="s">
+        <v>301</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>322</v>
+      </c>
+      <c r="D22" s="8">
+        <v>30981</v>
+      </c>
+      <c r="E22">
+        <v>107</v>
+      </c>
+      <c r="F22" t="s">
+        <v>216</v>
+      </c>
+      <c r="G22" t="s">
+        <v>213</v>
+      </c>
+      <c r="H22" t="s">
+        <v>214</v>
+      </c>
+      <c r="I22" t="s">
+        <v>214</v>
+      </c>
+      <c r="J22" t="s">
+        <v>238</v>
+      </c>
+      <c r="K22" t="s">
+        <v>321</v>
+      </c>
+      <c r="L22" t="s">
+        <v>325</v>
+      </c>
+      <c r="M22" t="s">
+        <v>83</v>
+      </c>
+      <c r="N22" t="s">
+        <v>83</v>
       </c>
       <c r="O22" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO profiles(id, movie_name, description, date_released, duration, country, language, subtitles, dubbed, age_rating, poster, trailer, created_at, update_at) VALUES (DEFAULT, '', '', '', '', '', '', '', '', '', '', '', , );</v>
+        <v>INSERT INTO profiles(id, movie_name, description, date_released, duration, country, language, subtitles, dubbed, age_rating, poster, trailer, created_at, update_at) VALUES (DEFAULT, 'Terminator', 'A human-looking indestructible cyborg is sent from 2029 to 1984 to assassinate a waitress, whose unborn son will lead humanity in a war against the machines, while a soldier from that war is sent to protect her at all costs.', '30981', '107', 'USA', 'English', 'N', 'N', 'R', 'http://ia.media-imdb.com/images/M/MV5BODE1MDczNTUxOV5BMl5BanBnXkFtZTcwMTA0NDQyNA@@._V1_UX182_CR0,0,182,268_AL_.jpg', 'https://www.youtube.com/watch?v=lHz95RYUbik', now(), now());</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>76</v>
+        <v>75</v>
+      </c>
+      <c r="B23" t="s">
+        <v>302</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>324</v>
+      </c>
+      <c r="D23" s="8">
+        <v>29028</v>
+      </c>
+      <c r="E23">
+        <v>117</v>
+      </c>
+      <c r="F23" t="s">
+        <v>216</v>
+      </c>
+      <c r="G23" t="s">
+        <v>213</v>
+      </c>
+      <c r="H23" t="s">
+        <v>214</v>
+      </c>
+      <c r="I23" t="s">
+        <v>214</v>
+      </c>
+      <c r="J23" t="s">
+        <v>238</v>
+      </c>
+      <c r="K23" t="s">
+        <v>323</v>
+      </c>
+      <c r="L23" t="s">
+        <v>326</v>
+      </c>
+      <c r="M23" t="s">
+        <v>83</v>
+      </c>
+      <c r="N23" t="s">
+        <v>83</v>
       </c>
       <c r="O23" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO profiles(id, movie_name, description, date_released, duration, country, language, subtitles, dubbed, age_rating, poster, trailer, created_at, update_at) VALUES (DEFAULT, '', '', '', '', '', '', '', '', '', '', '', , );</v>
+        <v>INSERT INTO profiles(id, movie_name, description, date_released, duration, country, language, subtitles, dubbed, age_rating, poster, trailer, created_at, update_at) VALUES (DEFAULT, 'Alien', 'After a space merchant vessel perceives an unknown transmission as distress call, their landing on the source planet finds one of the crew attacked by a mysterious lifeform. ', '29028', '117', 'USA', 'English', 'N', 'N', 'R', 'http://ia.media-imdb.com/images/M/MV5BMTU1ODQ4NjQyOV5BMl5BanBnXkFtZTgwOTQ3NDU2MTE@._V1_UX182_CR0,0,182,268_AL_.jpg', 'https://www.youtube.com/watch?v=LjLamj-b0I8', now(), now());</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>76</v>
+        <v>75</v>
+      </c>
+      <c r="B24" t="s">
+        <v>303</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>327</v>
+      </c>
+      <c r="D24" s="8">
+        <v>41068</v>
+      </c>
+      <c r="E24">
+        <v>124</v>
+      </c>
+      <c r="F24" t="s">
+        <v>216</v>
+      </c>
+      <c r="G24" t="s">
+        <v>213</v>
+      </c>
+      <c r="H24" t="s">
+        <v>214</v>
+      </c>
+      <c r="I24" t="s">
+        <v>214</v>
+      </c>
+      <c r="J24" t="s">
+        <v>238</v>
+      </c>
+      <c r="K24" t="s">
+        <v>328</v>
+      </c>
+      <c r="L24" t="s">
+        <v>329</v>
+      </c>
+      <c r="M24" t="s">
+        <v>83</v>
+      </c>
+      <c r="N24" t="s">
+        <v>83</v>
       </c>
       <c r="O24" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO profiles(id, movie_name, description, date_released, duration, country, language, subtitles, dubbed, age_rating, poster, trailer, created_at, update_at) VALUES (DEFAULT, '', '', '', '', '', '', '', '', '', '', '', , );</v>
+        <v>INSERT INTO profiles(id, movie_name, description, date_released, duration, country, language, subtitles, dubbed, age_rating, poster, trailer, created_at, update_at) VALUES (DEFAULT, 'Prometheus', 'Following clues to the origin of mankind a team journey across the universe and find a structure on a distant planet containing a monolithic statue of a humanoid head and stone cylinders of alien blood but they soon find they are not alone.', '41068', '124', 'USA', 'English', 'N', 'N', 'R', 'http://ia.media-imdb.com/images/M/MV5BMTY3NzIyNTA2NV5BMl5BanBnXkFtZTcwNzE2NjI4Nw@@._V1_UX182_CR0,0,182,268_AL_.jpg', 'https://www.youtube.com/watch?v=sftuxbvGwiU', now(), now());</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>76</v>
+        <v>75</v>
+      </c>
+      <c r="B25" t="s">
+        <v>304</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>330</v>
+      </c>
+      <c r="D25" s="8">
+        <v>35839</v>
+      </c>
+      <c r="E25">
+        <v>134</v>
+      </c>
+      <c r="F25" t="s">
+        <v>216</v>
+      </c>
+      <c r="G25" t="s">
+        <v>213</v>
+      </c>
+      <c r="H25" t="s">
+        <v>214</v>
+      </c>
+      <c r="I25" t="s">
+        <v>214</v>
+      </c>
+      <c r="J25" t="s">
+        <v>215</v>
+      </c>
+      <c r="K25" t="s">
+        <v>331</v>
+      </c>
+      <c r="L25" t="s">
+        <v>332</v>
+      </c>
+      <c r="M25" t="s">
+        <v>83</v>
+      </c>
+      <c r="N25" t="s">
+        <v>83</v>
       </c>
       <c r="O25" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO profiles(id, movie_name, description, date_released, duration, country, language, subtitles, dubbed, age_rating, poster, trailer, created_at, update_at) VALUES (DEFAULT, '', '', '', '', '', '', '', '', '', '', '', , );</v>
+        <v>INSERT INTO profiles(id, movie_name, description, date_released, duration, country, language, subtitles, dubbed, age_rating, poster, trailer, created_at, update_at) VALUES (DEFAULT, 'Sphere', 'A spaceship is discovered under three hundred years' worth of coral growth at the bottom of the ocean.', '35839', '134', 'USA', 'English', 'N', 'N', 'PG-13', 'http://ia.media-imdb.com/images/M/MV5BMTUyNTE2MjEyNV5BMl5BanBnXkFtZTcwODQ0NTYxMQ@@._V1_UY268_CR6,0,182,268_AL_.jpg', 'https://www.youtube.com/watch?v=kozds_anirw', now(), now());</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>76</v>
+        <v>75</v>
+      </c>
+      <c r="B26" t="s">
+        <v>305</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>333</v>
+      </c>
+      <c r="D26" s="8">
+        <v>28270</v>
+      </c>
+      <c r="E26">
+        <v>121</v>
+      </c>
+      <c r="F26" t="s">
+        <v>216</v>
+      </c>
+      <c r="G26" t="s">
+        <v>213</v>
+      </c>
+      <c r="H26" t="s">
+        <v>214</v>
+      </c>
+      <c r="I26" t="s">
+        <v>214</v>
+      </c>
+      <c r="J26" t="s">
+        <v>225</v>
+      </c>
+      <c r="K26" t="s">
+        <v>334</v>
+      </c>
+      <c r="L26" t="s">
+        <v>335</v>
+      </c>
+      <c r="M26" t="s">
+        <v>83</v>
+      </c>
+      <c r="N26" t="s">
+        <v>83</v>
       </c>
       <c r="O26" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO profiles(id, movie_name, description, date_released, duration, country, language, subtitles, dubbed, age_rating, poster, trailer, created_at, update_at) VALUES (DEFAULT, '', '', '', '', '', '', '', '', '', '', '', , );</v>
+        <v>INSERT INTO profiles(id, movie_name, description, date_released, duration, country, language, subtitles, dubbed, age_rating, poster, trailer, created_at, update_at) VALUES (DEFAULT, 'Star Wars: Episode IV – A New Hope', 'Luke Skywalker joins forces with a Jedi Knight, a cocky pilot, a wookiee and two droids to save the galaxy from the Empire's world-destroying battle-station, while also attempting to rescue Princess Leia from the evil Darth Vader.', '28270', '121', 'USA', 'English', 'N', 'N', 'PG', 'http://ia.media-imdb.com/images/M/MV5BOTIyMDY2NGQtOGJjNi00OTk4LWFhMDgtYmE3M2NiYzM0YTVmXkEyXkFqcGdeQXVyNTU1NTcwOTk@._V1_UX182_CR0,0,182,268_AL_.jpg', 'https://www.youtube.com/watch?v=1g3_CFmnU7k', now(), now());</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>76</v>
+        <v>75</v>
+      </c>
+      <c r="B27" t="s">
+        <v>314</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>336</v>
+      </c>
+      <c r="D27" s="8">
+        <v>42361</v>
+      </c>
+      <c r="E27">
+        <v>130</v>
+      </c>
+      <c r="F27" t="s">
+        <v>216</v>
+      </c>
+      <c r="G27" t="s">
+        <v>213</v>
+      </c>
+      <c r="H27" t="s">
+        <v>214</v>
+      </c>
+      <c r="I27" t="s">
+        <v>214</v>
+      </c>
+      <c r="J27" t="s">
+        <v>238</v>
+      </c>
+      <c r="K27" t="s">
+        <v>337</v>
+      </c>
+      <c r="L27" t="s">
+        <v>338</v>
+      </c>
+      <c r="M27" t="s">
+        <v>83</v>
+      </c>
+      <c r="N27" t="s">
+        <v>83</v>
       </c>
       <c r="O27" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO profiles(id, movie_name, description, date_released, duration, country, language, subtitles, dubbed, age_rating, poster, trailer, created_at, update_at) VALUES (DEFAULT, '', '', '', '', '', '', '', '', '', '', '', , );</v>
+        <v>INSERT INTO profiles(id, movie_name, description, date_released, duration, country, language, subtitles, dubbed, age_rating, poster, trailer, created_at, update_at) VALUES (DEFAULT, 'The Big Short', 'Four denizens in the world of high-finance predict the credit and housing bubble collapse of the mid-2000s, and decide to take on the big banks for their greed and lack of foresight.', '42361', '130', 'USA', 'English', 'N', 'N', 'R', 'http://ia.media-imdb.com/images/M/MV5BMjM2MTQ2MzcxOF5BMl5BanBnXkFtZTgwNzE4NTUyNzE@._V1_UX182_CR0,0,182,268_AL_.jpg', 'https://www.youtube.com/watch?v=vgqG3ITMv1Q', now(), now());</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>76</v>
+        <v>75</v>
+      </c>
+      <c r="B28" t="s">
+        <v>306</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>339</v>
+      </c>
+      <c r="D28" s="8">
+        <v>35622</v>
+      </c>
+      <c r="E28">
+        <v>136</v>
+      </c>
+      <c r="F28" t="s">
+        <v>222</v>
+      </c>
+      <c r="G28" t="s">
+        <v>223</v>
+      </c>
+      <c r="H28" t="s">
+        <v>224</v>
+      </c>
+      <c r="I28" t="s">
+        <v>214</v>
+      </c>
+      <c r="J28" t="s">
+        <v>225</v>
+      </c>
+      <c r="K28" t="s">
+        <v>340</v>
+      </c>
+      <c r="L28" t="s">
+        <v>341</v>
+      </c>
+      <c r="M28" t="s">
+        <v>83</v>
+      </c>
+      <c r="N28" t="s">
+        <v>83</v>
       </c>
       <c r="O28" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO profiles(id, movie_name, description, date_released, duration, country, language, subtitles, dubbed, age_rating, poster, trailer, created_at, update_at) VALUES (DEFAULT, '', '', '', '', '', '', '', '', '', '', '', , );</v>
+        <v>INSERT INTO profiles(id, movie_name, description, date_released, duration, country, language, subtitles, dubbed, age_rating, poster, trailer, created_at, update_at) VALUES (DEFAULT, 'Shall We Dance?', 'A successful but unhappy Japanese accountant finds the missing passion in his life when he begins to secretly take ballroom dance lessons.', '35622', '136', 'Japan', 'Japanese', 'Y', 'N', 'PG', 'http://ia.media-imdb.com/images/M/MV5BMTk2Nzk4MTcyMF5BMl5BanBnXkFtZTcwMDI0NDMzMQ@@._V1_UY268_CR3,0,182,268_AL_.jpg', 'https://www.youtube.com/watch?v=zQWEhPYwuY4', now(), now());</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>76</v>
+        <v>75</v>
+      </c>
+      <c r="B29" t="s">
+        <v>306</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>342</v>
+      </c>
+      <c r="D29" s="8">
+        <v>38275</v>
+      </c>
+      <c r="E29">
+        <v>104</v>
+      </c>
+      <c r="F29" t="s">
+        <v>216</v>
+      </c>
+      <c r="G29" t="s">
+        <v>213</v>
+      </c>
+      <c r="H29" t="s">
+        <v>214</v>
+      </c>
+      <c r="I29" t="s">
+        <v>214</v>
+      </c>
+      <c r="J29" t="s">
+        <v>215</v>
+      </c>
+      <c r="K29" t="s">
+        <v>343</v>
+      </c>
+      <c r="L29" t="s">
+        <v>344</v>
+      </c>
+      <c r="M29" t="s">
+        <v>83</v>
+      </c>
+      <c r="N29" t="s">
+        <v>83</v>
       </c>
       <c r="O29" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO profiles(id, movie_name, description, date_released, duration, country, language, subtitles, dubbed, age_rating, poster, trailer, created_at, update_at) VALUES (DEFAULT, '', '', '', '', '', '', '', '', '', '', '', , );</v>
+        <f xml:space="preserve"> "INSERT INTO profiles("&amp;A$1&amp;", "&amp;B$1&amp;", "&amp;C$1&amp;", "&amp;D$1&amp;", "&amp;E$1&amp;", "&amp;F$1&amp;", "&amp;G$1&amp;", "&amp;H$1&amp;", "&amp;I$1&amp;", "&amp;J$1&amp;", "&amp;K$1&amp;", "&amp;L$1&amp;", "&amp;M$1&amp;", "&amp;N$1&amp;") VALUES ("&amp;A29&amp;", '"&amp;B29&amp;"', '"&amp;C29&amp;"', '"&amp;D29&amp;"', '"&amp;E29&amp;"', '"&amp;F29&amp;"', '"&amp;G29&amp;"', '"&amp;H29&amp;"', '"&amp;I29&amp;"', '"&amp;J29&amp;"', '"&amp;K29&amp;"', '"&amp;L29&amp;"', "&amp;M29&amp;", "&amp;N29&amp;");"</f>
+        <v>INSERT INTO profiles(id, movie_name, description, date_released, duration, country, language, subtitles, dubbed, age_rating, poster, trailer, created_at, update_at) VALUES (DEFAULT, 'Shall We Dance?', 'A romantic comedy where a bored, overworked Estate Lawyer, upon first sight of a beautiful instructor, signs up for ballroom dancing lessons.', '38275', '104', 'USA', 'English', 'N', 'N', 'PG-13', 'http://ia.media-imdb.com/images/M/MV5BMTcwODUwMTMxN15BMl5BanBnXkFtZTcwNzc3MjcyMQ@@._V1_UX182_CR0,0,182,268_AL_.jpg', 'https://www.youtube.com/watch?v=UGtS3CL-zpo', now(), now());</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>76</v>
+        <v>75</v>
+      </c>
+      <c r="B30" t="s">
+        <v>317</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>345</v>
+      </c>
+      <c r="D30" s="8">
+        <v>34521</v>
+      </c>
+      <c r="E30">
+        <v>142</v>
+      </c>
+      <c r="F30" t="s">
+        <v>216</v>
+      </c>
+      <c r="G30" t="s">
+        <v>213</v>
+      </c>
+      <c r="H30" t="s">
+        <v>214</v>
+      </c>
+      <c r="I30" t="s">
+        <v>214</v>
+      </c>
+      <c r="J30" t="s">
+        <v>215</v>
+      </c>
+      <c r="K30" t="s">
+        <v>346</v>
+      </c>
+      <c r="L30" t="s">
+        <v>347</v>
+      </c>
+      <c r="M30" t="s">
+        <v>83</v>
+      </c>
+      <c r="N30" t="s">
+        <v>83</v>
       </c>
       <c r="O30" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO profiles(id, movie_name, description, date_released, duration, country, language, subtitles, dubbed, age_rating, poster, trailer, created_at, update_at) VALUES (DEFAULT, '', '', '', '', '', '', '', '', '', '', '', , );</v>
+        <f xml:space="preserve"> "INSERT INTO profiles("&amp;A$1&amp;", "&amp;B$1&amp;", "&amp;C$1&amp;", "&amp;D$1&amp;", "&amp;E$1&amp;", "&amp;F$1&amp;", "&amp;G$1&amp;", "&amp;H$1&amp;", "&amp;I$1&amp;", "&amp;J$1&amp;", "&amp;K$1&amp;", "&amp;L$1&amp;", "&amp;M$1&amp;", "&amp;N$1&amp;") VALUES ("&amp;A30&amp;", '"&amp;B30&amp;"', '"&amp;C30&amp;"', '"&amp;D30&amp;"', '"&amp;E30&amp;"', '"&amp;F30&amp;"', '"&amp;G30&amp;"', '"&amp;H30&amp;"', '"&amp;I30&amp;"', '"&amp;J30&amp;"', '"&amp;K30&amp;"', '"&amp;L30&amp;"', "&amp;M30&amp;", "&amp;N30&amp;");"</f>
+        <v>INSERT INTO profiles(id, movie_name, description, date_released, duration, country, language, subtitles, dubbed, age_rating, poster, trailer, created_at, update_at) VALUES (DEFAULT, 'Forest Gump', 'Forrest Gump, while not intelligent, has accidentally been present at many historic moments, but his true love, Jenny Curran, eludes him.', '34521', '142', 'USA', 'English', 'N', 'N', 'PG-13', 'http://ia.media-imdb.com/images/M/MV5BMTI1Nzk1MzQwMV5BMl5BanBnXkFtZTYwODkxOTA5._V1_UY268_CR2,0,182,268_AL_.jpg', 'https://www.youtube.com/watch?v=uPIEn0M8su0', now(), now());</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>76</v>
+        <v>75</v>
+      </c>
+      <c r="B31" t="s">
+        <v>307</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>348</v>
+      </c>
+      <c r="D31" s="8">
+        <v>41268</v>
+      </c>
+      <c r="E31">
+        <v>158</v>
+      </c>
+      <c r="F31" t="s">
+        <v>216</v>
+      </c>
+      <c r="G31" t="s">
+        <v>213</v>
+      </c>
+      <c r="H31" t="s">
+        <v>214</v>
+      </c>
+      <c r="I31" t="s">
+        <v>214</v>
+      </c>
+      <c r="J31" t="s">
+        <v>215</v>
+      </c>
+      <c r="K31" t="s">
+        <v>349</v>
+      </c>
+      <c r="L31" t="s">
+        <v>350</v>
+      </c>
+      <c r="M31" t="s">
+        <v>83</v>
+      </c>
+      <c r="N31" t="s">
+        <v>83</v>
       </c>
       <c r="O31" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO profiles(id, movie_name, description, date_released, duration, country, language, subtitles, dubbed, age_rating, poster, trailer, created_at, update_at) VALUES (DEFAULT, '', '', '', '', '', '', '', '', '', '', '', , );</v>
+        <f xml:space="preserve"> "INSERT INTO profiles("&amp;A$1&amp;", "&amp;B$1&amp;", "&amp;C$1&amp;", "&amp;D$1&amp;", "&amp;E$1&amp;", "&amp;F$1&amp;", "&amp;G$1&amp;", "&amp;H$1&amp;", "&amp;I$1&amp;", "&amp;J$1&amp;", "&amp;K$1&amp;", "&amp;L$1&amp;", "&amp;M$1&amp;", "&amp;N$1&amp;") VALUES ("&amp;A31&amp;", '"&amp;B31&amp;"', '"&amp;C31&amp;"', '"&amp;D31&amp;"', '"&amp;E31&amp;"', '"&amp;F31&amp;"', '"&amp;G31&amp;"', '"&amp;H31&amp;"', '"&amp;I31&amp;"', '"&amp;J31&amp;"', '"&amp;K31&amp;"', '"&amp;L31&amp;"', "&amp;M31&amp;", "&amp;N31&amp;");"</f>
+        <v>INSERT INTO profiles(id, movie_name, description, date_released, duration, country, language, subtitles, dubbed, age_rating, poster, trailer, created_at, update_at) VALUES (DEFAULT, 'Les Miserables', 'In 19th-century France, Jean Valjean, who for decades has been hunted by the ruthless policeman Javert after breaking parole, agrees to care for a factory worker's daughter. The decision changes their lives forever.', '41268', '158', 'USA', 'English', 'N', 'N', 'PG-13', 'http://ia.media-imdb.com/images/M/MV5BMTQ4NDI3NDg4M15BMl5BanBnXkFtZTcwMjY5OTI1OA@@._V1_UX182_CR0,0,182,268_AL_.jpg', 'https://www.youtube.com/watch?v=YmvHzCLP6ug', now(), now());</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>76</v>
+        <v>75</v>
+      </c>
+      <c r="B32" t="s">
+        <v>308</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>351</v>
+      </c>
+      <c r="D32" s="8">
+        <v>35727</v>
+      </c>
+      <c r="E32">
+        <v>106</v>
+      </c>
+      <c r="F32" t="s">
+        <v>216</v>
+      </c>
+      <c r="G32" t="s">
+        <v>213</v>
+      </c>
+      <c r="H32" t="s">
+        <v>214</v>
+      </c>
+      <c r="I32" t="s">
+        <v>214</v>
+      </c>
+      <c r="J32" t="s">
+        <v>215</v>
+      </c>
+      <c r="K32" t="s">
+        <v>352</v>
+      </c>
+      <c r="L32" t="s">
+        <v>353</v>
+      </c>
+      <c r="M32" t="s">
+        <v>83</v>
+      </c>
+      <c r="N32" t="s">
+        <v>83</v>
       </c>
       <c r="O32" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO profiles(id, movie_name, description, date_released, duration, country, language, subtitles, dubbed, age_rating, poster, trailer, created_at, update_at) VALUES (DEFAULT, '', '', '', '', '', '', '', '', '', '', '', , );</v>
+        <v>INSERT INTO profiles(id, movie_name, description, date_released, duration, country, language, subtitles, dubbed, age_rating, poster, trailer, created_at, update_at) VALUES (DEFAULT, 'Gattica', 'A genetically inferior man assumes the identity of a superior one in order to pursue his lifelong dream of space travel.', '35727', '106', 'USA', 'English', 'N', 'N', 'PG-13', 'http://ia.media-imdb.com/images/M/MV5BNzQxMzU3OTQwNF5BMl5BanBnXkFtZTYwNDUyNTE5._V1_UY268_CR3,0,182,268_AL_.jpg', 'https://www.youtube.com/watch?v=hWjlUj7Czlk', now(), now());</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>76</v>
+        <v>75</v>
+      </c>
+      <c r="B33" t="s">
+        <v>318</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>354</v>
+      </c>
+      <c r="D33" s="8">
+        <v>40725</v>
+      </c>
+      <c r="E33">
+        <v>98</v>
+      </c>
+      <c r="F33" t="s">
+        <v>216</v>
+      </c>
+      <c r="G33" t="s">
+        <v>213</v>
+      </c>
+      <c r="H33" t="s">
+        <v>214</v>
+      </c>
+      <c r="I33" t="s">
+        <v>214</v>
+      </c>
+      <c r="J33" t="s">
+        <v>215</v>
+      </c>
+      <c r="K33" t="s">
+        <v>355</v>
+      </c>
+      <c r="L33" t="s">
+        <v>356</v>
+      </c>
+      <c r="M33" t="s">
+        <v>83</v>
+      </c>
+      <c r="N33" t="s">
+        <v>83</v>
       </c>
       <c r="O33" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO profiles(id, movie_name, description, date_released, duration, country, language, subtitles, dubbed, age_rating, poster, trailer, created_at, update_at) VALUES (DEFAULT, '', '', '', '', '', '', '', '', '', '', '', , );</v>
+        <v>INSERT INTO profiles(id, movie_name, description, date_released, duration, country, language, subtitles, dubbed, age_rating, poster, trailer, created_at, update_at) VALUES (DEFAULT, 'Larry Crowne', 'After losing his job, a middle-aged man reinvents himself by going back to college.', '40725', '98', 'USA', 'English', 'N', 'N', 'PG-13', 'http://ia.media-imdb.com/images/M/MV5BMTM1NzAyNTEwN15BMl5BanBnXkFtZTcwODYyNTEzNQ@@._V1._CR68,54,886,1396_UX182_CR0,0,182,268_AL_.jpg', 'https://www.youtube.com/watch?v=1UNtrqRG7GA', now(), now());</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>76</v>
+        <v>75</v>
+      </c>
+      <c r="B34" t="s">
+        <v>309</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>357</v>
+      </c>
+      <c r="D34" s="8">
+        <v>39962</v>
+      </c>
+      <c r="E34">
+        <v>96</v>
+      </c>
+      <c r="F34" t="s">
+        <v>216</v>
+      </c>
+      <c r="G34" t="s">
+        <v>213</v>
+      </c>
+      <c r="H34" t="s">
+        <v>214</v>
+      </c>
+      <c r="I34" t="s">
+        <v>214</v>
+      </c>
+      <c r="J34" t="s">
+        <v>225</v>
+      </c>
+      <c r="K34" t="s">
+        <v>358</v>
+      </c>
+      <c r="L34" t="s">
+        <v>359</v>
+      </c>
+      <c r="M34" t="s">
+        <v>83</v>
+      </c>
+      <c r="N34" t="s">
+        <v>83</v>
       </c>
       <c r="O34" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO profiles(id, movie_name, description, date_released, duration, country, language, subtitles, dubbed, age_rating, poster, trailer, created_at, update_at) VALUES (DEFAULT, '', '', '', '', '', '', '', '', '', '', '', , );</v>
+        <v>INSERT INTO profiles(id, movie_name, description, date_released, duration, country, language, subtitles, dubbed, age_rating, poster, trailer, created_at, update_at) VALUES (DEFAULT, 'Up', 'Seventy-eight year old Carl Fredricksen travels to Paradise Falls in his home equipped with balloons, inadvertently taking a young stowaway.', '39962', '96', 'USA', 'English', 'N', 'N', 'PG', 'http://ia.media-imdb.com/images/M/MV5BMTk3NDE2NzI4NF5BMl5BanBnXkFtZTgwNzE1MzEyMTE@._V1_UX182_CR0,0,182,268_AL_.jpg', 'https://www.youtube.com/watch?v=qas5lWp7_R0', now(), now());</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>76</v>
+        <v>75</v>
+      </c>
+      <c r="B35" t="s">
+        <v>320</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>360</v>
+      </c>
+      <c r="D35" s="8">
+        <v>35025</v>
+      </c>
+      <c r="E35">
+        <v>81</v>
+      </c>
+      <c r="F35" t="s">
+        <v>216</v>
+      </c>
+      <c r="G35" t="s">
+        <v>213</v>
+      </c>
+      <c r="H35" t="s">
+        <v>214</v>
+      </c>
+      <c r="I35" t="s">
+        <v>214</v>
+      </c>
+      <c r="J35" t="s">
+        <v>361</v>
+      </c>
+      <c r="K35" t="s">
+        <v>362</v>
+      </c>
+      <c r="L35" t="s">
+        <v>363</v>
+      </c>
+      <c r="M35" t="s">
+        <v>83</v>
+      </c>
+      <c r="N35" t="s">
+        <v>83</v>
       </c>
       <c r="O35" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO profiles(id, movie_name, description, date_released, duration, country, language, subtitles, dubbed, age_rating, poster, trailer, created_at, update_at) VALUES (DEFAULT, '', '', '', '', '', '', '', '', '', '', '', , );</v>
+        <v>INSERT INTO profiles(id, movie_name, description, date_released, duration, country, language, subtitles, dubbed, age_rating, poster, trailer, created_at, update_at) VALUES (DEFAULT, 'Toy Story', 'A cowboy doll is profoundly threatened and jealous when a new spaceman figure supplants him as top toy in a boy's room.', '35025', '81', 'USA', 'English', 'N', 'N', 'G', 'http://ia.media-imdb.com/images/M/MV5BMTgwMjI4MzU5N15BMl5BanBnXkFtZTcwMTMyNTk3OA@@._V1_UY268_CR9,0,182,268_AL_.jpg', 'https://www.youtube.com/watch?v=KYz2wyBy3kc', now(), now());</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>76</v>
+        <v>75</v>
+      </c>
+      <c r="B36" t="s">
+        <v>310</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>364</v>
+      </c>
+      <c r="D36" s="8">
+        <v>41410</v>
+      </c>
+      <c r="E36">
+        <v>132</v>
+      </c>
+      <c r="F36" t="s">
+        <v>216</v>
+      </c>
+      <c r="G36" t="s">
+        <v>213</v>
+      </c>
+      <c r="H36" t="s">
+        <v>214</v>
+      </c>
+      <c r="I36" t="s">
+        <v>214</v>
+      </c>
+      <c r="J36" t="s">
+        <v>215</v>
+      </c>
+      <c r="K36" t="s">
+        <v>365</v>
+      </c>
+      <c r="L36" t="s">
+        <v>366</v>
+      </c>
+      <c r="M36" t="s">
+        <v>83</v>
+      </c>
+      <c r="N36" t="s">
+        <v>83</v>
       </c>
       <c r="O36" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO profiles(id, movie_name, description, date_released, duration, country, language, subtitles, dubbed, age_rating, poster, trailer, created_at, update_at) VALUES (DEFAULT, '', '', '', '', '', '', '', '', '', '', '', , );</v>
+        <v>INSERT INTO profiles(id, movie_name, description, date_released, duration, country, language, subtitles, dubbed, age_rating, poster, trailer, created_at, update_at) VALUES (DEFAULT, 'Star Trek: Into Darkness', 'After the crew of the Enterprise find an unstoppable force of terror from within their own organization, Captain Kirk leads a manhunt to a war-zone world to capture a one-man weapon of mass destruction.', '41410', '132', 'USA', 'English', 'N', 'N', 'PG-13', 'http://ia.media-imdb.com/images/M/MV5BMTk2NzczOTgxNF5BMl5BanBnXkFtZTcwODQ5ODczOQ@@._V1_UX182_CR0,0,182,268_AL_.jpg', 'https://www.youtube.com/watch?v=QAEkuVgt6Aw', now(), now());</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>76</v>
+        <v>75</v>
+      </c>
+      <c r="B37" t="s">
+        <v>311</v>
+      </c>
+      <c r="C37" s="9" t="s">
+        <v>367</v>
+      </c>
+      <c r="D37" s="8">
+        <v>38518</v>
+      </c>
+      <c r="E37">
+        <v>140</v>
+      </c>
+      <c r="F37" t="s">
+        <v>216</v>
+      </c>
+      <c r="G37" t="s">
+        <v>213</v>
+      </c>
+      <c r="H37" t="s">
+        <v>214</v>
+      </c>
+      <c r="I37" t="s">
+        <v>214</v>
+      </c>
+      <c r="J37" t="s">
+        <v>215</v>
+      </c>
+      <c r="K37" t="s">
+        <v>368</v>
+      </c>
+      <c r="L37" t="s">
+        <v>369</v>
+      </c>
+      <c r="M37" t="s">
+        <v>83</v>
+      </c>
+      <c r="N37" t="s">
+        <v>83</v>
       </c>
       <c r="O37" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO profiles(id, movie_name, description, date_released, duration, country, language, subtitles, dubbed, age_rating, poster, trailer, created_at, update_at) VALUES (DEFAULT, '', '', '', '', '', '', '', '', '', '', '', , );</v>
+        <v>INSERT INTO profiles(id, movie_name, description, date_released, duration, country, language, subtitles, dubbed, age_rating, poster, trailer, created_at, update_at) VALUES (DEFAULT, 'Batman Begins', 'After training with his mentor, Batman begins his war on crime to free the crime-ridden Gotham City from corruption that the Scarecrow and the League of Shadows have cast upon it.', '38518', '140', 'USA', 'English', 'N', 'N', 'PG-13', 'http://ia.media-imdb.com/images/M/MV5BNTM3OTc0MzM2OV5BMl5BanBnXkFtZTYwNzUwMTI3._V1_UX182_CR0,0,182,268_AL_.jpg', 'https://www.youtube.com/watch?v=neY2xVmOfUM', now(), now());</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>76</v>
+        <v>75</v>
+      </c>
+      <c r="B38" t="s">
+        <v>319</v>
+      </c>
+      <c r="C38" s="9" t="s">
+        <v>370</v>
+      </c>
+      <c r="D38" s="8">
+        <v>42293</v>
+      </c>
+      <c r="E38">
+        <v>142</v>
+      </c>
+      <c r="F38" t="s">
+        <v>216</v>
+      </c>
+      <c r="G38" t="s">
+        <v>213</v>
+      </c>
+      <c r="H38" t="s">
+        <v>214</v>
+      </c>
+      <c r="I38" t="s">
+        <v>214</v>
+      </c>
+      <c r="J38" t="s">
+        <v>215</v>
+      </c>
+      <c r="K38" t="s">
+        <v>371</v>
+      </c>
+      <c r="L38" t="s">
+        <v>372</v>
+      </c>
+      <c r="M38" t="s">
+        <v>83</v>
+      </c>
+      <c r="N38" t="s">
+        <v>83</v>
       </c>
       <c r="O38" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO profiles(id, movie_name, description, date_released, duration, country, language, subtitles, dubbed, age_rating, poster, trailer, created_at, update_at) VALUES (DEFAULT, '', '', '', '', '', '', '', '', '', '', '', , );</v>
+        <v>INSERT INTO profiles(id, movie_name, description, date_released, duration, country, language, subtitles, dubbed, age_rating, poster, trailer, created_at, update_at) VALUES (DEFAULT, 'Bridge of Spies', 'During the Cold War, an American lawyer is recruited to defend an arrested Soviet spy in court, and then help the CIA facilitate an exchange of the spy for the Soviet captured American U2 spy plane pilot, Francis Gary Powers.', '42293', '142', 'USA', 'English', 'N', 'N', 'PG-13', 'http://ia.media-imdb.com/images/M/MV5BMjIxOTI0MjU5NV5BMl5BanBnXkFtZTgwNzM4OTk4NTE@._V1_UX182_CR0,0,182,268_AL_.jpg', 'https://www.youtube.com/watch?v=mBBuzHrZBro', now(), now());</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>76</v>
+        <v>75</v>
+      </c>
+      <c r="B39" t="s">
+        <v>312</v>
+      </c>
+      <c r="C39" s="9" t="s">
+        <v>373</v>
+      </c>
+      <c r="D39" s="8">
+        <v>40165</v>
+      </c>
+      <c r="E39">
+        <v>162</v>
+      </c>
+      <c r="F39" t="s">
+        <v>216</v>
+      </c>
+      <c r="G39" t="s">
+        <v>213</v>
+      </c>
+      <c r="H39" t="s">
+        <v>214</v>
+      </c>
+      <c r="I39" t="s">
+        <v>214</v>
+      </c>
+      <c r="J39" t="s">
+        <v>215</v>
+      </c>
+      <c r="K39" t="s">
+        <v>374</v>
+      </c>
+      <c r="L39" t="s">
+        <v>375</v>
+      </c>
+      <c r="M39" t="s">
+        <v>83</v>
+      </c>
+      <c r="N39" t="s">
+        <v>83</v>
       </c>
       <c r="O39" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO profiles(id, movie_name, description, date_released, duration, country, language, subtitles, dubbed, age_rating, poster, trailer, created_at, update_at) VALUES (DEFAULT, '', '', '', '', '', '', '', '', '', '', '', , );</v>
+        <v>INSERT INTO profiles(id, movie_name, description, date_released, duration, country, language, subtitles, dubbed, age_rating, poster, trailer, created_at, update_at) VALUES (DEFAULT, 'Avatar', 'A paraplegic marine dispatched to the moon Pandora on a unique mission becomes torn between following his orders and protecting the world he feels is his home.', '40165', '162', 'USA', 'English', 'N', 'N', 'PG-13', 'http://ia.media-imdb.com/images/M/MV5BMTYwOTEwNjAzMl5BMl5BanBnXkFtZTcwODc5MTUwMw@@._V1_UX182_CR0,0,182,268_AL_.jpg', 'https://www.youtube.com/watch?v=5PSNL1qE6VY', now(), now());</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>76</v>
+        <v>75</v>
+      </c>
+      <c r="B40" t="s">
+        <v>313</v>
+      </c>
+      <c r="C40" s="9" t="s">
+        <v>376</v>
+      </c>
+      <c r="D40" s="8">
+        <v>42412</v>
+      </c>
+      <c r="E40">
+        <v>108</v>
+      </c>
+      <c r="F40" t="s">
+        <v>216</v>
+      </c>
+      <c r="G40" t="s">
+        <v>213</v>
+      </c>
+      <c r="H40" t="s">
+        <v>214</v>
+      </c>
+      <c r="I40" t="s">
+        <v>214</v>
+      </c>
+      <c r="J40" t="s">
+        <v>238</v>
+      </c>
+      <c r="K40" t="s">
+        <v>377</v>
+      </c>
+      <c r="L40" t="s">
+        <v>378</v>
+      </c>
+      <c r="M40" t="s">
+        <v>83</v>
+      </c>
+      <c r="N40" t="s">
+        <v>83</v>
       </c>
       <c r="O40" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO profiles(id, movie_name, description, date_released, duration, country, language, subtitles, dubbed, age_rating, poster, trailer, created_at, update_at) VALUES (DEFAULT, '', '', '', '', '', '', '', '', '', '', '', , );</v>
+        <v>INSERT INTO profiles(id, movie_name, description, date_released, duration, country, language, subtitles, dubbed, age_rating, poster, trailer, created_at, update_at) VALUES (DEFAULT, 'Deadpool', 'A former Special Forces operative turned mercenary is subjected to a rogue experiment that leaves him with accelerated healing powers, adopting the alter ego Deadpool.', '42412', '108', 'USA', 'English', 'N', 'N', 'R', 'http://ia.media-imdb.com/images/M/MV5BMjQyODg5Njc4N15BMl5BanBnXkFtZTgwMzExMjE3NzE@._V1_UY268_CR1,0,182,268_AL_.jpg', 'https://www.youtube.com/watch?v=ZIM1HydF9UA', now(), now());</v>
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>76</v>
+        <v>75</v>
+      </c>
+      <c r="B41" t="s">
+        <v>315</v>
+      </c>
+      <c r="C41" s="9" t="s">
+        <v>379</v>
+      </c>
+      <c r="D41" s="8">
+        <v>37295</v>
+      </c>
+      <c r="E41">
+        <v>122</v>
+      </c>
+      <c r="F41" t="s">
+        <v>380</v>
+      </c>
+      <c r="G41" t="s">
+        <v>316</v>
+      </c>
+      <c r="H41" t="s">
+        <v>224</v>
+      </c>
+      <c r="I41" t="s">
+        <v>214</v>
+      </c>
+      <c r="J41" t="s">
+        <v>238</v>
+      </c>
+      <c r="K41" t="s">
+        <v>381</v>
+      </c>
+      <c r="L41" t="s">
+        <v>382</v>
+      </c>
+      <c r="M41" t="s">
+        <v>83</v>
+      </c>
+      <c r="N41" t="s">
+        <v>83</v>
       </c>
       <c r="O41" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO profiles(id, movie_name, description, date_released, duration, country, language, subtitles, dubbed, age_rating, poster, trailer, created_at, update_at) VALUES (DEFAULT, '', '', '', '', '', '', '', '', '', '', '', , );</v>
+        <v>INSERT INTO profiles(id, movie_name, description, date_released, duration, country, language, subtitles, dubbed, age_rating, poster, trailer, created_at, update_at) VALUES (DEFAULT, 'Amelie', 'Amelie is an innocent and naive girl in Paris with her own sense of justice. She decides to help those around her and, along the way, discovers love.', '37295', '122', 'France', 'French', 'Y', 'N', 'R', 'http://ia.media-imdb.com/images/M/MV5BMTYzNjkxMTczOF5BMl5BanBnXkFtZTgwODg5NDc2MjE@._V1_UX182_CR0,0,182,268_AL_.jpg', 'https://www.youtube.com/watch?v=2UT5xaAfxWU', now(), now());</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -7898,16 +8995,16 @@
         <v>7</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>65</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>66</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>4</v>
@@ -7921,7 +9018,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I2" s="6" t="str">
         <f xml:space="preserve"> "INSERT INTO movie_ratings("&amp;A$1&amp;", "&amp;B$1&amp;", "&amp;C$1&amp;", "&amp;D$1&amp;", "&amp;E$1&amp;", "&amp;F$1&amp;", "&amp;G$1&amp;", "&amp;H$1&amp;") VALUES ("&amp;A2&amp;", "&amp;B2&amp;", "&amp;C2&amp;", '"&amp;D2&amp;"', "&amp;E2&amp;", '"&amp;F2&amp;"', "&amp;G2&amp;", "&amp;H2&amp;");"</f>

--- a/all_data.xlsx
+++ b/all_data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23970" windowHeight="8880" firstSheet="5" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23970" windowHeight="8880" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="users" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2038" uniqueCount="410">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2099" uniqueCount="471">
   <si>
     <t>id</t>
   </si>
@@ -603,9 +603,6 @@
     <t>New York City</t>
   </si>
   <si>
-    <t>L'Ange-Gardien</t>
-  </si>
-  <si>
     <t>Engineer</t>
   </si>
   <si>
@@ -1273,6 +1270,192 @@
   </si>
   <si>
     <t>Blanchett</t>
+  </si>
+  <si>
+    <t>12/19/2001</t>
+  </si>
+  <si>
+    <t>12/18/2002</t>
+  </si>
+  <si>
+    <t>11/12/1954</t>
+  </si>
+  <si>
+    <t>1/30/1964</t>
+  </si>
+  <si>
+    <t>2/3/1985</t>
+  </si>
+  <si>
+    <t>3/23/1991</t>
+  </si>
+  <si>
+    <t>4/11/1984</t>
+  </si>
+  <si>
+    <t>5/10/1965</t>
+  </si>
+  <si>
+    <t>6/22/1970</t>
+  </si>
+  <si>
+    <t>7/14/2006</t>
+  </si>
+  <si>
+    <t>8/25/1978</t>
+  </si>
+  <si>
+    <t>9/11/1960</t>
+  </si>
+  <si>
+    <t>11/5/1959</t>
+  </si>
+  <si>
+    <t>10/28/1980</t>
+  </si>
+  <si>
+    <t>11/19/1995</t>
+  </si>
+  <si>
+    <t>12/15/1992</t>
+  </si>
+  <si>
+    <t>1/17/1983</t>
+  </si>
+  <si>
+    <t>2/23/1981</t>
+  </si>
+  <si>
+    <t>3/4/1989</t>
+  </si>
+  <si>
+    <t>4/21/1994</t>
+  </si>
+  <si>
+    <t>1/9/1994</t>
+  </si>
+  <si>
+    <t>8/12/1972</t>
+  </si>
+  <si>
+    <t>L''Ange-Gardien</t>
+  </si>
+  <si>
+    <t>12/17/2003</t>
+  </si>
+  <si>
+    <t>6/17/2005</t>
+  </si>
+  <si>
+    <t>7/13/1990</t>
+  </si>
+  <si>
+    <t>6/25/2004</t>
+  </si>
+  <si>
+    <t>1/25/2002</t>
+  </si>
+  <si>
+    <t>8/21/1987</t>
+  </si>
+  <si>
+    <t>5/28/1999</t>
+  </si>
+  <si>
+    <t>3/23/1990</t>
+  </si>
+  <si>
+    <t>4/14/1989</t>
+  </si>
+  <si>
+    <t>12/19/1997</t>
+  </si>
+  <si>
+    <t>12/21/2007</t>
+  </si>
+  <si>
+    <t>1/13/1995</t>
+  </si>
+  <si>
+    <t>5/14/2004</t>
+  </si>
+  <si>
+    <t>9/22/1995</t>
+  </si>
+  <si>
+    <t>7/16/2004</t>
+  </si>
+  <si>
+    <t>10/24/2002</t>
+  </si>
+  <si>
+    <t>7/10/2008</t>
+  </si>
+  <si>
+    <t>1/7/2009</t>
+  </si>
+  <si>
+    <t>10/26/1984</t>
+  </si>
+  <si>
+    <t>6/22/1979</t>
+  </si>
+  <si>
+    <t>6/8/2012</t>
+  </si>
+  <si>
+    <t>2/13/1998</t>
+  </si>
+  <si>
+    <t>5/25/1977</t>
+  </si>
+  <si>
+    <t>12/23/2015</t>
+  </si>
+  <si>
+    <t>7/11/1997</t>
+  </si>
+  <si>
+    <t>10/15/2004</t>
+  </si>
+  <si>
+    <t>7/6/1994</t>
+  </si>
+  <si>
+    <t>12/25/2012</t>
+  </si>
+  <si>
+    <t>10/24/1997</t>
+  </si>
+  <si>
+    <t>7/1/2011</t>
+  </si>
+  <si>
+    <t>5/29/2009</t>
+  </si>
+  <si>
+    <t>11/22/1995</t>
+  </si>
+  <si>
+    <t>5/16/2013</t>
+  </si>
+  <si>
+    <t>6/15/2005</t>
+  </si>
+  <si>
+    <t>10/16/2015</t>
+  </si>
+  <si>
+    <t>12/18/2009</t>
+  </si>
+  <si>
+    <t>2/12/2016</t>
+  </si>
+  <si>
+    <t>2/8/2002</t>
+  </si>
+  <si>
+    <t>While Frodo and Sam edge closer to Mordor with the help of the shifty Gollum, the divided fellowship makes a stand against Sauron's new ally, Saruman, and his hordes of Isengard.</t>
   </si>
 </sst>
 </file>
@@ -1392,7 +1575,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -1403,6 +1586,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2267,8 +2451,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D83" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6:F110"/>
+    <sheetView topLeftCell="B77" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:F110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2288,7 +2472,7 @@
         <v>62</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>4</v>
@@ -2318,8 +2502,8 @@
         <v>82</v>
       </c>
       <c r="F2" s="6" t="str">
-        <f xml:space="preserve"> "INSERT INTO movie_genres("&amp;A$1&amp;", "&amp;B$1&amp;", "&amp;C$1&amp;", "&amp;D$1&amp;", "&amp;E$1&amp;") VALUES ("&amp;A2&amp;", "&amp;B2&amp;", (SELECT id FROM topics WHERE genre_name = '"&amp;C2&amp;"'), "&amp;D2&amp;", "&amp;E2&amp;");"</f>
-        <v>INSERT INTO movie_genres(id, movie_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'The Lord of the Rings: The Fellowship of the Ring' AND duration = '178'), (SELECT id FROM topics WHERE genre_name = 'Adventure'), now(), now());</v>
+        <f xml:space="preserve"> "INSERT INTO movie_topics("&amp;A$1&amp;", "&amp;B$1&amp;", "&amp;C$1&amp;", "&amp;D$1&amp;", "&amp;E$1&amp;") VALUES ("&amp;A2&amp;", "&amp;B2&amp;", (SELECT id FROM topics WHERE genre_name = '"&amp;C2&amp;"'), "&amp;D2&amp;", "&amp;E2&amp;");"</f>
+        <v>INSERT INTO movie_topics(id, movie_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'The Lord of the Rings: The Fellowship of the Ring' AND duration = '178'), (SELECT id FROM topics WHERE genre_name = 'Adventure'), now(), now());</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -2340,8 +2524,8 @@
         <v>82</v>
       </c>
       <c r="F3" s="6" t="str">
-        <f t="shared" ref="F3:F66" si="0" xml:space="preserve"> "INSERT INTO movie_genres("&amp;A$1&amp;", "&amp;B$1&amp;", "&amp;C$1&amp;", "&amp;D$1&amp;", "&amp;E$1&amp;") VALUES ("&amp;A3&amp;", "&amp;B3&amp;", (SELECT id FROM topics WHERE genre_name = '"&amp;C3&amp;"'), "&amp;D3&amp;", "&amp;E3&amp;");"</f>
-        <v>INSERT INTO movie_genres(id, movie_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'The Lord of the Rings: The Fellowship of the Ring' AND duration = '178'), (SELECT id FROM topics WHERE genre_name = 'Drama'), now(), now());</v>
+        <f t="shared" ref="F3:F66" si="0" xml:space="preserve"> "INSERT INTO movie_topics("&amp;A$1&amp;", "&amp;B$1&amp;", "&amp;C$1&amp;", "&amp;D$1&amp;", "&amp;E$1&amp;") VALUES ("&amp;A3&amp;", "&amp;B3&amp;", (SELECT id FROM topics WHERE genre_name = '"&amp;C3&amp;"'), "&amp;D3&amp;", "&amp;E3&amp;");"</f>
+        <v>INSERT INTO movie_topics(id, movie_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'The Lord of the Rings: The Fellowship of the Ring' AND duration = '178'), (SELECT id FROM topics WHERE genre_name = 'Drama'), now(), now());</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -2363,7 +2547,7 @@
       </c>
       <c r="F4" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO movie_genres(id, movie_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'The Lord of the Rings: The Fellowship of the Ring' AND duration = '178'), (SELECT id FROM topics WHERE genre_name = 'Fantasy'), now(), now());</v>
+        <v>INSERT INTO movie_topics(id, movie_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'The Lord of the Rings: The Fellowship of the Ring' AND duration = '178'), (SELECT id FROM topics WHERE genre_name = 'Fantasy'), now(), now());</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -2385,7 +2569,7 @@
       </c>
       <c r="F5" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO movie_genres(id, movie_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'The Lord of the Rings: The Two Towers' AND duration = '179'), (SELECT id FROM topics WHERE genre_name = 'Adventure'), now(), now());</v>
+        <v>INSERT INTO movie_topics(id, movie_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'The Lord of the Rings: The Two Towers' AND duration = '179'), (SELECT id FROM topics WHERE genre_name = 'Adventure'), now(), now());</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -2407,7 +2591,7 @@
       </c>
       <c r="F6" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO movie_genres(id, movie_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'The Lord of the Rings: The Two Towers' AND duration = '179'), (SELECT id FROM topics WHERE genre_name = 'Drama'), now(), now());</v>
+        <v>INSERT INTO movie_topics(id, movie_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'The Lord of the Rings: The Two Towers' AND duration = '179'), (SELECT id FROM topics WHERE genre_name = 'Drama'), now(), now());</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -2429,7 +2613,7 @@
       </c>
       <c r="F7" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO movie_genres(id, movie_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'The Lord of the Rings: The Two Towers' AND duration = '179'), (SELECT id FROM topics WHERE genre_name = 'Fantasy'), now(), now());</v>
+        <v>INSERT INTO movie_topics(id, movie_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'The Lord of the Rings: The Two Towers' AND duration = '179'), (SELECT id FROM topics WHERE genre_name = 'Fantasy'), now(), now());</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -2451,7 +2635,7 @@
       </c>
       <c r="F8" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO movie_genres(id, movie_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'The Lord of the Rings: The Return of the King' AND duration = '201'), (SELECT id FROM topics WHERE genre_name = 'Adventure'), now(), now());</v>
+        <v>INSERT INTO movie_topics(id, movie_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'The Lord of the Rings: The Return of the King' AND duration = '201'), (SELECT id FROM topics WHERE genre_name = 'Adventure'), now(), now());</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -2473,7 +2657,7 @@
       </c>
       <c r="F9" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO movie_genres(id, movie_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'The Lord of the Rings: The Return of the King' AND duration = '201'), (SELECT id FROM topics WHERE genre_name = 'Drama'), now(), now());</v>
+        <v>INSERT INTO movie_topics(id, movie_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'The Lord of the Rings: The Return of the King' AND duration = '201'), (SELECT id FROM topics WHERE genre_name = 'Drama'), now(), now());</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -2495,7 +2679,7 @@
       </c>
       <c r="F10" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO movie_genres(id, movie_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'The Lord of the Rings: The Return of the King' AND duration = '201'), (SELECT id FROM topics WHERE genre_name = 'Fantasy'), now(), now());</v>
+        <v>INSERT INTO movie_topics(id, movie_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'The Lord of the Rings: The Return of the King' AND duration = '201'), (SELECT id FROM topics WHERE genre_name = 'Fantasy'), now(), now());</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -2517,7 +2701,7 @@
       </c>
       <c r="F11" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO movie_genres(id, movie_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'Howl''s Moving Castle' AND duration = '119'), (SELECT id FROM topics WHERE genre_name = 'Anime'), now(), now());</v>
+        <v>INSERT INTO movie_topics(id, movie_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'Howl''s Moving Castle' AND duration = '119'), (SELECT id FROM topics WHERE genre_name = 'Anime'), now(), now());</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -2539,7 +2723,7 @@
       </c>
       <c r="F12" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO movie_genres(id, movie_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'Howl''s Moving Castle' AND duration = '119'), (SELECT id FROM topics WHERE genre_name = 'Adventure'), now(), now());</v>
+        <v>INSERT INTO movie_topics(id, movie_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'Howl''s Moving Castle' AND duration = '119'), (SELECT id FROM topics WHERE genre_name = 'Adventure'), now(), now());</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -2561,7 +2745,7 @@
       </c>
       <c r="F13" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO movie_genres(id, movie_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'Howl''s Moving Castle' AND duration = '119'), (SELECT id FROM topics WHERE genre_name = 'Family'), now(), now());</v>
+        <v>INSERT INTO movie_topics(id, movie_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'Howl''s Moving Castle' AND duration = '119'), (SELECT id FROM topics WHERE genre_name = 'Family'), now(), now());</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -2583,7 +2767,7 @@
       </c>
       <c r="F14" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO movie_genres(id, movie_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'Ghost' AND duration = '127'), (SELECT id FROM topics WHERE genre_name = 'Drama'), now(), now());</v>
+        <v>INSERT INTO movie_topics(id, movie_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'Ghost' AND duration = '127'), (SELECT id FROM topics WHERE genre_name = 'Drama'), now(), now());</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -2605,7 +2789,7 @@
       </c>
       <c r="F15" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO movie_genres(id, movie_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'Ghost' AND duration = '127'), (SELECT id FROM topics WHERE genre_name = 'Family'), now(), now());</v>
+        <v>INSERT INTO movie_topics(id, movie_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'Ghost' AND duration = '127'), (SELECT id FROM topics WHERE genre_name = 'Family'), now(), now());</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -2627,7 +2811,7 @@
       </c>
       <c r="F16" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO movie_genres(id, movie_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'Ghost' AND duration = '127'), (SELECT id FROM topics WHERE genre_name = 'Romance'), now(), now());</v>
+        <v>INSERT INTO movie_topics(id, movie_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'Ghost' AND duration = '127'), (SELECT id FROM topics WHERE genre_name = 'Romance'), now(), now());</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -2649,7 +2833,7 @@
       </c>
       <c r="F17" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO movie_genres(id, movie_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'The Notebook' AND duration = '123'), (SELECT id FROM topics WHERE genre_name = 'Drama'), now(), now());</v>
+        <v>INSERT INTO movie_topics(id, movie_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'The Notebook' AND duration = '123'), (SELECT id FROM topics WHERE genre_name = 'Drama'), now(), now());</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -2671,7 +2855,7 @@
       </c>
       <c r="F18" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO movie_genres(id, movie_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'The Notebook' AND duration = '123'), (SELECT id FROM topics WHERE genre_name = 'Romance'), now(), now());</v>
+        <v>INSERT INTO movie_topics(id, movie_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'The Notebook' AND duration = '123'), (SELECT id FROM topics WHERE genre_name = 'Romance'), now(), now());</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -2693,7 +2877,7 @@
       </c>
       <c r="F19" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO movie_genres(id, movie_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'A Walk to Remember' AND duration = '101'), (SELECT id FROM topics WHERE genre_name = 'Drama'), now(), now());</v>
+        <v>INSERT INTO movie_topics(id, movie_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'A Walk to Remember' AND duration = '101'), (SELECT id FROM topics WHERE genre_name = 'Drama'), now(), now());</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -2715,7 +2899,7 @@
       </c>
       <c r="F20" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO movie_genres(id, movie_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'A Walk to Remember' AND duration = '101'), (SELECT id FROM topics WHERE genre_name = 'Romance'), now(), now());</v>
+        <v>INSERT INTO movie_topics(id, movie_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'A Walk to Remember' AND duration = '101'), (SELECT id FROM topics WHERE genre_name = 'Romance'), now(), now());</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -2737,7 +2921,7 @@
       </c>
       <c r="F21" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO movie_genres(id, movie_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'Dirty Dancing' AND duration = '100'), (SELECT id FROM topics WHERE genre_name = 'Drama'), now(), now());</v>
+        <v>INSERT INTO movie_topics(id, movie_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'Dirty Dancing' AND duration = '100'), (SELECT id FROM topics WHERE genre_name = 'Drama'), now(), now());</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -2749,7 +2933,7 @@
         <v>(SELECT id FROM movies WHERE movie_name = 'Dirty Dancing' AND duration = '100')</v>
       </c>
       <c r="C22" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D22" t="s">
         <v>82</v>
@@ -2759,7 +2943,7 @@
       </c>
       <c r="F22" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO movie_genres(id, movie_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'Dirty Dancing' AND duration = '100'), (SELECT id FROM topics WHERE genre_name = 'Music'), now(), now());</v>
+        <v>INSERT INTO movie_topics(id, movie_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'Dirty Dancing' AND duration = '100'), (SELECT id FROM topics WHERE genre_name = 'Music'), now(), now());</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -2781,7 +2965,7 @@
       </c>
       <c r="F23" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO movie_genres(id, movie_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'Dirty Dancing' AND duration = '100'), (SELECT id FROM topics WHERE genre_name = 'Romance'), now(), now());</v>
+        <v>INSERT INTO movie_topics(id, movie_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'Dirty Dancing' AND duration = '100'), (SELECT id FROM topics WHERE genre_name = 'Romance'), now(), now());</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -2803,7 +2987,7 @@
       </c>
       <c r="F24" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO movie_genres(id, movie_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'Notting Hill' AND duration = '124'), (SELECT id FROM topics WHERE genre_name = 'Comedy'), now(), now());</v>
+        <v>INSERT INTO movie_topics(id, movie_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'Notting Hill' AND duration = '124'), (SELECT id FROM topics WHERE genre_name = 'Comedy'), now(), now());</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -2825,7 +3009,7 @@
       </c>
       <c r="F25" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO movie_genres(id, movie_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'Notting Hill' AND duration = '124'), (SELECT id FROM topics WHERE genre_name = 'Drama'), now(), now());</v>
+        <v>INSERT INTO movie_topics(id, movie_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'Notting Hill' AND duration = '124'), (SELECT id FROM topics WHERE genre_name = 'Drama'), now(), now());</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -2847,7 +3031,7 @@
       </c>
       <c r="F26" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO movie_genres(id, movie_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'Notting Hill' AND duration = '124'), (SELECT id FROM topics WHERE genre_name = 'Romance'), now(), now());</v>
+        <v>INSERT INTO movie_topics(id, movie_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'Notting Hill' AND duration = '124'), (SELECT id FROM topics WHERE genre_name = 'Romance'), now(), now());</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -2869,7 +3053,7 @@
       </c>
       <c r="F27" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO movie_genres(id, movie_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'Pretty Woman' AND duration = '119'), (SELECT id FROM topics WHERE genre_name = 'Comedy'), now(), now());</v>
+        <v>INSERT INTO movie_topics(id, movie_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'Pretty Woman' AND duration = '119'), (SELECT id FROM topics WHERE genre_name = 'Comedy'), now(), now());</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -2891,7 +3075,7 @@
       </c>
       <c r="F28" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO movie_genres(id, movie_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'Pretty Woman' AND duration = '119'), (SELECT id FROM topics WHERE genre_name = 'Romance'), now(), now());</v>
+        <v>INSERT INTO movie_topics(id, movie_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'Pretty Woman' AND duration = '119'), (SELECT id FROM topics WHERE genre_name = 'Romance'), now(), now());</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -2913,7 +3097,7 @@
       </c>
       <c r="F29" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO movie_genres(id, movie_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'Say Anything' AND duration = '100'), (SELECT id FROM topics WHERE genre_name = 'Comedy'), now(), now());</v>
+        <v>INSERT INTO movie_topics(id, movie_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'Say Anything' AND duration = '100'), (SELECT id FROM topics WHERE genre_name = 'Comedy'), now(), now());</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -2935,7 +3119,7 @@
       </c>
       <c r="F30" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO movie_genres(id, movie_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'Say Anything' AND duration = '100'), (SELECT id FROM topics WHERE genre_name = 'Drama'), now(), now());</v>
+        <v>INSERT INTO movie_topics(id, movie_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'Say Anything' AND duration = '100'), (SELECT id FROM topics WHERE genre_name = 'Drama'), now(), now());</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -2957,7 +3141,7 @@
       </c>
       <c r="F31" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO movie_genres(id, movie_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'Say Anything' AND duration = '100'), (SELECT id FROM topics WHERE genre_name = 'Romance'), now(), now());</v>
+        <v>INSERT INTO movie_topics(id, movie_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'Say Anything' AND duration = '100'), (SELECT id FROM topics WHERE genre_name = 'Romance'), now(), now());</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -2979,7 +3163,7 @@
       </c>
       <c r="F32" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO movie_genres(id, movie_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'Titanic' AND duration = '194'), (SELECT id FROM topics WHERE genre_name = 'Drama'), now(), now());</v>
+        <v>INSERT INTO movie_topics(id, movie_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'Titanic' AND duration = '194'), (SELECT id FROM topics WHERE genre_name = 'Drama'), now(), now());</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -3001,7 +3185,7 @@
       </c>
       <c r="F33" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO movie_genres(id, movie_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'Titanic' AND duration = '194'), (SELECT id FROM topics WHERE genre_name = 'Romance'), now(), now());</v>
+        <v>INSERT INTO movie_topics(id, movie_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'Titanic' AND duration = '194'), (SELECT id FROM topics WHERE genre_name = 'Romance'), now(), now());</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -3023,7 +3207,7 @@
       </c>
       <c r="F34" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO movie_genres(id, movie_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'P.S. I Love You' AND duration = '126'), (SELECT id FROM topics WHERE genre_name = 'Drama'), now(), now());</v>
+        <v>INSERT INTO movie_topics(id, movie_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'P.S. I Love You' AND duration = '126'), (SELECT id FROM topics WHERE genre_name = 'Drama'), now(), now());</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -3045,7 +3229,7 @@
       </c>
       <c r="F35" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO movie_genres(id, movie_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'P.S. I Love You' AND duration = '126'), (SELECT id FROM topics WHERE genre_name = 'Romance'), now(), now());</v>
+        <v>INSERT INTO movie_topics(id, movie_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'P.S. I Love You' AND duration = '126'), (SELECT id FROM topics WHERE genre_name = 'Romance'), now(), now());</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -3067,7 +3251,7 @@
       </c>
       <c r="F36" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO movie_genres(id, movie_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'Legends of the Fall' AND duration = '133'), (SELECT id FROM topics WHERE genre_name = 'Drama'), now(), now());</v>
+        <v>INSERT INTO movie_topics(id, movie_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'Legends of the Fall' AND duration = '133'), (SELECT id FROM topics WHERE genre_name = 'Drama'), now(), now());</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -3089,7 +3273,7 @@
       </c>
       <c r="F37" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO movie_genres(id, movie_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'Legends of the Fall' AND duration = '133'), (SELECT id FROM topics WHERE genre_name = 'Romance'), now(), now());</v>
+        <v>INSERT INTO movie_topics(id, movie_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'Legends of the Fall' AND duration = '133'), (SELECT id FROM topics WHERE genre_name = 'Romance'), now(), now());</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -3111,7 +3295,7 @@
       </c>
       <c r="F38" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO movie_genres(id, movie_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'Legends of the Fall' AND duration = '133'), (SELECT id FROM topics WHERE genre_name = 'War'), now(), now());</v>
+        <v>INSERT INTO movie_topics(id, movie_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'Legends of the Fall' AND duration = '133'), (SELECT id FROM topics WHERE genre_name = 'War'), now(), now());</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -3133,7 +3317,7 @@
       </c>
       <c r="F39" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO movie_genres(id, movie_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'Troy' AND duration = '163'), (SELECT id FROM topics WHERE genre_name = 'Adventure'), now(), now());</v>
+        <v>INSERT INTO movie_topics(id, movie_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'Troy' AND duration = '163'), (SELECT id FROM topics WHERE genre_name = 'Adventure'), now(), now());</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -3155,7 +3339,7 @@
       </c>
       <c r="F40" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO movie_genres(id, movie_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'Troy' AND duration = '163'), (SELECT id FROM topics WHERE genre_name = 'Action'), now(), now());</v>
+        <v>INSERT INTO movie_topics(id, movie_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'Troy' AND duration = '163'), (SELECT id FROM topics WHERE genre_name = 'Action'), now(), now());</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -3177,7 +3361,7 @@
       </c>
       <c r="F41" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO movie_genres(id, movie_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'Se7en' AND duration = '127'), (SELECT id FROM topics WHERE genre_name = 'Crime'), now(), now());</v>
+        <v>INSERT INTO movie_topics(id, movie_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'Se7en' AND duration = '127'), (SELECT id FROM topics WHERE genre_name = 'Crime'), now(), now());</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -3199,7 +3383,7 @@
       </c>
       <c r="F42" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO movie_genres(id, movie_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'Se7en' AND duration = '127'), (SELECT id FROM topics WHERE genre_name = 'Drama'), now(), now());</v>
+        <v>INSERT INTO movie_topics(id, movie_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'Se7en' AND duration = '127'), (SELECT id FROM topics WHERE genre_name = 'Drama'), now(), now());</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -3221,7 +3405,7 @@
       </c>
       <c r="F43" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO movie_genres(id, movie_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'Se7en' AND duration = '127'), (SELECT id FROM topics WHERE genre_name = 'Mystery'), now(), now());</v>
+        <v>INSERT INTO movie_topics(id, movie_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'Se7en' AND duration = '127'), (SELECT id FROM topics WHERE genre_name = 'Mystery'), now(), now());</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -3243,7 +3427,7 @@
       </c>
       <c r="F44" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO movie_genres(id, movie_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'House of Flying Daggers' AND duration = '119'), (SELECT id FROM topics WHERE genre_name = 'Action'), now(), now());</v>
+        <v>INSERT INTO movie_topics(id, movie_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'House of Flying Daggers' AND duration = '119'), (SELECT id FROM topics WHERE genre_name = 'Action'), now(), now());</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -3265,7 +3449,7 @@
       </c>
       <c r="F45" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO movie_genres(id, movie_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'House of Flying Daggers' AND duration = '119'), (SELECT id FROM topics WHERE genre_name = 'Adventure'), now(), now());</v>
+        <v>INSERT INTO movie_topics(id, movie_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'House of Flying Daggers' AND duration = '119'), (SELECT id FROM topics WHERE genre_name = 'Adventure'), now(), now());</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -3287,7 +3471,7 @@
       </c>
       <c r="F46" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO movie_genres(id, movie_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'House of Flying Daggers' AND duration = '119'), (SELECT id FROM topics WHERE genre_name = 'Drama'), now(), now());</v>
+        <v>INSERT INTO movie_topics(id, movie_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'House of Flying Daggers' AND duration = '119'), (SELECT id FROM topics WHERE genre_name = 'Drama'), now(), now());</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -3309,7 +3493,7 @@
       </c>
       <c r="F47" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO movie_genres(id, movie_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'Hero' AND duration = '99'), (SELECT id FROM topics WHERE genre_name = 'Action'), now(), now());</v>
+        <v>INSERT INTO movie_topics(id, movie_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'Hero' AND duration = '99'), (SELECT id FROM topics WHERE genre_name = 'Action'), now(), now());</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -3331,7 +3515,7 @@
       </c>
       <c r="F48" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO movie_genres(id, movie_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'Hero' AND duration = '99'), (SELECT id FROM topics WHERE genre_name = 'Adventure'), now(), now());</v>
+        <v>INSERT INTO movie_topics(id, movie_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'Hero' AND duration = '99'), (SELECT id FROM topics WHERE genre_name = 'Adventure'), now(), now());</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
@@ -3353,7 +3537,7 @@
       </c>
       <c r="F49" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO movie_genres(id, movie_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'Hero' AND duration = '99'), (SELECT id FROM topics WHERE genre_name = 'History'), now(), now());</v>
+        <v>INSERT INTO movie_topics(id, movie_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'Hero' AND duration = '99'), (SELECT id FROM topics WHERE genre_name = 'History'), now(), now());</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
@@ -3375,7 +3559,7 @@
       </c>
       <c r="F50" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO movie_genres(id, movie_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'Red Cliff' AND duration = '148'), (SELECT id FROM topics WHERE genre_name = 'Action'), now(), now());</v>
+        <v>INSERT INTO movie_topics(id, movie_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'Red Cliff' AND duration = '148'), (SELECT id FROM topics WHERE genre_name = 'Action'), now(), now());</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
@@ -3397,7 +3581,7 @@
       </c>
       <c r="F51" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO movie_genres(id, movie_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'Red Cliff' AND duration = '148'), (SELECT id FROM topics WHERE genre_name = 'Adventure'), now(), now());</v>
+        <v>INSERT INTO movie_topics(id, movie_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'Red Cliff' AND duration = '148'), (SELECT id FROM topics WHERE genre_name = 'Adventure'), now(), now());</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
@@ -3419,7 +3603,7 @@
       </c>
       <c r="F52" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO movie_genres(id, movie_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'Red Cliff' AND duration = '148'), (SELECT id FROM topics WHERE genre_name = 'Drama'), now(), now());</v>
+        <v>INSERT INTO movie_topics(id, movie_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'Red Cliff' AND duration = '148'), (SELECT id FROM topics WHERE genre_name = 'Drama'), now(), now());</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
@@ -3441,7 +3625,7 @@
       </c>
       <c r="F53" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO movie_genres(id, movie_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'Red Cliff II' AND duration = '99'), (SELECT id FROM topics WHERE genre_name = 'Action'), now(), now());</v>
+        <v>INSERT INTO movie_topics(id, movie_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'Red Cliff II' AND duration = '99'), (SELECT id FROM topics WHERE genre_name = 'Action'), now(), now());</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
@@ -3463,7 +3647,7 @@
       </c>
       <c r="F54" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO movie_genres(id, movie_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'Red Cliff II' AND duration = '99'), (SELECT id FROM topics WHERE genre_name = 'Drama'), now(), now());</v>
+        <v>INSERT INTO movie_topics(id, movie_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'Red Cliff II' AND duration = '99'), (SELECT id FROM topics WHERE genre_name = 'Drama'), now(), now());</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
@@ -3485,7 +3669,7 @@
       </c>
       <c r="F55" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO movie_genres(id, movie_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'Red Cliff II' AND duration = '99'), (SELECT id FROM topics WHERE genre_name = 'History'), now(), now());</v>
+        <v>INSERT INTO movie_topics(id, movie_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'Red Cliff II' AND duration = '99'), (SELECT id FROM topics WHERE genre_name = 'History'), now(), now());</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
@@ -3507,7 +3691,7 @@
       </c>
       <c r="F56" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO movie_genres(id, movie_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'Terminator' AND duration = '107'), (SELECT id FROM topics WHERE genre_name = 'Action'), now(), now());</v>
+        <v>INSERT INTO movie_topics(id, movie_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'Terminator' AND duration = '107'), (SELECT id FROM topics WHERE genre_name = 'Action'), now(), now());</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
@@ -3519,7 +3703,7 @@
         <v>(SELECT id FROM movies WHERE movie_name = 'Terminator' AND duration = '107')</v>
       </c>
       <c r="C57" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D57" t="s">
         <v>82</v>
@@ -3529,7 +3713,7 @@
       </c>
       <c r="F57" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO movie_genres(id, movie_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'Terminator' AND duration = '107'), (SELECT id FROM topics WHERE genre_name = 'Sci-Fi'), now(), now());</v>
+        <v>INSERT INTO movie_topics(id, movie_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'Terminator' AND duration = '107'), (SELECT id FROM topics WHERE genre_name = 'Sci-Fi'), now(), now());</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
@@ -3551,7 +3735,7 @@
       </c>
       <c r="F58" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO movie_genres(id, movie_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'Alien' AND duration = '117'), (SELECT id FROM topics WHERE genre_name = 'Horror'), now(), now());</v>
+        <v>INSERT INTO movie_topics(id, movie_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'Alien' AND duration = '117'), (SELECT id FROM topics WHERE genre_name = 'Horror'), now(), now());</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
@@ -3563,7 +3747,7 @@
         <v>(SELECT id FROM movies WHERE movie_name = 'Alien' AND duration = '117')</v>
       </c>
       <c r="C59" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D59" t="s">
         <v>82</v>
@@ -3573,7 +3757,7 @@
       </c>
       <c r="F59" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO movie_genres(id, movie_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'Alien' AND duration = '117'), (SELECT id FROM topics WHERE genre_name = 'Sci-Fi'), now(), now());</v>
+        <v>INSERT INTO movie_topics(id, movie_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'Alien' AND duration = '117'), (SELECT id FROM topics WHERE genre_name = 'Sci-Fi'), now(), now());</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
@@ -3595,7 +3779,7 @@
       </c>
       <c r="F60" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO movie_genres(id, movie_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'Prometheus' AND duration = '124'), (SELECT id FROM topics WHERE genre_name = 'Adventure'), now(), now());</v>
+        <v>INSERT INTO movie_topics(id, movie_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'Prometheus' AND duration = '124'), (SELECT id FROM topics WHERE genre_name = 'Adventure'), now(), now());</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
@@ -3617,7 +3801,7 @@
       </c>
       <c r="F61" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO movie_genres(id, movie_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'Prometheus' AND duration = '124'), (SELECT id FROM topics WHERE genre_name = 'Mystery'), now(), now());</v>
+        <v>INSERT INTO movie_topics(id, movie_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'Prometheus' AND duration = '124'), (SELECT id FROM topics WHERE genre_name = 'Mystery'), now(), now());</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
@@ -3629,7 +3813,7 @@
         <v>(SELECT id FROM movies WHERE movie_name = 'Prometheus' AND duration = '124')</v>
       </c>
       <c r="C62" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D62" t="s">
         <v>82</v>
@@ -3639,7 +3823,7 @@
       </c>
       <c r="F62" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO movie_genres(id, movie_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'Prometheus' AND duration = '124'), (SELECT id FROM topics WHERE genre_name = 'Sci-Fi'), now(), now());</v>
+        <v>INSERT INTO movie_topics(id, movie_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'Prometheus' AND duration = '124'), (SELECT id FROM topics WHERE genre_name = 'Sci-Fi'), now(), now());</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
@@ -3661,7 +3845,7 @@
       </c>
       <c r="F63" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO movie_genres(id, movie_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'Sphere' AND duration = '134'), (SELECT id FROM topics WHERE genre_name = 'Drama'), now(), now());</v>
+        <v>INSERT INTO movie_topics(id, movie_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'Sphere' AND duration = '134'), (SELECT id FROM topics WHERE genre_name = 'Drama'), now(), now());</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
@@ -3683,7 +3867,7 @@
       </c>
       <c r="F64" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO movie_genres(id, movie_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'Sphere' AND duration = '134'), (SELECT id FROM topics WHERE genre_name = 'Mystery'), now(), now());</v>
+        <v>INSERT INTO movie_topics(id, movie_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'Sphere' AND duration = '134'), (SELECT id FROM topics WHERE genre_name = 'Mystery'), now(), now());</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
@@ -3695,7 +3879,7 @@
         <v>(SELECT id FROM movies WHERE movie_name = 'Sphere' AND duration = '134')</v>
       </c>
       <c r="C65" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D65" t="s">
         <v>82</v>
@@ -3705,7 +3889,7 @@
       </c>
       <c r="F65" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO movie_genres(id, movie_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'Sphere' AND duration = '134'), (SELECT id FROM topics WHERE genre_name = 'Sci-Fi'), now(), now());</v>
+        <v>INSERT INTO movie_topics(id, movie_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'Sphere' AND duration = '134'), (SELECT id FROM topics WHERE genre_name = 'Sci-Fi'), now(), now());</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
@@ -3727,7 +3911,7 @@
       </c>
       <c r="F66" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO movie_genres(id, movie_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'Star Wars: Episode IV – A New Hope' AND duration = '121'), (SELECT id FROM topics WHERE genre_name = 'Action'), now(), now());</v>
+        <v>INSERT INTO movie_topics(id, movie_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'Star Wars: Episode IV – A New Hope' AND duration = '121'), (SELECT id FROM topics WHERE genre_name = 'Action'), now(), now());</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
@@ -3748,8 +3932,8 @@
         <v>82</v>
       </c>
       <c r="F67" s="6" t="str">
-        <f t="shared" ref="F67:F70" si="1" xml:space="preserve"> "INSERT INTO movie_genres("&amp;A$1&amp;", "&amp;B$1&amp;", "&amp;C$1&amp;", "&amp;D$1&amp;", "&amp;E$1&amp;") VALUES ("&amp;A67&amp;", "&amp;B67&amp;", (SELECT id FROM topics WHERE genre_name = '"&amp;C67&amp;"'), "&amp;D67&amp;", "&amp;E67&amp;");"</f>
-        <v>INSERT INTO movie_genres(id, movie_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'Star Wars: Episode IV – A New Hope' AND duration = '121'), (SELECT id FROM topics WHERE genre_name = 'Adventure'), now(), now());</v>
+        <f t="shared" ref="F67:F110" si="1" xml:space="preserve"> "INSERT INTO movie_topics("&amp;A$1&amp;", "&amp;B$1&amp;", "&amp;C$1&amp;", "&amp;D$1&amp;", "&amp;E$1&amp;") VALUES ("&amp;A67&amp;", "&amp;B67&amp;", (SELECT id FROM topics WHERE genre_name = '"&amp;C67&amp;"'), "&amp;D67&amp;", "&amp;E67&amp;");"</f>
+        <v>INSERT INTO movie_topics(id, movie_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'Star Wars: Episode IV – A New Hope' AND duration = '121'), (SELECT id FROM topics WHERE genre_name = 'Adventure'), now(), now());</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
@@ -3771,7 +3955,7 @@
       </c>
       <c r="F68" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO movie_genres(id, movie_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'Star Wars: Episode IV – A New Hope' AND duration = '121'), (SELECT id FROM topics WHERE genre_name = 'Fantasy'), now(), now());</v>
+        <v>INSERT INTO movie_topics(id, movie_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'Star Wars: Episode IV – A New Hope' AND duration = '121'), (SELECT id FROM topics WHERE genre_name = 'Fantasy'), now(), now());</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
@@ -3793,7 +3977,7 @@
       </c>
       <c r="F69" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO movie_genres(id, movie_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'The Big Short' AND duration = '130'), (SELECT id FROM topics WHERE genre_name = 'Biography'), now(), now());</v>
+        <v>INSERT INTO movie_topics(id, movie_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'The Big Short' AND duration = '130'), (SELECT id FROM topics WHERE genre_name = 'Biography'), now(), now());</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
@@ -3815,7 +3999,7 @@
       </c>
       <c r="F70" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO movie_genres(id, movie_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'The Big Short' AND duration = '130'), (SELECT id FROM topics WHERE genre_name = 'Comedy'), now(), now());</v>
+        <v>INSERT INTO movie_topics(id, movie_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'The Big Short' AND duration = '130'), (SELECT id FROM topics WHERE genre_name = 'Comedy'), now(), now());</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
@@ -3836,8 +4020,8 @@
         <v>82</v>
       </c>
       <c r="F71" s="6" t="str">
-        <f xml:space="preserve"> "INSERT INTO movie_genres("&amp;A$1&amp;", "&amp;B$1&amp;", "&amp;C$1&amp;", "&amp;D$1&amp;", "&amp;E$1&amp;") VALUES ("&amp;A71&amp;", "&amp;B71&amp;", (SELECT id FROM topics WHERE genre_name = '"&amp;C71&amp;"'), "&amp;D71&amp;", "&amp;E71&amp;");"</f>
-        <v>INSERT INTO movie_genres(id, movie_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'The Big Short' AND duration = '130'), (SELECT id FROM topics WHERE genre_name = 'Drama'), now(), now());</v>
+        <f t="shared" si="1"/>
+        <v>INSERT INTO movie_topics(id, movie_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'The Big Short' AND duration = '130'), (SELECT id FROM topics WHERE genre_name = 'Drama'), now(), now());</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
@@ -3858,8 +4042,8 @@
         <v>82</v>
       </c>
       <c r="F72" s="6" t="str">
-        <f t="shared" ref="F72:F110" si="2" xml:space="preserve"> "INSERT INTO movie_genres("&amp;A$1&amp;", "&amp;B$1&amp;", "&amp;C$1&amp;", "&amp;D$1&amp;", "&amp;E$1&amp;") VALUES ("&amp;A72&amp;", "&amp;B72&amp;", (SELECT id FROM topics WHERE genre_name = '"&amp;C72&amp;"'), "&amp;D72&amp;", "&amp;E72&amp;");"</f>
-        <v>INSERT INTO movie_genres(id, movie_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'Shall We Dance?' AND duration = '136'), (SELECT id FROM topics WHERE genre_name = 'Comedy'), now(), now());</v>
+        <f t="shared" si="1"/>
+        <v>INSERT INTO movie_topics(id, movie_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'Shall We Dance?' AND duration = '136'), (SELECT id FROM topics WHERE genre_name = 'Comedy'), now(), now());</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
@@ -3880,8 +4064,8 @@
         <v>82</v>
       </c>
       <c r="F73" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>INSERT INTO movie_genres(id, movie_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'Shall We Dance?' AND duration = '136'), (SELECT id FROM topics WHERE genre_name = 'Drama'), now(), now());</v>
+        <f t="shared" si="1"/>
+        <v>INSERT INTO movie_topics(id, movie_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'Shall We Dance?' AND duration = '136'), (SELECT id FROM topics WHERE genre_name = 'Drama'), now(), now());</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
@@ -3893,7 +4077,7 @@
         <v>(SELECT id FROM movies WHERE movie_name = 'Shall We Dance?' AND duration = '136')</v>
       </c>
       <c r="C74" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D74" t="s">
         <v>82</v>
@@ -3902,8 +4086,8 @@
         <v>82</v>
       </c>
       <c r="F74" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>INSERT INTO movie_genres(id, movie_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'Shall We Dance?' AND duration = '136'), (SELECT id FROM topics WHERE genre_name = 'Music'), now(), now());</v>
+        <f t="shared" si="1"/>
+        <v>INSERT INTO movie_topics(id, movie_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'Shall We Dance?' AND duration = '136'), (SELECT id FROM topics WHERE genre_name = 'Music'), now(), now());</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
@@ -3924,8 +4108,8 @@
         <v>82</v>
       </c>
       <c r="F75" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>INSERT INTO movie_genres(id, movie_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'Shall We Dance?' AND duration = '104'), (SELECT id FROM topics WHERE genre_name = 'Comedy'), now(), now());</v>
+        <f t="shared" si="1"/>
+        <v>INSERT INTO movie_topics(id, movie_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'Shall We Dance?' AND duration = '104'), (SELECT id FROM topics WHERE genre_name = 'Comedy'), now(), now());</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
@@ -3946,8 +4130,8 @@
         <v>82</v>
       </c>
       <c r="F76" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>INSERT INTO movie_genres(id, movie_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'Shall We Dance?' AND duration = '104'), (SELECT id FROM topics WHERE genre_name = 'Drama'), now(), now());</v>
+        <f t="shared" si="1"/>
+        <v>INSERT INTO movie_topics(id, movie_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'Shall We Dance?' AND duration = '104'), (SELECT id FROM topics WHERE genre_name = 'Drama'), now(), now());</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
@@ -3968,8 +4152,8 @@
         <v>82</v>
       </c>
       <c r="F77" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>INSERT INTO movie_genres(id, movie_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'Shall We Dance?' AND duration = '104'), (SELECT id FROM topics WHERE genre_name = 'Romance'), now(), now());</v>
+        <f t="shared" si="1"/>
+        <v>INSERT INTO movie_topics(id, movie_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'Shall We Dance?' AND duration = '104'), (SELECT id FROM topics WHERE genre_name = 'Romance'), now(), now());</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
@@ -3990,8 +4174,8 @@
         <v>82</v>
       </c>
       <c r="F78" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>INSERT INTO movie_genres(id, movie_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'Forrest Gump' AND duration = '142'), (SELECT id FROM topics WHERE genre_name = 'Drama'), now(), now());</v>
+        <f t="shared" si="1"/>
+        <v>INSERT INTO movie_topics(id, movie_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'Forrest Gump' AND duration = '142'), (SELECT id FROM topics WHERE genre_name = 'Drama'), now(), now());</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
@@ -4012,8 +4196,8 @@
         <v>82</v>
       </c>
       <c r="F79" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>INSERT INTO movie_genres(id, movie_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'Forrest Gump' AND duration = '142'), (SELECT id FROM topics WHERE genre_name = 'Romance'), now(), now());</v>
+        <f t="shared" si="1"/>
+        <v>INSERT INTO movie_topics(id, movie_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'Forrest Gump' AND duration = '142'), (SELECT id FROM topics WHERE genre_name = 'Romance'), now(), now());</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
@@ -4034,8 +4218,8 @@
         <v>82</v>
       </c>
       <c r="F80" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>INSERT INTO movie_genres(id, movie_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'Les Miserables' AND duration = '158'), (SELECT id FROM topics WHERE genre_name = 'Drama'), now(), now());</v>
+        <f t="shared" si="1"/>
+        <v>INSERT INTO movie_topics(id, movie_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'Les Miserables' AND duration = '158'), (SELECT id FROM topics WHERE genre_name = 'Drama'), now(), now());</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
@@ -4047,7 +4231,7 @@
         <v>(SELECT id FROM movies WHERE movie_name = 'Les Miserables' AND duration = '158')</v>
       </c>
       <c r="C81" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D81" t="s">
         <v>82</v>
@@ -4056,8 +4240,8 @@
         <v>82</v>
       </c>
       <c r="F81" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>INSERT INTO movie_genres(id, movie_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'Les Miserables' AND duration = '158'), (SELECT id FROM topics WHERE genre_name = 'Music'), now(), now());</v>
+        <f t="shared" si="1"/>
+        <v>INSERT INTO movie_topics(id, movie_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'Les Miserables' AND duration = '158'), (SELECT id FROM topics WHERE genre_name = 'Music'), now(), now());</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
@@ -4078,8 +4262,8 @@
         <v>82</v>
       </c>
       <c r="F82" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>INSERT INTO movie_genres(id, movie_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'Les Miserables' AND duration = '158'), (SELECT id FROM topics WHERE genre_name = 'Romance'), now(), now());</v>
+        <f t="shared" si="1"/>
+        <v>INSERT INTO movie_topics(id, movie_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'Les Miserables' AND duration = '158'), (SELECT id FROM topics WHERE genre_name = 'Romance'), now(), now());</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
@@ -4100,8 +4284,8 @@
         <v>82</v>
       </c>
       <c r="F83" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>INSERT INTO movie_genres(id, movie_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'Gattica' AND duration = '106'), (SELECT id FROM topics WHERE genre_name = 'Drama'), now(), now());</v>
+        <f t="shared" si="1"/>
+        <v>INSERT INTO movie_topics(id, movie_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'Gattica' AND duration = '106'), (SELECT id FROM topics WHERE genre_name = 'Drama'), now(), now());</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
@@ -4113,7 +4297,7 @@
         <v>(SELECT id FROM movies WHERE movie_name = 'Gattica' AND duration = '106')</v>
       </c>
       <c r="C84" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D84" t="s">
         <v>82</v>
@@ -4122,8 +4306,8 @@
         <v>82</v>
       </c>
       <c r="F84" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>INSERT INTO movie_genres(id, movie_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'Gattica' AND duration = '106'), (SELECT id FROM topics WHERE genre_name = 'Sci-Fi'), now(), now());</v>
+        <f t="shared" si="1"/>
+        <v>INSERT INTO movie_topics(id, movie_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'Gattica' AND duration = '106'), (SELECT id FROM topics WHERE genre_name = 'Sci-Fi'), now(), now());</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
@@ -4144,8 +4328,8 @@
         <v>82</v>
       </c>
       <c r="F85" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>INSERT INTO movie_genres(id, movie_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'Gattica' AND duration = '106'), (SELECT id FROM topics WHERE genre_name = 'Thriller'), now(), now());</v>
+        <f t="shared" si="1"/>
+        <v>INSERT INTO movie_topics(id, movie_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'Gattica' AND duration = '106'), (SELECT id FROM topics WHERE genre_name = 'Thriller'), now(), now());</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
@@ -4166,8 +4350,8 @@
         <v>82</v>
       </c>
       <c r="F86" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>INSERT INTO movie_genres(id, movie_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'Larry Crowne' AND duration = '98'), (SELECT id FROM topics WHERE genre_name = 'Comedy'), now(), now());</v>
+        <f t="shared" si="1"/>
+        <v>INSERT INTO movie_topics(id, movie_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'Larry Crowne' AND duration = '98'), (SELECT id FROM topics WHERE genre_name = 'Comedy'), now(), now());</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
@@ -4188,8 +4372,8 @@
         <v>82</v>
       </c>
       <c r="F87" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>INSERT INTO movie_genres(id, movie_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'Larry Crowne' AND duration = '98'), (SELECT id FROM topics WHERE genre_name = 'Drama'), now(), now());</v>
+        <f t="shared" si="1"/>
+        <v>INSERT INTO movie_topics(id, movie_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'Larry Crowne' AND duration = '98'), (SELECT id FROM topics WHERE genre_name = 'Drama'), now(), now());</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
@@ -4210,8 +4394,8 @@
         <v>82</v>
       </c>
       <c r="F88" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>INSERT INTO movie_genres(id, movie_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'Larry Crowne' AND duration = '98'), (SELECT id FROM topics WHERE genre_name = 'Romance'), now(), now());</v>
+        <f t="shared" si="1"/>
+        <v>INSERT INTO movie_topics(id, movie_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'Larry Crowne' AND duration = '98'), (SELECT id FROM topics WHERE genre_name = 'Romance'), now(), now());</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
@@ -4232,8 +4416,8 @@
         <v>82</v>
       </c>
       <c r="F89" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>INSERT INTO movie_genres(id, movie_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'Up' AND duration = '96'), (SELECT id FROM topics WHERE genre_name = 'Animation'), now(), now());</v>
+        <f t="shared" si="1"/>
+        <v>INSERT INTO movie_topics(id, movie_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'Up' AND duration = '96'), (SELECT id FROM topics WHERE genre_name = 'Animation'), now(), now());</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
@@ -4254,8 +4438,8 @@
         <v>82</v>
       </c>
       <c r="F90" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>INSERT INTO movie_genres(id, movie_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'Up' AND duration = '96'), (SELECT id FROM topics WHERE genre_name = 'Adventure'), now(), now());</v>
+        <f t="shared" si="1"/>
+        <v>INSERT INTO movie_topics(id, movie_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'Up' AND duration = '96'), (SELECT id FROM topics WHERE genre_name = 'Adventure'), now(), now());</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
@@ -4276,8 +4460,8 @@
         <v>82</v>
       </c>
       <c r="F91" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>INSERT INTO movie_genres(id, movie_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'Up' AND duration = '96'), (SELECT id FROM topics WHERE genre_name = 'Comedy'), now(), now());</v>
+        <f t="shared" si="1"/>
+        <v>INSERT INTO movie_topics(id, movie_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'Up' AND duration = '96'), (SELECT id FROM topics WHERE genre_name = 'Comedy'), now(), now());</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
@@ -4298,8 +4482,8 @@
         <v>82</v>
       </c>
       <c r="F92" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>INSERT INTO movie_genres(id, movie_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'Toy Story' AND duration = '81'), (SELECT id FROM topics WHERE genre_name = 'Animation'), now(), now());</v>
+        <f t="shared" si="1"/>
+        <v>INSERT INTO movie_topics(id, movie_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'Toy Story' AND duration = '81'), (SELECT id FROM topics WHERE genre_name = 'Animation'), now(), now());</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
@@ -4320,8 +4504,8 @@
         <v>82</v>
       </c>
       <c r="F93" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>INSERT INTO movie_genres(id, movie_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'Toy Story' AND duration = '81'), (SELECT id FROM topics WHERE genre_name = 'Adventure'), now(), now());</v>
+        <f t="shared" si="1"/>
+        <v>INSERT INTO movie_topics(id, movie_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'Toy Story' AND duration = '81'), (SELECT id FROM topics WHERE genre_name = 'Adventure'), now(), now());</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
@@ -4342,8 +4526,8 @@
         <v>82</v>
       </c>
       <c r="F94" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>INSERT INTO movie_genres(id, movie_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'Toy Story' AND duration = '81'), (SELECT id FROM topics WHERE genre_name = 'Comedy'), now(), now());</v>
+        <f t="shared" si="1"/>
+        <v>INSERT INTO movie_topics(id, movie_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'Toy Story' AND duration = '81'), (SELECT id FROM topics WHERE genre_name = 'Comedy'), now(), now());</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
@@ -4364,8 +4548,8 @@
         <v>82</v>
       </c>
       <c r="F95" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>INSERT INTO movie_genres(id, movie_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'Star Trek: Into Darkness' AND duration = '132'), (SELECT id FROM topics WHERE genre_name = 'Action'), now(), now());</v>
+        <f t="shared" si="1"/>
+        <v>INSERT INTO movie_topics(id, movie_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'Star Trek: Into Darkness' AND duration = '132'), (SELECT id FROM topics WHERE genre_name = 'Action'), now(), now());</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
@@ -4386,8 +4570,8 @@
         <v>82</v>
       </c>
       <c r="F96" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>INSERT INTO movie_genres(id, movie_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'Star Trek: Into Darkness' AND duration = '132'), (SELECT id FROM topics WHERE genre_name = 'Adventure'), now(), now());</v>
+        <f t="shared" si="1"/>
+        <v>INSERT INTO movie_topics(id, movie_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'Star Trek: Into Darkness' AND duration = '132'), (SELECT id FROM topics WHERE genre_name = 'Adventure'), now(), now());</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
@@ -4399,7 +4583,7 @@
         <v>(SELECT id FROM movies WHERE movie_name = 'Star Trek: Into Darkness' AND duration = '132')</v>
       </c>
       <c r="C97" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D97" t="s">
         <v>82</v>
@@ -4408,8 +4592,8 @@
         <v>82</v>
       </c>
       <c r="F97" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>INSERT INTO movie_genres(id, movie_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'Star Trek: Into Darkness' AND duration = '132'), (SELECT id FROM topics WHERE genre_name = 'Sci-Fi'), now(), now());</v>
+        <f t="shared" si="1"/>
+        <v>INSERT INTO movie_topics(id, movie_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'Star Trek: Into Darkness' AND duration = '132'), (SELECT id FROM topics WHERE genre_name = 'Sci-Fi'), now(), now());</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
@@ -4430,8 +4614,8 @@
         <v>82</v>
       </c>
       <c r="F98" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>INSERT INTO movie_genres(id, movie_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'Batman Begins' AND duration = '140'), (SELECT id FROM topics WHERE genre_name = 'Action'), now(), now());</v>
+        <f t="shared" si="1"/>
+        <v>INSERT INTO movie_topics(id, movie_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'Batman Begins' AND duration = '140'), (SELECT id FROM topics WHERE genre_name = 'Action'), now(), now());</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
@@ -4452,8 +4636,8 @@
         <v>82</v>
       </c>
       <c r="F99" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>INSERT INTO movie_genres(id, movie_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'Batman Begins' AND duration = '140'), (SELECT id FROM topics WHERE genre_name = 'Adventure'), now(), now());</v>
+        <f t="shared" si="1"/>
+        <v>INSERT INTO movie_topics(id, movie_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'Batman Begins' AND duration = '140'), (SELECT id FROM topics WHERE genre_name = 'Adventure'), now(), now());</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
@@ -4474,8 +4658,8 @@
         <v>82</v>
       </c>
       <c r="F100" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>INSERT INTO movie_genres(id, movie_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'Bridge of Spies' AND duration = '142'), (SELECT id FROM topics WHERE genre_name = 'Drama'), now(), now());</v>
+        <f t="shared" si="1"/>
+        <v>INSERT INTO movie_topics(id, movie_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'Bridge of Spies' AND duration = '142'), (SELECT id FROM topics WHERE genre_name = 'Drama'), now(), now());</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
@@ -4496,8 +4680,8 @@
         <v>82</v>
       </c>
       <c r="F101" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>INSERT INTO movie_genres(id, movie_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'Bridge of Spies' AND duration = '142'), (SELECT id FROM topics WHERE genre_name = 'History'), now(), now());</v>
+        <f t="shared" si="1"/>
+        <v>INSERT INTO movie_topics(id, movie_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'Bridge of Spies' AND duration = '142'), (SELECT id FROM topics WHERE genre_name = 'History'), now(), now());</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
@@ -4518,8 +4702,8 @@
         <v>82</v>
       </c>
       <c r="F102" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>INSERT INTO movie_genres(id, movie_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'Bridge of Spies' AND duration = '142'), (SELECT id FROM topics WHERE genre_name = 'Thriller'), now(), now());</v>
+        <f t="shared" si="1"/>
+        <v>INSERT INTO movie_topics(id, movie_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'Bridge of Spies' AND duration = '142'), (SELECT id FROM topics WHERE genre_name = 'Thriller'), now(), now());</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
@@ -4540,8 +4724,8 @@
         <v>82</v>
       </c>
       <c r="F103" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>INSERT INTO movie_genres(id, movie_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'Avatar' AND duration = '162'), (SELECT id FROM topics WHERE genre_name = 'Action'), now(), now());</v>
+        <f t="shared" si="1"/>
+        <v>INSERT INTO movie_topics(id, movie_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'Avatar' AND duration = '162'), (SELECT id FROM topics WHERE genre_name = 'Action'), now(), now());</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
@@ -4562,8 +4746,8 @@
         <v>82</v>
       </c>
       <c r="F104" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>INSERT INTO movie_genres(id, movie_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'Avatar' AND duration = '162'), (SELECT id FROM topics WHERE genre_name = 'Adventure'), now(), now());</v>
+        <f t="shared" si="1"/>
+        <v>INSERT INTO movie_topics(id, movie_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'Avatar' AND duration = '162'), (SELECT id FROM topics WHERE genre_name = 'Adventure'), now(), now());</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
@@ -4584,8 +4768,8 @@
         <v>82</v>
       </c>
       <c r="F105" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>INSERT INTO movie_genres(id, movie_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'Avatar' AND duration = '162'), (SELECT id FROM topics WHERE genre_name = 'Fantasy'), now(), now());</v>
+        <f t="shared" si="1"/>
+        <v>INSERT INTO movie_topics(id, movie_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'Avatar' AND duration = '162'), (SELECT id FROM topics WHERE genre_name = 'Fantasy'), now(), now());</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
@@ -4606,8 +4790,8 @@
         <v>82</v>
       </c>
       <c r="F106" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>INSERT INTO movie_genres(id, movie_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'Deadpool' AND duration = '108'), (SELECT id FROM topics WHERE genre_name = 'Action'), now(), now());</v>
+        <f t="shared" si="1"/>
+        <v>INSERT INTO movie_topics(id, movie_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'Deadpool' AND duration = '108'), (SELECT id FROM topics WHERE genre_name = 'Action'), now(), now());</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
@@ -4628,8 +4812,8 @@
         <v>82</v>
       </c>
       <c r="F107" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>INSERT INTO movie_genres(id, movie_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'Deadpool' AND duration = '108'), (SELECT id FROM topics WHERE genre_name = 'Adventure'), now(), now());</v>
+        <f t="shared" si="1"/>
+        <v>INSERT INTO movie_topics(id, movie_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'Deadpool' AND duration = '108'), (SELECT id FROM topics WHERE genre_name = 'Adventure'), now(), now());</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
@@ -4650,8 +4834,8 @@
         <v>82</v>
       </c>
       <c r="F108" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>INSERT INTO movie_genres(id, movie_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'Deadpool' AND duration = '108'), (SELECT id FROM topics WHERE genre_name = 'Comedy'), now(), now());</v>
+        <f t="shared" si="1"/>
+        <v>INSERT INTO movie_topics(id, movie_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'Deadpool' AND duration = '108'), (SELECT id FROM topics WHERE genre_name = 'Comedy'), now(), now());</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
@@ -4672,8 +4856,8 @@
         <v>82</v>
       </c>
       <c r="F109" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>INSERT INTO movie_genres(id, movie_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'Amelie' AND duration = '122'), (SELECT id FROM topics WHERE genre_name = 'Comedy'), now(), now());</v>
+        <f t="shared" si="1"/>
+        <v>INSERT INTO movie_topics(id, movie_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'Amelie' AND duration = '122'), (SELECT id FROM topics WHERE genre_name = 'Comedy'), now(), now());</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
@@ -4694,8 +4878,8 @@
         <v>82</v>
       </c>
       <c r="F110" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>INSERT INTO movie_genres(id, movie_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'Amelie' AND duration = '122'), (SELECT id FROM topics WHERE genre_name = 'Romance'), now(), now());</v>
+        <f t="shared" si="1"/>
+        <v>INSERT INTO movie_topics(id, movie_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'Amelie' AND duration = '122'), (SELECT id FROM topics WHERE genre_name = 'Romance'), now(), now());</v>
       </c>
     </row>
   </sheetData>
@@ -4752,10 +4936,10 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
+        <v>391</v>
+      </c>
+      <c r="C2" t="s">
         <v>392</v>
-      </c>
-      <c r="C2" t="s">
-        <v>393</v>
       </c>
       <c r="J2" s="6" t="str">
         <f xml:space="preserve"> "INSERT INTO actors("&amp;A$1&amp;", "&amp;B$1&amp;", "&amp;C$1&amp;", "&amp;D$1&amp;", "&amp;E$1&amp;", "&amp;F$1&amp;", "&amp;G$1&amp;", "&amp;H$1&amp;", "&amp;I$1&amp;") VALUES ("&amp;A2&amp;", '"&amp;B2&amp;"', '"&amp;C2&amp;"', '"&amp;D2&amp;"', '"&amp;E2&amp;"', '"&amp;F2&amp;"', '"&amp;G2&amp;"', "&amp;H2&amp;", "&amp;I2&amp;");"</f>
@@ -4764,227 +4948,227 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
+        <v>396</v>
+      </c>
+      <c r="C4" t="s">
         <v>397</v>
-      </c>
-      <c r="C4" t="s">
-        <v>398</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B5" t="s">
+        <v>398</v>
+      </c>
+      <c r="C5" t="s">
         <v>399</v>
-      </c>
-      <c r="C5" t="s">
-        <v>400</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B6" t="s">
+        <v>400</v>
+      </c>
+      <c r="C6" t="s">
         <v>401</v>
-      </c>
-      <c r="C6" t="s">
-        <v>402</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B7" t="s">
+        <v>405</v>
+      </c>
+      <c r="C7" t="s">
         <v>406</v>
-      </c>
-      <c r="C7" t="s">
-        <v>407</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B8" t="s">
+        <v>407</v>
+      </c>
+      <c r="C8" t="s">
         <v>408</v>
-      </c>
-      <c r="C8" t="s">
-        <v>409</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
   </sheetData>
@@ -4997,13 +5181,13 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D5"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="4" width="11.42578125" customWidth="1"/>
-    <col min="5" max="5" width="74.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="100.42578125" style="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -5028,7 +5212,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C2" t="s">
         <v>82</v>
@@ -5046,13 +5230,17 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C3" t="s">
         <v>82</v>
       </c>
       <c r="D3" t="s">
         <v>82</v>
+      </c>
+      <c r="E3" s="6" t="str">
+        <f t="shared" ref="E3:E5" si="0" xml:space="preserve"> "INSERT INTO casting_types("&amp;A$1&amp;", "&amp;B$1&amp;", "&amp;C$1&amp;", "&amp;D$1&amp;") VALUES ("&amp;A3&amp;", '"&amp;B3&amp;"', "&amp;C3&amp;", "&amp;D3&amp;");"</f>
+        <v>INSERT INTO casting_types(id, cast_type, created_at, updated_at) VALUES (DEFAULT, 'Support', now(), now());</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -5060,13 +5248,17 @@
         <v>74</v>
       </c>
       <c r="B4" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C4" t="s">
         <v>82</v>
       </c>
       <c r="D4" t="s">
         <v>82</v>
+      </c>
+      <c r="E4" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO casting_types(id, cast_type, created_at, updated_at) VALUES (DEFAULT, 'Extra', now(), now());</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -5074,13 +5266,17 @@
         <v>74</v>
       </c>
       <c r="B5" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C5" t="s">
         <v>82</v>
       </c>
       <c r="D5" t="s">
         <v>82</v>
+      </c>
+      <c r="E5" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO casting_types(id, cast_type, created_at, updated_at) VALUES (DEFAULT, 'Cameo', now(), now());</v>
       </c>
     </row>
   </sheetData>
@@ -5124,7 +5320,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="E2" s="6" t="str">
         <f xml:space="preserve"> "INSERT INTO roles("&amp;A$1&amp;", "&amp;B$1&amp;", "&amp;C$1&amp;", "&amp;D$1&amp;") VALUES ("&amp;A2&amp;", '"&amp;B2&amp;"', "&amp;C2&amp;", "&amp;D2&amp;");"</f>
@@ -5133,22 +5329,22 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
   </sheetData>
@@ -5183,7 +5379,7 @@
         <v>69</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>4</v>
@@ -5360,10 +5556,10 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
+        <v>389</v>
+      </c>
+      <c r="C2" t="s">
         <v>390</v>
-      </c>
-      <c r="C2" t="s">
-        <v>391</v>
       </c>
       <c r="J2" s="6" t="str">
         <f xml:space="preserve"> "INSERT INTO directors("&amp;A$1&amp;", "&amp;B$1&amp;", "&amp;C$1&amp;", "&amp;D$1&amp;", "&amp;E$1&amp;", "&amp;F$1&amp;", "&amp;G$1&amp;", "&amp;H$1&amp;", "&amp;I$1&amp;") VALUES ("&amp;A2&amp;", '"&amp;B2&amp;"', '"&amp;C2&amp;"', '"&amp;D2&amp;"', '"&amp;E2&amp;"', '"&amp;F2&amp;"', '"&amp;G2&amp;"', "&amp;H2&amp;", "&amp;I2&amp;");"</f>
@@ -5478,8 +5674,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5548,8 +5744,8 @@
       <c r="D2" t="s">
         <v>124</v>
       </c>
-      <c r="E2" s="8">
-        <v>20040</v>
+      <c r="E2" s="10" t="s">
+        <v>411</v>
       </c>
       <c r="F2" t="s">
         <v>161</v>
@@ -5564,7 +5760,7 @@
         <v>165</v>
       </c>
       <c r="J2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="L2" t="s">
         <v>82</v>
@@ -5574,7 +5770,7 @@
       </c>
       <c r="N2" s="6" t="str">
         <f xml:space="preserve"> "INSERT INTO profiles("&amp;A$1&amp;", "&amp;B$1&amp;", "&amp;C$1&amp;", "&amp;D$1&amp;", "&amp;E$1&amp;", "&amp;F$1&amp;", "&amp;G$1&amp;", "&amp;H$1&amp;", "&amp;I$1&amp;", "&amp;J$1&amp;", "&amp;K$1&amp;", "&amp;L$1&amp;", "&amp;M$1&amp;") VALUES ("&amp;A2&amp;", "&amp;B2&amp;", '"&amp;C2&amp;"', '"&amp;D2&amp;"', '"&amp;E2&amp;"', '"&amp;F2&amp;"', '"&amp;G2&amp;"', '"&amp;H2&amp;"', '"&amp;I2&amp;"', '"&amp;J2&amp;"', '"&amp;K2&amp;"', "&amp;L2&amp;", "&amp;M2&amp;");"</f>
-        <v>INSERT INTO profiles(id, user_id, first_name, last_name, date_of_birth, gender, city, province, country, occupation, picture, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM users WHERE email = 'user1@movie.com'), 'John', 'Smith', '20040', 'M', 'Ottawa', 'Ontario', 'Canada', 'Engineer', '', now(), now());</v>
+        <v>INSERT INTO profiles(id, user_id, first_name, last_name, date_of_birth, gender, city, province, country, occupation, picture, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM users WHERE email = 'user1@movie.com'), 'John', 'Smith', '11/12/1954', 'M', 'Ottawa', 'Ontario', 'Canada', 'Engineer', '', now(), now());</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
@@ -5591,8 +5787,8 @@
       <c r="D3" t="s">
         <v>126</v>
       </c>
-      <c r="E3" s="8">
-        <v>23406</v>
+      <c r="E3" s="10" t="s">
+        <v>412</v>
       </c>
       <c r="F3" t="s">
         <v>162</v>
@@ -5607,7 +5803,7 @@
         <v>165</v>
       </c>
       <c r="J3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="L3" t="s">
         <v>82</v>
@@ -5617,7 +5813,7 @@
       </c>
       <c r="N3" s="6" t="str">
         <f t="shared" ref="N3:N21" si="0" xml:space="preserve"> "INSERT INTO profiles("&amp;A$1&amp;", "&amp;B$1&amp;", "&amp;C$1&amp;", "&amp;D$1&amp;", "&amp;E$1&amp;", "&amp;F$1&amp;", "&amp;G$1&amp;", "&amp;H$1&amp;", "&amp;I$1&amp;", "&amp;J$1&amp;", "&amp;K$1&amp;", "&amp;L$1&amp;", "&amp;M$1&amp;") VALUES ("&amp;A3&amp;", "&amp;B3&amp;", '"&amp;C3&amp;"', '"&amp;D3&amp;"', '"&amp;E3&amp;"', '"&amp;F3&amp;"', '"&amp;G3&amp;"', '"&amp;H3&amp;"', '"&amp;I3&amp;"', '"&amp;J3&amp;"', '"&amp;K3&amp;"', "&amp;L3&amp;", "&amp;M3&amp;");"</f>
-        <v>INSERT INTO profiles(id, user_id, first_name, last_name, date_of_birth, gender, city, province, country, occupation, picture, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM users WHERE email = 'user2@movie.com'), 'Jane', 'Doe', '23406', 'F', 'Gatineau', 'Quebec', 'Canada', 'Electrician', '', now(), now());</v>
+        <v>INSERT INTO profiles(id, user_id, first_name, last_name, date_of_birth, gender, city, province, country, occupation, picture, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM users WHERE email = 'user2@movie.com'), 'Jane', 'Doe', '1/30/1964', 'F', 'Gatineau', 'Quebec', 'Canada', 'Electrician', '', now(), now());</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -5634,8 +5830,8 @@
       <c r="D4" t="s">
         <v>145</v>
       </c>
-      <c r="E4" s="8">
-        <v>31081</v>
+      <c r="E4" s="10" t="s">
+        <v>413</v>
       </c>
       <c r="F4" t="s">
         <v>162</v>
@@ -5650,7 +5846,7 @@
         <v>165</v>
       </c>
       <c r="J4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L4" t="s">
         <v>82</v>
@@ -5660,7 +5856,7 @@
       </c>
       <c r="N4" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO profiles(id, user_id, first_name, last_name, date_of_birth, gender, city, province, country, occupation, picture, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM users WHERE email = 'user3@movie.com'), 'Emily', 'Brown', '31081', 'F', 'Halifax', 'Nova Scotia', 'Canada', 'Dancer', '', now(), now());</v>
+        <v>INSERT INTO profiles(id, user_id, first_name, last_name, date_of_birth, gender, city, province, country, occupation, picture, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM users WHERE email = 'user3@movie.com'), 'Emily', 'Brown', '2/3/1985', 'F', 'Halifax', 'Nova Scotia', 'Canada', 'Dancer', '', now(), now());</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
@@ -5677,8 +5873,8 @@
       <c r="D5" t="s">
         <v>146</v>
       </c>
-      <c r="E5" s="8">
-        <v>33320</v>
+      <c r="E5" s="10" t="s">
+        <v>414</v>
       </c>
       <c r="F5" t="s">
         <v>162</v>
@@ -5693,7 +5889,7 @@
         <v>165</v>
       </c>
       <c r="J5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="L5" t="s">
         <v>82</v>
@@ -5703,7 +5899,7 @@
       </c>
       <c r="N5" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO profiles(id, user_id, first_name, last_name, date_of_birth, gender, city, province, country, occupation, picture, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM users WHERE email = 'user4@movie.com'), 'Stacy', 'White', '33320', 'F', 'Vancouver', 'British Columbia', 'Canada', 'Waitress', '', now(), now());</v>
+        <v>INSERT INTO profiles(id, user_id, first_name, last_name, date_of_birth, gender, city, province, country, occupation, picture, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM users WHERE email = 'user4@movie.com'), 'Stacy', 'White', '3/23/1991', 'F', 'Vancouver', 'British Columbia', 'Canada', 'Waitress', '', now(), now());</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
@@ -5720,8 +5916,8 @@
       <c r="D6" t="s">
         <v>147</v>
       </c>
-      <c r="E6" s="8">
-        <v>30783</v>
+      <c r="E6" s="10" t="s">
+        <v>415</v>
       </c>
       <c r="F6" t="s">
         <v>162</v>
@@ -5736,7 +5932,7 @@
         <v>165</v>
       </c>
       <c r="J6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="L6" t="s">
         <v>82</v>
@@ -5746,7 +5942,7 @@
       </c>
       <c r="N6" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO profiles(id, user_id, first_name, last_name, date_of_birth, gender, city, province, country, occupation, picture, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM users WHERE email = 'user5@movie.com'), 'Linda', 'Black', '30783', 'F', 'Toronto', 'Ontario', 'Canada', 'Real Estate', '', now(), now());</v>
+        <v>INSERT INTO profiles(id, user_id, first_name, last_name, date_of_birth, gender, city, province, country, occupation, picture, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM users WHERE email = 'user5@movie.com'), 'Linda', 'Black', '4/11/1984', 'F', 'Toronto', 'Ontario', 'Canada', 'Real Estate', '', now(), now());</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
@@ -5763,8 +5959,8 @@
       <c r="D7" t="s">
         <v>148</v>
       </c>
-      <c r="E7" s="8">
-        <v>23872</v>
+      <c r="E7" s="10" t="s">
+        <v>416</v>
       </c>
       <c r="F7" t="s">
         <v>161</v>
@@ -5779,7 +5975,7 @@
         <v>165</v>
       </c>
       <c r="J7" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="L7" t="s">
         <v>82</v>
@@ -5789,7 +5985,7 @@
       </c>
       <c r="N7" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO profiles(id, user_id, first_name, last_name, date_of_birth, gender, city, province, country, occupation, picture, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM users WHERE email = 'user6@movie.com'), 'Brandon', 'Fox', '23872', 'M', 'Niagra Falls', 'Ontario', 'Canada', 'Programmer', '', now(), now());</v>
+        <v>INSERT INTO profiles(id, user_id, first_name, last_name, date_of_birth, gender, city, province, country, occupation, picture, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM users WHERE email = 'user6@movie.com'), 'Brandon', 'Fox', '5/10/1965', 'M', 'Niagra Falls', 'Ontario', 'Canada', 'Programmer', '', now(), now());</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
@@ -5806,8 +6002,8 @@
       <c r="D8" t="s">
         <v>149</v>
       </c>
-      <c r="E8" s="8">
-        <v>25741</v>
+      <c r="E8" s="10" t="s">
+        <v>417</v>
       </c>
       <c r="F8" t="s">
         <v>162</v>
@@ -5822,7 +6018,7 @@
         <v>165</v>
       </c>
       <c r="J8" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="L8" t="s">
         <v>82</v>
@@ -5832,7 +6028,7 @@
       </c>
       <c r="N8" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO profiles(id, user_id, first_name, last_name, date_of_birth, gender, city, province, country, occupation, picture, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM users WHERE email = 'user7@movie.com'), 'Marisa', 'Steel', '25741', 'F', 'Victoria', 'British Columbia', 'Canada', 'Artist', '', now(), now());</v>
+        <v>INSERT INTO profiles(id, user_id, first_name, last_name, date_of_birth, gender, city, province, country, occupation, picture, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM users WHERE email = 'user7@movie.com'), 'Marisa', 'Steel', '6/22/1970', 'F', 'Victoria', 'British Columbia', 'Canada', 'Artist', '', now(), now());</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
@@ -5849,8 +6045,8 @@
       <c r="D9" t="s">
         <v>150</v>
       </c>
-      <c r="E9" s="8">
-        <v>26859</v>
+      <c r="E9" s="10" t="s">
+        <v>418</v>
       </c>
       <c r="F9" t="s">
         <v>162</v>
@@ -5865,7 +6061,7 @@
         <v>165</v>
       </c>
       <c r="J9" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="L9" t="s">
         <v>82</v>
@@ -5875,7 +6071,7 @@
       </c>
       <c r="N9" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO profiles(id, user_id, first_name, last_name, date_of_birth, gender, city, province, country, occupation, picture, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM users WHERE email = 'user8@movie.com'), 'Maria', 'Stax', '26859', 'F', 'Trois-Riviere', 'Quebec', 'Canada', 'Cook', '', now(), now());</v>
+        <v>INSERT INTO profiles(id, user_id, first_name, last_name, date_of_birth, gender, city, province, country, occupation, picture, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM users WHERE email = 'user8@movie.com'), 'Maria', 'Stax', '7/14/2006', 'F', 'Trois-Riviere', 'Quebec', 'Canada', 'Cook', '', now(), now());</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
@@ -5892,8 +6088,8 @@
       <c r="D10" t="s">
         <v>151</v>
       </c>
-      <c r="E10" s="8">
-        <v>28727</v>
+      <c r="E10" s="10" t="s">
+        <v>419</v>
       </c>
       <c r="F10" t="s">
         <v>161</v>
@@ -5908,7 +6104,7 @@
         <v>165</v>
       </c>
       <c r="J10" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="L10" t="s">
         <v>82</v>
@@ -5918,7 +6114,7 @@
       </c>
       <c r="N10" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO profiles(id, user_id, first_name, last_name, date_of_birth, gender, city, province, country, occupation, picture, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM users WHERE email = 'user9@movie.com'), 'Nick', 'Langley', '28727', 'M', 'Montreal', 'Quebec', 'Canada', 'Leather Worker', '', now(), now());</v>
+        <v>INSERT INTO profiles(id, user_id, first_name, last_name, date_of_birth, gender, city, province, country, occupation, picture, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM users WHERE email = 'user9@movie.com'), 'Nick', 'Langley', '8/25/1978', 'M', 'Montreal', 'Quebec', 'Canada', 'Leather Worker', '', now(), now());</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
@@ -5935,8 +6131,8 @@
       <c r="D11" t="s">
         <v>152</v>
       </c>
-      <c r="E11" s="8">
-        <v>22170</v>
+      <c r="E11" s="10" t="s">
+        <v>420</v>
       </c>
       <c r="F11" t="s">
         <v>161</v>
@@ -5951,7 +6147,7 @@
         <v>179</v>
       </c>
       <c r="J11" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="L11" t="s">
         <v>82</v>
@@ -5961,7 +6157,7 @@
       </c>
       <c r="N11" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO profiles(id, user_id, first_name, last_name, date_of_birth, gender, city, province, country, occupation, picture, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM users WHERE email = 'user10@movie.com'), 'James', 'Bush', '22170', 'M', 'Houston', 'Texas', 'United States', 'Engineer', '', now(), now());</v>
+        <v>INSERT INTO profiles(id, user_id, first_name, last_name, date_of_birth, gender, city, province, country, occupation, picture, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM users WHERE email = 'user10@movie.com'), 'James', 'Bush', '9/11/1960', 'M', 'Houston', 'Texas', 'United States', 'Engineer', '', now(), now());</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
@@ -5978,8 +6174,8 @@
       <c r="D12" t="s">
         <v>153</v>
       </c>
-      <c r="E12" s="8">
-        <v>21859</v>
+      <c r="E12" s="10" t="s">
+        <v>421</v>
       </c>
       <c r="F12" t="s">
         <v>161</v>
@@ -5994,7 +6190,7 @@
         <v>179</v>
       </c>
       <c r="J12" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="L12" t="s">
         <v>82</v>
@@ -6004,7 +6200,7 @@
       </c>
       <c r="N12" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO profiles(id, user_id, first_name, last_name, date_of_birth, gender, city, province, country, occupation, picture, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM users WHERE email = 'user11@movie.com'), 'Francis', 'Underwood', '21859', 'M', 'Gaffney', 'South Carolina', 'United States', 'Politician', '', now(), now());</v>
+        <v>INSERT INTO profiles(id, user_id, first_name, last_name, date_of_birth, gender, city, province, country, occupation, picture, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM users WHERE email = 'user11@movie.com'), 'Francis', 'Underwood', '11/5/1959', 'M', 'Gaffney', 'South Carolina', 'United States', 'Politician', '', now(), now());</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
@@ -6021,8 +6217,8 @@
       <c r="D13" t="s">
         <v>154</v>
       </c>
-      <c r="E13" s="8">
-        <v>29522</v>
+      <c r="E13" s="10" t="s">
+        <v>422</v>
       </c>
       <c r="F13" t="s">
         <v>161</v>
@@ -6037,7 +6233,7 @@
         <v>165</v>
       </c>
       <c r="J13" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="L13" t="s">
         <v>82</v>
@@ -6047,7 +6243,7 @@
       </c>
       <c r="N13" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO profiles(id, user_id, first_name, last_name, date_of_birth, gender, city, province, country, occupation, picture, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM users WHERE email = 'user12@movie.com'), 'Anthony', 'Landerville', '29522', 'M', 'Hamilton', 'Ontario', 'Canada', 'Doctor', '', now(), now());</v>
+        <v>INSERT INTO profiles(id, user_id, first_name, last_name, date_of_birth, gender, city, province, country, occupation, picture, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM users WHERE email = 'user12@movie.com'), 'Anthony', 'Landerville', '10/28/1980', 'M', 'Hamilton', 'Ontario', 'Canada', 'Doctor', '', now(), now());</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
@@ -6064,8 +6260,8 @@
       <c r="D14" t="s">
         <v>155</v>
       </c>
-      <c r="E14" s="8">
-        <v>35022</v>
+      <c r="E14" s="10" t="s">
+        <v>423</v>
       </c>
       <c r="F14" t="s">
         <v>161</v>
@@ -6080,7 +6276,7 @@
         <v>165</v>
       </c>
       <c r="J14" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="L14" t="s">
         <v>82</v>
@@ -6090,7 +6286,7 @@
       </c>
       <c r="N14" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO profiles(id, user_id, first_name, last_name, date_of_birth, gender, city, province, country, occupation, picture, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM users WHERE email = 'user13@movie.com'), 'Jordan', 'Hail', '35022', 'M', 'Quebec City', 'Quebec', 'Canada', 'Nurse', '', now(), now());</v>
+        <v>INSERT INTO profiles(id, user_id, first_name, last_name, date_of_birth, gender, city, province, country, occupation, picture, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM users WHERE email = 'user13@movie.com'), 'Jordan', 'Hail', '11/19/1995', 'M', 'Quebec City', 'Quebec', 'Canada', 'Nurse', '', now(), now());</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
@@ -6105,10 +6301,10 @@
         <v>138</v>
       </c>
       <c r="D15" t="s">
-        <v>208</v>
-      </c>
-      <c r="E15" s="8">
-        <v>33953</v>
+        <v>207</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>424</v>
       </c>
       <c r="F15" t="s">
         <v>162</v>
@@ -6123,7 +6319,7 @@
         <v>165</v>
       </c>
       <c r="J15" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="L15" t="s">
         <v>82</v>
@@ -6133,7 +6329,7 @@
       </c>
       <c r="N15" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO profiles(id, user_id, first_name, last_name, date_of_birth, gender, city, province, country, occupation, picture, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM users WHERE email = 'user14@movie.com'), 'Alice', 'Fairfield', '33953', 'F', 'Ottawa', 'Ontario', 'Canada', 'Taxi Driver', '', now(), now());</v>
+        <v>INSERT INTO profiles(id, user_id, first_name, last_name, date_of_birth, gender, city, province, country, occupation, picture, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM users WHERE email = 'user14@movie.com'), 'Alice', 'Fairfield', '12/15/1992', 'F', 'Ottawa', 'Ontario', 'Canada', 'Taxi Driver', '', now(), now());</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
@@ -6150,8 +6346,8 @@
       <c r="D16" t="s">
         <v>156</v>
       </c>
-      <c r="E16" s="8">
-        <v>30333</v>
+      <c r="E16" s="10" t="s">
+        <v>425</v>
       </c>
       <c r="F16" t="s">
         <v>162</v>
@@ -6166,7 +6362,7 @@
         <v>179</v>
       </c>
       <c r="J16" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="L16" t="s">
         <v>82</v>
@@ -6176,7 +6372,7 @@
       </c>
       <c r="N16" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO profiles(id, user_id, first_name, last_name, date_of_birth, gender, city, province, country, occupation, picture, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM users WHERE email = 'user15@movie.com'), 'Jessica', 'Jones', '30333', 'F', 'New York City', 'New York', 'United States', 'Private Investigator', '', now(), now());</v>
+        <v>INSERT INTO profiles(id, user_id, first_name, last_name, date_of_birth, gender, city, province, country, occupation, picture, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM users WHERE email = 'user15@movie.com'), 'Jessica', 'Jones', '1/17/1983', 'F', 'New York City', 'New York', 'United States', 'Private Investigator', '', now(), now());</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
@@ -6193,8 +6389,8 @@
       <c r="D17" t="s">
         <v>157</v>
       </c>
-      <c r="E17" s="8">
-        <v>29640</v>
+      <c r="E17" s="10" t="s">
+        <v>426</v>
       </c>
       <c r="F17" t="s">
         <v>161</v>
@@ -6209,7 +6405,7 @@
         <v>165</v>
       </c>
       <c r="J17" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="L17" t="s">
         <v>82</v>
@@ -6219,7 +6415,7 @@
       </c>
       <c r="N17" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO profiles(id, user_id, first_name, last_name, date_of_birth, gender, city, province, country, occupation, picture, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM users WHERE email = 'user16@movie.com'), 'Fred', 'Kirkland', '29640', 'M', 'Gatineau', 'Quebec', 'Canada', 'Race Car Driver', '', now(), now());</v>
+        <v>INSERT INTO profiles(id, user_id, first_name, last_name, date_of_birth, gender, city, province, country, occupation, picture, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM users WHERE email = 'user16@movie.com'), 'Fred', 'Kirkland', '2/23/1981', 'M', 'Gatineau', 'Quebec', 'Canada', 'Race Car Driver', '', now(), now());</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
@@ -6236,8 +6432,8 @@
       <c r="D18" t="s">
         <v>158</v>
       </c>
-      <c r="E18" s="8">
-        <v>32571</v>
+      <c r="E18" s="10" t="s">
+        <v>427</v>
       </c>
       <c r="F18" t="s">
         <v>161</v>
@@ -6252,7 +6448,7 @@
         <v>165</v>
       </c>
       <c r="J18" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="L18" t="s">
         <v>82</v>
@@ -6262,7 +6458,7 @@
       </c>
       <c r="N18" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO profiles(id, user_id, first_name, last_name, date_of_birth, gender, city, province, country, occupation, picture, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM users WHERE email = 'user17@movie.com'), 'Marcus', 'Chase', '32571', 'M', 'Toronto', 'Ontario', 'Canada', 'Stunt Man', '', now(), now());</v>
+        <v>INSERT INTO profiles(id, user_id, first_name, last_name, date_of_birth, gender, city, province, country, occupation, picture, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM users WHERE email = 'user17@movie.com'), 'Marcus', 'Chase', '3/4/1989', 'M', 'Toronto', 'Ontario', 'Canada', 'Stunt Man', '', now(), now());</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
@@ -6279,8 +6475,8 @@
       <c r="D19" t="s">
         <v>137</v>
       </c>
-      <c r="E19" s="8">
-        <v>34445</v>
+      <c r="E19" s="10" t="s">
+        <v>428</v>
       </c>
       <c r="F19" t="s">
         <v>162</v>
@@ -6295,7 +6491,7 @@
         <v>165</v>
       </c>
       <c r="J19" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="L19" t="s">
         <v>82</v>
@@ -6305,7 +6501,7 @@
       </c>
       <c r="N19" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO profiles(id, user_id, first_name, last_name, date_of_birth, gender, city, province, country, occupation, picture, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM users WHERE email = 'user18@movie.com'), 'Terry', 'Jordan', '34445', 'F', 'Ottawa', 'Ontario', 'Canada', 'Writer', '', now(), now());</v>
+        <v>INSERT INTO profiles(id, user_id, first_name, last_name, date_of_birth, gender, city, province, country, occupation, picture, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM users WHERE email = 'user18@movie.com'), 'Terry', 'Jordan', '4/21/1994', 'F', 'Ottawa', 'Ontario', 'Canada', 'Writer', '', now(), now());</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
@@ -6322,8 +6518,8 @@
       <c r="D20" t="s">
         <v>159</v>
       </c>
-      <c r="E20" s="8">
-        <v>34343</v>
+      <c r="E20" s="10" t="s">
+        <v>429</v>
       </c>
       <c r="F20" t="s">
         <v>162</v>
@@ -6338,7 +6534,7 @@
         <v>165</v>
       </c>
       <c r="J20" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="L20" t="s">
         <v>82</v>
@@ -6348,7 +6544,7 @@
       </c>
       <c r="N20" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO profiles(id, user_id, first_name, last_name, date_of_birth, gender, city, province, country, occupation, picture, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM users WHERE email = 'user19@movie.com'), 'Anne', 'Chu', '34343', 'F', 'Gatineau', 'Quebec', 'Canada', 'Banker', '', now(), now());</v>
+        <v>INSERT INTO profiles(id, user_id, first_name, last_name, date_of_birth, gender, city, province, country, occupation, picture, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM users WHERE email = 'user19@movie.com'), 'Anne', 'Chu', '1/9/1994', 'F', 'Gatineau', 'Quebec', 'Canada', 'Banker', '', now(), now());</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
@@ -6365,14 +6561,14 @@
       <c r="D21" t="s">
         <v>160</v>
       </c>
-      <c r="E21" s="8">
-        <v>26523</v>
+      <c r="E21" s="10" t="s">
+        <v>430</v>
       </c>
       <c r="F21" t="s">
         <v>162</v>
       </c>
       <c r="G21" t="s">
-        <v>186</v>
+        <v>431</v>
       </c>
       <c r="H21" t="s">
         <v>167</v>
@@ -6381,7 +6577,7 @@
         <v>165</v>
       </c>
       <c r="J21" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="L21" t="s">
         <v>82</v>
@@ -6391,15 +6587,18 @@
       </c>
       <c r="N21" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO profiles(id, user_id, first_name, last_name, date_of_birth, gender, city, province, country, occupation, picture, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM users WHERE email = 'user20@movie.com'), 'Rose', 'Flower', '26523', 'F', 'L'Ange-Gardien', 'Quebec', 'Canada', 'Mayor', '', now(), now());</v>
-      </c>
+        <v>INSERT INTO profiles(id, user_id, first_name, last_name, date_of_birth, gender, city, province, country, occupation, picture, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM users WHERE email = 'user20@movie.com'), 'Rose', 'Flower', '8/12/1972', 'F', 'L''Ange-Gardien', 'Quebec', 'Canada', 'Mayor', '', now(), now());</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C25" s="8"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
+        <v>205</v>
+      </c>
+      <c r="J32" t="s">
         <v>206</v>
-      </c>
-      <c r="J32" t="s">
-        <v>207</v>
       </c>
     </row>
   </sheetData>
@@ -6460,7 +6659,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="E2" sqref="E2:E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6534,7 +6733,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6655,7 +6854,7 @@
         <v>74</v>
       </c>
       <c r="B7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C7" t="s">
         <v>82</v>
@@ -6827,7 +7026,7 @@
         <v>user6@movie.com</v>
       </c>
       <c r="C7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D7" t="s">
         <v>82</v>
@@ -6959,7 +7158,7 @@
         <v>user12@movie.com</v>
       </c>
       <c r="C13" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D13" t="s">
         <v>82</v>
@@ -7091,7 +7290,7 @@
         <v>user18@movie.com</v>
       </c>
       <c r="C19" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D19" t="s">
         <v>82</v>
@@ -7157,7 +7356,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2:E30"/>
     </sheetView>
   </sheetViews>
@@ -7200,8 +7399,8 @@
         <v>82</v>
       </c>
       <c r="E2" s="6" t="str">
-        <f xml:space="preserve"> "INSERT INTO genres("&amp;A$1&amp;", "&amp;B$1&amp;", "&amp;C$1&amp;", "&amp;D$1&amp;") VALUES ("&amp;A2&amp;", '"&amp;B2&amp;"', "&amp;C2&amp;", "&amp;D2&amp;");"</f>
-        <v>INSERT INTO genres(id, genre_name, created_at, updated_at) VALUES (DEFAULT, 'Action', now(), now());</v>
+        <f xml:space="preserve"> "INSERT INTO topics("&amp;A$1&amp;", "&amp;B$1&amp;", "&amp;C$1&amp;", "&amp;D$1&amp;") VALUES ("&amp;A2&amp;", '"&amp;B2&amp;"', "&amp;C2&amp;", "&amp;D2&amp;");"</f>
+        <v>INSERT INTO topics(id, genre_name, created_at, updated_at) VALUES (DEFAULT, 'Action', now(), now());</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -7218,8 +7417,8 @@
         <v>82</v>
       </c>
       <c r="E3" s="6" t="str">
-        <f t="shared" ref="E3:E30" si="0" xml:space="preserve"> "INSERT INTO genres("&amp;A$1&amp;", "&amp;B$1&amp;", "&amp;C$1&amp;", "&amp;D$1&amp;") VALUES ("&amp;A3&amp;", '"&amp;B3&amp;"', "&amp;C3&amp;", "&amp;D3&amp;");"</f>
-        <v>INSERT INTO genres(id, genre_name, created_at, updated_at) VALUES (DEFAULT, 'Adventure', now(), now());</v>
+        <f t="shared" ref="E3:E30" si="0" xml:space="preserve"> "INSERT INTO topics("&amp;A$1&amp;", "&amp;B$1&amp;", "&amp;C$1&amp;", "&amp;D$1&amp;") VALUES ("&amp;A3&amp;", '"&amp;B3&amp;"', "&amp;C3&amp;", "&amp;D3&amp;");"</f>
+        <v>INSERT INTO topics(id, genre_name, created_at, updated_at) VALUES (DEFAULT, 'Adventure', now(), now());</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -7237,7 +7436,7 @@
       </c>
       <c r="E4" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO genres(id, genre_name, created_at, updated_at) VALUES (DEFAULT, 'Animation', now(), now());</v>
+        <v>INSERT INTO topics(id, genre_name, created_at, updated_at) VALUES (DEFAULT, 'Animation', now(), now());</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -7255,7 +7454,7 @@
       </c>
       <c r="E5" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO genres(id, genre_name, created_at, updated_at) VALUES (DEFAULT, 'Biography', now(), now());</v>
+        <v>INSERT INTO topics(id, genre_name, created_at, updated_at) VALUES (DEFAULT, 'Biography', now(), now());</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -7273,7 +7472,7 @@
       </c>
       <c r="E6" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO genres(id, genre_name, created_at, updated_at) VALUES (DEFAULT, 'Comedy', now(), now());</v>
+        <v>INSERT INTO topics(id, genre_name, created_at, updated_at) VALUES (DEFAULT, 'Comedy', now(), now());</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -7291,7 +7490,7 @@
       </c>
       <c r="E7" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO genres(id, genre_name, created_at, updated_at) VALUES (DEFAULT, 'Crime', now(), now());</v>
+        <v>INSERT INTO topics(id, genre_name, created_at, updated_at) VALUES (DEFAULT, 'Crime', now(), now());</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -7309,7 +7508,7 @@
       </c>
       <c r="E8" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO genres(id, genre_name, created_at, updated_at) VALUES (DEFAULT, 'Documentary', now(), now());</v>
+        <v>INSERT INTO topics(id, genre_name, created_at, updated_at) VALUES (DEFAULT, 'Documentary', now(), now());</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -7327,7 +7526,7 @@
       </c>
       <c r="E9" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO genres(id, genre_name, created_at, updated_at) VALUES (DEFAULT, 'Drama', now(), now());</v>
+        <v>INSERT INTO topics(id, genre_name, created_at, updated_at) VALUES (DEFAULT, 'Drama', now(), now());</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -7345,7 +7544,7 @@
       </c>
       <c r="E10" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO genres(id, genre_name, created_at, updated_at) VALUES (DEFAULT, 'Family', now(), now());</v>
+        <v>INSERT INTO topics(id, genre_name, created_at, updated_at) VALUES (DEFAULT, 'Family', now(), now());</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -7363,7 +7562,7 @@
       </c>
       <c r="E11" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO genres(id, genre_name, created_at, updated_at) VALUES (DEFAULT, 'Fantasy', now(), now());</v>
+        <v>INSERT INTO topics(id, genre_name, created_at, updated_at) VALUES (DEFAULT, 'Fantasy', now(), now());</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -7381,7 +7580,7 @@
       </c>
       <c r="E12" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO genres(id, genre_name, created_at, updated_at) VALUES (DEFAULT, 'Film-Noir', now(), now());</v>
+        <v>INSERT INTO topics(id, genre_name, created_at, updated_at) VALUES (DEFAULT, 'Film-Noir', now(), now());</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -7399,7 +7598,7 @@
       </c>
       <c r="E13" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO genres(id, genre_name, created_at, updated_at) VALUES (DEFAULT, 'History', now(), now());</v>
+        <v>INSERT INTO topics(id, genre_name, created_at, updated_at) VALUES (DEFAULT, 'History', now(), now());</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -7417,7 +7616,7 @@
       </c>
       <c r="E14" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO genres(id, genre_name, created_at, updated_at) VALUES (DEFAULT, 'Horror', now(), now());</v>
+        <v>INSERT INTO topics(id, genre_name, created_at, updated_at) VALUES (DEFAULT, 'Horror', now(), now());</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -7435,7 +7634,7 @@
       </c>
       <c r="E15" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO genres(id, genre_name, created_at, updated_at) VALUES (DEFAULT, 'Romance', now(), now());</v>
+        <v>INSERT INTO topics(id, genre_name, created_at, updated_at) VALUES (DEFAULT, 'Romance', now(), now());</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -7453,7 +7652,7 @@
       </c>
       <c r="E16" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO genres(id, genre_name, created_at, updated_at) VALUES (DEFAULT, 'Musical', now(), now());</v>
+        <v>INSERT INTO topics(id, genre_name, created_at, updated_at) VALUES (DEFAULT, 'Musical', now(), now());</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -7471,7 +7670,7 @@
       </c>
       <c r="E17" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO genres(id, genre_name, created_at, updated_at) VALUES (DEFAULT, 'Mystery', now(), now());</v>
+        <v>INSERT INTO topics(id, genre_name, created_at, updated_at) VALUES (DEFAULT, 'Mystery', now(), now());</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -7479,7 +7678,7 @@
         <v>74</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C18" t="s">
         <v>82</v>
@@ -7489,7 +7688,7 @@
       </c>
       <c r="E18" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO genres(id, genre_name, created_at, updated_at) VALUES (DEFAULT, 'Sci-Fi', now(), now());</v>
+        <v>INSERT INTO topics(id, genre_name, created_at, updated_at) VALUES (DEFAULT, 'Sci-Fi', now(), now());</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -7507,7 +7706,7 @@
       </c>
       <c r="E19" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO genres(id, genre_name, created_at, updated_at) VALUES (DEFAULT, 'Sport', now(), now());</v>
+        <v>INSERT INTO topics(id, genre_name, created_at, updated_at) VALUES (DEFAULT, 'Sport', now(), now());</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -7525,7 +7724,7 @@
       </c>
       <c r="E20" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO genres(id, genre_name, created_at, updated_at) VALUES (DEFAULT, 'Thriller', now(), now());</v>
+        <v>INSERT INTO topics(id, genre_name, created_at, updated_at) VALUES (DEFAULT, 'Thriller', now(), now());</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -7543,7 +7742,7 @@
       </c>
       <c r="E21" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO genres(id, genre_name, created_at, updated_at) VALUES (DEFAULT, 'War', now(), now());</v>
+        <v>INSERT INTO topics(id, genre_name, created_at, updated_at) VALUES (DEFAULT, 'War', now(), now());</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -7561,7 +7760,7 @@
       </c>
       <c r="E22" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO genres(id, genre_name, created_at, updated_at) VALUES (DEFAULT, 'Western', now(), now());</v>
+        <v>INSERT INTO topics(id, genre_name, created_at, updated_at) VALUES (DEFAULT, 'Western', now(), now());</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -7579,7 +7778,7 @@
       </c>
       <c r="E23" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO genres(id, genre_name, created_at, updated_at) VALUES (DEFAULT, 'Anime', now(), now());</v>
+        <v>INSERT INTO topics(id, genre_name, created_at, updated_at) VALUES (DEFAULT, 'Anime', now(), now());</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -7597,7 +7796,7 @@
       </c>
       <c r="E24" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO genres(id, genre_name, created_at, updated_at) VALUES (DEFAULT, 'Adult', now(), now());</v>
+        <v>INSERT INTO topics(id, genre_name, created_at, updated_at) VALUES (DEFAULT, 'Adult', now(), now());</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -7615,7 +7814,7 @@
       </c>
       <c r="E25" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO genres(id, genre_name, created_at, updated_at) VALUES (DEFAULT, 'Space', now(), now());</v>
+        <v>INSERT INTO topics(id, genre_name, created_at, updated_at) VALUES (DEFAULT, 'Space', now(), now());</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -7633,7 +7832,7 @@
       </c>
       <c r="E26" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO genres(id, genre_name, created_at, updated_at) VALUES (DEFAULT, 'Political', now(), now());</v>
+        <v>INSERT INTO topics(id, genre_name, created_at, updated_at) VALUES (DEFAULT, 'Political', now(), now());</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -7651,7 +7850,7 @@
       </c>
       <c r="E27" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO genres(id, genre_name, created_at, updated_at) VALUES (DEFAULT, 'Faith', now(), now());</v>
+        <v>INSERT INTO topics(id, genre_name, created_at, updated_at) VALUES (DEFAULT, 'Faith', now(), now());</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -7669,7 +7868,7 @@
       </c>
       <c r="E28" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO genres(id, genre_name, created_at, updated_at) VALUES (DEFAULT, 'Independent', now(), now());</v>
+        <v>INSERT INTO topics(id, genre_name, created_at, updated_at) VALUES (DEFAULT, 'Independent', now(), now());</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -7687,7 +7886,7 @@
       </c>
       <c r="E29" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO genres(id, genre_name, created_at, updated_at) VALUES (DEFAULT, 'Video Game', now(), now());</v>
+        <v>INSERT INTO topics(id, genre_name, created_at, updated_at) VALUES (DEFAULT, 'Video Game', now(), now());</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -7705,7 +7904,7 @@
       </c>
       <c r="E30" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO genres(id, genre_name, created_at, updated_at) VALUES (DEFAULT, 'Novel', now(), now());</v>
+        <v>INSERT INTO topics(id, genre_name, created_at, updated_at) VALUES (DEFAULT, 'Novel', now(), now());</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -7720,8 +7919,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F117"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:F92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7740,7 +7939,7 @@
         <v>50</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>4</v>
@@ -7770,8 +7969,8 @@
         <v>82</v>
       </c>
       <c r="F2" s="6" t="str">
-        <f xml:space="preserve"> "INSERT INTO likes_genres("&amp;A$1&amp;", "&amp;B$1&amp;", "&amp;C$1&amp;", "&amp;D$1&amp;", "&amp;E$1&amp;") VALUES ("&amp;A2&amp;", "&amp;B2&amp;", (SELECT id FROM profiles WHERE genre_name = '"&amp;C2&amp;"'), "&amp;D2&amp;", "&amp;E2&amp;");"</f>
-        <v>INSERT INTO likes_genres(id, profile_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = 'user1@movie.com'), (SELECT id FROM profiles WHERE genre_name = 'Action'), now(), now());</v>
+        <f xml:space="preserve"> "INSERT INTO likes_topics("&amp;A$1&amp;", "&amp;B$1&amp;", "&amp;C$1&amp;", "&amp;D$1&amp;", "&amp;E$1&amp;") VALUES ("&amp;A2&amp;", "&amp;B2&amp;", (SELECT id FROM profiles WHERE genre_name = '"&amp;C2&amp;"'), "&amp;D2&amp;", "&amp;E2&amp;");"</f>
+        <v>INSERT INTO likes_topics(id, profile_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = 'user1@movie.com'), (SELECT id FROM profiles WHERE genre_name = 'Action'), now(), now());</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -7792,8 +7991,8 @@
         <v>82</v>
       </c>
       <c r="F3" s="6" t="str">
-        <f t="shared" ref="F3:F66" si="0" xml:space="preserve"> "INSERT INTO likes_genres("&amp;A$1&amp;", "&amp;B$1&amp;", "&amp;C$1&amp;", "&amp;D$1&amp;", "&amp;E$1&amp;") VALUES ("&amp;A3&amp;", "&amp;B3&amp;", (SELECT id FROM profiles WHERE genre_name = '"&amp;C3&amp;"'), "&amp;D3&amp;", "&amp;E3&amp;");"</f>
-        <v>INSERT INTO likes_genres(id, profile_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = 'user2@movie.com'), (SELECT id FROM profiles WHERE genre_name = 'Adventure'), now(), now());</v>
+        <f t="shared" ref="F3:F66" si="0" xml:space="preserve"> "INSERT INTO likes_topics("&amp;A$1&amp;", "&amp;B$1&amp;", "&amp;C$1&amp;", "&amp;D$1&amp;", "&amp;E$1&amp;") VALUES ("&amp;A3&amp;", "&amp;B3&amp;", (SELECT id FROM profiles WHERE genre_name = '"&amp;C3&amp;"'), "&amp;D3&amp;", "&amp;E3&amp;");"</f>
+        <v>INSERT INTO likes_topics(id, profile_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = 'user2@movie.com'), (SELECT id FROM profiles WHERE genre_name = 'Adventure'), now(), now());</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -7815,7 +8014,7 @@
       </c>
       <c r="F4" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO likes_genres(id, profile_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = 'user3@movie.com'), (SELECT id FROM profiles WHERE genre_name = 'Animation'), now(), now());</v>
+        <v>INSERT INTO likes_topics(id, profile_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = 'user3@movie.com'), (SELECT id FROM profiles WHERE genre_name = 'Animation'), now(), now());</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -7837,7 +8036,7 @@
       </c>
       <c r="F5" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO likes_genres(id, profile_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = 'user4@movie.com'), (SELECT id FROM profiles WHERE genre_name = 'Biography'), now(), now());</v>
+        <v>INSERT INTO likes_topics(id, profile_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = 'user4@movie.com'), (SELECT id FROM profiles WHERE genre_name = 'Biography'), now(), now());</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -7859,7 +8058,7 @@
       </c>
       <c r="F6" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO likes_genres(id, profile_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = 'user5@movie.com'), (SELECT id FROM profiles WHERE genre_name = 'Comedy'), now(), now());</v>
+        <v>INSERT INTO likes_topics(id, profile_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = 'user5@movie.com'), (SELECT id FROM profiles WHERE genre_name = 'Comedy'), now(), now());</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -7881,7 +8080,7 @@
       </c>
       <c r="F7" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO likes_genres(id, profile_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = 'user6@movie.com'), (SELECT id FROM profiles WHERE genre_name = 'Crime'), now(), now());</v>
+        <v>INSERT INTO likes_topics(id, profile_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = 'user6@movie.com'), (SELECT id FROM profiles WHERE genre_name = 'Crime'), now(), now());</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -7903,7 +8102,7 @@
       </c>
       <c r="F8" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO likes_genres(id, profile_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = 'user7@movie.com'), (SELECT id FROM profiles WHERE genre_name = 'Documentary'), now(), now());</v>
+        <v>INSERT INTO likes_topics(id, profile_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = 'user7@movie.com'), (SELECT id FROM profiles WHERE genre_name = 'Documentary'), now(), now());</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -7925,7 +8124,7 @@
       </c>
       <c r="F9" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO likes_genres(id, profile_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = 'user8@movie.com'), (SELECT id FROM profiles WHERE genre_name = 'Drama'), now(), now());</v>
+        <v>INSERT INTO likes_topics(id, profile_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = 'user8@movie.com'), (SELECT id FROM profiles WHERE genre_name = 'Drama'), now(), now());</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -7947,7 +8146,7 @@
       </c>
       <c r="F10" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO likes_genres(id, profile_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = 'user9@movie.com'), (SELECT id FROM profiles WHERE genre_name = 'Family'), now(), now());</v>
+        <v>INSERT INTO likes_topics(id, profile_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = 'user9@movie.com'), (SELECT id FROM profiles WHERE genre_name = 'Family'), now(), now());</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -7969,7 +8168,7 @@
       </c>
       <c r="F11" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO likes_genres(id, profile_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = 'user10@movie.com'), (SELECT id FROM profiles WHERE genre_name = 'Fantasy'), now(), now());</v>
+        <v>INSERT INTO likes_topics(id, profile_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = 'user10@movie.com'), (SELECT id FROM profiles WHERE genre_name = 'Fantasy'), now(), now());</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -7991,7 +8190,7 @@
       </c>
       <c r="F12" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO likes_genres(id, profile_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = 'user11@movie.com'), (SELECT id FROM profiles WHERE genre_name = 'Film-Noir'), now(), now());</v>
+        <v>INSERT INTO likes_topics(id, profile_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = 'user11@movie.com'), (SELECT id FROM profiles WHERE genre_name = 'Film-Noir'), now(), now());</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -8013,7 +8212,7 @@
       </c>
       <c r="F13" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO likes_genres(id, profile_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = 'user12@movie.com'), (SELECT id FROM profiles WHERE genre_name = 'History'), now(), now());</v>
+        <v>INSERT INTO likes_topics(id, profile_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = 'user12@movie.com'), (SELECT id FROM profiles WHERE genre_name = 'History'), now(), now());</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -8035,7 +8234,7 @@
       </c>
       <c r="F14" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO likes_genres(id, profile_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = 'user13@movie.com'), (SELECT id FROM profiles WHERE genre_name = 'Horror'), now(), now());</v>
+        <v>INSERT INTO likes_topics(id, profile_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = 'user13@movie.com'), (SELECT id FROM profiles WHERE genre_name = 'Horror'), now(), now());</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -8057,7 +8256,7 @@
       </c>
       <c r="F15" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO likes_genres(id, profile_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = 'user14@movie.com'), (SELECT id FROM profiles WHERE genre_name = 'Romance'), now(), now());</v>
+        <v>INSERT INTO likes_topics(id, profile_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = 'user14@movie.com'), (SELECT id FROM profiles WHERE genre_name = 'Romance'), now(), now());</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -8079,7 +8278,7 @@
       </c>
       <c r="F16" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO likes_genres(id, profile_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = 'user15@movie.com'), (SELECT id FROM profiles WHERE genre_name = 'Musical'), now(), now());</v>
+        <v>INSERT INTO likes_topics(id, profile_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = 'user15@movie.com'), (SELECT id FROM profiles WHERE genre_name = 'Musical'), now(), now());</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -8101,7 +8300,7 @@
       </c>
       <c r="F17" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO likes_genres(id, profile_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = 'user16@movie.com'), (SELECT id FROM profiles WHERE genre_name = 'Mystery'), now(), now());</v>
+        <v>INSERT INTO likes_topics(id, profile_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = 'user16@movie.com'), (SELECT id FROM profiles WHERE genre_name = 'Mystery'), now(), now());</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -8123,7 +8322,7 @@
       </c>
       <c r="F18" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO likes_genres(id, profile_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = 'user17@movie.com'), (SELECT id FROM profiles WHERE genre_name = 'Science Fiction'), now(), now());</v>
+        <v>INSERT INTO likes_topics(id, profile_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = 'user17@movie.com'), (SELECT id FROM profiles WHERE genre_name = 'Science Fiction'), now(), now());</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -8145,7 +8344,7 @@
       </c>
       <c r="F19" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO likes_genres(id, profile_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = 'user18@movie.com'), (SELECT id FROM profiles WHERE genre_name = 'Sport'), now(), now());</v>
+        <v>INSERT INTO likes_topics(id, profile_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = 'user18@movie.com'), (SELECT id FROM profiles WHERE genre_name = 'Sport'), now(), now());</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -8167,7 +8366,7 @@
       </c>
       <c r="F20" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO likes_genres(id, profile_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = 'user19@movie.com'), (SELECT id FROM profiles WHERE genre_name = 'Thriller'), now(), now());</v>
+        <v>INSERT INTO likes_topics(id, profile_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = 'user19@movie.com'), (SELECT id FROM profiles WHERE genre_name = 'Thriller'), now(), now());</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -8189,7 +8388,7 @@
       </c>
       <c r="F21" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO likes_genres(id, profile_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = 'user20@movie.com'), (SELECT id FROM profiles WHERE genre_name = 'War'), now(), now());</v>
+        <v>INSERT INTO likes_topics(id, profile_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = 'user20@movie.com'), (SELECT id FROM profiles WHERE genre_name = 'War'), now(), now());</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -8211,7 +8410,7 @@
       </c>
       <c r="F22" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO likes_genres(id, profile_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = 'user1@movie.com'), (SELECT id FROM profiles WHERE genre_name = 'Western'), now(), now());</v>
+        <v>INSERT INTO likes_topics(id, profile_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = 'user1@movie.com'), (SELECT id FROM profiles WHERE genre_name = 'Western'), now(), now());</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -8233,7 +8432,7 @@
       </c>
       <c r="F23" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO likes_genres(id, profile_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = 'user2@movie.com'), (SELECT id FROM profiles WHERE genre_name = 'Anime'), now(), now());</v>
+        <v>INSERT INTO likes_topics(id, profile_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = 'user2@movie.com'), (SELECT id FROM profiles WHERE genre_name = 'Anime'), now(), now());</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -8255,7 +8454,7 @@
       </c>
       <c r="F24" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO likes_genres(id, profile_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = 'user3@movie.com'), (SELECT id FROM profiles WHERE genre_name = 'Adult'), now(), now());</v>
+        <v>INSERT INTO likes_topics(id, profile_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = 'user3@movie.com'), (SELECT id FROM profiles WHERE genre_name = 'Adult'), now(), now());</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -8277,7 +8476,7 @@
       </c>
       <c r="F25" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO likes_genres(id, profile_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = 'user4@movie.com'), (SELECT id FROM profiles WHERE genre_name = 'Space'), now(), now());</v>
+        <v>INSERT INTO likes_topics(id, profile_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = 'user4@movie.com'), (SELECT id FROM profiles WHERE genre_name = 'Space'), now(), now());</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -8299,7 +8498,7 @@
       </c>
       <c r="F26" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO likes_genres(id, profile_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = 'user5@movie.com'), (SELECT id FROM profiles WHERE genre_name = 'Political'), now(), now());</v>
+        <v>INSERT INTO likes_topics(id, profile_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = 'user5@movie.com'), (SELECT id FROM profiles WHERE genre_name = 'Political'), now(), now());</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -8321,7 +8520,7 @@
       </c>
       <c r="F27" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO likes_genres(id, profile_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = 'user6@movie.com'), (SELECT id FROM profiles WHERE genre_name = 'Faith'), now(), now());</v>
+        <v>INSERT INTO likes_topics(id, profile_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = 'user6@movie.com'), (SELECT id FROM profiles WHERE genre_name = 'Faith'), now(), now());</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -8343,7 +8542,7 @@
       </c>
       <c r="F28" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO likes_genres(id, profile_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = 'user7@movie.com'), (SELECT id FROM profiles WHERE genre_name = 'Independent'), now(), now());</v>
+        <v>INSERT INTO likes_topics(id, profile_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = 'user7@movie.com'), (SELECT id FROM profiles WHERE genre_name = 'Independent'), now(), now());</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -8365,7 +8564,7 @@
       </c>
       <c r="F29" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO likes_genres(id, profile_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = 'user8@movie.com'), (SELECT id FROM profiles WHERE genre_name = 'Video Game'), now(), now());</v>
+        <v>INSERT INTO likes_topics(id, profile_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = 'user8@movie.com'), (SELECT id FROM profiles WHERE genre_name = 'Video Game'), now(), now());</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -8387,7 +8586,7 @@
       </c>
       <c r="F30" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO likes_genres(id, profile_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = 'user9@movie.com'), (SELECT id FROM profiles WHERE genre_name = 'Novel'), now(), now());</v>
+        <v>INSERT INTO likes_topics(id, profile_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = 'user9@movie.com'), (SELECT id FROM profiles WHERE genre_name = 'Novel'), now(), now());</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -8409,7 +8608,7 @@
       </c>
       <c r="F31" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO likes_genres(id, profile_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = 'user10@movie.com'), (SELECT id FROM profiles WHERE genre_name = 'Action'), now(), now());</v>
+        <v>INSERT INTO likes_topics(id, profile_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = 'user10@movie.com'), (SELECT id FROM profiles WHERE genre_name = 'Action'), now(), now());</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -8431,7 +8630,7 @@
       </c>
       <c r="F32" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO likes_genres(id, profile_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = 'user11@movie.com'), (SELECT id FROM profiles WHERE genre_name = 'Adventure'), now(), now());</v>
+        <v>INSERT INTO likes_topics(id, profile_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = 'user11@movie.com'), (SELECT id FROM profiles WHERE genre_name = 'Adventure'), now(), now());</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -8453,7 +8652,7 @@
       </c>
       <c r="F33" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO likes_genres(id, profile_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = 'user12@movie.com'), (SELECT id FROM profiles WHERE genre_name = 'Animation'), now(), now());</v>
+        <v>INSERT INTO likes_topics(id, profile_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = 'user12@movie.com'), (SELECT id FROM profiles WHERE genre_name = 'Animation'), now(), now());</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -8475,7 +8674,7 @@
       </c>
       <c r="F34" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO likes_genres(id, profile_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = 'user13@movie.com'), (SELECT id FROM profiles WHERE genre_name = 'Biography'), now(), now());</v>
+        <v>INSERT INTO likes_topics(id, profile_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = 'user13@movie.com'), (SELECT id FROM profiles WHERE genre_name = 'Biography'), now(), now());</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -8497,7 +8696,7 @@
       </c>
       <c r="F35" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO likes_genres(id, profile_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = 'user14@movie.com'), (SELECT id FROM profiles WHERE genre_name = 'Comedy'), now(), now());</v>
+        <v>INSERT INTO likes_topics(id, profile_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = 'user14@movie.com'), (SELECT id FROM profiles WHERE genre_name = 'Comedy'), now(), now());</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -8519,7 +8718,7 @@
       </c>
       <c r="F36" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO likes_genres(id, profile_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = 'user15@movie.com'), (SELECT id FROM profiles WHERE genre_name = 'Crime'), now(), now());</v>
+        <v>INSERT INTO likes_topics(id, profile_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = 'user15@movie.com'), (SELECT id FROM profiles WHERE genre_name = 'Crime'), now(), now());</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -8541,7 +8740,7 @@
       </c>
       <c r="F37" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO likes_genres(id, profile_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = 'user16@movie.com'), (SELECT id FROM profiles WHERE genre_name = 'Documentary'), now(), now());</v>
+        <v>INSERT INTO likes_topics(id, profile_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = 'user16@movie.com'), (SELECT id FROM profiles WHERE genre_name = 'Documentary'), now(), now());</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -8563,7 +8762,7 @@
       </c>
       <c r="F38" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO likes_genres(id, profile_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = 'user17@movie.com'), (SELECT id FROM profiles WHERE genre_name = 'Drama'), now(), now());</v>
+        <v>INSERT INTO likes_topics(id, profile_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = 'user17@movie.com'), (SELECT id FROM profiles WHERE genre_name = 'Drama'), now(), now());</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -8585,7 +8784,7 @@
       </c>
       <c r="F39" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO likes_genres(id, profile_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = 'user18@movie.com'), (SELECT id FROM profiles WHERE genre_name = 'Family'), now(), now());</v>
+        <v>INSERT INTO likes_topics(id, profile_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = 'user18@movie.com'), (SELECT id FROM profiles WHERE genre_name = 'Family'), now(), now());</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -8607,7 +8806,7 @@
       </c>
       <c r="F40" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO likes_genres(id, profile_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = 'user19@movie.com'), (SELECT id FROM profiles WHERE genre_name = 'Fantasy'), now(), now());</v>
+        <v>INSERT INTO likes_topics(id, profile_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = 'user19@movie.com'), (SELECT id FROM profiles WHERE genre_name = 'Fantasy'), now(), now());</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -8629,7 +8828,7 @@
       </c>
       <c r="F41" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO likes_genres(id, profile_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = 'user20@movie.com'), (SELECT id FROM profiles WHERE genre_name = 'Film-Noir'), now(), now());</v>
+        <v>INSERT INTO likes_topics(id, profile_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = 'user20@movie.com'), (SELECT id FROM profiles WHERE genre_name = 'Film-Noir'), now(), now());</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -8651,7 +8850,7 @@
       </c>
       <c r="F42" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO likes_genres(id, profile_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = 'user1@movie.com'), (SELECT id FROM profiles WHERE genre_name = 'History'), now(), now());</v>
+        <v>INSERT INTO likes_topics(id, profile_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = 'user1@movie.com'), (SELECT id FROM profiles WHERE genre_name = 'History'), now(), now());</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -8673,7 +8872,7 @@
       </c>
       <c r="F43" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO likes_genres(id, profile_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = 'user2@movie.com'), (SELECT id FROM profiles WHERE genre_name = 'Horror'), now(), now());</v>
+        <v>INSERT INTO likes_topics(id, profile_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = 'user2@movie.com'), (SELECT id FROM profiles WHERE genre_name = 'Horror'), now(), now());</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -8695,7 +8894,7 @@
       </c>
       <c r="F44" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO likes_genres(id, profile_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = 'user3@movie.com'), (SELECT id FROM profiles WHERE genre_name = 'Romance'), now(), now());</v>
+        <v>INSERT INTO likes_topics(id, profile_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = 'user3@movie.com'), (SELECT id FROM profiles WHERE genre_name = 'Romance'), now(), now());</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -8717,7 +8916,7 @@
       </c>
       <c r="F45" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO likes_genres(id, profile_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = 'user4@movie.com'), (SELECT id FROM profiles WHERE genre_name = 'Musical'), now(), now());</v>
+        <v>INSERT INTO likes_topics(id, profile_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = 'user4@movie.com'), (SELECT id FROM profiles WHERE genre_name = 'Musical'), now(), now());</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -8739,7 +8938,7 @@
       </c>
       <c r="F46" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO likes_genres(id, profile_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = 'user5@movie.com'), (SELECT id FROM profiles WHERE genre_name = 'Mystery'), now(), now());</v>
+        <v>INSERT INTO likes_topics(id, profile_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = 'user5@movie.com'), (SELECT id FROM profiles WHERE genre_name = 'Mystery'), now(), now());</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -8761,7 +8960,7 @@
       </c>
       <c r="F47" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO likes_genres(id, profile_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = 'user6@movie.com'), (SELECT id FROM profiles WHERE genre_name = 'Science Fiction'), now(), now());</v>
+        <v>INSERT INTO likes_topics(id, profile_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = 'user6@movie.com'), (SELECT id FROM profiles WHERE genre_name = 'Science Fiction'), now(), now());</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -8783,7 +8982,7 @@
       </c>
       <c r="F48" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO likes_genres(id, profile_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = 'user7@movie.com'), (SELECT id FROM profiles WHERE genre_name = 'Sport'), now(), now());</v>
+        <v>INSERT INTO likes_topics(id, profile_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = 'user7@movie.com'), (SELECT id FROM profiles WHERE genre_name = 'Sport'), now(), now());</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
@@ -8805,7 +9004,7 @@
       </c>
       <c r="F49" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO likes_genres(id, profile_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = 'user8@movie.com'), (SELECT id FROM profiles WHERE genre_name = 'Thriller'), now(), now());</v>
+        <v>INSERT INTO likes_topics(id, profile_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = 'user8@movie.com'), (SELECT id FROM profiles WHERE genre_name = 'Thriller'), now(), now());</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
@@ -8827,7 +9026,7 @@
       </c>
       <c r="F50" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO likes_genres(id, profile_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = 'user9@movie.com'), (SELECT id FROM profiles WHERE genre_name = 'War'), now(), now());</v>
+        <v>INSERT INTO likes_topics(id, profile_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = 'user9@movie.com'), (SELECT id FROM profiles WHERE genre_name = 'War'), now(), now());</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
@@ -8849,7 +9048,7 @@
       </c>
       <c r="F51" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO likes_genres(id, profile_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = 'user10@movie.com'), (SELECT id FROM profiles WHERE genre_name = 'Western'), now(), now());</v>
+        <v>INSERT INTO likes_topics(id, profile_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = 'user10@movie.com'), (SELECT id FROM profiles WHERE genre_name = 'Western'), now(), now());</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
@@ -8871,7 +9070,7 @@
       </c>
       <c r="F52" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO likes_genres(id, profile_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = 'user11@movie.com'), (SELECT id FROM profiles WHERE genre_name = 'Anime'), now(), now());</v>
+        <v>INSERT INTO likes_topics(id, profile_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = 'user11@movie.com'), (SELECT id FROM profiles WHERE genre_name = 'Anime'), now(), now());</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
@@ -8893,7 +9092,7 @@
       </c>
       <c r="F53" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO likes_genres(id, profile_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = 'user12@movie.com'), (SELECT id FROM profiles WHERE genre_name = 'Adult'), now(), now());</v>
+        <v>INSERT INTO likes_topics(id, profile_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = 'user12@movie.com'), (SELECT id FROM profiles WHERE genre_name = 'Adult'), now(), now());</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
@@ -8915,7 +9114,7 @@
       </c>
       <c r="F54" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO likes_genres(id, profile_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = 'user13@movie.com'), (SELECT id FROM profiles WHERE genre_name = 'Space'), now(), now());</v>
+        <v>INSERT INTO likes_topics(id, profile_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = 'user13@movie.com'), (SELECT id FROM profiles WHERE genre_name = 'Space'), now(), now());</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
@@ -8937,7 +9136,7 @@
       </c>
       <c r="F55" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO likes_genres(id, profile_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = 'user14@movie.com'), (SELECT id FROM profiles WHERE genre_name = 'Political'), now(), now());</v>
+        <v>INSERT INTO likes_topics(id, profile_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = 'user14@movie.com'), (SELECT id FROM profiles WHERE genre_name = 'Political'), now(), now());</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
@@ -8959,7 +9158,7 @@
       </c>
       <c r="F56" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO likes_genres(id, profile_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = 'user15@movie.com'), (SELECT id FROM profiles WHERE genre_name = 'Faith'), now(), now());</v>
+        <v>INSERT INTO likes_topics(id, profile_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = 'user15@movie.com'), (SELECT id FROM profiles WHERE genre_name = 'Faith'), now(), now());</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
@@ -8981,7 +9180,7 @@
       </c>
       <c r="F57" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO likes_genres(id, profile_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = 'user16@movie.com'), (SELECT id FROM profiles WHERE genre_name = 'Independent'), now(), now());</v>
+        <v>INSERT INTO likes_topics(id, profile_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = 'user16@movie.com'), (SELECT id FROM profiles WHERE genre_name = 'Independent'), now(), now());</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
@@ -9003,7 +9202,7 @@
       </c>
       <c r="F58" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO likes_genres(id, profile_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = 'user17@movie.com'), (SELECT id FROM profiles WHERE genre_name = 'Video Game'), now(), now());</v>
+        <v>INSERT INTO likes_topics(id, profile_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = 'user17@movie.com'), (SELECT id FROM profiles WHERE genre_name = 'Video Game'), now(), now());</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
@@ -9025,7 +9224,7 @@
       </c>
       <c r="F59" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO likes_genres(id, profile_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = 'user18@movie.com'), (SELECT id FROM profiles WHERE genre_name = 'Novel'), now(), now());</v>
+        <v>INSERT INTO likes_topics(id, profile_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = 'user18@movie.com'), (SELECT id FROM profiles WHERE genre_name = 'Novel'), now(), now());</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
@@ -9047,7 +9246,7 @@
       </c>
       <c r="F60" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO likes_genres(id, profile_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = 'user19@movie.com'), (SELECT id FROM profiles WHERE genre_name = 'Action'), now(), now());</v>
+        <v>INSERT INTO likes_topics(id, profile_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = 'user19@movie.com'), (SELECT id FROM profiles WHERE genre_name = 'Action'), now(), now());</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
@@ -9069,7 +9268,7 @@
       </c>
       <c r="F61" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO likes_genres(id, profile_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = 'user20@movie.com'), (SELECT id FROM profiles WHERE genre_name = 'Adventure'), now(), now());</v>
+        <v>INSERT INTO likes_topics(id, profile_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = 'user20@movie.com'), (SELECT id FROM profiles WHERE genre_name = 'Adventure'), now(), now());</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
@@ -9091,7 +9290,7 @@
       </c>
       <c r="F62" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO likes_genres(id, profile_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = 'user1@movie.com'), (SELECT id FROM profiles WHERE genre_name = 'Animation'), now(), now());</v>
+        <v>INSERT INTO likes_topics(id, profile_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = 'user1@movie.com'), (SELECT id FROM profiles WHERE genre_name = 'Animation'), now(), now());</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
@@ -9113,7 +9312,7 @@
       </c>
       <c r="F63" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO likes_genres(id, profile_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = 'user2@movie.com'), (SELECT id FROM profiles WHERE genre_name = 'Biography'), now(), now());</v>
+        <v>INSERT INTO likes_topics(id, profile_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = 'user2@movie.com'), (SELECT id FROM profiles WHERE genre_name = 'Biography'), now(), now());</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
@@ -9135,7 +9334,7 @@
       </c>
       <c r="F64" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO likes_genres(id, profile_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = 'user3@movie.com'), (SELECT id FROM profiles WHERE genre_name = 'Comedy'), now(), now());</v>
+        <v>INSERT INTO likes_topics(id, profile_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = 'user3@movie.com'), (SELECT id FROM profiles WHERE genre_name = 'Comedy'), now(), now());</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
@@ -9157,7 +9356,7 @@
       </c>
       <c r="F65" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO likes_genres(id, profile_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = 'user4@movie.com'), (SELECT id FROM profiles WHERE genre_name = 'Crime'), now(), now());</v>
+        <v>INSERT INTO likes_topics(id, profile_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = 'user4@movie.com'), (SELECT id FROM profiles WHERE genre_name = 'Crime'), now(), now());</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
@@ -9179,7 +9378,7 @@
       </c>
       <c r="F66" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO likes_genres(id, profile_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = 'user5@movie.com'), (SELECT id FROM profiles WHERE genre_name = 'Documentary'), now(), now());</v>
+        <v>INSERT INTO likes_topics(id, profile_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = 'user5@movie.com'), (SELECT id FROM profiles WHERE genre_name = 'Documentary'), now(), now());</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
@@ -9200,8 +9399,8 @@
         <v>82</v>
       </c>
       <c r="F67" s="6" t="str">
-        <f t="shared" ref="F67:F92" si="1" xml:space="preserve"> "INSERT INTO likes_genres("&amp;A$1&amp;", "&amp;B$1&amp;", "&amp;C$1&amp;", "&amp;D$1&amp;", "&amp;E$1&amp;") VALUES ("&amp;A67&amp;", "&amp;B67&amp;", (SELECT id FROM profiles WHERE genre_name = '"&amp;C67&amp;"'), "&amp;D67&amp;", "&amp;E67&amp;");"</f>
-        <v>INSERT INTO likes_genres(id, profile_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = 'user6@movie.com'), (SELECT id FROM profiles WHERE genre_name = 'Drama'), now(), now());</v>
+        <f t="shared" ref="F67:F92" si="1" xml:space="preserve"> "INSERT INTO likes_topics("&amp;A$1&amp;", "&amp;B$1&amp;", "&amp;C$1&amp;", "&amp;D$1&amp;", "&amp;E$1&amp;") VALUES ("&amp;A67&amp;", "&amp;B67&amp;", (SELECT id FROM profiles WHERE genre_name = '"&amp;C67&amp;"'), "&amp;D67&amp;", "&amp;E67&amp;");"</f>
+        <v>INSERT INTO likes_topics(id, profile_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = 'user6@movie.com'), (SELECT id FROM profiles WHERE genre_name = 'Drama'), now(), now());</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
@@ -9223,7 +9422,7 @@
       </c>
       <c r="F68" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO likes_genres(id, profile_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = 'user7@movie.com'), (SELECT id FROM profiles WHERE genre_name = 'Family'), now(), now());</v>
+        <v>INSERT INTO likes_topics(id, profile_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = 'user7@movie.com'), (SELECT id FROM profiles WHERE genre_name = 'Family'), now(), now());</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
@@ -9245,7 +9444,7 @@
       </c>
       <c r="F69" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO likes_genres(id, profile_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = 'user8@movie.com'), (SELECT id FROM profiles WHERE genre_name = 'Fantasy'), now(), now());</v>
+        <v>INSERT INTO likes_topics(id, profile_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = 'user8@movie.com'), (SELECT id FROM profiles WHERE genre_name = 'Fantasy'), now(), now());</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
@@ -9267,7 +9466,7 @@
       </c>
       <c r="F70" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO likes_genres(id, profile_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = 'user9@movie.com'), (SELECT id FROM profiles WHERE genre_name = 'Film-Noir'), now(), now());</v>
+        <v>INSERT INTO likes_topics(id, profile_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = 'user9@movie.com'), (SELECT id FROM profiles WHERE genre_name = 'Film-Noir'), now(), now());</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
@@ -9289,7 +9488,7 @@
       </c>
       <c r="F71" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO likes_genres(id, profile_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = 'user10@movie.com'), (SELECT id FROM profiles WHERE genre_name = 'History'), now(), now());</v>
+        <v>INSERT INTO likes_topics(id, profile_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = 'user10@movie.com'), (SELECT id FROM profiles WHERE genre_name = 'History'), now(), now());</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
@@ -9311,7 +9510,7 @@
       </c>
       <c r="F72" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO likes_genres(id, profile_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = 'user11@movie.com'), (SELECT id FROM profiles WHERE genre_name = 'Horror'), now(), now());</v>
+        <v>INSERT INTO likes_topics(id, profile_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = 'user11@movie.com'), (SELECT id FROM profiles WHERE genre_name = 'Horror'), now(), now());</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
@@ -9333,7 +9532,7 @@
       </c>
       <c r="F73" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO likes_genres(id, profile_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = 'user12@movie.com'), (SELECT id FROM profiles WHERE genre_name = 'Romance'), now(), now());</v>
+        <v>INSERT INTO likes_topics(id, profile_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = 'user12@movie.com'), (SELECT id FROM profiles WHERE genre_name = 'Romance'), now(), now());</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
@@ -9355,7 +9554,7 @@
       </c>
       <c r="F74" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO likes_genres(id, profile_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = 'user13@movie.com'), (SELECT id FROM profiles WHERE genre_name = 'Musical'), now(), now());</v>
+        <v>INSERT INTO likes_topics(id, profile_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = 'user13@movie.com'), (SELECT id FROM profiles WHERE genre_name = 'Musical'), now(), now());</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
@@ -9377,7 +9576,7 @@
       </c>
       <c r="F75" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO likes_genres(id, profile_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = 'user14@movie.com'), (SELECT id FROM profiles WHERE genre_name = 'Mystery'), now(), now());</v>
+        <v>INSERT INTO likes_topics(id, profile_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = 'user14@movie.com'), (SELECT id FROM profiles WHERE genre_name = 'Mystery'), now(), now());</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
@@ -9399,7 +9598,7 @@
       </c>
       <c r="F76" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO likes_genres(id, profile_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = 'user15@movie.com'), (SELECT id FROM profiles WHERE genre_name = 'Science Fiction'), now(), now());</v>
+        <v>INSERT INTO likes_topics(id, profile_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = 'user15@movie.com'), (SELECT id FROM profiles WHERE genre_name = 'Science Fiction'), now(), now());</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
@@ -9421,7 +9620,7 @@
       </c>
       <c r="F77" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO likes_genres(id, profile_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = 'user16@movie.com'), (SELECT id FROM profiles WHERE genre_name = 'Sport'), now(), now());</v>
+        <v>INSERT INTO likes_topics(id, profile_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = 'user16@movie.com'), (SELECT id FROM profiles WHERE genre_name = 'Sport'), now(), now());</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
@@ -9443,7 +9642,7 @@
       </c>
       <c r="F78" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO likes_genres(id, profile_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = 'user17@movie.com'), (SELECT id FROM profiles WHERE genre_name = 'Thriller'), now(), now());</v>
+        <v>INSERT INTO likes_topics(id, profile_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = 'user17@movie.com'), (SELECT id FROM profiles WHERE genre_name = 'Thriller'), now(), now());</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
@@ -9465,7 +9664,7 @@
       </c>
       <c r="F79" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO likes_genres(id, profile_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = 'user18@movie.com'), (SELECT id FROM profiles WHERE genre_name = 'War'), now(), now());</v>
+        <v>INSERT INTO likes_topics(id, profile_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = 'user18@movie.com'), (SELECT id FROM profiles WHERE genre_name = 'War'), now(), now());</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
@@ -9487,7 +9686,7 @@
       </c>
       <c r="F80" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO likes_genres(id, profile_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = 'user19@movie.com'), (SELECT id FROM profiles WHERE genre_name = 'Western'), now(), now());</v>
+        <v>INSERT INTO likes_topics(id, profile_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = 'user19@movie.com'), (SELECT id FROM profiles WHERE genre_name = 'Western'), now(), now());</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
@@ -9509,7 +9708,7 @@
       </c>
       <c r="F81" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO likes_genres(id, profile_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = 'user20@movie.com'), (SELECT id FROM profiles WHERE genre_name = 'Anime'), now(), now());</v>
+        <v>INSERT INTO likes_topics(id, profile_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = 'user20@movie.com'), (SELECT id FROM profiles WHERE genre_name = 'Anime'), now(), now());</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
@@ -9531,7 +9730,7 @@
       </c>
       <c r="F82" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO likes_genres(id, profile_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = 'user1@movie.com'), (SELECT id FROM profiles WHERE genre_name = 'Adult'), now(), now());</v>
+        <v>INSERT INTO likes_topics(id, profile_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = 'user1@movie.com'), (SELECT id FROM profiles WHERE genre_name = 'Adult'), now(), now());</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
@@ -9553,7 +9752,7 @@
       </c>
       <c r="F83" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO likes_genres(id, profile_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = 'user2@movie.com'), (SELECT id FROM profiles WHERE genre_name = 'Space'), now(), now());</v>
+        <v>INSERT INTO likes_topics(id, profile_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = 'user2@movie.com'), (SELECT id FROM profiles WHERE genre_name = 'Space'), now(), now());</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
@@ -9575,7 +9774,7 @@
       </c>
       <c r="F84" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO likes_genres(id, profile_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = 'user3@movie.com'), (SELECT id FROM profiles WHERE genre_name = 'Political'), now(), now());</v>
+        <v>INSERT INTO likes_topics(id, profile_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = 'user3@movie.com'), (SELECT id FROM profiles WHERE genre_name = 'Political'), now(), now());</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
@@ -9597,7 +9796,7 @@
       </c>
       <c r="F85" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO likes_genres(id, profile_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = 'user4@movie.com'), (SELECT id FROM profiles WHERE genre_name = 'Faith'), now(), now());</v>
+        <v>INSERT INTO likes_topics(id, profile_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = 'user4@movie.com'), (SELECT id FROM profiles WHERE genre_name = 'Faith'), now(), now());</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
@@ -9619,7 +9818,7 @@
       </c>
       <c r="F86" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO likes_genres(id, profile_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = 'user5@movie.com'), (SELECT id FROM profiles WHERE genre_name = 'Independent'), now(), now());</v>
+        <v>INSERT INTO likes_topics(id, profile_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = 'user5@movie.com'), (SELECT id FROM profiles WHERE genre_name = 'Independent'), now(), now());</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
@@ -9641,7 +9840,7 @@
       </c>
       <c r="F87" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO likes_genres(id, profile_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = 'user6@movie.com'), (SELECT id FROM profiles WHERE genre_name = 'Video Game'), now(), now());</v>
+        <v>INSERT INTO likes_topics(id, profile_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = 'user6@movie.com'), (SELECT id FROM profiles WHERE genre_name = 'Video Game'), now(), now());</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
@@ -9663,7 +9862,7 @@
       </c>
       <c r="F88" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO likes_genres(id, profile_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = 'user7@movie.com'), (SELECT id FROM profiles WHERE genre_name = 'Novel'), now(), now());</v>
+        <v>INSERT INTO likes_topics(id, profile_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = 'user7@movie.com'), (SELECT id FROM profiles WHERE genre_name = 'Novel'), now(), now());</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
@@ -9685,7 +9884,7 @@
       </c>
       <c r="F89" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO likes_genres(id, profile_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = 'user8@movie.com'), (SELECT id FROM profiles WHERE genre_name = 'Action'), now(), now());</v>
+        <v>INSERT INTO likes_topics(id, profile_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = 'user8@movie.com'), (SELECT id FROM profiles WHERE genre_name = 'Action'), now(), now());</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
@@ -9707,7 +9906,7 @@
       </c>
       <c r="F90" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO likes_genres(id, profile_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = 'user9@movie.com'), (SELECT id FROM profiles WHERE genre_name = 'Adventure'), now(), now());</v>
+        <v>INSERT INTO likes_topics(id, profile_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = 'user9@movie.com'), (SELECT id FROM profiles WHERE genre_name = 'Adventure'), now(), now());</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
@@ -9729,7 +9928,7 @@
       </c>
       <c r="F91" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO likes_genres(id, profile_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = 'user10@movie.com'), (SELECT id FROM profiles WHERE genre_name = 'Animation'), now(), now());</v>
+        <v>INSERT INTO likes_topics(id, profile_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = 'user10@movie.com'), (SELECT id FROM profiles WHERE genre_name = 'Animation'), now(), now());</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
@@ -9751,7 +9950,7 @@
       </c>
       <c r="F92" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO likes_genres(id, profile_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = 'user11@movie.com'), (SELECT id FROM profiles WHERE genre_name = 'Political'), now(), now());</v>
+        <v>INSERT INTO likes_topics(id, profile_id, topic_id, created_at, updated_at) VALUES (DEFAULT, (SELECT P.id FROM profiles P, users U WHERE U.id = P.user_id AND U.email = 'user11@movie.com'), (SELECT id FROM profiles WHERE genre_name = 'Political'), now(), now());</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
@@ -9838,14 +10037,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O41"/>
   <sheetViews>
-    <sheetView topLeftCell="L15" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2:O41"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="14" width="11.42578125" customWidth="1"/>
-    <col min="15" max="15" width="255.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="3" width="11.42578125" customWidth="1"/>
+    <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="14" width="11.42578125" customWidth="1"/>
+    <col min="15" max="15" width="113.42578125" style="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
@@ -9900,37 +10101,37 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
+        <v>209</v>
+      </c>
+      <c r="C2" t="s">
         <v>210</v>
       </c>
-      <c r="C2" t="s">
-        <v>211</v>
-      </c>
-      <c r="D2" s="8">
-        <v>37244</v>
+      <c r="D2" s="10" t="s">
+        <v>409</v>
       </c>
       <c r="E2">
         <v>178</v>
       </c>
       <c r="F2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G2" t="s">
+        <v>211</v>
+      </c>
+      <c r="H2" t="s">
         <v>212</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
+        <v>212</v>
+      </c>
+      <c r="J2" t="s">
         <v>213</v>
       </c>
-      <c r="I2" t="s">
-        <v>213</v>
-      </c>
-      <c r="J2" t="s">
-        <v>214</v>
-      </c>
       <c r="K2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="L2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="M2" t="s">
         <v>82</v>
@@ -9939,8 +10140,8 @@
         <v>82</v>
       </c>
       <c r="O2" s="6" t="str">
-        <f xml:space="preserve"> "INSERT INTO profiles("&amp;A$1&amp;", "&amp;B$1&amp;", "&amp;C$1&amp;", "&amp;D$1&amp;", "&amp;E$1&amp;", "&amp;F$1&amp;", "&amp;G$1&amp;", "&amp;H$1&amp;", "&amp;I$1&amp;", "&amp;J$1&amp;", "&amp;K$1&amp;", "&amp;L$1&amp;", "&amp;M$1&amp;", "&amp;N$1&amp;") VALUES ("&amp;A2&amp;", '"&amp;B2&amp;"', '"&amp;C2&amp;"', '"&amp;D2&amp;"', '"&amp;E2&amp;"', '"&amp;F2&amp;"', '"&amp;G2&amp;"', '"&amp;H2&amp;"', '"&amp;I2&amp;"', '"&amp;J2&amp;"', '"&amp;K2&amp;"', '"&amp;L2&amp;"', "&amp;M2&amp;", "&amp;N2&amp;");"</f>
-        <v>INSERT INTO profiles(id, movie_name, description, date_released, duration, country, language, subtitles, dubbed, age_rating, poster, trailer, created_at, update_at) VALUES (DEFAULT, 'The Lord of the Rings: The Fellowship of the Ring', 'A meek Hobbit and eight companions set out on a journey to destroy the One Ring and the Dark Lord Sauron.', '37244', '178', 'USA', 'English', 'N', 'N', 'PG-13', 'http://vignette3.wikia.nocookie.net/lotr/images/7/74/LOTRFOTRmovie.jpg/revision/latest?cb=20150203040819', 'https://www.youtube.com/watch?v=V75dMMIW2B4', now(), now());</v>
+        <f xml:space="preserve"> "INSERT INTO movies("&amp;A$1&amp;", "&amp;B$1&amp;", "&amp;C$1&amp;", "&amp;D$1&amp;", "&amp;E$1&amp;", "&amp;F$1&amp;", "&amp;G$1&amp;", "&amp;H$1&amp;", "&amp;I$1&amp;", "&amp;J$1&amp;", "&amp;K$1&amp;", "&amp;L$1&amp;", "&amp;M$1&amp;", "&amp;N$1&amp;") VALUES ("&amp;A2&amp;", '"&amp;B2&amp;"', '"&amp;C2&amp;"', '"&amp;D2&amp;"', '"&amp;E2&amp;"', '"&amp;F2&amp;"', '"&amp;G2&amp;"', '"&amp;H2&amp;"', '"&amp;I2&amp;"', '"&amp;J2&amp;"', '"&amp;K2&amp;"', '"&amp;L2&amp;"', "&amp;M2&amp;", "&amp;N2&amp;");"</f>
+        <v>INSERT INTO movies(id, movie_name, description, date_released, duration, country, language, subtitles, dubbed, age_rating, poster, trailer, created_at, update_at) VALUES (DEFAULT, 'The Lord of the Rings: The Fellowship of the Ring', 'A meek Hobbit and eight companions set out on a journey to destroy the One Ring and the Dark Lord Sauron.', '12/19/2001', '178', 'USA', 'English', 'N', 'N', 'PG-13', 'http://vignette3.wikia.nocookie.net/lotr/images/7/74/LOTRFOTRmovie.jpg/revision/latest?cb=20150203040819', 'https://www.youtube.com/watch?v=V75dMMIW2B4', now(), now());</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
@@ -9948,34 +10149,37 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>216</v>
-      </c>
-      <c r="D3" s="8">
-        <v>37608</v>
+        <v>215</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>470</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>410</v>
       </c>
       <c r="E3">
         <v>179</v>
       </c>
       <c r="F3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G3" t="s">
+        <v>211</v>
+      </c>
+      <c r="H3" t="s">
         <v>212</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
+        <v>212</v>
+      </c>
+      <c r="J3" t="s">
         <v>213</v>
       </c>
-      <c r="I3" t="s">
-        <v>213</v>
-      </c>
-      <c r="J3" t="s">
-        <v>214</v>
-      </c>
       <c r="K3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="L3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="M3" t="s">
         <v>82</v>
@@ -9984,8 +10188,8 @@
         <v>82</v>
       </c>
       <c r="O3" s="6" t="str">
-        <f t="shared" ref="O3:O41" si="0" xml:space="preserve"> "INSERT INTO profiles("&amp;A$1&amp;", "&amp;B$1&amp;", "&amp;C$1&amp;", "&amp;D$1&amp;", "&amp;E$1&amp;", "&amp;F$1&amp;", "&amp;G$1&amp;", "&amp;H$1&amp;", "&amp;I$1&amp;", "&amp;J$1&amp;", "&amp;K$1&amp;", "&amp;L$1&amp;", "&amp;M$1&amp;", "&amp;N$1&amp;") VALUES ("&amp;A3&amp;", '"&amp;B3&amp;"', '"&amp;C3&amp;"', '"&amp;D3&amp;"', '"&amp;E3&amp;"', '"&amp;F3&amp;"', '"&amp;G3&amp;"', '"&amp;H3&amp;"', '"&amp;I3&amp;"', '"&amp;J3&amp;"', '"&amp;K3&amp;"', '"&amp;L3&amp;"', "&amp;M3&amp;", "&amp;N3&amp;");"</f>
-        <v>INSERT INTO profiles(id, movie_name, description, date_released, duration, country, language, subtitles, dubbed, age_rating, poster, trailer, created_at, update_at) VALUES (DEFAULT, 'The Lord of the Rings: The Two Towers', '', '37608', '179', 'USA', 'English', 'N', 'N', 'PG-13', 'https://www.movieposter.com/posters/archive/main/7/MPW-3576', 'https://www.youtube.com/watch?v=cvCktPUwkW0', now(), now());</v>
+        <f t="shared" ref="O3:O41" si="0" xml:space="preserve"> "INSERT INTO movies("&amp;A$1&amp;", "&amp;B$1&amp;", "&amp;C$1&amp;", "&amp;D$1&amp;", "&amp;E$1&amp;", "&amp;F$1&amp;", "&amp;G$1&amp;", "&amp;H$1&amp;", "&amp;I$1&amp;", "&amp;J$1&amp;", "&amp;K$1&amp;", "&amp;L$1&amp;", "&amp;M$1&amp;", "&amp;N$1&amp;") VALUES ("&amp;A3&amp;", '"&amp;B3&amp;"', '"&amp;C3&amp;"', '"&amp;D3&amp;"', '"&amp;E3&amp;"', '"&amp;F3&amp;"', '"&amp;G3&amp;"', '"&amp;H3&amp;"', '"&amp;I3&amp;"', '"&amp;J3&amp;"', '"&amp;K3&amp;"', '"&amp;L3&amp;"', "&amp;M3&amp;", "&amp;N3&amp;");"</f>
+        <v>INSERT INTO movies(id, movie_name, description, date_released, duration, country, language, subtitles, dubbed, age_rating, poster, trailer, created_at, update_at) VALUES (DEFAULT, 'The Lord of the Rings: The Two Towers', 'While Frodo and Sam edge closer to Mordor with the help of the shifty Gollum, the divided fellowship makes a stand against Sauron's new ally, Saruman, and his hordes of Isengard.', '12/18/2002', '179', 'USA', 'English', 'N', 'N', 'PG-13', 'https://www.movieposter.com/posters/archive/main/7/MPW-3576', 'https://www.youtube.com/watch?v=cvCktPUwkW0', now(), now());</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
@@ -9993,37 +10197,37 @@
         <v>74</v>
       </c>
       <c r="B4" t="s">
+        <v>216</v>
+      </c>
+      <c r="C4" t="s">
         <v>217</v>
       </c>
-      <c r="C4" t="s">
-        <v>218</v>
-      </c>
-      <c r="D4" s="8">
-        <v>37972</v>
+      <c r="D4" s="10" t="s">
+        <v>432</v>
       </c>
       <c r="E4">
         <v>201</v>
       </c>
       <c r="F4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G4" t="s">
+        <v>211</v>
+      </c>
+      <c r="H4" t="s">
         <v>212</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
+        <v>212</v>
+      </c>
+      <c r="J4" t="s">
         <v>213</v>
       </c>
-      <c r="I4" t="s">
-        <v>213</v>
-      </c>
-      <c r="J4" t="s">
-        <v>214</v>
-      </c>
       <c r="K4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="L4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="M4" t="s">
         <v>82</v>
@@ -10033,7 +10237,7 @@
       </c>
       <c r="O4" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO profiles(id, movie_name, description, date_released, duration, country, language, subtitles, dubbed, age_rating, poster, trailer, created_at, update_at) VALUES (DEFAULT, 'The Lord of the Rings: The Return of the King', 'Gandalf and Aragorn lead the World of Men against Sauron''s army to draw his gaze from Frodo and Sam as they approach Mount Doom with the One Ring.', '37972', '201', 'USA', 'English', 'N', 'N', 'PG-13', 'https://www.movieposter.com/posters/archive/main/16/MPW-8295', 'https://www.youtube.com/watch?v=r5X-hFf6Bwo', now(), now());</v>
+        <v>INSERT INTO movies(id, movie_name, description, date_released, duration, country, language, subtitles, dubbed, age_rating, poster, trailer, created_at, update_at) VALUES (DEFAULT, 'The Lord of the Rings: The Return of the King', 'Gandalf and Aragorn lead the World of Men against Sauron''s army to draw his gaze from Frodo and Sam as they approach Mount Doom with the One Ring.', '12/17/2003', '201', 'USA', 'English', 'N', 'N', 'PG-13', 'https://www.movieposter.com/posters/archive/main/16/MPW-8295', 'https://www.youtube.com/watch?v=r5X-hFf6Bwo', now(), now());</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
@@ -10041,37 +10245,37 @@
         <v>74</v>
       </c>
       <c r="B5" t="s">
+        <v>218</v>
+      </c>
+      <c r="C5" t="s">
         <v>219</v>
       </c>
-      <c r="C5" t="s">
-        <v>220</v>
-      </c>
-      <c r="D5" s="8">
-        <v>38520</v>
+      <c r="D5" s="10" t="s">
+        <v>433</v>
       </c>
       <c r="E5">
         <v>119</v>
       </c>
       <c r="F5" t="s">
+        <v>220</v>
+      </c>
+      <c r="G5" t="s">
         <v>221</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>222</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
+        <v>222</v>
+      </c>
+      <c r="J5" t="s">
         <v>223</v>
       </c>
-      <c r="I5" t="s">
-        <v>223</v>
-      </c>
-      <c r="J5" t="s">
-        <v>224</v>
-      </c>
       <c r="K5" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="L5" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="M5" t="s">
         <v>82</v>
@@ -10081,7 +10285,7 @@
       </c>
       <c r="O5" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO profiles(id, movie_name, description, date_released, duration, country, language, subtitles, dubbed, age_rating, poster, trailer, created_at, update_at) VALUES (DEFAULT, 'Howl''s Moving Castle', 'When an unconfident young woman is cursed with an old body by a spiteful witch, her only chance of breaking the spell lies with a self-indulgent yet insecure young wizard and his companions in his legged, walking castle.', '38520', '119', 'Japan', 'Japanese', 'Y', 'Y', 'PG', 'https://fanart.tv/fanart/movies/4935/movieposter/howls-moving-castle-5216a7d1a7a67.jpg', 'https://www.youtube.com/watch?v=iwROgK94zcM', now(), now());</v>
+        <v>INSERT INTO movies(id, movie_name, description, date_released, duration, country, language, subtitles, dubbed, age_rating, poster, trailer, created_at, update_at) VALUES (DEFAULT, 'Howl''s Moving Castle', 'When an unconfident young woman is cursed with an old body by a spiteful witch, her only chance of breaking the spell lies with a self-indulgent yet insecure young wizard and his companions in his legged, walking castle.', '6/17/2005', '119', 'Japan', 'Japanese', 'Y', 'Y', 'PG', 'https://fanart.tv/fanart/movies/4935/movieposter/howls-moving-castle-5216a7d1a7a67.jpg', 'https://www.youtube.com/watch?v=iwROgK94zcM', now(), now());</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
@@ -10089,37 +10293,37 @@
         <v>74</v>
       </c>
       <c r="B6" t="s">
+        <v>224</v>
+      </c>
+      <c r="C6" t="s">
         <v>225</v>
       </c>
-      <c r="C6" t="s">
-        <v>226</v>
-      </c>
-      <c r="D6" s="8">
-        <v>33067</v>
+      <c r="D6" s="10" t="s">
+        <v>434</v>
       </c>
       <c r="E6">
         <v>127</v>
       </c>
       <c r="F6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G6" t="s">
+        <v>211</v>
+      </c>
+      <c r="H6" t="s">
         <v>212</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
+        <v>212</v>
+      </c>
+      <c r="J6" t="s">
         <v>213</v>
       </c>
-      <c r="I6" t="s">
-        <v>213</v>
-      </c>
-      <c r="J6" t="s">
-        <v>214</v>
-      </c>
       <c r="K6" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="L6" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="M6" t="s">
         <v>82</v>
@@ -10129,7 +10333,7 @@
       </c>
       <c r="O6" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO profiles(id, movie_name, description, date_released, duration, country, language, subtitles, dubbed, age_rating, poster, trailer, created_at, update_at) VALUES (DEFAULT, 'Ghost', 'After an accident leaves a young man dead, his spirit stays behind to warn his lover of impending danger, with the help of a reluctant psychic.', '33067', '127', 'USA', 'English', 'N', 'N', 'PG-13', 'https://www.movieposter.com/posters/archive/main/106/MPW-53146', 'https://www.youtube.com/watch?v=4cOb3gfe4tQ', now(), now());</v>
+        <v>INSERT INTO movies(id, movie_name, description, date_released, duration, country, language, subtitles, dubbed, age_rating, poster, trailer, created_at, update_at) VALUES (DEFAULT, 'Ghost', 'After an accident leaves a young man dead, his spirit stays behind to warn his lover of impending danger, with the help of a reluctant psychic.', '7/13/1990', '127', 'USA', 'English', 'N', 'N', 'PG-13', 'https://www.movieposter.com/posters/archive/main/106/MPW-53146', 'https://www.youtube.com/watch?v=4cOb3gfe4tQ', now(), now());</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
@@ -10137,37 +10341,37 @@
         <v>74</v>
       </c>
       <c r="B7" t="s">
+        <v>226</v>
+      </c>
+      <c r="C7" t="s">
         <v>227</v>
       </c>
-      <c r="C7" t="s">
-        <v>228</v>
-      </c>
-      <c r="D7" s="8">
-        <v>38163</v>
+      <c r="D7" s="10" t="s">
+        <v>435</v>
       </c>
       <c r="E7">
         <v>123</v>
       </c>
       <c r="F7" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G7" t="s">
+        <v>211</v>
+      </c>
+      <c r="H7" t="s">
         <v>212</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
+        <v>212</v>
+      </c>
+      <c r="J7" t="s">
         <v>213</v>
       </c>
-      <c r="I7" t="s">
-        <v>213</v>
-      </c>
-      <c r="J7" t="s">
-        <v>214</v>
-      </c>
       <c r="K7" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="L7" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="M7" t="s">
         <v>82</v>
@@ -10177,7 +10381,7 @@
       </c>
       <c r="O7" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO profiles(id, movie_name, description, date_released, duration, country, language, subtitles, dubbed, age_rating, poster, trailer, created_at, update_at) VALUES (DEFAULT, 'The Notebook', 'A poor and passionate young man falls in love with a rich young woman and gives her a sense of freedom. They soon are separated by their social differences.', '38163', '123', 'USA', 'English', 'N', 'N', 'PG-13', 'http://ia.media-imdb.com/images/M/MV5BMTk3OTM5Njg5M15BMl5BanBnXkFtZTYwMzA0ODI3._V1_SX640_SY720_.jpg', 'https://www.youtube.com/watch?v=4M7LIcH8C9U', now(), now());</v>
+        <v>INSERT INTO movies(id, movie_name, description, date_released, duration, country, language, subtitles, dubbed, age_rating, poster, trailer, created_at, update_at) VALUES (DEFAULT, 'The Notebook', 'A poor and passionate young man falls in love with a rich young woman and gives her a sense of freedom. They soon are separated by their social differences.', '6/25/2004', '123', 'USA', 'English', 'N', 'N', 'PG-13', 'http://ia.media-imdb.com/images/M/MV5BMTk3OTM5Njg5M15BMl5BanBnXkFtZTYwMzA0ODI3._V1_SX640_SY720_.jpg', 'https://www.youtube.com/watch?v=4M7LIcH8C9U', now(), now());</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
@@ -10185,37 +10389,37 @@
         <v>74</v>
       </c>
       <c r="B8" t="s">
+        <v>228</v>
+      </c>
+      <c r="C8" t="s">
         <v>229</v>
       </c>
-      <c r="C8" t="s">
-        <v>230</v>
-      </c>
-      <c r="D8" s="8">
-        <v>37281</v>
+      <c r="D8" s="10" t="s">
+        <v>436</v>
       </c>
       <c r="E8">
         <v>101</v>
       </c>
       <c r="F8" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G8" t="s">
+        <v>211</v>
+      </c>
+      <c r="H8" t="s">
         <v>212</v>
       </c>
-      <c r="H8" t="s">
-        <v>213</v>
-      </c>
       <c r="I8" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="J8" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="K8" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="L8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="M8" t="s">
         <v>82</v>
@@ -10225,7 +10429,7 @@
       </c>
       <c r="O8" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO profiles(id, movie_name, description, date_released, duration, country, language, subtitles, dubbed, age_rating, poster, trailer, created_at, update_at) VALUES (DEFAULT, 'A Walk to Remember', 'The story of two North Carolina teens, Landon Carter and Jamie Sullivan, who are thrown together after Landon gets into trouble and is made to do community service.', '37281', '101', 'USA', 'English', 'N', 'N', 'PG', 'https://upload.wikimedia.org/wikipedia/en/d/dc/A_Walk_to_Remember_Poster.jpg', 'https://www.youtube.com/watch?v=EgdoQ8Oxu2E', now(), now());</v>
+        <v>INSERT INTO movies(id, movie_name, description, date_released, duration, country, language, subtitles, dubbed, age_rating, poster, trailer, created_at, update_at) VALUES (DEFAULT, 'A Walk to Remember', 'The story of two North Carolina teens, Landon Carter and Jamie Sullivan, who are thrown together after Landon gets into trouble and is made to do community service.', '1/25/2002', '101', 'USA', 'English', 'N', 'N', 'PG', 'https://upload.wikimedia.org/wikipedia/en/d/dc/A_Walk_to_Remember_Poster.jpg', 'https://www.youtube.com/watch?v=EgdoQ8Oxu2E', now(), now());</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
@@ -10233,37 +10437,37 @@
         <v>74</v>
       </c>
       <c r="B9" t="s">
+        <v>230</v>
+      </c>
+      <c r="C9" t="s">
         <v>231</v>
       </c>
-      <c r="C9" t="s">
-        <v>232</v>
-      </c>
-      <c r="D9" s="8">
-        <v>32010</v>
+      <c r="D9" s="10" t="s">
+        <v>437</v>
       </c>
       <c r="E9">
         <v>100</v>
       </c>
       <c r="F9" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G9" t="s">
+        <v>211</v>
+      </c>
+      <c r="H9" t="s">
         <v>212</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
+        <v>212</v>
+      </c>
+      <c r="J9" t="s">
         <v>213</v>
       </c>
-      <c r="I9" t="s">
-        <v>213</v>
-      </c>
-      <c r="J9" t="s">
-        <v>214</v>
-      </c>
       <c r="K9" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="L9" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="M9" t="s">
         <v>82</v>
@@ -10273,7 +10477,7 @@
       </c>
       <c r="O9" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO profiles(id, movie_name, description, date_released, duration, country, language, subtitles, dubbed, age_rating, poster, trailer, created_at, update_at) VALUES (DEFAULT, 'Dirty Dancing', 'Spending the summer at a Catskills resort with her family, Frances "Baby" Houseman falls in love with the camp''s dance instructor, Johnny Castle.', '32010', '100', 'USA', 'English', 'N', 'N', 'PG-13', 'http://ecx.images-amazon.com/images/I/61PF6Oi%2BUhL._SY355_.jpg', 'https://www.youtube.com/watch?v=wcra0-0Gu4U', now(), now());</v>
+        <v>INSERT INTO movies(id, movie_name, description, date_released, duration, country, language, subtitles, dubbed, age_rating, poster, trailer, created_at, update_at) VALUES (DEFAULT, 'Dirty Dancing', 'Spending the summer at a Catskills resort with her family, Frances "Baby" Houseman falls in love with the camp''s dance instructor, Johnny Castle.', '8/21/1987', '100', 'USA', 'English', 'N', 'N', 'PG-13', 'http://ecx.images-amazon.com/images/I/61PF6Oi%2BUhL._SY355_.jpg', 'https://www.youtube.com/watch?v=wcra0-0Gu4U', now(), now());</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
@@ -10281,37 +10485,37 @@
         <v>74</v>
       </c>
       <c r="B10" t="s">
+        <v>232</v>
+      </c>
+      <c r="C10" t="s">
         <v>233</v>
       </c>
-      <c r="C10" t="s">
-        <v>234</v>
-      </c>
-      <c r="D10" s="8">
-        <v>36308</v>
+      <c r="D10" s="10" t="s">
+        <v>438</v>
       </c>
       <c r="E10">
         <v>124</v>
       </c>
       <c r="F10" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G10" t="s">
+        <v>211</v>
+      </c>
+      <c r="H10" t="s">
         <v>212</v>
       </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
+        <v>212</v>
+      </c>
+      <c r="J10" t="s">
         <v>213</v>
       </c>
-      <c r="I10" t="s">
-        <v>213</v>
-      </c>
-      <c r="J10" t="s">
-        <v>214</v>
-      </c>
       <c r="K10" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="L10" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="M10" t="s">
         <v>82</v>
@@ -10321,7 +10525,7 @@
       </c>
       <c r="O10" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO profiles(id, movie_name, description, date_released, duration, country, language, subtitles, dubbed, age_rating, poster, trailer, created_at, update_at) VALUES (DEFAULT, 'Notting Hill', 'The life of a simple bookshop owner changes when he meets the most famous film star in the world.', '36308', '124', 'USA', 'English', 'N', 'N', 'PG-13', 'http://images.moviepostershop.com/notting-hill-movie-poster-1998-1020190961.jpg', 'https://www.youtube.com/watch?v=4RI0QvaGoiI', now(), now());</v>
+        <v>INSERT INTO movies(id, movie_name, description, date_released, duration, country, language, subtitles, dubbed, age_rating, poster, trailer, created_at, update_at) VALUES (DEFAULT, 'Notting Hill', 'The life of a simple bookshop owner changes when he meets the most famous film star in the world.', '5/28/1999', '124', 'USA', 'English', 'N', 'N', 'PG-13', 'http://images.moviepostershop.com/notting-hill-movie-poster-1998-1020190961.jpg', 'https://www.youtube.com/watch?v=4RI0QvaGoiI', now(), now());</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
@@ -10329,37 +10533,37 @@
         <v>74</v>
       </c>
       <c r="B11" t="s">
+        <v>234</v>
+      </c>
+      <c r="C11" t="s">
         <v>235</v>
       </c>
-      <c r="C11" t="s">
-        <v>236</v>
-      </c>
-      <c r="D11" s="8">
-        <v>32955</v>
+      <c r="D11" s="10" t="s">
+        <v>439</v>
       </c>
       <c r="E11">
         <v>119</v>
       </c>
       <c r="F11" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G11" t="s">
+        <v>211</v>
+      </c>
+      <c r="H11" t="s">
         <v>212</v>
       </c>
-      <c r="H11" t="s">
-        <v>213</v>
-      </c>
       <c r="I11" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="J11" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="K11" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="L11" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="M11" t="s">
         <v>82</v>
@@ -10369,7 +10573,7 @@
       </c>
       <c r="O11" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO profiles(id, movie_name, description, date_released, duration, country, language, subtitles, dubbed, age_rating, poster, trailer, created_at, update_at) VALUES (DEFAULT, 'Pretty Woman', 'A man in a legal but hurtful business needs an escort for some social events, and hires a beautiful prostitute he meets... only to fall in love.', '32955', '119', 'USA', 'English', 'N', 'N', 'R', 'http://cosmouk.cdnds.net/15/10/1280x1986/gallery_nrm_1425399318-pretty-woman-poster.jpg', 'https://www.youtube.com/results?search_query=pretty+woman+trailer', now(), now());</v>
+        <v>INSERT INTO movies(id, movie_name, description, date_released, duration, country, language, subtitles, dubbed, age_rating, poster, trailer, created_at, update_at) VALUES (DEFAULT, 'Pretty Woman', 'A man in a legal but hurtful business needs an escort for some social events, and hires a beautiful prostitute he meets... only to fall in love.', '3/23/1990', '119', 'USA', 'English', 'N', 'N', 'R', 'http://cosmouk.cdnds.net/15/10/1280x1986/gallery_nrm_1425399318-pretty-woman-poster.jpg', 'https://www.youtube.com/results?search_query=pretty+woman+trailer', now(), now());</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
@@ -10377,37 +10581,37 @@
         <v>74</v>
       </c>
       <c r="B12" t="s">
+        <v>237</v>
+      </c>
+      <c r="C12" t="s">
         <v>238</v>
       </c>
-      <c r="C12" t="s">
-        <v>239</v>
-      </c>
-      <c r="D12" s="8">
-        <v>32612</v>
+      <c r="D12" s="10" t="s">
+        <v>440</v>
       </c>
       <c r="E12">
         <v>100</v>
       </c>
       <c r="F12" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G12" t="s">
+        <v>211</v>
+      </c>
+      <c r="H12" t="s">
         <v>212</v>
       </c>
-      <c r="H12" t="s">
+      <c r="I12" t="s">
+        <v>212</v>
+      </c>
+      <c r="J12" t="s">
         <v>213</v>
       </c>
-      <c r="I12" t="s">
-        <v>213</v>
-      </c>
-      <c r="J12" t="s">
-        <v>214</v>
-      </c>
       <c r="K12" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="L12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="M12" t="s">
         <v>82</v>
@@ -10417,7 +10621,7 @@
       </c>
       <c r="O12" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO profiles(id, movie_name, description, date_released, duration, country, language, subtitles, dubbed, age_rating, poster, trailer, created_at, update_at) VALUES (DEFAULT, 'Say Anything', 'A noble underachiever and a beautiful valedictorian fall in love the summer before she goes off to college.', '32612', '100', 'USA', 'English', 'N', 'N', 'PG-13', 'https://upload.wikimedia.org/wikipedia/en/8/8a/Say_Anything.jpg', 'https://www.youtube.com/watch?v=QeUnT3f7eAA', now(), now());</v>
+        <v>INSERT INTO movies(id, movie_name, description, date_released, duration, country, language, subtitles, dubbed, age_rating, poster, trailer, created_at, update_at) VALUES (DEFAULT, 'Say Anything', 'A noble underachiever and a beautiful valedictorian fall in love the summer before she goes off to college.', '4/14/1989', '100', 'USA', 'English', 'N', 'N', 'PG-13', 'https://upload.wikimedia.org/wikipedia/en/8/8a/Say_Anything.jpg', 'https://www.youtube.com/watch?v=QeUnT3f7eAA', now(), now());</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
@@ -10425,37 +10629,37 @@
         <v>74</v>
       </c>
       <c r="B13" t="s">
+        <v>239</v>
+      </c>
+      <c r="C13" t="s">
         <v>240</v>
       </c>
-      <c r="C13" t="s">
-        <v>241</v>
-      </c>
-      <c r="D13" s="8">
-        <v>35783</v>
+      <c r="D13" s="10" t="s">
+        <v>441</v>
       </c>
       <c r="E13">
         <v>194</v>
       </c>
       <c r="F13" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G13" t="s">
+        <v>211</v>
+      </c>
+      <c r="H13" t="s">
         <v>212</v>
       </c>
-      <c r="H13" t="s">
+      <c r="I13" t="s">
+        <v>212</v>
+      </c>
+      <c r="J13" t="s">
         <v>213</v>
       </c>
-      <c r="I13" t="s">
-        <v>213</v>
-      </c>
-      <c r="J13" t="s">
-        <v>214</v>
-      </c>
       <c r="K13" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="L13" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="M13" t="s">
         <v>82</v>
@@ -10465,7 +10669,7 @@
       </c>
       <c r="O13" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO profiles(id, movie_name, description, date_released, duration, country, language, subtitles, dubbed, age_rating, poster, trailer, created_at, update_at) VALUES (DEFAULT, 'Titanic', 'A seventeen-year-old aristocrat falls in love with a kind, but poor artist aboard the luxurious, ill-fated R.M.S. Titanic.', '35783', '194', 'USA', 'English', 'N', 'N', 'PG-13', 'http://cdn.traileraddict.com/content/paramount-pictures/titanic.jpg', 'https://www.youtube.com/watch?v=zCy5WQ9S4c0', now(), now());</v>
+        <v>INSERT INTO movies(id, movie_name, description, date_released, duration, country, language, subtitles, dubbed, age_rating, poster, trailer, created_at, update_at) VALUES (DEFAULT, 'Titanic', 'A seventeen-year-old aristocrat falls in love with a kind, but poor artist aboard the luxurious, ill-fated R.M.S. Titanic.', '12/19/1997', '194', 'USA', 'English', 'N', 'N', 'PG-13', 'http://cdn.traileraddict.com/content/paramount-pictures/titanic.jpg', 'https://www.youtube.com/watch?v=zCy5WQ9S4c0', now(), now());</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
@@ -10473,37 +10677,37 @@
         <v>74</v>
       </c>
       <c r="B14" t="s">
+        <v>241</v>
+      </c>
+      <c r="C14" t="s">
         <v>242</v>
       </c>
-      <c r="C14" t="s">
-        <v>243</v>
-      </c>
-      <c r="D14" s="8">
-        <v>39437</v>
+      <c r="D14" s="10" t="s">
+        <v>442</v>
       </c>
       <c r="E14">
         <v>126</v>
       </c>
       <c r="F14" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G14" t="s">
+        <v>211</v>
+      </c>
+      <c r="H14" t="s">
         <v>212</v>
       </c>
-      <c r="H14" t="s">
+      <c r="I14" t="s">
+        <v>212</v>
+      </c>
+      <c r="J14" t="s">
         <v>213</v>
       </c>
-      <c r="I14" t="s">
-        <v>213</v>
-      </c>
-      <c r="J14" t="s">
-        <v>214</v>
-      </c>
       <c r="K14" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="L14" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="M14" t="s">
         <v>82</v>
@@ -10513,7 +10717,7 @@
       </c>
       <c r="O14" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO profiles(id, movie_name, description, date_released, duration, country, language, subtitles, dubbed, age_rating, poster, trailer, created_at, update_at) VALUES (DEFAULT, 'P.S. I Love You', 'A young widow discovers that her late husband has left her 10 messages intended to help ease her pain and start a new life.', '39437', '126', 'USA', 'English', 'N', 'N', 'PG-13', 'https://natashastander.files.wordpress.com/2014/01/ps-i-love-you-poster.jpg', 'https://www.youtube.com/watch?v=CZzW6_hR068', now(), now());</v>
+        <v>INSERT INTO movies(id, movie_name, description, date_released, duration, country, language, subtitles, dubbed, age_rating, poster, trailer, created_at, update_at) VALUES (DEFAULT, 'P.S. I Love You', 'A young widow discovers that her late husband has left her 10 messages intended to help ease her pain and start a new life.', '12/21/2007', '126', 'USA', 'English', 'N', 'N', 'PG-13', 'https://natashastander.files.wordpress.com/2014/01/ps-i-love-you-poster.jpg', 'https://www.youtube.com/watch?v=CZzW6_hR068', now(), now());</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
@@ -10521,37 +10725,37 @@
         <v>74</v>
       </c>
       <c r="B15" t="s">
+        <v>243</v>
+      </c>
+      <c r="C15" t="s">
         <v>244</v>
       </c>
-      <c r="C15" t="s">
-        <v>245</v>
-      </c>
-      <c r="D15" s="8">
-        <v>34712</v>
+      <c r="D15" s="10" t="s">
+        <v>443</v>
       </c>
       <c r="E15">
         <v>133</v>
       </c>
       <c r="F15" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G15" t="s">
+        <v>211</v>
+      </c>
+      <c r="H15" t="s">
         <v>212</v>
       </c>
-      <c r="H15" t="s">
-        <v>213</v>
-      </c>
       <c r="I15" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="J15" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="K15" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="L15" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="M15" t="s">
         <v>82</v>
@@ -10561,7 +10765,7 @@
       </c>
       <c r="O15" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO profiles(id, movie_name, description, date_released, duration, country, language, subtitles, dubbed, age_rating, poster, trailer, created_at, update_at) VALUES (DEFAULT, 'Legends of the Fall', 'Epic tale of three brothers and their father living in the remote wilderness of 1900s USA and how their lives are affected by nature, history, war, love and betrayal.', '34712', '133', 'USA', 'English', 'N', 'N', 'R', 'https://www.movieposter.com/posters/archive/main/63/MPW-31979', 'https://www.youtube.com/watch?v=oEr4rhfDKcQ', now(), now());</v>
+        <v>INSERT INTO movies(id, movie_name, description, date_released, duration, country, language, subtitles, dubbed, age_rating, poster, trailer, created_at, update_at) VALUES (DEFAULT, 'Legends of the Fall', 'Epic tale of three brothers and their father living in the remote wilderness of 1900s USA and how their lives are affected by nature, history, war, love and betrayal.', '1/13/1995', '133', 'USA', 'English', 'N', 'N', 'R', 'https://www.movieposter.com/posters/archive/main/63/MPW-31979', 'https://www.youtube.com/watch?v=oEr4rhfDKcQ', now(), now());</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
@@ -10569,37 +10773,37 @@
         <v>74</v>
       </c>
       <c r="B16" t="s">
+        <v>245</v>
+      </c>
+      <c r="C16" t="s">
         <v>246</v>
       </c>
-      <c r="C16" t="s">
-        <v>247</v>
-      </c>
-      <c r="D16" s="8">
-        <v>38121</v>
+      <c r="D16" s="10" t="s">
+        <v>444</v>
       </c>
       <c r="E16">
         <v>163</v>
       </c>
       <c r="F16" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G16" t="s">
+        <v>211</v>
+      </c>
+      <c r="H16" t="s">
         <v>212</v>
       </c>
-      <c r="H16" t="s">
-        <v>213</v>
-      </c>
       <c r="I16" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="J16" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="K16" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="L16" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="M16" t="s">
         <v>82</v>
@@ -10609,7 +10813,7 @@
       </c>
       <c r="O16" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO profiles(id, movie_name, description, date_released, duration, country, language, subtitles, dubbed, age_rating, poster, trailer, created_at, update_at) VALUES (DEFAULT, 'Troy', 'An adaptation of Homer''s great epic, the film follows the assault on Troy by the united Greek forces and chronicles the fates of the men involved.', '38121', '163', 'USA', 'English', 'N', 'N', 'R', 'https://upload.wikimedia.org/wikipedia/en/b/b8/Troy2004Poster.jpg', 'https://www.youtube.com/watch?v=znTLzRJimeY', now(), now());</v>
+        <v>INSERT INTO movies(id, movie_name, description, date_released, duration, country, language, subtitles, dubbed, age_rating, poster, trailer, created_at, update_at) VALUES (DEFAULT, 'Troy', 'An adaptation of Homer''s great epic, the film follows the assault on Troy by the united Greek forces and chronicles the fates of the men involved.', '5/14/2004', '163', 'USA', 'English', 'N', 'N', 'R', 'https://upload.wikimedia.org/wikipedia/en/b/b8/Troy2004Poster.jpg', 'https://www.youtube.com/watch?v=znTLzRJimeY', now(), now());</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
@@ -10617,37 +10821,37 @@
         <v>74</v>
       </c>
       <c r="B17" t="s">
+        <v>247</v>
+      </c>
+      <c r="C17" t="s">
         <v>248</v>
       </c>
-      <c r="C17" t="s">
-        <v>249</v>
-      </c>
-      <c r="D17" s="8">
-        <v>34964</v>
+      <c r="D17" s="10" t="s">
+        <v>445</v>
       </c>
       <c r="E17">
         <v>127</v>
       </c>
       <c r="F17" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G17" t="s">
+        <v>211</v>
+      </c>
+      <c r="H17" t="s">
         <v>212</v>
       </c>
-      <c r="H17" t="s">
-        <v>213</v>
-      </c>
       <c r="I17" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="J17" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="K17" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="L17" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="M17" t="s">
         <v>82</v>
@@ -10657,7 +10861,7 @@
       </c>
       <c r="O17" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO profiles(id, movie_name, description, date_released, duration, country, language, subtitles, dubbed, age_rating, poster, trailer, created_at, update_at) VALUES (DEFAULT, 'Se7en', 'Two detectives, a rookie and a veteran, hunt a serial killer who uses the seven deadly sins as his modus operandi.', '34964', '127', 'USA', 'English', 'N', 'N', 'R', 'http://img.goldposter.com/2015/04/Se7en_poster_goldposter_com_1.jpg', 'https://www.youtube.com/watch?v=J4YV2_TcCoE', now(), now());</v>
+        <v>INSERT INTO movies(id, movie_name, description, date_released, duration, country, language, subtitles, dubbed, age_rating, poster, trailer, created_at, update_at) VALUES (DEFAULT, 'Se7en', 'Two detectives, a rookie and a veteran, hunt a serial killer who uses the seven deadly sins as his modus operandi.', '9/22/1995', '127', 'USA', 'English', 'N', 'N', 'R', 'http://img.goldposter.com/2015/04/Se7en_poster_goldposter_com_1.jpg', 'https://www.youtube.com/watch?v=J4YV2_TcCoE', now(), now());</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
@@ -10665,37 +10869,37 @@
         <v>74</v>
       </c>
       <c r="B18" t="s">
+        <v>249</v>
+      </c>
+      <c r="C18" t="s">
         <v>250</v>
       </c>
-      <c r="C18" t="s">
-        <v>251</v>
-      </c>
-      <c r="D18" s="8">
-        <v>38184</v>
+      <c r="D18" s="10" t="s">
+        <v>446</v>
       </c>
       <c r="E18">
         <v>119</v>
       </c>
       <c r="F18" t="s">
+        <v>251</v>
+      </c>
+      <c r="G18" t="s">
         <v>252</v>
       </c>
-      <c r="G18" t="s">
-        <v>253</v>
-      </c>
       <c r="H18" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="I18" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="J18" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="K18" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="L18" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="M18" t="s">
         <v>82</v>
@@ -10705,7 +10909,7 @@
       </c>
       <c r="O18" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO profiles(id, movie_name, description, date_released, duration, country, language, subtitles, dubbed, age_rating, poster, trailer, created_at, update_at) VALUES (DEFAULT, 'House of Flying Daggers', 'A romantic police captain breaks a beautiful member of a rebel group out of prison to help her rejoin her fellows, but things are not what they seem.', '38184', '119', 'China', 'Mandarin', 'Y', 'Y', 'PG-13', 'http://static.rogerebert.com/uploads/movie/movie_poster/house-of-flying-daggers-2004/large_Ar5Ev4nycoJsrPYaabMCrTvPHIe.jpg', 'https://www.youtube.com/watch?v=-GLVaSYzAvg', now(), now());</v>
+        <v>INSERT INTO movies(id, movie_name, description, date_released, duration, country, language, subtitles, dubbed, age_rating, poster, trailer, created_at, update_at) VALUES (DEFAULT, 'House of Flying Daggers', 'A romantic police captain breaks a beautiful member of a rebel group out of prison to help her rejoin her fellows, but things are not what they seem.', '7/16/2004', '119', 'China', 'Mandarin', 'Y', 'Y', 'PG-13', 'http://static.rogerebert.com/uploads/movie/movie_poster/house-of-flying-daggers-2004/large_Ar5Ev4nycoJsrPYaabMCrTvPHIe.jpg', 'https://www.youtube.com/watch?v=-GLVaSYzAvg', now(), now());</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
@@ -10713,37 +10917,37 @@
         <v>74</v>
       </c>
       <c r="B19" t="s">
+        <v>253</v>
+      </c>
+      <c r="C19" t="s">
         <v>254</v>
       </c>
-      <c r="C19" t="s">
-        <v>255</v>
-      </c>
-      <c r="D19" s="8">
-        <v>37553</v>
+      <c r="D19" s="10" t="s">
+        <v>447</v>
       </c>
       <c r="E19">
         <v>99</v>
       </c>
       <c r="F19" t="s">
+        <v>251</v>
+      </c>
+      <c r="G19" t="s">
         <v>252</v>
       </c>
-      <c r="G19" t="s">
-        <v>253</v>
-      </c>
       <c r="H19" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="I19" t="s">
+        <v>212</v>
+      </c>
+      <c r="J19" t="s">
         <v>213</v>
       </c>
-      <c r="J19" t="s">
-        <v>214</v>
-      </c>
       <c r="K19" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="L19" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="M19" t="s">
         <v>82</v>
@@ -10753,7 +10957,7 @@
       </c>
       <c r="O19" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO profiles(id, movie_name, description, date_released, duration, country, language, subtitles, dubbed, age_rating, poster, trailer, created_at, update_at) VALUES (DEFAULT, 'Hero', 'A defense officer, Nameless, was summoned by the King of Qin regarding his success of terminating three warriors.', '37553', '99', 'China', 'Mandarin', 'Y', 'N', 'PG-13', 'https://upload.wikimedia.org/wikipedia/en/0/08/Hero_poster.jpg', 'https://www.youtube.com/watch?v=srFhXDZhUZI', now(), now());</v>
+        <v>INSERT INTO movies(id, movie_name, description, date_released, duration, country, language, subtitles, dubbed, age_rating, poster, trailer, created_at, update_at) VALUES (DEFAULT, 'Hero', 'A defense officer, Nameless, was summoned by the King of Qin regarding his success of terminating three warriors.', '10/24/2002', '99', 'China', 'Mandarin', 'Y', 'N', 'PG-13', 'https://upload.wikimedia.org/wikipedia/en/0/08/Hero_poster.jpg', 'https://www.youtube.com/watch?v=srFhXDZhUZI', now(), now());</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
@@ -10761,37 +10965,37 @@
         <v>74</v>
       </c>
       <c r="B20" t="s">
+        <v>255</v>
+      </c>
+      <c r="C20" t="s">
         <v>256</v>
       </c>
-      <c r="C20" t="s">
-        <v>257</v>
-      </c>
-      <c r="D20" s="8">
-        <v>39639</v>
+      <c r="D20" s="10" t="s">
+        <v>448</v>
       </c>
       <c r="E20">
         <v>148</v>
       </c>
       <c r="F20" t="s">
+        <v>251</v>
+      </c>
+      <c r="G20" t="s">
         <v>252</v>
       </c>
-      <c r="G20" t="s">
-        <v>253</v>
-      </c>
       <c r="H20" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="I20" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="J20" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="K20" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="L20" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="M20" t="s">
         <v>82</v>
@@ -10801,7 +11005,7 @@
       </c>
       <c r="O20" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO profiles(id, movie_name, description, date_released, duration, country, language, subtitles, dubbed, age_rating, poster, trailer, created_at, update_at) VALUES (DEFAULT, 'Red Cliff', 'The first chapter of a two-part story centered on a battle fought in China''s Three Kingdoms period (220-280 A.D.).', '39639', '148', 'China', 'Mandarin', 'Y', 'N', 'R', 'https://upload.wikimedia.org/wikipedia/en/c/cf/Redcliffposter.jpg', 'https://www.youtube.com/watch?v=pd0bqLQrtdE', now(), now());</v>
+        <v>INSERT INTO movies(id, movie_name, description, date_released, duration, country, language, subtitles, dubbed, age_rating, poster, trailer, created_at, update_at) VALUES (DEFAULT, 'Red Cliff', 'The first chapter of a two-part story centered on a battle fought in China''s Three Kingdoms period (220-280 A.D.).', '7/10/2008', '148', 'China', 'Mandarin', 'Y', 'N', 'R', 'https://upload.wikimedia.org/wikipedia/en/c/cf/Redcliffposter.jpg', 'https://www.youtube.com/watch?v=pd0bqLQrtdE', now(), now());</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
@@ -10809,37 +11013,37 @@
         <v>74</v>
       </c>
       <c r="B21" t="s">
+        <v>257</v>
+      </c>
+      <c r="C21" t="s">
         <v>258</v>
       </c>
-      <c r="C21" t="s">
-        <v>259</v>
-      </c>
-      <c r="D21" s="8">
-        <v>39820</v>
+      <c r="D21" s="10" t="s">
+        <v>449</v>
       </c>
       <c r="E21">
         <v>99</v>
       </c>
       <c r="F21" t="s">
+        <v>251</v>
+      </c>
+      <c r="G21" t="s">
         <v>252</v>
       </c>
-      <c r="G21" t="s">
-        <v>253</v>
-      </c>
       <c r="H21" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="I21" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="J21" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="K21" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="L21" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="M21" t="s">
         <v>82</v>
@@ -10849,7 +11053,7 @@
       </c>
       <c r="O21" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO profiles(id, movie_name, description, date_released, duration, country, language, subtitles, dubbed, age_rating, poster, trailer, created_at, update_at) VALUES (DEFAULT, 'Red Cliff II', 'In this sequel to Red Cliff, Chancellor Cao Cao convinces Emperor Xian of the Han to initiate a battle against the two Kingdoms of Shu and Wu, who have become allied forces, against all expectations. Red Cliff will be the site for the gigantic battle.', '39820', '99', 'China', 'Mandarin', 'Y', 'N', 'R', 'http://oneguyrambling.com/wp-content/uploads/2009/12/red-cliff-2.jpg', 'https://www.youtube.com/watch?v=M2KkencnKKc', now(), now());</v>
+        <v>INSERT INTO movies(id, movie_name, description, date_released, duration, country, language, subtitles, dubbed, age_rating, poster, trailer, created_at, update_at) VALUES (DEFAULT, 'Red Cliff II', 'In this sequel to Red Cliff, Chancellor Cao Cao convinces Emperor Xian of the Han to initiate a battle against the two Kingdoms of Shu and Wu, who have become allied forces, against all expectations. Red Cliff will be the site for the gigantic battle.', '1/7/2009', '99', 'China', 'Mandarin', 'Y', 'N', 'R', 'http://oneguyrambling.com/wp-content/uploads/2009/12/red-cliff-2.jpg', 'https://www.youtube.com/watch?v=M2KkencnKKc', now(), now());</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
@@ -10857,37 +11061,37 @@
         <v>74</v>
       </c>
       <c r="B22" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>320</v>
-      </c>
-      <c r="D22" s="8">
-        <v>30981</v>
+        <v>319</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>450</v>
       </c>
       <c r="E22">
         <v>107</v>
       </c>
       <c r="F22" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G22" t="s">
+        <v>211</v>
+      </c>
+      <c r="H22" t="s">
         <v>212</v>
       </c>
-      <c r="H22" t="s">
-        <v>213</v>
-      </c>
       <c r="I22" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="J22" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="K22" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="L22" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="M22" t="s">
         <v>82</v>
@@ -10897,7 +11101,7 @@
       </c>
       <c r="O22" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO profiles(id, movie_name, description, date_released, duration, country, language, subtitles, dubbed, age_rating, poster, trailer, created_at, update_at) VALUES (DEFAULT, 'Terminator', 'A human-looking indestructible cyborg is sent from 2029 to 1984 to assassinate a waitress, whose unborn son will lead humanity in a war against the machines, while a soldier from that war is sent to protect her at all costs.', '30981', '107', 'USA', 'English', 'N', 'N', 'R', 'http://ia.media-imdb.com/images/M/MV5BODE1MDczNTUxOV5BMl5BanBnXkFtZTcwMTA0NDQyNA@@._V1_UX182_CR0,0,182,268_AL_.jpg', 'https://www.youtube.com/watch?v=lHz95RYUbik', now(), now());</v>
+        <v>INSERT INTO movies(id, movie_name, description, date_released, duration, country, language, subtitles, dubbed, age_rating, poster, trailer, created_at, update_at) VALUES (DEFAULT, 'Terminator', 'A human-looking indestructible cyborg is sent from 2029 to 1984 to assassinate a waitress, whose unborn son will lead humanity in a war against the machines, while a soldier from that war is sent to protect her at all costs.', '10/26/1984', '107', 'USA', 'English', 'N', 'N', 'R', 'http://ia.media-imdb.com/images/M/MV5BODE1MDczNTUxOV5BMl5BanBnXkFtZTcwMTA0NDQyNA@@._V1_UX182_CR0,0,182,268_AL_.jpg', 'https://www.youtube.com/watch?v=lHz95RYUbik', now(), now());</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
@@ -10905,37 +11109,37 @@
         <v>74</v>
       </c>
       <c r="B23" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>322</v>
-      </c>
-      <c r="D23" s="8">
-        <v>29028</v>
+        <v>321</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>451</v>
       </c>
       <c r="E23">
         <v>117</v>
       </c>
       <c r="F23" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G23" t="s">
+        <v>211</v>
+      </c>
+      <c r="H23" t="s">
         <v>212</v>
       </c>
-      <c r="H23" t="s">
-        <v>213</v>
-      </c>
       <c r="I23" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="J23" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="K23" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="L23" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="M23" t="s">
         <v>82</v>
@@ -10945,7 +11149,7 @@
       </c>
       <c r="O23" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO profiles(id, movie_name, description, date_released, duration, country, language, subtitles, dubbed, age_rating, poster, trailer, created_at, update_at) VALUES (DEFAULT, 'Alien', 'After a space merchant vessel perceives an unknown transmission as distress call, their landing on the source planet finds one of the crew attacked by a mysterious lifeform. ', '29028', '117', 'USA', 'English', 'N', 'N', 'R', 'http://ia.media-imdb.com/images/M/MV5BMTU1ODQ4NjQyOV5BMl5BanBnXkFtZTgwOTQ3NDU2MTE@._V1_UX182_CR0,0,182,268_AL_.jpg', 'https://www.youtube.com/watch?v=LjLamj-b0I8', now(), now());</v>
+        <v>INSERT INTO movies(id, movie_name, description, date_released, duration, country, language, subtitles, dubbed, age_rating, poster, trailer, created_at, update_at) VALUES (DEFAULT, 'Alien', 'After a space merchant vessel perceives an unknown transmission as distress call, their landing on the source planet finds one of the crew attacked by a mysterious lifeform. ', '6/22/1979', '117', 'USA', 'English', 'N', 'N', 'R', 'http://ia.media-imdb.com/images/M/MV5BMTU1ODQ4NjQyOV5BMl5BanBnXkFtZTgwOTQ3NDU2MTE@._V1_UX182_CR0,0,182,268_AL_.jpg', 'https://www.youtube.com/watch?v=LjLamj-b0I8', now(), now());</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
@@ -10953,38 +11157,38 @@
         <v>74</v>
       </c>
       <c r="B24" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>325</v>
-      </c>
-      <c r="D24" s="8">
-        <v>41068</v>
+        <v>324</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>452</v>
       </c>
       <c r="E24">
         <v>124</v>
       </c>
       <c r="F24" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G24" t="s">
+        <v>211</v>
+      </c>
+      <c r="H24" t="s">
         <v>212</v>
       </c>
-      <c r="H24" t="s">
-        <v>213</v>
-      </c>
       <c r="I24" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="J24" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="K24" t="s">
+        <v>325</v>
+      </c>
+      <c r="L24" t="s">
         <v>326</v>
       </c>
-      <c r="L24" t="s">
-        <v>327</v>
-      </c>
       <c r="M24" t="s">
         <v>82</v>
       </c>
@@ -10993,7 +11197,7 @@
       </c>
       <c r="O24" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO profiles(id, movie_name, description, date_released, duration, country, language, subtitles, dubbed, age_rating, poster, trailer, created_at, update_at) VALUES (DEFAULT, 'Prometheus', 'Following clues to the origin of mankind a team journey across the universe and find a structure on a distant planet containing a monolithic statue of a humanoid head and stone cylinders of alien blood but they soon find they are not alone.', '41068', '124', 'USA', 'English', 'N', 'N', 'R', 'http://ia.media-imdb.com/images/M/MV5BMTY3NzIyNTA2NV5BMl5BanBnXkFtZTcwNzE2NjI4Nw@@._V1_UX182_CR0,0,182,268_AL_.jpg', 'https://www.youtube.com/watch?v=sftuxbvGwiU', now(), now());</v>
+        <v>INSERT INTO movies(id, movie_name, description, date_released, duration, country, language, subtitles, dubbed, age_rating, poster, trailer, created_at, update_at) VALUES (DEFAULT, 'Prometheus', 'Following clues to the origin of mankind a team journey across the universe and find a structure on a distant planet containing a monolithic statue of a humanoid head and stone cylinders of alien blood but they soon find they are not alone.', '6/8/2012', '124', 'USA', 'English', 'N', 'N', 'R', 'http://ia.media-imdb.com/images/M/MV5BMTY3NzIyNTA2NV5BMl5BanBnXkFtZTcwNzE2NjI4Nw@@._V1_UX182_CR0,0,182,268_AL_.jpg', 'https://www.youtube.com/watch?v=sftuxbvGwiU', now(), now());</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
@@ -11001,38 +11205,38 @@
         <v>74</v>
       </c>
       <c r="B25" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>328</v>
-      </c>
-      <c r="D25" s="8">
-        <v>35839</v>
+        <v>327</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>453</v>
       </c>
       <c r="E25">
         <v>134</v>
       </c>
       <c r="F25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G25" t="s">
+        <v>211</v>
+      </c>
+      <c r="H25" t="s">
         <v>212</v>
       </c>
-      <c r="H25" t="s">
+      <c r="I25" t="s">
+        <v>212</v>
+      </c>
+      <c r="J25" t="s">
         <v>213</v>
       </c>
-      <c r="I25" t="s">
-        <v>213</v>
-      </c>
-      <c r="J25" t="s">
-        <v>214</v>
-      </c>
       <c r="K25" t="s">
+        <v>328</v>
+      </c>
+      <c r="L25" t="s">
         <v>329</v>
       </c>
-      <c r="L25" t="s">
-        <v>330</v>
-      </c>
       <c r="M25" t="s">
         <v>82</v>
       </c>
@@ -11041,7 +11245,7 @@
       </c>
       <c r="O25" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO profiles(id, movie_name, description, date_released, duration, country, language, subtitles, dubbed, age_rating, poster, trailer, created_at, update_at) VALUES (DEFAULT, 'Sphere', 'A spaceship is discovered under three hundred years' worth of coral growth at the bottom of the ocean.', '35839', '134', 'USA', 'English', 'N', 'N', 'PG-13', 'http://ia.media-imdb.com/images/M/MV5BMTUyNTE2MjEyNV5BMl5BanBnXkFtZTcwODQ0NTYxMQ@@._V1_UY268_CR6,0,182,268_AL_.jpg', 'https://www.youtube.com/watch?v=kozds_anirw', now(), now());</v>
+        <v>INSERT INTO movies(id, movie_name, description, date_released, duration, country, language, subtitles, dubbed, age_rating, poster, trailer, created_at, update_at) VALUES (DEFAULT, 'Sphere', 'A spaceship is discovered under three hundred years' worth of coral growth at the bottom of the ocean.', '2/13/1998', '134', 'USA', 'English', 'N', 'N', 'PG-13', 'http://ia.media-imdb.com/images/M/MV5BMTUyNTE2MjEyNV5BMl5BanBnXkFtZTcwODQ0NTYxMQ@@._V1_UY268_CR6,0,182,268_AL_.jpg', 'https://www.youtube.com/watch?v=kozds_anirw', now(), now());</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
@@ -11049,38 +11253,38 @@
         <v>74</v>
       </c>
       <c r="B26" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>331</v>
-      </c>
-      <c r="D26" s="8">
-        <v>28270</v>
+        <v>330</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>454</v>
       </c>
       <c r="E26">
         <v>121</v>
       </c>
       <c r="F26" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G26" t="s">
+        <v>211</v>
+      </c>
+      <c r="H26" t="s">
         <v>212</v>
       </c>
-      <c r="H26" t="s">
-        <v>213</v>
-      </c>
       <c r="I26" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="J26" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="K26" t="s">
+        <v>331</v>
+      </c>
+      <c r="L26" t="s">
         <v>332</v>
       </c>
-      <c r="L26" t="s">
-        <v>333</v>
-      </c>
       <c r="M26" t="s">
         <v>82</v>
       </c>
@@ -11089,7 +11293,7 @@
       </c>
       <c r="O26" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO profiles(id, movie_name, description, date_released, duration, country, language, subtitles, dubbed, age_rating, poster, trailer, created_at, update_at) VALUES (DEFAULT, 'Star Wars: Episode IV – A New Hope', 'Luke Skywalker joins forces with a Jedi Knight, a cocky pilot, a wookiee and two droids to save the galaxy from the Empire's world-destroying battle-station, while also attempting to rescue Princess Leia from the evil Darth Vader.', '28270', '121', 'USA', 'English', 'N', 'N', 'PG', 'http://ia.media-imdb.com/images/M/MV5BOTIyMDY2NGQtOGJjNi00OTk4LWFhMDgtYmE3M2NiYzM0YTVmXkEyXkFqcGdeQXVyNTU1NTcwOTk@._V1_UX182_CR0,0,182,268_AL_.jpg', 'https://www.youtube.com/watch?v=1g3_CFmnU7k', now(), now());</v>
+        <v>INSERT INTO movies(id, movie_name, description, date_released, duration, country, language, subtitles, dubbed, age_rating, poster, trailer, created_at, update_at) VALUES (DEFAULT, 'Star Wars: Episode IV – A New Hope', 'Luke Skywalker joins forces with a Jedi Knight, a cocky pilot, a wookiee and two droids to save the galaxy from the Empire's world-destroying battle-station, while also attempting to rescue Princess Leia from the evil Darth Vader.', '5/25/1977', '121', 'USA', 'English', 'N', 'N', 'PG', 'http://ia.media-imdb.com/images/M/MV5BOTIyMDY2NGQtOGJjNi00OTk4LWFhMDgtYmE3M2NiYzM0YTVmXkEyXkFqcGdeQXVyNTU1NTcwOTk@._V1_UX182_CR0,0,182,268_AL_.jpg', 'https://www.youtube.com/watch?v=1g3_CFmnU7k', now(), now());</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
@@ -11097,38 +11301,38 @@
         <v>74</v>
       </c>
       <c r="B27" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>334</v>
-      </c>
-      <c r="D27" s="8">
-        <v>42361</v>
+        <v>333</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>455</v>
       </c>
       <c r="E27">
         <v>130</v>
       </c>
       <c r="F27" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G27" t="s">
+        <v>211</v>
+      </c>
+      <c r="H27" t="s">
         <v>212</v>
       </c>
-      <c r="H27" t="s">
-        <v>213</v>
-      </c>
       <c r="I27" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="J27" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="K27" t="s">
+        <v>334</v>
+      </c>
+      <c r="L27" t="s">
         <v>335</v>
       </c>
-      <c r="L27" t="s">
-        <v>336</v>
-      </c>
       <c r="M27" t="s">
         <v>82</v>
       </c>
@@ -11137,7 +11341,7 @@
       </c>
       <c r="O27" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO profiles(id, movie_name, description, date_released, duration, country, language, subtitles, dubbed, age_rating, poster, trailer, created_at, update_at) VALUES (DEFAULT, 'The Big Short', 'Four denizens in the world of high-finance predict the credit and housing bubble collapse of the mid-2000s, and decide to take on the big banks for their greed and lack of foresight.', '42361', '130', 'USA', 'English', 'N', 'N', 'R', 'http://ia.media-imdb.com/images/M/MV5BMjM2MTQ2MzcxOF5BMl5BanBnXkFtZTgwNzE4NTUyNzE@._V1_UX182_CR0,0,182,268_AL_.jpg', 'https://www.youtube.com/watch?v=vgqG3ITMv1Q', now(), now());</v>
+        <v>INSERT INTO movies(id, movie_name, description, date_released, duration, country, language, subtitles, dubbed, age_rating, poster, trailer, created_at, update_at) VALUES (DEFAULT, 'The Big Short', 'Four denizens in the world of high-finance predict the credit and housing bubble collapse of the mid-2000s, and decide to take on the big banks for their greed and lack of foresight.', '12/23/2015', '130', 'USA', 'English', 'N', 'N', 'R', 'http://ia.media-imdb.com/images/M/MV5BMjM2MTQ2MzcxOF5BMl5BanBnXkFtZTgwNzE4NTUyNzE@._V1_UX182_CR0,0,182,268_AL_.jpg', 'https://www.youtube.com/watch?v=vgqG3ITMv1Q', now(), now());</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
@@ -11145,38 +11349,38 @@
         <v>74</v>
       </c>
       <c r="B28" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>337</v>
-      </c>
-      <c r="D28" s="8">
-        <v>35622</v>
+        <v>336</v>
+      </c>
+      <c r="D28" s="10" t="s">
+        <v>456</v>
       </c>
       <c r="E28">
         <v>136</v>
       </c>
       <c r="F28" t="s">
+        <v>220</v>
+      </c>
+      <c r="G28" t="s">
         <v>221</v>
       </c>
-      <c r="G28" t="s">
+      <c r="H28" t="s">
         <v>222</v>
       </c>
-      <c r="H28" t="s">
+      <c r="I28" t="s">
+        <v>212</v>
+      </c>
+      <c r="J28" t="s">
         <v>223</v>
       </c>
-      <c r="I28" t="s">
-        <v>213</v>
-      </c>
-      <c r="J28" t="s">
-        <v>224</v>
-      </c>
       <c r="K28" t="s">
+        <v>337</v>
+      </c>
+      <c r="L28" t="s">
         <v>338</v>
       </c>
-      <c r="L28" t="s">
-        <v>339</v>
-      </c>
       <c r="M28" t="s">
         <v>82</v>
       </c>
@@ -11185,7 +11389,7 @@
       </c>
       <c r="O28" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO profiles(id, movie_name, description, date_released, duration, country, language, subtitles, dubbed, age_rating, poster, trailer, created_at, update_at) VALUES (DEFAULT, 'Shall We Dance?', 'A successful but unhappy Japanese accountant finds the missing passion in his life when he begins to secretly take ballroom dance lessons.', '35622', '136', 'Japan', 'Japanese', 'Y', 'N', 'PG', 'http://ia.media-imdb.com/images/M/MV5BMTk2Nzk4MTcyMF5BMl5BanBnXkFtZTcwMDI0NDMzMQ@@._V1_UY268_CR3,0,182,268_AL_.jpg', 'https://www.youtube.com/watch?v=zQWEhPYwuY4', now(), now());</v>
+        <v>INSERT INTO movies(id, movie_name, description, date_released, duration, country, language, subtitles, dubbed, age_rating, poster, trailer, created_at, update_at) VALUES (DEFAULT, 'Shall We Dance?', 'A successful but unhappy Japanese accountant finds the missing passion in his life when he begins to secretly take ballroom dance lessons.', '7/11/1997', '136', 'Japan', 'Japanese', 'Y', 'N', 'PG', 'http://ia.media-imdb.com/images/M/MV5BMTk2Nzk4MTcyMF5BMl5BanBnXkFtZTcwMDI0NDMzMQ@@._V1_UY268_CR3,0,182,268_AL_.jpg', 'https://www.youtube.com/watch?v=zQWEhPYwuY4', now(), now());</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
@@ -11193,38 +11397,38 @@
         <v>74</v>
       </c>
       <c r="B29" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>340</v>
-      </c>
-      <c r="D29" s="8">
-        <v>38275</v>
+        <v>339</v>
+      </c>
+      <c r="D29" s="10" t="s">
+        <v>457</v>
       </c>
       <c r="E29">
         <v>104</v>
       </c>
       <c r="F29" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G29" t="s">
+        <v>211</v>
+      </c>
+      <c r="H29" t="s">
         <v>212</v>
       </c>
-      <c r="H29" t="s">
+      <c r="I29" t="s">
+        <v>212</v>
+      </c>
+      <c r="J29" t="s">
         <v>213</v>
       </c>
-      <c r="I29" t="s">
-        <v>213</v>
-      </c>
-      <c r="J29" t="s">
-        <v>214</v>
-      </c>
       <c r="K29" t="s">
+        <v>340</v>
+      </c>
+      <c r="L29" t="s">
         <v>341</v>
       </c>
-      <c r="L29" t="s">
-        <v>342</v>
-      </c>
       <c r="M29" t="s">
         <v>82</v>
       </c>
@@ -11232,8 +11436,8 @@
         <v>82</v>
       </c>
       <c r="O29" s="6" t="str">
-        <f xml:space="preserve"> "INSERT INTO profiles("&amp;A$1&amp;", "&amp;B$1&amp;", "&amp;C$1&amp;", "&amp;D$1&amp;", "&amp;E$1&amp;", "&amp;F$1&amp;", "&amp;G$1&amp;", "&amp;H$1&amp;", "&amp;I$1&amp;", "&amp;J$1&amp;", "&amp;K$1&amp;", "&amp;L$1&amp;", "&amp;M$1&amp;", "&amp;N$1&amp;") VALUES ("&amp;A29&amp;", '"&amp;B29&amp;"', '"&amp;C29&amp;"', '"&amp;D29&amp;"', '"&amp;E29&amp;"', '"&amp;F29&amp;"', '"&amp;G29&amp;"', '"&amp;H29&amp;"', '"&amp;I29&amp;"', '"&amp;J29&amp;"', '"&amp;K29&amp;"', '"&amp;L29&amp;"', "&amp;M29&amp;", "&amp;N29&amp;");"</f>
-        <v>INSERT INTO profiles(id, movie_name, description, date_released, duration, country, language, subtitles, dubbed, age_rating, poster, trailer, created_at, update_at) VALUES (DEFAULT, 'Shall We Dance?', 'A romantic comedy where a bored, overworked Estate Lawyer, upon first sight of a beautiful instructor, signs up for ballroom dancing lessons.', '38275', '104', 'USA', 'English', 'N', 'N', 'PG-13', 'http://ia.media-imdb.com/images/M/MV5BMTcwODUwMTMxN15BMl5BanBnXkFtZTcwNzc3MjcyMQ@@._V1_UX182_CR0,0,182,268_AL_.jpg', 'https://www.youtube.com/watch?v=UGtS3CL-zpo', now(), now());</v>
+        <f t="shared" si="0"/>
+        <v>INSERT INTO movies(id, movie_name, description, date_released, duration, country, language, subtitles, dubbed, age_rating, poster, trailer, created_at, update_at) VALUES (DEFAULT, 'Shall We Dance?', 'A romantic comedy where a bored, overworked Estate Lawyer, upon first sight of a beautiful instructor, signs up for ballroom dancing lessons.', '10/15/2004', '104', 'USA', 'English', 'N', 'N', 'PG-13', 'http://ia.media-imdb.com/images/M/MV5BMTcwODUwMTMxN15BMl5BanBnXkFtZTcwNzc3MjcyMQ@@._V1_UX182_CR0,0,182,268_AL_.jpg', 'https://www.youtube.com/watch?v=UGtS3CL-zpo', now(), now());</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
@@ -11241,38 +11445,38 @@
         <v>74</v>
       </c>
       <c r="B30" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>343</v>
-      </c>
-      <c r="D30" s="8">
-        <v>34521</v>
+        <v>342</v>
+      </c>
+      <c r="D30" s="10" t="s">
+        <v>458</v>
       </c>
       <c r="E30">
         <v>142</v>
       </c>
       <c r="F30" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G30" t="s">
+        <v>211</v>
+      </c>
+      <c r="H30" t="s">
         <v>212</v>
       </c>
-      <c r="H30" t="s">
+      <c r="I30" t="s">
+        <v>212</v>
+      </c>
+      <c r="J30" t="s">
         <v>213</v>
       </c>
-      <c r="I30" t="s">
-        <v>213</v>
-      </c>
-      <c r="J30" t="s">
-        <v>214</v>
-      </c>
       <c r="K30" t="s">
+        <v>343</v>
+      </c>
+      <c r="L30" t="s">
         <v>344</v>
       </c>
-      <c r="L30" t="s">
-        <v>345</v>
-      </c>
       <c r="M30" t="s">
         <v>82</v>
       </c>
@@ -11280,8 +11484,8 @@
         <v>82</v>
       </c>
       <c r="O30" s="6" t="str">
-        <f xml:space="preserve"> "INSERT INTO profiles("&amp;A$1&amp;", "&amp;B$1&amp;", "&amp;C$1&amp;", "&amp;D$1&amp;", "&amp;E$1&amp;", "&amp;F$1&amp;", "&amp;G$1&amp;", "&amp;H$1&amp;", "&amp;I$1&amp;", "&amp;J$1&amp;", "&amp;K$1&amp;", "&amp;L$1&amp;", "&amp;M$1&amp;", "&amp;N$1&amp;") VALUES ("&amp;A30&amp;", '"&amp;B30&amp;"', '"&amp;C30&amp;"', '"&amp;D30&amp;"', '"&amp;E30&amp;"', '"&amp;F30&amp;"', '"&amp;G30&amp;"', '"&amp;H30&amp;"', '"&amp;I30&amp;"', '"&amp;J30&amp;"', '"&amp;K30&amp;"', '"&amp;L30&amp;"', "&amp;M30&amp;", "&amp;N30&amp;");"</f>
-        <v>INSERT INTO profiles(id, movie_name, description, date_released, duration, country, language, subtitles, dubbed, age_rating, poster, trailer, created_at, update_at) VALUES (DEFAULT, 'Forrest Gump', 'Forrest Gump, while not intelligent, has accidentally been present at many historic moments, but his true love, Jenny Curran, eludes him.', '34521', '142', 'USA', 'English', 'N', 'N', 'PG-13', 'http://ia.media-imdb.com/images/M/MV5BMTI1Nzk1MzQwMV5BMl5BanBnXkFtZTYwODkxOTA5._V1_UY268_CR2,0,182,268_AL_.jpg', 'https://www.youtube.com/watch?v=uPIEn0M8su0', now(), now());</v>
+        <f t="shared" si="0"/>
+        <v>INSERT INTO movies(id, movie_name, description, date_released, duration, country, language, subtitles, dubbed, age_rating, poster, trailer, created_at, update_at) VALUES (DEFAULT, 'Forrest Gump', 'Forrest Gump, while not intelligent, has accidentally been present at many historic moments, but his true love, Jenny Curran, eludes him.', '7/6/1994', '142', 'USA', 'English', 'N', 'N', 'PG-13', 'http://ia.media-imdb.com/images/M/MV5BMTI1Nzk1MzQwMV5BMl5BanBnXkFtZTYwODkxOTA5._V1_UY268_CR2,0,182,268_AL_.jpg', 'https://www.youtube.com/watch?v=uPIEn0M8su0', now(), now());</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
@@ -11289,38 +11493,38 @@
         <v>74</v>
       </c>
       <c r="B31" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>346</v>
-      </c>
-      <c r="D31" s="8">
-        <v>41268</v>
+        <v>345</v>
+      </c>
+      <c r="D31" s="10" t="s">
+        <v>459</v>
       </c>
       <c r="E31">
         <v>158</v>
       </c>
       <c r="F31" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G31" t="s">
+        <v>211</v>
+      </c>
+      <c r="H31" t="s">
         <v>212</v>
       </c>
-      <c r="H31" t="s">
+      <c r="I31" t="s">
+        <v>212</v>
+      </c>
+      <c r="J31" t="s">
         <v>213</v>
       </c>
-      <c r="I31" t="s">
-        <v>213</v>
-      </c>
-      <c r="J31" t="s">
-        <v>214</v>
-      </c>
       <c r="K31" t="s">
+        <v>346</v>
+      </c>
+      <c r="L31" t="s">
         <v>347</v>
       </c>
-      <c r="L31" t="s">
-        <v>348</v>
-      </c>
       <c r="M31" t="s">
         <v>82</v>
       </c>
@@ -11328,8 +11532,8 @@
         <v>82</v>
       </c>
       <c r="O31" s="6" t="str">
-        <f xml:space="preserve"> "INSERT INTO profiles("&amp;A$1&amp;", "&amp;B$1&amp;", "&amp;C$1&amp;", "&amp;D$1&amp;", "&amp;E$1&amp;", "&amp;F$1&amp;", "&amp;G$1&amp;", "&amp;H$1&amp;", "&amp;I$1&amp;", "&amp;J$1&amp;", "&amp;K$1&amp;", "&amp;L$1&amp;", "&amp;M$1&amp;", "&amp;N$1&amp;") VALUES ("&amp;A31&amp;", '"&amp;B31&amp;"', '"&amp;C31&amp;"', '"&amp;D31&amp;"', '"&amp;E31&amp;"', '"&amp;F31&amp;"', '"&amp;G31&amp;"', '"&amp;H31&amp;"', '"&amp;I31&amp;"', '"&amp;J31&amp;"', '"&amp;K31&amp;"', '"&amp;L31&amp;"', "&amp;M31&amp;", "&amp;N31&amp;");"</f>
-        <v>INSERT INTO profiles(id, movie_name, description, date_released, duration, country, language, subtitles, dubbed, age_rating, poster, trailer, created_at, update_at) VALUES (DEFAULT, 'Les Miserables', 'In 19th-century France, Jean Valjean, who for decades has been hunted by the ruthless policeman Javert after breaking parole, agrees to care for a factory worker's daughter. The decision changes their lives forever.', '41268', '158', 'USA', 'English', 'N', 'N', 'PG-13', 'http://ia.media-imdb.com/images/M/MV5BMTQ4NDI3NDg4M15BMl5BanBnXkFtZTcwMjY5OTI1OA@@._V1_UX182_CR0,0,182,268_AL_.jpg', 'https://www.youtube.com/watch?v=YmvHzCLP6ug', now(), now());</v>
+        <f t="shared" si="0"/>
+        <v>INSERT INTO movies(id, movie_name, description, date_released, duration, country, language, subtitles, dubbed, age_rating, poster, trailer, created_at, update_at) VALUES (DEFAULT, 'Les Miserables', 'In 19th-century France, Jean Valjean, who for decades has been hunted by the ruthless policeman Javert after breaking parole, agrees to care for a factory worker's daughter. The decision changes their lives forever.', '12/25/2012', '158', 'USA', 'English', 'N', 'N', 'PG-13', 'http://ia.media-imdb.com/images/M/MV5BMTQ4NDI3NDg4M15BMl5BanBnXkFtZTcwMjY5OTI1OA@@._V1_UX182_CR0,0,182,268_AL_.jpg', 'https://www.youtube.com/watch?v=YmvHzCLP6ug', now(), now());</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
@@ -11337,38 +11541,38 @@
         <v>74</v>
       </c>
       <c r="B32" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>349</v>
-      </c>
-      <c r="D32" s="8">
-        <v>35727</v>
+        <v>348</v>
+      </c>
+      <c r="D32" s="10" t="s">
+        <v>460</v>
       </c>
       <c r="E32">
         <v>106</v>
       </c>
       <c r="F32" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G32" t="s">
+        <v>211</v>
+      </c>
+      <c r="H32" t="s">
         <v>212</v>
       </c>
-      <c r="H32" t="s">
+      <c r="I32" t="s">
+        <v>212</v>
+      </c>
+      <c r="J32" t="s">
         <v>213</v>
       </c>
-      <c r="I32" t="s">
-        <v>213</v>
-      </c>
-      <c r="J32" t="s">
-        <v>214</v>
-      </c>
       <c r="K32" t="s">
+        <v>349</v>
+      </c>
+      <c r="L32" t="s">
         <v>350</v>
       </c>
-      <c r="L32" t="s">
-        <v>351</v>
-      </c>
       <c r="M32" t="s">
         <v>82</v>
       </c>
@@ -11377,7 +11581,7 @@
       </c>
       <c r="O32" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO profiles(id, movie_name, description, date_released, duration, country, language, subtitles, dubbed, age_rating, poster, trailer, created_at, update_at) VALUES (DEFAULT, 'Gattica', 'A genetically inferior man assumes the identity of a superior one in order to pursue his lifelong dream of space travel.', '35727', '106', 'USA', 'English', 'N', 'N', 'PG-13', 'http://ia.media-imdb.com/images/M/MV5BNzQxMzU3OTQwNF5BMl5BanBnXkFtZTYwNDUyNTE5._V1_UY268_CR3,0,182,268_AL_.jpg', 'https://www.youtube.com/watch?v=hWjlUj7Czlk', now(), now());</v>
+        <v>INSERT INTO movies(id, movie_name, description, date_released, duration, country, language, subtitles, dubbed, age_rating, poster, trailer, created_at, update_at) VALUES (DEFAULT, 'Gattica', 'A genetically inferior man assumes the identity of a superior one in order to pursue his lifelong dream of space travel.', '10/24/1997', '106', 'USA', 'English', 'N', 'N', 'PG-13', 'http://ia.media-imdb.com/images/M/MV5BNzQxMzU3OTQwNF5BMl5BanBnXkFtZTYwNDUyNTE5._V1_UY268_CR3,0,182,268_AL_.jpg', 'https://www.youtube.com/watch?v=hWjlUj7Czlk', now(), now());</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
@@ -11385,38 +11589,38 @@
         <v>74</v>
       </c>
       <c r="B33" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>352</v>
-      </c>
-      <c r="D33" s="8">
-        <v>40725</v>
+        <v>351</v>
+      </c>
+      <c r="D33" s="10" t="s">
+        <v>461</v>
       </c>
       <c r="E33">
         <v>98</v>
       </c>
       <c r="F33" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G33" t="s">
+        <v>211</v>
+      </c>
+      <c r="H33" t="s">
         <v>212</v>
       </c>
-      <c r="H33" t="s">
+      <c r="I33" t="s">
+        <v>212</v>
+      </c>
+      <c r="J33" t="s">
         <v>213</v>
       </c>
-      <c r="I33" t="s">
-        <v>213</v>
-      </c>
-      <c r="J33" t="s">
-        <v>214</v>
-      </c>
       <c r="K33" t="s">
+        <v>352</v>
+      </c>
+      <c r="L33" t="s">
         <v>353</v>
       </c>
-      <c r="L33" t="s">
-        <v>354</v>
-      </c>
       <c r="M33" t="s">
         <v>82</v>
       </c>
@@ -11425,7 +11629,7 @@
       </c>
       <c r="O33" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO profiles(id, movie_name, description, date_released, duration, country, language, subtitles, dubbed, age_rating, poster, trailer, created_at, update_at) VALUES (DEFAULT, 'Larry Crowne', 'After losing his job, a middle-aged man reinvents himself by going back to college.', '40725', '98', 'USA', 'English', 'N', 'N', 'PG-13', 'http://ia.media-imdb.com/images/M/MV5BMTM1NzAyNTEwN15BMl5BanBnXkFtZTcwODYyNTEzNQ@@._V1._CR68,54,886,1396_UX182_CR0,0,182,268_AL_.jpg', 'https://www.youtube.com/watch?v=1UNtrqRG7GA', now(), now());</v>
+        <v>INSERT INTO movies(id, movie_name, description, date_released, duration, country, language, subtitles, dubbed, age_rating, poster, trailer, created_at, update_at) VALUES (DEFAULT, 'Larry Crowne', 'After losing his job, a middle-aged man reinvents himself by going back to college.', '7/1/2011', '98', 'USA', 'English', 'N', 'N', 'PG-13', 'http://ia.media-imdb.com/images/M/MV5BMTM1NzAyNTEwN15BMl5BanBnXkFtZTcwODYyNTEzNQ@@._V1._CR68,54,886,1396_UX182_CR0,0,182,268_AL_.jpg', 'https://www.youtube.com/watch?v=1UNtrqRG7GA', now(), now());</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
@@ -11433,38 +11637,38 @@
         <v>74</v>
       </c>
       <c r="B34" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>355</v>
-      </c>
-      <c r="D34" s="8">
-        <v>39962</v>
+        <v>354</v>
+      </c>
+      <c r="D34" s="10" t="s">
+        <v>462</v>
       </c>
       <c r="E34">
         <v>96</v>
       </c>
       <c r="F34" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G34" t="s">
+        <v>211</v>
+      </c>
+      <c r="H34" t="s">
         <v>212</v>
       </c>
-      <c r="H34" t="s">
-        <v>213</v>
-      </c>
       <c r="I34" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="J34" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="K34" t="s">
+        <v>355</v>
+      </c>
+      <c r="L34" t="s">
         <v>356</v>
       </c>
-      <c r="L34" t="s">
-        <v>357</v>
-      </c>
       <c r="M34" t="s">
         <v>82</v>
       </c>
@@ -11473,7 +11677,7 @@
       </c>
       <c r="O34" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO profiles(id, movie_name, description, date_released, duration, country, language, subtitles, dubbed, age_rating, poster, trailer, created_at, update_at) VALUES (DEFAULT, 'Up', 'Seventy-eight year old Carl Fredricksen travels to Paradise Falls in his home equipped with balloons, inadvertently taking a young stowaway.', '39962', '96', 'USA', 'English', 'N', 'N', 'PG', 'http://ia.media-imdb.com/images/M/MV5BMTk3NDE2NzI4NF5BMl5BanBnXkFtZTgwNzE1MzEyMTE@._V1_UX182_CR0,0,182,268_AL_.jpg', 'https://www.youtube.com/watch?v=qas5lWp7_R0', now(), now());</v>
+        <v>INSERT INTO movies(id, movie_name, description, date_released, duration, country, language, subtitles, dubbed, age_rating, poster, trailer, created_at, update_at) VALUES (DEFAULT, 'Up', 'Seventy-eight year old Carl Fredricksen travels to Paradise Falls in his home equipped with balloons, inadvertently taking a young stowaway.', '5/29/2009', '96', 'USA', 'English', 'N', 'N', 'PG', 'http://ia.media-imdb.com/images/M/MV5BMTk3NDE2NzI4NF5BMl5BanBnXkFtZTgwNzE1MzEyMTE@._V1_UX182_CR0,0,182,268_AL_.jpg', 'https://www.youtube.com/watch?v=qas5lWp7_R0', now(), now());</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
@@ -11481,38 +11685,38 @@
         <v>74</v>
       </c>
       <c r="B35" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>358</v>
-      </c>
-      <c r="D35" s="8">
-        <v>35025</v>
+        <v>357</v>
+      </c>
+      <c r="D35" s="10" t="s">
+        <v>463</v>
       </c>
       <c r="E35">
         <v>81</v>
       </c>
       <c r="F35" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G35" t="s">
+        <v>211</v>
+      </c>
+      <c r="H35" t="s">
         <v>212</v>
       </c>
-      <c r="H35" t="s">
-        <v>213</v>
-      </c>
       <c r="I35" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="J35" t="s">
+        <v>358</v>
+      </c>
+      <c r="K35" t="s">
         <v>359</v>
       </c>
-      <c r="K35" t="s">
+      <c r="L35" t="s">
         <v>360</v>
       </c>
-      <c r="L35" t="s">
-        <v>361</v>
-      </c>
       <c r="M35" t="s">
         <v>82</v>
       </c>
@@ -11521,7 +11725,7 @@
       </c>
       <c r="O35" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO profiles(id, movie_name, description, date_released, duration, country, language, subtitles, dubbed, age_rating, poster, trailer, created_at, update_at) VALUES (DEFAULT, 'Toy Story', 'A cowboy doll is profoundly threatened and jealous when a new spaceman figure supplants him as top toy in a boy's room.', '35025', '81', 'USA', 'English', 'N', 'N', 'G', 'http://ia.media-imdb.com/images/M/MV5BMTgwMjI4MzU5N15BMl5BanBnXkFtZTcwMTMyNTk3OA@@._V1_UY268_CR9,0,182,268_AL_.jpg', 'https://www.youtube.com/watch?v=KYz2wyBy3kc', now(), now());</v>
+        <v>INSERT INTO movies(id, movie_name, description, date_released, duration, country, language, subtitles, dubbed, age_rating, poster, trailer, created_at, update_at) VALUES (DEFAULT, 'Toy Story', 'A cowboy doll is profoundly threatened and jealous when a new spaceman figure supplants him as top toy in a boy's room.', '11/22/1995', '81', 'USA', 'English', 'N', 'N', 'G', 'http://ia.media-imdb.com/images/M/MV5BMTgwMjI4MzU5N15BMl5BanBnXkFtZTcwMTMyNTk3OA@@._V1_UY268_CR9,0,182,268_AL_.jpg', 'https://www.youtube.com/watch?v=KYz2wyBy3kc', now(), now());</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
@@ -11529,38 +11733,38 @@
         <v>74</v>
       </c>
       <c r="B36" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>362</v>
-      </c>
-      <c r="D36" s="8">
-        <v>41410</v>
+        <v>361</v>
+      </c>
+      <c r="D36" s="10" t="s">
+        <v>464</v>
       </c>
       <c r="E36">
         <v>132</v>
       </c>
       <c r="F36" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G36" t="s">
+        <v>211</v>
+      </c>
+      <c r="H36" t="s">
         <v>212</v>
       </c>
-      <c r="H36" t="s">
+      <c r="I36" t="s">
+        <v>212</v>
+      </c>
+      <c r="J36" t="s">
         <v>213</v>
       </c>
-      <c r="I36" t="s">
-        <v>213</v>
-      </c>
-      <c r="J36" t="s">
-        <v>214</v>
-      </c>
       <c r="K36" t="s">
+        <v>362</v>
+      </c>
+      <c r="L36" t="s">
         <v>363</v>
       </c>
-      <c r="L36" t="s">
-        <v>364</v>
-      </c>
       <c r="M36" t="s">
         <v>82</v>
       </c>
@@ -11569,7 +11773,7 @@
       </c>
       <c r="O36" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO profiles(id, movie_name, description, date_released, duration, country, language, subtitles, dubbed, age_rating, poster, trailer, created_at, update_at) VALUES (DEFAULT, 'Star Trek: Into Darkness', 'After the crew of the Enterprise find an unstoppable force of terror from within their own organization, Captain Kirk leads a manhunt to a war-zone world to capture a one-man weapon of mass destruction.', '41410', '132', 'USA', 'English', 'N', 'N', 'PG-13', 'http://ia.media-imdb.com/images/M/MV5BMTk2NzczOTgxNF5BMl5BanBnXkFtZTcwODQ5ODczOQ@@._V1_UX182_CR0,0,182,268_AL_.jpg', 'https://www.youtube.com/watch?v=QAEkuVgt6Aw', now(), now());</v>
+        <v>INSERT INTO movies(id, movie_name, description, date_released, duration, country, language, subtitles, dubbed, age_rating, poster, trailer, created_at, update_at) VALUES (DEFAULT, 'Star Trek: Into Darkness', 'After the crew of the Enterprise find an unstoppable force of terror from within their own organization, Captain Kirk leads a manhunt to a war-zone world to capture a one-man weapon of mass destruction.', '5/16/2013', '132', 'USA', 'English', 'N', 'N', 'PG-13', 'http://ia.media-imdb.com/images/M/MV5BMTk2NzczOTgxNF5BMl5BanBnXkFtZTcwODQ5ODczOQ@@._V1_UX182_CR0,0,182,268_AL_.jpg', 'https://www.youtube.com/watch?v=QAEkuVgt6Aw', now(), now());</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
@@ -11577,38 +11781,38 @@
         <v>74</v>
       </c>
       <c r="B37" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>365</v>
-      </c>
-      <c r="D37" s="8">
-        <v>38518</v>
+        <v>364</v>
+      </c>
+      <c r="D37" s="10" t="s">
+        <v>465</v>
       </c>
       <c r="E37">
         <v>140</v>
       </c>
       <c r="F37" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G37" t="s">
+        <v>211</v>
+      </c>
+      <c r="H37" t="s">
         <v>212</v>
       </c>
-      <c r="H37" t="s">
+      <c r="I37" t="s">
+        <v>212</v>
+      </c>
+      <c r="J37" t="s">
         <v>213</v>
       </c>
-      <c r="I37" t="s">
-        <v>213</v>
-      </c>
-      <c r="J37" t="s">
-        <v>214</v>
-      </c>
       <c r="K37" t="s">
+        <v>365</v>
+      </c>
+      <c r="L37" t="s">
         <v>366</v>
       </c>
-      <c r="L37" t="s">
-        <v>367</v>
-      </c>
       <c r="M37" t="s">
         <v>82</v>
       </c>
@@ -11617,7 +11821,7 @@
       </c>
       <c r="O37" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO profiles(id, movie_name, description, date_released, duration, country, language, subtitles, dubbed, age_rating, poster, trailer, created_at, update_at) VALUES (DEFAULT, 'Batman Begins', 'After training with his mentor, Batman begins his war on crime to free the crime-ridden Gotham City from corruption that the Scarecrow and the League of Shadows have cast upon it.', '38518', '140', 'USA', 'English', 'N', 'N', 'PG-13', 'http://ia.media-imdb.com/images/M/MV5BNTM3OTc0MzM2OV5BMl5BanBnXkFtZTYwNzUwMTI3._V1_UX182_CR0,0,182,268_AL_.jpg', 'https://www.youtube.com/watch?v=neY2xVmOfUM', now(), now());</v>
+        <v>INSERT INTO movies(id, movie_name, description, date_released, duration, country, language, subtitles, dubbed, age_rating, poster, trailer, created_at, update_at) VALUES (DEFAULT, 'Batman Begins', 'After training with his mentor, Batman begins his war on crime to free the crime-ridden Gotham City from corruption that the Scarecrow and the League of Shadows have cast upon it.', '6/15/2005', '140', 'USA', 'English', 'N', 'N', 'PG-13', 'http://ia.media-imdb.com/images/M/MV5BNTM3OTc0MzM2OV5BMl5BanBnXkFtZTYwNzUwMTI3._V1_UX182_CR0,0,182,268_AL_.jpg', 'https://www.youtube.com/watch?v=neY2xVmOfUM', now(), now());</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
@@ -11625,38 +11829,38 @@
         <v>74</v>
       </c>
       <c r="B38" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>368</v>
-      </c>
-      <c r="D38" s="8">
-        <v>42293</v>
+        <v>367</v>
+      </c>
+      <c r="D38" s="10" t="s">
+        <v>466</v>
       </c>
       <c r="E38">
         <v>142</v>
       </c>
       <c r="F38" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G38" t="s">
+        <v>211</v>
+      </c>
+      <c r="H38" t="s">
         <v>212</v>
       </c>
-      <c r="H38" t="s">
+      <c r="I38" t="s">
+        <v>212</v>
+      </c>
+      <c r="J38" t="s">
         <v>213</v>
       </c>
-      <c r="I38" t="s">
-        <v>213</v>
-      </c>
-      <c r="J38" t="s">
-        <v>214</v>
-      </c>
       <c r="K38" t="s">
+        <v>368</v>
+      </c>
+      <c r="L38" t="s">
         <v>369</v>
       </c>
-      <c r="L38" t="s">
-        <v>370</v>
-      </c>
       <c r="M38" t="s">
         <v>82</v>
       </c>
@@ -11665,7 +11869,7 @@
       </c>
       <c r="O38" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO profiles(id, movie_name, description, date_released, duration, country, language, subtitles, dubbed, age_rating, poster, trailer, created_at, update_at) VALUES (DEFAULT, 'Bridge of Spies', 'During the Cold War, an American lawyer is recruited to defend an arrested Soviet spy in court, and then help the CIA facilitate an exchange of the spy for the Soviet captured American U2 spy plane pilot, Francis Gary Powers.', '42293', '142', 'USA', 'English', 'N', 'N', 'PG-13', 'http://ia.media-imdb.com/images/M/MV5BMjIxOTI0MjU5NV5BMl5BanBnXkFtZTgwNzM4OTk4NTE@._V1_UX182_CR0,0,182,268_AL_.jpg', 'https://www.youtube.com/watch?v=mBBuzHrZBro', now(), now());</v>
+        <v>INSERT INTO movies(id, movie_name, description, date_released, duration, country, language, subtitles, dubbed, age_rating, poster, trailer, created_at, update_at) VALUES (DEFAULT, 'Bridge of Spies', 'During the Cold War, an American lawyer is recruited to defend an arrested Soviet spy in court, and then help the CIA facilitate an exchange of the spy for the Soviet captured American U2 spy plane pilot, Francis Gary Powers.', '10/16/2015', '142', 'USA', 'English', 'N', 'N', 'PG-13', 'http://ia.media-imdb.com/images/M/MV5BMjIxOTI0MjU5NV5BMl5BanBnXkFtZTgwNzM4OTk4NTE@._V1_UX182_CR0,0,182,268_AL_.jpg', 'https://www.youtube.com/watch?v=mBBuzHrZBro', now(), now());</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
@@ -11673,38 +11877,38 @@
         <v>74</v>
       </c>
       <c r="B39" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>371</v>
-      </c>
-      <c r="D39" s="8">
-        <v>40165</v>
+        <v>370</v>
+      </c>
+      <c r="D39" s="10" t="s">
+        <v>467</v>
       </c>
       <c r="E39">
         <v>162</v>
       </c>
       <c r="F39" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G39" t="s">
+        <v>211</v>
+      </c>
+      <c r="H39" t="s">
         <v>212</v>
       </c>
-      <c r="H39" t="s">
+      <c r="I39" t="s">
+        <v>212</v>
+      </c>
+      <c r="J39" t="s">
         <v>213</v>
       </c>
-      <c r="I39" t="s">
-        <v>213</v>
-      </c>
-      <c r="J39" t="s">
-        <v>214</v>
-      </c>
       <c r="K39" t="s">
+        <v>371</v>
+      </c>
+      <c r="L39" t="s">
         <v>372</v>
       </c>
-      <c r="L39" t="s">
-        <v>373</v>
-      </c>
       <c r="M39" t="s">
         <v>82</v>
       </c>
@@ -11713,7 +11917,7 @@
       </c>
       <c r="O39" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO profiles(id, movie_name, description, date_released, duration, country, language, subtitles, dubbed, age_rating, poster, trailer, created_at, update_at) VALUES (DEFAULT, 'Avatar', 'A paraplegic marine dispatched to the moon Pandora on a unique mission becomes torn between following his orders and protecting the world he feels is his home.', '40165', '162', 'USA', 'English', 'N', 'N', 'PG-13', 'http://ia.media-imdb.com/images/M/MV5BMTYwOTEwNjAzMl5BMl5BanBnXkFtZTcwODc5MTUwMw@@._V1_UX182_CR0,0,182,268_AL_.jpg', 'https://www.youtube.com/watch?v=5PSNL1qE6VY', now(), now());</v>
+        <v>INSERT INTO movies(id, movie_name, description, date_released, duration, country, language, subtitles, dubbed, age_rating, poster, trailer, created_at, update_at) VALUES (DEFAULT, 'Avatar', 'A paraplegic marine dispatched to the moon Pandora on a unique mission becomes torn between following his orders and protecting the world he feels is his home.', '12/18/2009', '162', 'USA', 'English', 'N', 'N', 'PG-13', 'http://ia.media-imdb.com/images/M/MV5BMTYwOTEwNjAzMl5BMl5BanBnXkFtZTcwODc5MTUwMw@@._V1_UX182_CR0,0,182,268_AL_.jpg', 'https://www.youtube.com/watch?v=5PSNL1qE6VY', now(), now());</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.25">
@@ -11721,38 +11925,38 @@
         <v>74</v>
       </c>
       <c r="B40" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>374</v>
-      </c>
-      <c r="D40" s="8">
-        <v>42412</v>
+        <v>373</v>
+      </c>
+      <c r="D40" s="10" t="s">
+        <v>468</v>
       </c>
       <c r="E40">
         <v>108</v>
       </c>
       <c r="F40" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G40" t="s">
+        <v>211</v>
+      </c>
+      <c r="H40" t="s">
         <v>212</v>
       </c>
-      <c r="H40" t="s">
-        <v>213</v>
-      </c>
       <c r="I40" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="J40" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="K40" t="s">
+        <v>374</v>
+      </c>
+      <c r="L40" t="s">
         <v>375</v>
       </c>
-      <c r="L40" t="s">
-        <v>376</v>
-      </c>
       <c r="M40" t="s">
         <v>82</v>
       </c>
@@ -11761,7 +11965,7 @@
       </c>
       <c r="O40" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO profiles(id, movie_name, description, date_released, duration, country, language, subtitles, dubbed, age_rating, poster, trailer, created_at, update_at) VALUES (DEFAULT, 'Deadpool', 'A former Special Forces operative turned mercenary is subjected to a rogue experiment that leaves him with accelerated healing powers, adopting the alter ego Deadpool.', '42412', '108', 'USA', 'English', 'N', 'N', 'R', 'http://ia.media-imdb.com/images/M/MV5BMjQyODg5Njc4N15BMl5BanBnXkFtZTgwMzExMjE3NzE@._V1_UY268_CR1,0,182,268_AL_.jpg', 'https://www.youtube.com/watch?v=ZIM1HydF9UA', now(), now());</v>
+        <v>INSERT INTO movies(id, movie_name, description, date_released, duration, country, language, subtitles, dubbed, age_rating, poster, trailer, created_at, update_at) VALUES (DEFAULT, 'Deadpool', 'A former Special Forces operative turned mercenary is subjected to a rogue experiment that leaves him with accelerated healing powers, adopting the alter ego Deadpool.', '2/12/2016', '108', 'USA', 'English', 'N', 'N', 'R', 'http://ia.media-imdb.com/images/M/MV5BMjQyODg5Njc4N15BMl5BanBnXkFtZTgwMzExMjE3NzE@._V1_UY268_CR1,0,182,268_AL_.jpg', 'https://www.youtube.com/watch?v=ZIM1HydF9UA', now(), now());</v>
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.25">
@@ -11769,38 +11973,38 @@
         <v>74</v>
       </c>
       <c r="B41" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>377</v>
-      </c>
-      <c r="D41" s="8">
-        <v>37295</v>
+        <v>376</v>
+      </c>
+      <c r="D41" s="10" t="s">
+        <v>469</v>
       </c>
       <c r="E41">
         <v>122</v>
       </c>
       <c r="F41" t="s">
+        <v>377</v>
+      </c>
+      <c r="G41" t="s">
+        <v>314</v>
+      </c>
+      <c r="H41" t="s">
+        <v>222</v>
+      </c>
+      <c r="I41" t="s">
+        <v>212</v>
+      </c>
+      <c r="J41" t="s">
+        <v>236</v>
+      </c>
+      <c r="K41" t="s">
         <v>378</v>
       </c>
-      <c r="G41" t="s">
-        <v>315</v>
-      </c>
-      <c r="H41" t="s">
-        <v>223</v>
-      </c>
-      <c r="I41" t="s">
-        <v>213</v>
-      </c>
-      <c r="J41" t="s">
-        <v>237</v>
-      </c>
-      <c r="K41" t="s">
+      <c r="L41" t="s">
         <v>379</v>
       </c>
-      <c r="L41" t="s">
-        <v>380</v>
-      </c>
       <c r="M41" t="s">
         <v>82</v>
       </c>
@@ -11809,7 +12013,7 @@
       </c>
       <c r="O41" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO profiles(id, movie_name, description, date_released, duration, country, language, subtitles, dubbed, age_rating, poster, trailer, created_at, update_at) VALUES (DEFAULT, 'Amelie', 'Amelie is an innocent and naive girl in Paris with her own sense of justice. She decides to help those around her and, along the way, discovers love.', '37295', '122', 'France', 'French', 'Y', 'N', 'R', 'http://ia.media-imdb.com/images/M/MV5BMTYzNjkxMTczOF5BMl5BanBnXkFtZTgwODg5NDc2MjE@._V1_UX182_CR0,0,182,268_AL_.jpg', 'https://www.youtube.com/watch?v=2UT5xaAfxWU', now(), now());</v>
+        <v>INSERT INTO movies(id, movie_name, description, date_released, duration, country, language, subtitles, dubbed, age_rating, poster, trailer, created_at, update_at) VALUES (DEFAULT, 'Amelie', 'Amelie is an innocent and naive girl in Paris with her own sense of justice. She decides to help those around her and, along the way, discovers love.', '2/8/2002', '122', 'France', 'French', 'Y', 'N', 'R', 'http://ia.media-imdb.com/images/M/MV5BMTYzNjkxMTczOF5BMl5BanBnXkFtZTgwODg5NDc2MjE@._V1_UX182_CR0,0,182,268_AL_.jpg', 'https://www.youtube.com/watch?v=2UT5xaAfxWU', now(), now());</v>
       </c>
     </row>
   </sheetData>

--- a/all_data.xlsx
+++ b/all_data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23970" windowHeight="8880" tabRatio="799" firstSheet="7" activeTab="13"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23970" windowHeight="8880" tabRatio="799" firstSheet="6" activeTab="17"/>
   </bookViews>
   <sheets>
     <sheet name="user_types" sheetId="3" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6847" uniqueCount="1220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6847" uniqueCount="1221">
   <si>
     <t>id</t>
   </si>
@@ -3703,6 +3703,9 @@
   </si>
   <si>
     <t>This really isn''t for children….</t>
+  </si>
+  <si>
+    <t>Alfred</t>
   </si>
 </sst>
 </file>
@@ -5409,8 +5412,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G36"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8893,8 +8896,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I217"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15858,8 +15861,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F113"/>
   <sheetViews>
-    <sheetView topLeftCell="A112" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F113"/>
+    <sheetView topLeftCell="A91" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F108" sqref="F108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18364,8 +18367,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G144"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G144" sqref="G2:G144"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18422,8 +18425,8 @@
         <v>79</v>
       </c>
       <c r="G2" s="6" t="str">
-        <f xml:space="preserve"> "INSERT INTO movie_casts("&amp;A$1&amp;", "&amp;B$1&amp;", "&amp;C$1&amp;", "&amp;D$1&amp;", "&amp;E$1&amp;", "&amp;F$1&amp;") VALUES ("&amp;A2&amp;", "&amp;B2&amp;", "&amp;C2&amp;", "&amp;D2&amp;", "&amp;E2&amp;", "&amp;F2&amp;");"</f>
-        <v>INSERT INTO movie_casts(id, movie_id, actor_id, casting_type_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'The Lord of the Rings: The Fellowship of the Ring' AND duration = '2:58'), (SELECT id FROM actors WHERE first_name = 'Sean' AND last_name = 'Astin'), Lead, now(), now());</v>
+        <f xml:space="preserve"> "INSERT INTO movie_casts("&amp;A$1&amp;", "&amp;B$1&amp;", "&amp;C$1&amp;", "&amp;D$1&amp;", "&amp;E$1&amp;", "&amp;F$1&amp;") VALUES ("&amp;A2&amp;", "&amp;B2&amp;", "&amp;C2&amp;", (SELECT id FROM casting_types WHERE cast_type = '"&amp;D2&amp;"'), "&amp;E2&amp;", "&amp;F2&amp;");"</f>
+        <v>INSERT INTO movie_casts(id, movie_id, actor_id, casting_type_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'The Lord of the Rings: The Fellowship of the Ring' AND duration = '2:58'), (SELECT id FROM actors WHERE first_name = 'Sean' AND last_name = 'Astin'), (SELECT id FROM casting_types WHERE cast_type = 'Lead'), now(), now());</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -18448,8 +18451,8 @@
         <v>79</v>
       </c>
       <c r="G3" s="6" t="str">
-        <f t="shared" ref="G3:G66" si="0" xml:space="preserve"> "INSERT INTO movie_casts("&amp;A$1&amp;", "&amp;B$1&amp;", "&amp;C$1&amp;", "&amp;D$1&amp;", "&amp;E$1&amp;", "&amp;F$1&amp;") VALUES ("&amp;A3&amp;", "&amp;B3&amp;", "&amp;C3&amp;", "&amp;D3&amp;", "&amp;E3&amp;", "&amp;F3&amp;");"</f>
-        <v>INSERT INTO movie_casts(id, movie_id, actor_id, casting_type_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'The Lord of the Rings: The Fellowship of the Ring' AND duration = '2:58'), (SELECT id FROM actors WHERE first_name = 'Sean' AND last_name = 'Bean'), Support, now(), now());</v>
+        <f t="shared" ref="G3:G66" si="0" xml:space="preserve"> "INSERT INTO movie_casts("&amp;A$1&amp;", "&amp;B$1&amp;", "&amp;C$1&amp;", "&amp;D$1&amp;", "&amp;E$1&amp;", "&amp;F$1&amp;") VALUES ("&amp;A3&amp;", "&amp;B3&amp;", "&amp;C3&amp;", (SELECT id FROM casting_types WHERE cast_type = '"&amp;D3&amp;"'), "&amp;E3&amp;", "&amp;F3&amp;");"</f>
+        <v>INSERT INTO movie_casts(id, movie_id, actor_id, casting_type_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'The Lord of the Rings: The Fellowship of the Ring' AND duration = '2:58'), (SELECT id FROM actors WHERE first_name = 'Sean' AND last_name = 'Bean'), (SELECT id FROM casting_types WHERE cast_type = 'Support'), now(), now());</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -18475,7 +18478,7 @@
       </c>
       <c r="G4" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO movie_casts(id, movie_id, actor_id, casting_type_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'The Lord of the Rings: The Fellowship of the Ring' AND duration = '2:58'), (SELECT id FROM actors WHERE first_name = 'Ian' AND last_name = 'McKellen'), Lead, now(), now());</v>
+        <v>INSERT INTO movie_casts(id, movie_id, actor_id, casting_type_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'The Lord of the Rings: The Fellowship of the Ring' AND duration = '2:58'), (SELECT id FROM actors WHERE first_name = 'Ian' AND last_name = 'McKellen'), (SELECT id FROM casting_types WHERE cast_type = 'Lead'), now(), now());</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -18501,7 +18504,7 @@
       </c>
       <c r="G5" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO movie_casts(id, movie_id, actor_id, casting_type_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'The Lord of the Rings: The Fellowship of the Ring' AND duration = '2:58'), (SELECT id FROM actors WHERE first_name = 'Viggo' AND last_name = 'Mortensen'), Lead, now(), now());</v>
+        <v>INSERT INTO movie_casts(id, movie_id, actor_id, casting_type_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'The Lord of the Rings: The Fellowship of the Ring' AND duration = '2:58'), (SELECT id FROM actors WHERE first_name = 'Viggo' AND last_name = 'Mortensen'), (SELECT id FROM casting_types WHERE cast_type = 'Lead'), now(), now());</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -18527,7 +18530,7 @@
       </c>
       <c r="G6" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO movie_casts(id, movie_id, actor_id, casting_type_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'The Lord of the Rings: The Fellowship of the Ring' AND duration = '2:58'), (SELECT id FROM actors WHERE first_name = 'Elijah' AND last_name = 'Wood'), Lead, now(), now());</v>
+        <v>INSERT INTO movie_casts(id, movie_id, actor_id, casting_type_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'The Lord of the Rings: The Fellowship of the Ring' AND duration = '2:58'), (SELECT id FROM actors WHERE first_name = 'Elijah' AND last_name = 'Wood'), (SELECT id FROM casting_types WHERE cast_type = 'Lead'), now(), now());</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -18553,7 +18556,7 @@
       </c>
       <c r="G7" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO movie_casts(id, movie_id, actor_id, casting_type_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'The Lord of the Rings: The Fellowship of the Ring' AND duration = '2:58'), (SELECT id FROM actors WHERE first_name = 'Orlando' AND last_name = 'Bloom'), Support, now(), now());</v>
+        <v>INSERT INTO movie_casts(id, movie_id, actor_id, casting_type_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'The Lord of the Rings: The Fellowship of the Ring' AND duration = '2:58'), (SELECT id FROM actors WHERE first_name = 'Orlando' AND last_name = 'Bloom'), (SELECT id FROM casting_types WHERE cast_type = 'Support'), now(), now());</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -18579,7 +18582,7 @@
       </c>
       <c r="G8" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO movie_casts(id, movie_id, actor_id, casting_type_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'The Lord of the Rings: The Fellowship of the Ring' AND duration = '2:58'), (SELECT id FROM actors WHERE first_name = 'Cate' AND last_name = 'Blanchett'), Support, now(), now());</v>
+        <v>INSERT INTO movie_casts(id, movie_id, actor_id, casting_type_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'The Lord of the Rings: The Fellowship of the Ring' AND duration = '2:58'), (SELECT id FROM actors WHERE first_name = 'Cate' AND last_name = 'Blanchett'), (SELECT id FROM casting_types WHERE cast_type = 'Support'), now(), now());</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -18605,7 +18608,7 @@
       </c>
       <c r="G9" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO movie_casts(id, movie_id, actor_id, casting_type_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'The Lord of the Rings: The Fellowship of the Ring' AND duration = '2:58'), (SELECT id FROM actors WHERE first_name = 'Hugo' AND last_name = 'Weaving'), Support, now(), now());</v>
+        <v>INSERT INTO movie_casts(id, movie_id, actor_id, casting_type_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'The Lord of the Rings: The Fellowship of the Ring' AND duration = '2:58'), (SELECT id FROM actors WHERE first_name = 'Hugo' AND last_name = 'Weaving'), (SELECT id FROM casting_types WHERE cast_type = 'Support'), now(), now());</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -18631,7 +18634,7 @@
       </c>
       <c r="G10" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO movie_casts(id, movie_id, actor_id, casting_type_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'The Lord of the Rings: The Fellowship of the Ring' AND duration = '2:58'), (SELECT id FROM actors WHERE first_name = 'Liv' AND last_name = 'Tyler'), Support, now(), now());</v>
+        <v>INSERT INTO movie_casts(id, movie_id, actor_id, casting_type_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'The Lord of the Rings: The Fellowship of the Ring' AND duration = '2:58'), (SELECT id FROM actors WHERE first_name = 'Liv' AND last_name = 'Tyler'), (SELECT id FROM casting_types WHERE cast_type = 'Support'), now(), now());</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -18657,7 +18660,7 @@
       </c>
       <c r="G11" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO movie_casts(id, movie_id, actor_id, casting_type_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'The Lord of the Rings: The Fellowship of the Ring' AND duration = '2:58'), (SELECT id FROM actors WHERE first_name = 'Andy' AND last_name = 'Serkis'), Lead, now(), now());</v>
+        <v>INSERT INTO movie_casts(id, movie_id, actor_id, casting_type_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'The Lord of the Rings: The Fellowship of the Ring' AND duration = '2:58'), (SELECT id FROM actors WHERE first_name = 'Andy' AND last_name = 'Serkis'), (SELECT id FROM casting_types WHERE cast_type = 'Lead'), now(), now());</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -18683,7 +18686,7 @@
       </c>
       <c r="G12" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO movie_casts(id, movie_id, actor_id, casting_type_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'The Lord of the Rings: The Two Towers' AND duration = '2:59'), (SELECT id FROM actors WHERE first_name = 'Sean' AND last_name = 'Astin'), Lead, now(), now());</v>
+        <v>INSERT INTO movie_casts(id, movie_id, actor_id, casting_type_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'The Lord of the Rings: The Two Towers' AND duration = '2:59'), (SELECT id FROM actors WHERE first_name = 'Sean' AND last_name = 'Astin'), (SELECT id FROM casting_types WHERE cast_type = 'Lead'), now(), now());</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -18709,7 +18712,7 @@
       </c>
       <c r="G13" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO movie_casts(id, movie_id, actor_id, casting_type_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'The Lord of the Rings: The Two Towers' AND duration = '2:59'), (SELECT id FROM actors WHERE first_name = 'Ian' AND last_name = 'McKellen'), Lead, now(), now());</v>
+        <v>INSERT INTO movie_casts(id, movie_id, actor_id, casting_type_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'The Lord of the Rings: The Two Towers' AND duration = '2:59'), (SELECT id FROM actors WHERE first_name = 'Ian' AND last_name = 'McKellen'), (SELECT id FROM casting_types WHERE cast_type = 'Lead'), now(), now());</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -18735,7 +18738,7 @@
       </c>
       <c r="G14" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO movie_casts(id, movie_id, actor_id, casting_type_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'The Lord of the Rings: The Two Towers' AND duration = '2:59'), (SELECT id FROM actors WHERE first_name = 'Viggo' AND last_name = 'Mortensen'), Lead, now(), now());</v>
+        <v>INSERT INTO movie_casts(id, movie_id, actor_id, casting_type_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'The Lord of the Rings: The Two Towers' AND duration = '2:59'), (SELECT id FROM actors WHERE first_name = 'Viggo' AND last_name = 'Mortensen'), (SELECT id FROM casting_types WHERE cast_type = 'Lead'), now(), now());</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -18761,7 +18764,7 @@
       </c>
       <c r="G15" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO movie_casts(id, movie_id, actor_id, casting_type_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'The Lord of the Rings: The Two Towers' AND duration = '2:59'), (SELECT id FROM actors WHERE first_name = 'Elijah' AND last_name = 'Wood'), Lead, now(), now());</v>
+        <v>INSERT INTO movie_casts(id, movie_id, actor_id, casting_type_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'The Lord of the Rings: The Two Towers' AND duration = '2:59'), (SELECT id FROM actors WHERE first_name = 'Elijah' AND last_name = 'Wood'), (SELECT id FROM casting_types WHERE cast_type = 'Lead'), now(), now());</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -18787,7 +18790,7 @@
       </c>
       <c r="G16" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO movie_casts(id, movie_id, actor_id, casting_type_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'The Lord of the Rings: The Two Towers' AND duration = '2:59'), (SELECT id FROM actors WHERE first_name = 'Orlando' AND last_name = 'Bloom'), Support, now(), now());</v>
+        <v>INSERT INTO movie_casts(id, movie_id, actor_id, casting_type_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'The Lord of the Rings: The Two Towers' AND duration = '2:59'), (SELECT id FROM actors WHERE first_name = 'Orlando' AND last_name = 'Bloom'), (SELECT id FROM casting_types WHERE cast_type = 'Support'), now(), now());</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -18813,7 +18816,7 @@
       </c>
       <c r="G17" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO movie_casts(id, movie_id, actor_id, casting_type_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'The Lord of the Rings: The Two Towers' AND duration = '2:59'), (SELECT id FROM actors WHERE first_name = 'Cate' AND last_name = 'Blanchett'), Support, now(), now());</v>
+        <v>INSERT INTO movie_casts(id, movie_id, actor_id, casting_type_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'The Lord of the Rings: The Two Towers' AND duration = '2:59'), (SELECT id FROM actors WHERE first_name = 'Cate' AND last_name = 'Blanchett'), (SELECT id FROM casting_types WHERE cast_type = 'Support'), now(), now());</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -18839,7 +18842,7 @@
       </c>
       <c r="G18" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO movie_casts(id, movie_id, actor_id, casting_type_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'The Lord of the Rings: The Two Towers' AND duration = '2:59'), (SELECT id FROM actors WHERE first_name = 'Hugo' AND last_name = 'Weaving'), Support, now(), now());</v>
+        <v>INSERT INTO movie_casts(id, movie_id, actor_id, casting_type_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'The Lord of the Rings: The Two Towers' AND duration = '2:59'), (SELECT id FROM actors WHERE first_name = 'Hugo' AND last_name = 'Weaving'), (SELECT id FROM casting_types WHERE cast_type = 'Support'), now(), now());</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -18865,7 +18868,7 @@
       </c>
       <c r="G19" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO movie_casts(id, movie_id, actor_id, casting_type_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'The Lord of the Rings: The Two Towers' AND duration = '2:59'), (SELECT id FROM actors WHERE first_name = 'Liv' AND last_name = 'Tyler'), Support, now(), now());</v>
+        <v>INSERT INTO movie_casts(id, movie_id, actor_id, casting_type_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'The Lord of the Rings: The Two Towers' AND duration = '2:59'), (SELECT id FROM actors WHERE first_name = 'Liv' AND last_name = 'Tyler'), (SELECT id FROM casting_types WHERE cast_type = 'Support'), now(), now());</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -18891,7 +18894,7 @@
       </c>
       <c r="G20" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO movie_casts(id, movie_id, actor_id, casting_type_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'The Lord of the Rings: The Two Towers' AND duration = '2:59'), (SELECT id FROM actors WHERE first_name = 'Andy' AND last_name = 'Serkis'), Lead, now(), now());</v>
+        <v>INSERT INTO movie_casts(id, movie_id, actor_id, casting_type_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'The Lord of the Rings: The Two Towers' AND duration = '2:59'), (SELECT id FROM actors WHERE first_name = 'Andy' AND last_name = 'Serkis'), (SELECT id FROM casting_types WHERE cast_type = 'Lead'), now(), now());</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -18917,7 +18920,7 @@
       </c>
       <c r="G21" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO movie_casts(id, movie_id, actor_id, casting_type_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'The Lord of the Rings: The Return of the King' AND duration = '3:21'), (SELECT id FROM actors WHERE first_name = 'Sean' AND last_name = 'Astin'), Lead, now(), now());</v>
+        <v>INSERT INTO movie_casts(id, movie_id, actor_id, casting_type_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'The Lord of the Rings: The Return of the King' AND duration = '3:21'), (SELECT id FROM actors WHERE first_name = 'Sean' AND last_name = 'Astin'), (SELECT id FROM casting_types WHERE cast_type = 'Lead'), now(), now());</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -18943,7 +18946,7 @@
       </c>
       <c r="G22" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO movie_casts(id, movie_id, actor_id, casting_type_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'The Lord of the Rings: The Return of the King' AND duration = '3:21'), (SELECT id FROM actors WHERE first_name = 'Ian' AND last_name = 'McKellen'), Lead, now(), now());</v>
+        <v>INSERT INTO movie_casts(id, movie_id, actor_id, casting_type_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'The Lord of the Rings: The Return of the King' AND duration = '3:21'), (SELECT id FROM actors WHERE first_name = 'Ian' AND last_name = 'McKellen'), (SELECT id FROM casting_types WHERE cast_type = 'Lead'), now(), now());</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -18969,7 +18972,7 @@
       </c>
       <c r="G23" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO movie_casts(id, movie_id, actor_id, casting_type_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'The Lord of the Rings: The Return of the King' AND duration = '3:21'), (SELECT id FROM actors WHERE first_name = 'Viggo' AND last_name = 'Mortensen'), Lead, now(), now());</v>
+        <v>INSERT INTO movie_casts(id, movie_id, actor_id, casting_type_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'The Lord of the Rings: The Return of the King' AND duration = '3:21'), (SELECT id FROM actors WHERE first_name = 'Viggo' AND last_name = 'Mortensen'), (SELECT id FROM casting_types WHERE cast_type = 'Lead'), now(), now());</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -18995,7 +18998,7 @@
       </c>
       <c r="G24" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO movie_casts(id, movie_id, actor_id, casting_type_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'The Lord of the Rings: The Return of the King' AND duration = '3:21'), (SELECT id FROM actors WHERE first_name = 'Elijah' AND last_name = 'Wood'), Lead, now(), now());</v>
+        <v>INSERT INTO movie_casts(id, movie_id, actor_id, casting_type_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'The Lord of the Rings: The Return of the King' AND duration = '3:21'), (SELECT id FROM actors WHERE first_name = 'Elijah' AND last_name = 'Wood'), (SELECT id FROM casting_types WHERE cast_type = 'Lead'), now(), now());</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -19021,7 +19024,7 @@
       </c>
       <c r="G25" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO movie_casts(id, movie_id, actor_id, casting_type_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'The Lord of the Rings: The Return of the King' AND duration = '3:21'), (SELECT id FROM actors WHERE first_name = 'Orlando' AND last_name = 'Bloom'), Support, now(), now());</v>
+        <v>INSERT INTO movie_casts(id, movie_id, actor_id, casting_type_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'The Lord of the Rings: The Return of the King' AND duration = '3:21'), (SELECT id FROM actors WHERE first_name = 'Orlando' AND last_name = 'Bloom'), (SELECT id FROM casting_types WHERE cast_type = 'Support'), now(), now());</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -19047,7 +19050,7 @@
       </c>
       <c r="G26" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO movie_casts(id, movie_id, actor_id, casting_type_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'The Lord of the Rings: The Return of the King' AND duration = '3:21'), (SELECT id FROM actors WHERE first_name = 'Cate' AND last_name = 'Blanchett'), Support, now(), now());</v>
+        <v>INSERT INTO movie_casts(id, movie_id, actor_id, casting_type_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'The Lord of the Rings: The Return of the King' AND duration = '3:21'), (SELECT id FROM actors WHERE first_name = 'Cate' AND last_name = 'Blanchett'), (SELECT id FROM casting_types WHERE cast_type = 'Support'), now(), now());</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -19073,7 +19076,7 @@
       </c>
       <c r="G27" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO movie_casts(id, movie_id, actor_id, casting_type_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'The Lord of the Rings: The Return of the King' AND duration = '3:21'), (SELECT id FROM actors WHERE first_name = 'Hugo' AND last_name = 'Weaving'), Support, now(), now());</v>
+        <v>INSERT INTO movie_casts(id, movie_id, actor_id, casting_type_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'The Lord of the Rings: The Return of the King' AND duration = '3:21'), (SELECT id FROM actors WHERE first_name = 'Hugo' AND last_name = 'Weaving'), (SELECT id FROM casting_types WHERE cast_type = 'Support'), now(), now());</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -19099,7 +19102,7 @@
       </c>
       <c r="G28" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO movie_casts(id, movie_id, actor_id, casting_type_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'The Lord of the Rings: The Return of the King' AND duration = '3:21'), (SELECT id FROM actors WHERE first_name = 'Liv' AND last_name = 'Tyler'), Support, now(), now());</v>
+        <v>INSERT INTO movie_casts(id, movie_id, actor_id, casting_type_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'The Lord of the Rings: The Return of the King' AND duration = '3:21'), (SELECT id FROM actors WHERE first_name = 'Liv' AND last_name = 'Tyler'), (SELECT id FROM casting_types WHERE cast_type = 'Support'), now(), now());</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -19125,7 +19128,7 @@
       </c>
       <c r="G29" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO movie_casts(id, movie_id, actor_id, casting_type_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'The Lord of the Rings: The Return of the King' AND duration = '3:21'), (SELECT id FROM actors WHERE first_name = 'Andy' AND last_name = 'Serkis'), Lead, now(), now());</v>
+        <v>INSERT INTO movie_casts(id, movie_id, actor_id, casting_type_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'The Lord of the Rings: The Return of the King' AND duration = '3:21'), (SELECT id FROM actors WHERE first_name = 'Andy' AND last_name = 'Serkis'), (SELECT id FROM casting_types WHERE cast_type = 'Lead'), now(), now());</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -19151,7 +19154,7 @@
       </c>
       <c r="G30" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO movie_casts(id, movie_id, actor_id, casting_type_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'Howl''s Moving Castle' AND duration = '1:59'), (SELECT id FROM actors WHERE first_name = 'Christian' AND last_name = 'Bale'), Lead, now(), now());</v>
+        <v>INSERT INTO movie_casts(id, movie_id, actor_id, casting_type_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'Howl''s Moving Castle' AND duration = '1:59'), (SELECT id FROM actors WHERE first_name = 'Christian' AND last_name = 'Bale'), (SELECT id FROM casting_types WHERE cast_type = 'Lead'), now(), now());</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
@@ -19177,7 +19180,7 @@
       </c>
       <c r="G31" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO movie_casts(id, movie_id, actor_id, casting_type_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'Howl''s Moving Castle' AND duration = '1:59'), (SELECT id FROM actors WHERE first_name = 'Lauren' AND last_name = 'Bacall'), Support, now(), now());</v>
+        <v>INSERT INTO movie_casts(id, movie_id, actor_id, casting_type_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'Howl''s Moving Castle' AND duration = '1:59'), (SELECT id FROM actors WHERE first_name = 'Lauren' AND last_name = 'Bacall'), (SELECT id FROM casting_types WHERE cast_type = 'Support'), now(), now());</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -19203,7 +19206,7 @@
       </c>
       <c r="G32" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO movie_casts(id, movie_id, actor_id, casting_type_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'Howl''s Moving Castle' AND duration = '1:59'), (SELECT id FROM actors WHERE first_name = 'Jean' AND last_name = 'Simmons'), Lead, now(), now());</v>
+        <v>INSERT INTO movie_casts(id, movie_id, actor_id, casting_type_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'Howl''s Moving Castle' AND duration = '1:59'), (SELECT id FROM actors WHERE first_name = 'Jean' AND last_name = 'Simmons'), (SELECT id FROM casting_types WHERE cast_type = 'Lead'), now(), now());</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -19229,7 +19232,7 @@
       </c>
       <c r="G33" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO movie_casts(id, movie_id, actor_id, casting_type_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'Howl''s Moving Castle' AND duration = '1:59'), (SELECT id FROM actors WHERE first_name = 'Emily' AND last_name = 'Mortimer'), Lead, now(), now());</v>
+        <v>INSERT INTO movie_casts(id, movie_id, actor_id, casting_type_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'Howl''s Moving Castle' AND duration = '1:59'), (SELECT id FROM actors WHERE first_name = 'Emily' AND last_name = 'Mortimer'), (SELECT id FROM casting_types WHERE cast_type = 'Lead'), now(), now());</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
@@ -19255,7 +19258,7 @@
       </c>
       <c r="G34" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO movie_casts(id, movie_id, actor_id, casting_type_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'Ghost' AND duration = '2:07'), (SELECT id FROM actors WHERE first_name = 'Patrick' AND last_name = 'Swayze'), Lead, now(), now());</v>
+        <v>INSERT INTO movie_casts(id, movie_id, actor_id, casting_type_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'Ghost' AND duration = '2:07'), (SELECT id FROM actors WHERE first_name = 'Patrick' AND last_name = 'Swayze'), (SELECT id FROM casting_types WHERE cast_type = 'Lead'), now(), now());</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
@@ -19281,7 +19284,7 @@
       </c>
       <c r="G35" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO movie_casts(id, movie_id, actor_id, casting_type_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'Ghost' AND duration = '2:07'), (SELECT id FROM actors WHERE first_name = 'Demi' AND last_name = 'Moore'), Lead, now(), now());</v>
+        <v>INSERT INTO movie_casts(id, movie_id, actor_id, casting_type_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'Ghost' AND duration = '2:07'), (SELECT id FROM actors WHERE first_name = 'Demi' AND last_name = 'Moore'), (SELECT id FROM casting_types WHERE cast_type = 'Lead'), now(), now());</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
@@ -19307,7 +19310,7 @@
       </c>
       <c r="G36" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO movie_casts(id, movie_id, actor_id, casting_type_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'The Notebook' AND duration = '2:03'), (SELECT id FROM actors WHERE first_name = 'Gena' AND last_name = 'Rowlands'), Lead, now(), now());</v>
+        <v>INSERT INTO movie_casts(id, movie_id, actor_id, casting_type_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'The Notebook' AND duration = '2:03'), (SELECT id FROM actors WHERE first_name = 'Gena' AND last_name = 'Rowlands'), (SELECT id FROM casting_types WHERE cast_type = 'Lead'), now(), now());</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
@@ -19333,7 +19336,7 @@
       </c>
       <c r="G37" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO movie_casts(id, movie_id, actor_id, casting_type_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'The Notebook' AND duration = '2:03'), (SELECT id FROM actors WHERE first_name = 'James' AND last_name = 'Garner'), Lead, now(), now());</v>
+        <v>INSERT INTO movie_casts(id, movie_id, actor_id, casting_type_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'The Notebook' AND duration = '2:03'), (SELECT id FROM actors WHERE first_name = 'James' AND last_name = 'Garner'), (SELECT id FROM casting_types WHERE cast_type = 'Lead'), now(), now());</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
@@ -19359,7 +19362,7 @@
       </c>
       <c r="G38" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO movie_casts(id, movie_id, actor_id, casting_type_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'The Notebook' AND duration = '2:03'), (SELECT id FROM actors WHERE first_name = 'Rachel' AND last_name = 'McAdams'), Lead, now(), now());</v>
+        <v>INSERT INTO movie_casts(id, movie_id, actor_id, casting_type_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'The Notebook' AND duration = '2:03'), (SELECT id FROM actors WHERE first_name = 'Rachel' AND last_name = 'McAdams'), (SELECT id FROM casting_types WHERE cast_type = 'Lead'), now(), now());</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
@@ -19385,7 +19388,7 @@
       </c>
       <c r="G39" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO movie_casts(id, movie_id, actor_id, casting_type_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'The Notebook' AND duration = '2:03'), (SELECT id FROM actors WHERE first_name = 'Ryan' AND last_name = 'Gosling'), Lead, now(), now());</v>
+        <v>INSERT INTO movie_casts(id, movie_id, actor_id, casting_type_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'The Notebook' AND duration = '2:03'), (SELECT id FROM actors WHERE first_name = 'Ryan' AND last_name = 'Gosling'), (SELECT id FROM casting_types WHERE cast_type = 'Lead'), now(), now());</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
@@ -19411,7 +19414,7 @@
       </c>
       <c r="G40" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO movie_casts(id, movie_id, actor_id, casting_type_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'A Walk to Remember' AND duration = '1:41'), (SELECT id FROM actors WHERE first_name = 'Shane' AND last_name = 'West'), Lead, now(), now());</v>
+        <v>INSERT INTO movie_casts(id, movie_id, actor_id, casting_type_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'A Walk to Remember' AND duration = '1:41'), (SELECT id FROM actors WHERE first_name = 'Shane' AND last_name = 'West'), (SELECT id FROM casting_types WHERE cast_type = 'Lead'), now(), now());</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
@@ -19437,7 +19440,7 @@
       </c>
       <c r="G41" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO movie_casts(id, movie_id, actor_id, casting_type_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'A Walk to Remember' AND duration = '1:41'), (SELECT id FROM actors WHERE first_name = 'Mandy' AND last_name = 'Moore'), Lead, now(), now());</v>
+        <v>INSERT INTO movie_casts(id, movie_id, actor_id, casting_type_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'A Walk to Remember' AND duration = '1:41'), (SELECT id FROM actors WHERE first_name = 'Mandy' AND last_name = 'Moore'), (SELECT id FROM casting_types WHERE cast_type = 'Lead'), now(), now());</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
@@ -19463,7 +19466,7 @@
       </c>
       <c r="G42" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO movie_casts(id, movie_id, actor_id, casting_type_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'A Walk to Remember' AND duration = '1:41'), (SELECT id FROM actors WHERE first_name = 'Peter' AND last_name = 'Coyote'), Support, now(), now());</v>
+        <v>INSERT INTO movie_casts(id, movie_id, actor_id, casting_type_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'A Walk to Remember' AND duration = '1:41'), (SELECT id FROM actors WHERE first_name = 'Peter' AND last_name = 'Coyote'), (SELECT id FROM casting_types WHERE cast_type = 'Support'), now(), now());</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
@@ -19489,7 +19492,7 @@
       </c>
       <c r="G43" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO movie_casts(id, movie_id, actor_id, casting_type_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'Dirty Dancing' AND duration = '1:40'), (SELECT id FROM actors WHERE first_name = 'Jennifer' AND last_name = 'Grey'), Lead, now(), now());</v>
+        <v>INSERT INTO movie_casts(id, movie_id, actor_id, casting_type_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'Dirty Dancing' AND duration = '1:40'), (SELECT id FROM actors WHERE first_name = 'Jennifer' AND last_name = 'Grey'), (SELECT id FROM casting_types WHERE cast_type = 'Lead'), now(), now());</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
@@ -19515,7 +19518,7 @@
       </c>
       <c r="G44" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO movie_casts(id, movie_id, actor_id, casting_type_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'Dirty Dancing' AND duration = '1:40'), (SELECT id FROM actors WHERE first_name = 'Patrick' AND last_name = 'Swayze'), Lead, now(), now());</v>
+        <v>INSERT INTO movie_casts(id, movie_id, actor_id, casting_type_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'Dirty Dancing' AND duration = '1:40'), (SELECT id FROM actors WHERE first_name = 'Patrick' AND last_name = 'Swayze'), (SELECT id FROM casting_types WHERE cast_type = 'Lead'), now(), now());</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
@@ -19541,7 +19544,7 @@
       </c>
       <c r="G45" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO movie_casts(id, movie_id, actor_id, casting_type_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'Notting Hill' AND duration = '2:04'), (SELECT id FROM actors WHERE first_name = 'Hugh' AND last_name = 'Grant'), Lead, now(), now());</v>
+        <v>INSERT INTO movie_casts(id, movie_id, actor_id, casting_type_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'Notting Hill' AND duration = '2:04'), (SELECT id FROM actors WHERE first_name = 'Hugh' AND last_name = 'Grant'), (SELECT id FROM casting_types WHERE cast_type = 'Lead'), now(), now());</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
@@ -19567,7 +19570,7 @@
       </c>
       <c r="G46" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO movie_casts(id, movie_id, actor_id, casting_type_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'Notting Hill' AND duration = '2:04'), (SELECT id FROM actors WHERE first_name = 'Julia' AND last_name = 'Roberts'), Lead, now(), now());</v>
+        <v>INSERT INTO movie_casts(id, movie_id, actor_id, casting_type_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'Notting Hill' AND duration = '2:04'), (SELECT id FROM actors WHERE first_name = 'Julia' AND last_name = 'Roberts'), (SELECT id FROM casting_types WHERE cast_type = 'Lead'), now(), now());</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
@@ -19593,7 +19596,7 @@
       </c>
       <c r="G47" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO movie_casts(id, movie_id, actor_id, casting_type_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'Pretty Woman' AND duration = '1:59'), (SELECT id FROM actors WHERE first_name = 'Julia' AND last_name = 'Roberts'), Lead, now(), now());</v>
+        <v>INSERT INTO movie_casts(id, movie_id, actor_id, casting_type_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'Pretty Woman' AND duration = '1:59'), (SELECT id FROM actors WHERE first_name = 'Julia' AND last_name = 'Roberts'), (SELECT id FROM casting_types WHERE cast_type = 'Lead'), now(), now());</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
@@ -19619,7 +19622,7 @@
       </c>
       <c r="G48" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO movie_casts(id, movie_id, actor_id, casting_type_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'Pretty Woman' AND duration = '1:59'), (SELECT id FROM actors WHERE first_name = 'Richard' AND last_name = 'Gere'), Lead, now(), now());</v>
+        <v>INSERT INTO movie_casts(id, movie_id, actor_id, casting_type_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'Pretty Woman' AND duration = '1:59'), (SELECT id FROM actors WHERE first_name = 'Richard' AND last_name = 'Gere'), (SELECT id FROM casting_types WHERE cast_type = 'Lead'), now(), now());</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
@@ -19645,7 +19648,7 @@
       </c>
       <c r="G49" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO movie_casts(id, movie_id, actor_id, casting_type_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'Say Anything' AND duration = '1:40'), (SELECT id FROM actors WHERE first_name = 'John' AND last_name = 'Cusack'), Lead, now(), now());</v>
+        <v>INSERT INTO movie_casts(id, movie_id, actor_id, casting_type_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'Say Anything' AND duration = '1:40'), (SELECT id FROM actors WHERE first_name = 'John' AND last_name = 'Cusack'), (SELECT id FROM casting_types WHERE cast_type = 'Lead'), now(), now());</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
@@ -19671,7 +19674,7 @@
       </c>
       <c r="G50" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO movie_casts(id, movie_id, actor_id, casting_type_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'Say Anything' AND duration = '1:40'), (SELECT id FROM actors WHERE first_name = 'Ione' AND last_name = 'Skye'), Lead, now(), now());</v>
+        <v>INSERT INTO movie_casts(id, movie_id, actor_id, casting_type_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'Say Anything' AND duration = '1:40'), (SELECT id FROM actors WHERE first_name = 'Ione' AND last_name = 'Skye'), (SELECT id FROM casting_types WHERE cast_type = 'Lead'), now(), now());</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
@@ -19697,7 +19700,7 @@
       </c>
       <c r="G51" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO movie_casts(id, movie_id, actor_id, casting_type_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'Titanic' AND duration = '3:14'), (SELECT id FROM actors WHERE first_name = 'Leonardo' AND last_name = 'DiCaprio'), Lead, now(), now());</v>
+        <v>INSERT INTO movie_casts(id, movie_id, actor_id, casting_type_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'Titanic' AND duration = '3:14'), (SELECT id FROM actors WHERE first_name = 'Leonardo' AND last_name = 'DiCaprio'), (SELECT id FROM casting_types WHERE cast_type = 'Lead'), now(), now());</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
@@ -19723,7 +19726,7 @@
       </c>
       <c r="G52" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO movie_casts(id, movie_id, actor_id, casting_type_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'Titanic' AND duration = '3:14'), (SELECT id FROM actors WHERE first_name = 'Kate' AND last_name = 'Winslet'), Lead, now(), now());</v>
+        <v>INSERT INTO movie_casts(id, movie_id, actor_id, casting_type_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'Titanic' AND duration = '3:14'), (SELECT id FROM actors WHERE first_name = 'Kate' AND last_name = 'Winslet'), (SELECT id FROM casting_types WHERE cast_type = 'Lead'), now(), now());</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
@@ -19749,7 +19752,7 @@
       </c>
       <c r="G53" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO movie_casts(id, movie_id, actor_id, casting_type_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'Titanic' AND duration = '3:14'), (SELECT id FROM actors WHERE first_name = 'Billy' AND last_name = 'Zane'), Support, now(), now());</v>
+        <v>INSERT INTO movie_casts(id, movie_id, actor_id, casting_type_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'Titanic' AND duration = '3:14'), (SELECT id FROM actors WHERE first_name = 'Billy' AND last_name = 'Zane'), (SELECT id FROM casting_types WHERE cast_type = 'Support'), now(), now());</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
@@ -19775,7 +19778,7 @@
       </c>
       <c r="G54" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO movie_casts(id, movie_id, actor_id, casting_type_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'P.S. I Love You' AND duration = '2:06'), (SELECT id FROM actors WHERE first_name = 'Hilary' AND last_name = 'Swank'), Lead, now(), now());</v>
+        <v>INSERT INTO movie_casts(id, movie_id, actor_id, casting_type_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'P.S. I Love You' AND duration = '2:06'), (SELECT id FROM actors WHERE first_name = 'Hilary' AND last_name = 'Swank'), (SELECT id FROM casting_types WHERE cast_type = 'Lead'), now(), now());</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
@@ -19801,7 +19804,7 @@
       </c>
       <c r="G55" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO movie_casts(id, movie_id, actor_id, casting_type_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'P.S. I Love You' AND duration = '2:06'), (SELECT id FROM actors WHERE first_name = 'Gerard' AND last_name = 'Butler'), Lead, now(), now());</v>
+        <v>INSERT INTO movie_casts(id, movie_id, actor_id, casting_type_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'P.S. I Love You' AND duration = '2:06'), (SELECT id FROM actors WHERE first_name = 'Gerard' AND last_name = 'Butler'), (SELECT id FROM casting_types WHERE cast_type = 'Lead'), now(), now());</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
@@ -19827,7 +19830,7 @@
       </c>
       <c r="G56" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO movie_casts(id, movie_id, actor_id, casting_type_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'Legends of the Fall' AND duration = '2:13'), (SELECT id FROM actors WHERE first_name = 'Brad' AND last_name = 'Pitt'), Lead, now(), now());</v>
+        <v>INSERT INTO movie_casts(id, movie_id, actor_id, casting_type_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'Legends of the Fall' AND duration = '2:13'), (SELECT id FROM actors WHERE first_name = 'Brad' AND last_name = 'Pitt'), (SELECT id FROM casting_types WHERE cast_type = 'Lead'), now(), now());</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
@@ -19853,7 +19856,7 @@
       </c>
       <c r="G57" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO movie_casts(id, movie_id, actor_id, casting_type_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'Legends of the Fall' AND duration = '2:13'), (SELECT id FROM actors WHERE first_name = 'Anthony' AND last_name = 'Hopkins'), Lead, now(), now());</v>
+        <v>INSERT INTO movie_casts(id, movie_id, actor_id, casting_type_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'Legends of the Fall' AND duration = '2:13'), (SELECT id FROM actors WHERE first_name = 'Anthony' AND last_name = 'Hopkins'), (SELECT id FROM casting_types WHERE cast_type = 'Lead'), now(), now());</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
@@ -19879,7 +19882,7 @@
       </c>
       <c r="G58" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO movie_casts(id, movie_id, actor_id, casting_type_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'Legends of the Fall' AND duration = '2:13'), (SELECT id FROM actors WHERE first_name = 'Aidan' AND last_name = 'Quinn'), Lead, now(), now());</v>
+        <v>INSERT INTO movie_casts(id, movie_id, actor_id, casting_type_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'Legends of the Fall' AND duration = '2:13'), (SELECT id FROM actors WHERE first_name = 'Aidan' AND last_name = 'Quinn'), (SELECT id FROM casting_types WHERE cast_type = 'Lead'), now(), now());</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
@@ -19905,7 +19908,7 @@
       </c>
       <c r="G59" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO movie_casts(id, movie_id, actor_id, casting_type_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'Troy' AND duration = '2:43'), (SELECT id FROM actors WHERE first_name = 'Brad' AND last_name = 'Pitt'), Lead, now(), now());</v>
+        <v>INSERT INTO movie_casts(id, movie_id, actor_id, casting_type_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'Troy' AND duration = '2:43'), (SELECT id FROM actors WHERE first_name = 'Brad' AND last_name = 'Pitt'), (SELECT id FROM casting_types WHERE cast_type = 'Lead'), now(), now());</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
@@ -19931,7 +19934,7 @@
       </c>
       <c r="G60" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO movie_casts(id, movie_id, actor_id, casting_type_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'Troy' AND duration = '2:43'), (SELECT id FROM actors WHERE first_name = 'Eric' AND last_name = 'Bana'), Lead, now(), now());</v>
+        <v>INSERT INTO movie_casts(id, movie_id, actor_id, casting_type_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'Troy' AND duration = '2:43'), (SELECT id FROM actors WHERE first_name = 'Eric' AND last_name = 'Bana'), (SELECT id FROM casting_types WHERE cast_type = 'Lead'), now(), now());</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
@@ -19957,7 +19960,7 @@
       </c>
       <c r="G61" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO movie_casts(id, movie_id, actor_id, casting_type_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'Troy' AND duration = '2:43'), (SELECT id FROM actors WHERE first_name = 'Orlando' AND last_name = 'Bloom'), Lead, now(), now());</v>
+        <v>INSERT INTO movie_casts(id, movie_id, actor_id, casting_type_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'Troy' AND duration = '2:43'), (SELECT id FROM actors WHERE first_name = 'Orlando' AND last_name = 'Bloom'), (SELECT id FROM casting_types WHERE cast_type = 'Lead'), now(), now());</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
@@ -19983,7 +19986,7 @@
       </c>
       <c r="G62" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO movie_casts(id, movie_id, actor_id, casting_type_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'Se7en' AND duration = '2:07'), (SELECT id FROM actors WHERE first_name = 'Morgan' AND last_name = 'Freeman'), Lead, now(), now());</v>
+        <v>INSERT INTO movie_casts(id, movie_id, actor_id, casting_type_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'Se7en' AND duration = '2:07'), (SELECT id FROM actors WHERE first_name = 'Morgan' AND last_name = 'Freeman'), (SELECT id FROM casting_types WHERE cast_type = 'Lead'), now(), now());</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
@@ -20009,7 +20012,7 @@
       </c>
       <c r="G63" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO movie_casts(id, movie_id, actor_id, casting_type_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'Se7en' AND duration = '2:07'), (SELECT id FROM actors WHERE first_name = 'Brad' AND last_name = 'Pitt'), Lead, now(), now());</v>
+        <v>INSERT INTO movie_casts(id, movie_id, actor_id, casting_type_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'Se7en' AND duration = '2:07'), (SELECT id FROM actors WHERE first_name = 'Brad' AND last_name = 'Pitt'), (SELECT id FROM casting_types WHERE cast_type = 'Lead'), now(), now());</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
@@ -20035,7 +20038,7 @@
       </c>
       <c r="G64" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO movie_casts(id, movie_id, actor_id, casting_type_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'Se7en' AND duration = '2:07'), (SELECT id FROM actors WHERE first_name = 'Kevin' AND last_name = 'Spacey'), Support, now(), now());</v>
+        <v>INSERT INTO movie_casts(id, movie_id, actor_id, casting_type_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'Se7en' AND duration = '2:07'), (SELECT id FROM actors WHERE first_name = 'Kevin' AND last_name = 'Spacey'), (SELECT id FROM casting_types WHERE cast_type = 'Support'), now(), now());</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
@@ -20061,7 +20064,7 @@
       </c>
       <c r="G65" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO movie_casts(id, movie_id, actor_id, casting_type_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'House of Flying Daggers' AND duration = '1:59'), (SELECT id FROM actors WHERE first_name = 'Ziyi' AND last_name = 'Zhang'), Lead, now(), now());</v>
+        <v>INSERT INTO movie_casts(id, movie_id, actor_id, casting_type_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'House of Flying Daggers' AND duration = '1:59'), (SELECT id FROM actors WHERE first_name = 'Ziyi' AND last_name = 'Zhang'), (SELECT id FROM casting_types WHERE cast_type = 'Lead'), now(), now());</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
@@ -20087,7 +20090,7 @@
       </c>
       <c r="G66" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO movie_casts(id, movie_id, actor_id, casting_type_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'House of Flying Daggers' AND duration = '1:59'), (SELECT id FROM actors WHERE first_name = 'Takeshi' AND last_name = 'Kaneshiro'), Lead, now(), now());</v>
+        <v>INSERT INTO movie_casts(id, movie_id, actor_id, casting_type_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'House of Flying Daggers' AND duration = '1:59'), (SELECT id FROM actors WHERE first_name = 'Takeshi' AND last_name = 'Kaneshiro'), (SELECT id FROM casting_types WHERE cast_type = 'Lead'), now(), now());</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
@@ -20112,8 +20115,8 @@
         <v>79</v>
       </c>
       <c r="G67" s="6" t="str">
-        <f t="shared" ref="G67:G130" si="1" xml:space="preserve"> "INSERT INTO movie_casts("&amp;A$1&amp;", "&amp;B$1&amp;", "&amp;C$1&amp;", "&amp;D$1&amp;", "&amp;E$1&amp;", "&amp;F$1&amp;") VALUES ("&amp;A67&amp;", "&amp;B67&amp;", "&amp;C67&amp;", "&amp;D67&amp;", "&amp;E67&amp;", "&amp;F67&amp;");"</f>
-        <v>INSERT INTO movie_casts(id, movie_id, actor_id, casting_type_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'House of Flying Daggers' AND duration = '1:59'), (SELECT id FROM actors WHERE first_name = 'Andy' AND last_name = 'Lau'), Lead, now(), now());</v>
+        <f t="shared" ref="G67:G130" si="1" xml:space="preserve"> "INSERT INTO movie_casts("&amp;A$1&amp;", "&amp;B$1&amp;", "&amp;C$1&amp;", "&amp;D$1&amp;", "&amp;E$1&amp;", "&amp;F$1&amp;") VALUES ("&amp;A67&amp;", "&amp;B67&amp;", "&amp;C67&amp;", (SELECT id FROM casting_types WHERE cast_type = '"&amp;D67&amp;"'), "&amp;E67&amp;", "&amp;F67&amp;");"</f>
+        <v>INSERT INTO movie_casts(id, movie_id, actor_id, casting_type_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'House of Flying Daggers' AND duration = '1:59'), (SELECT id FROM actors WHERE first_name = 'Andy' AND last_name = 'Lau'), (SELECT id FROM casting_types WHERE cast_type = 'Lead'), now(), now());</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
@@ -20139,7 +20142,7 @@
       </c>
       <c r="G68" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO movie_casts(id, movie_id, actor_id, casting_type_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'Hero' AND duration = '1:39'), (SELECT id FROM actors WHERE first_name = 'Jet' AND last_name = 'Li'), Lead, now(), now());</v>
+        <v>INSERT INTO movie_casts(id, movie_id, actor_id, casting_type_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'Hero' AND duration = '1:39'), (SELECT id FROM actors WHERE first_name = 'Jet' AND last_name = 'Li'), (SELECT id FROM casting_types WHERE cast_type = 'Lead'), now(), now());</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
@@ -20165,7 +20168,7 @@
       </c>
       <c r="G69" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO movie_casts(id, movie_id, actor_id, casting_type_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'Hero' AND duration = '1:39'), (SELECT id FROM actors WHERE first_name = 'Tony' AND last_name = 'Chiu Wai Leung'), Lead, now(), now());</v>
+        <v>INSERT INTO movie_casts(id, movie_id, actor_id, casting_type_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'Hero' AND duration = '1:39'), (SELECT id FROM actors WHERE first_name = 'Tony' AND last_name = 'Chiu Wai Leung'), (SELECT id FROM casting_types WHERE cast_type = 'Lead'), now(), now());</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
@@ -20191,7 +20194,7 @@
       </c>
       <c r="G70" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO movie_casts(id, movie_id, actor_id, casting_type_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'Hero' AND duration = '1:39'), (SELECT id FROM actors WHERE first_name = 'Maggie' AND last_name = 'Cheung'), Lead, now(), now());</v>
+        <v>INSERT INTO movie_casts(id, movie_id, actor_id, casting_type_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'Hero' AND duration = '1:39'), (SELECT id FROM actors WHERE first_name = 'Maggie' AND last_name = 'Cheung'), (SELECT id FROM casting_types WHERE cast_type = 'Lead'), now(), now());</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
@@ -20217,7 +20220,7 @@
       </c>
       <c r="G71" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO movie_casts(id, movie_id, actor_id, casting_type_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'Hero' AND duration = '1:39'), (SELECT id FROM actors WHERE first_name = 'Ziyi' AND last_name = 'Zhang'), Support, now(), now());</v>
+        <v>INSERT INTO movie_casts(id, movie_id, actor_id, casting_type_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'Hero' AND duration = '1:39'), (SELECT id FROM actors WHERE first_name = 'Ziyi' AND last_name = 'Zhang'), (SELECT id FROM casting_types WHERE cast_type = 'Support'), now(), now());</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
@@ -20243,7 +20246,7 @@
       </c>
       <c r="G72" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO movie_casts(id, movie_id, actor_id, casting_type_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'Red Cliff' AND duration = '1:28'), (SELECT id FROM actors WHERE first_name = 'Tony' AND last_name = 'Chiu Wai Leung'), Lead, now(), now());</v>
+        <v>INSERT INTO movie_casts(id, movie_id, actor_id, casting_type_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'Red Cliff' AND duration = '1:28'), (SELECT id FROM actors WHERE first_name = 'Tony' AND last_name = 'Chiu Wai Leung'), (SELECT id FROM casting_types WHERE cast_type = 'Lead'), now(), now());</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
@@ -20269,7 +20272,7 @@
       </c>
       <c r="G73" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO movie_casts(id, movie_id, actor_id, casting_type_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'Red Cliff' AND duration = '1:28'), (SELECT id FROM actors WHERE first_name = 'Takeshi' AND last_name = 'Kaneshiro'), Lead, now(), now());</v>
+        <v>INSERT INTO movie_casts(id, movie_id, actor_id, casting_type_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'Red Cliff' AND duration = '1:28'), (SELECT id FROM actors WHERE first_name = 'Takeshi' AND last_name = 'Kaneshiro'), (SELECT id FROM casting_types WHERE cast_type = 'Lead'), now(), now());</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
@@ -20295,7 +20298,7 @@
       </c>
       <c r="G74" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO movie_casts(id, movie_id, actor_id, casting_type_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'Red Cliff' AND duration = '1:28'), (SELECT id FROM actors WHERE first_name = 'Fengyi' AND last_name = 'Zhang'), Lead, now(), now());</v>
+        <v>INSERT INTO movie_casts(id, movie_id, actor_id, casting_type_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'Red Cliff' AND duration = '1:28'), (SELECT id FROM actors WHERE first_name = 'Fengyi' AND last_name = 'Zhang'), (SELECT id FROM casting_types WHERE cast_type = 'Lead'), now(), now());</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
@@ -20321,7 +20324,7 @@
       </c>
       <c r="G75" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO movie_casts(id, movie_id, actor_id, casting_type_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'Red Cliff II' AND duration = '1:39'), (SELECT id FROM actors WHERE first_name = 'Tony' AND last_name = 'Chiu Wai Leung'), Lead, now(), now());</v>
+        <v>INSERT INTO movie_casts(id, movie_id, actor_id, casting_type_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'Red Cliff II' AND duration = '1:39'), (SELECT id FROM actors WHERE first_name = 'Tony' AND last_name = 'Chiu Wai Leung'), (SELECT id FROM casting_types WHERE cast_type = 'Lead'), now(), now());</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
@@ -20347,7 +20350,7 @@
       </c>
       <c r="G76" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO movie_casts(id, movie_id, actor_id, casting_type_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'Red Cliff II' AND duration = '1:39'), (SELECT id FROM actors WHERE first_name = 'Takeshi' AND last_name = 'Kaneshiro'), Lead, now(), now());</v>
+        <v>INSERT INTO movie_casts(id, movie_id, actor_id, casting_type_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'Red Cliff II' AND duration = '1:39'), (SELECT id FROM actors WHERE first_name = 'Takeshi' AND last_name = 'Kaneshiro'), (SELECT id FROM casting_types WHERE cast_type = 'Lead'), now(), now());</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
@@ -20373,7 +20376,7 @@
       </c>
       <c r="G77" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO movie_casts(id, movie_id, actor_id, casting_type_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'Red Cliff II' AND duration = '1:39'), (SELECT id FROM actors WHERE first_name = 'Fengyi' AND last_name = 'Zhang'), Lead, now(), now());</v>
+        <v>INSERT INTO movie_casts(id, movie_id, actor_id, casting_type_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'Red Cliff II' AND duration = '1:39'), (SELECT id FROM actors WHERE first_name = 'Fengyi' AND last_name = 'Zhang'), (SELECT id FROM casting_types WHERE cast_type = 'Lead'), now(), now());</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
@@ -20399,7 +20402,7 @@
       </c>
       <c r="G78" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO movie_casts(id, movie_id, actor_id, casting_type_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'The Terminator' AND duration = '1:47'), (SELECT id FROM actors WHERE first_name = 'Arnold' AND last_name = 'Schwarzenegger'), Lead, now(), now());</v>
+        <v>INSERT INTO movie_casts(id, movie_id, actor_id, casting_type_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'The Terminator' AND duration = '1:47'), (SELECT id FROM actors WHERE first_name = 'Arnold' AND last_name = 'Schwarzenegger'), (SELECT id FROM casting_types WHERE cast_type = 'Lead'), now(), now());</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
@@ -20425,7 +20428,7 @@
       </c>
       <c r="G79" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO movie_casts(id, movie_id, actor_id, casting_type_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'The Terminator' AND duration = '1:47'), (SELECT id FROM actors WHERE first_name = 'Linda' AND last_name = 'Hamilton'), Lead, now(), now());</v>
+        <v>INSERT INTO movie_casts(id, movie_id, actor_id, casting_type_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'The Terminator' AND duration = '1:47'), (SELECT id FROM actors WHERE first_name = 'Linda' AND last_name = 'Hamilton'), (SELECT id FROM casting_types WHERE cast_type = 'Lead'), now(), now());</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
@@ -20451,7 +20454,7 @@
       </c>
       <c r="G80" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO movie_casts(id, movie_id, actor_id, casting_type_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'The Terminator' AND duration = '1:47'), (SELECT id FROM actors WHERE first_name = 'Michael' AND last_name = 'Biehn'), Support, now(), now());</v>
+        <v>INSERT INTO movie_casts(id, movie_id, actor_id, casting_type_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'The Terminator' AND duration = '1:47'), (SELECT id FROM actors WHERE first_name = 'Michael' AND last_name = 'Biehn'), (SELECT id FROM casting_types WHERE cast_type = 'Support'), now(), now());</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
@@ -20477,7 +20480,7 @@
       </c>
       <c r="G81" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO movie_casts(id, movie_id, actor_id, casting_type_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'Alien' AND duration = '1:57'), (SELECT id FROM actors WHERE first_name = 'Sigourney' AND last_name = 'Weaver'), Lead, now(), now());</v>
+        <v>INSERT INTO movie_casts(id, movie_id, actor_id, casting_type_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'Alien' AND duration = '1:57'), (SELECT id FROM actors WHERE first_name = 'Sigourney' AND last_name = 'Weaver'), (SELECT id FROM casting_types WHERE cast_type = 'Lead'), now(), now());</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
@@ -20503,7 +20506,7 @@
       </c>
       <c r="G82" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO movie_casts(id, movie_id, actor_id, casting_type_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'Alien' AND duration = '1:57'), (SELECT id FROM actors WHERE first_name = 'Tom' AND last_name = 'Skerritt'), Support, now(), now());</v>
+        <v>INSERT INTO movie_casts(id, movie_id, actor_id, casting_type_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'Alien' AND duration = '1:57'), (SELECT id FROM actors WHERE first_name = 'Tom' AND last_name = 'Skerritt'), (SELECT id FROM casting_types WHERE cast_type = 'Support'), now(), now());</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
@@ -20529,7 +20532,7 @@
       </c>
       <c r="G83" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO movie_casts(id, movie_id, actor_id, casting_type_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'Alien' AND duration = '1:57'), (SELECT id FROM actors WHERE first_name = 'John' AND last_name = 'Hurt'), Support, now(), now());</v>
+        <v>INSERT INTO movie_casts(id, movie_id, actor_id, casting_type_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'Alien' AND duration = '1:57'), (SELECT id FROM actors WHERE first_name = 'John' AND last_name = 'Hurt'), (SELECT id FROM casting_types WHERE cast_type = 'Support'), now(), now());</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
@@ -20555,7 +20558,7 @@
       </c>
       <c r="G84" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO movie_casts(id, movie_id, actor_id, casting_type_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'Prometheus' AND duration = '2:04'), (SELECT id FROM actors WHERE first_name = 'Noomi' AND last_name = 'Rapace'), Lead, now(), now());</v>
+        <v>INSERT INTO movie_casts(id, movie_id, actor_id, casting_type_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'Prometheus' AND duration = '2:04'), (SELECT id FROM actors WHERE first_name = 'Noomi' AND last_name = 'Rapace'), (SELECT id FROM casting_types WHERE cast_type = 'Lead'), now(), now());</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
@@ -20581,7 +20584,7 @@
       </c>
       <c r="G85" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO movie_casts(id, movie_id, actor_id, casting_type_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'Prometheus' AND duration = '2:04'), (SELECT id FROM actors WHERE first_name = 'Logan' AND last_name = 'Marshall-Green'), Lead, now(), now());</v>
+        <v>INSERT INTO movie_casts(id, movie_id, actor_id, casting_type_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'Prometheus' AND duration = '2:04'), (SELECT id FROM actors WHERE first_name = 'Logan' AND last_name = 'Marshall-Green'), (SELECT id FROM casting_types WHERE cast_type = 'Lead'), now(), now());</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
@@ -20607,7 +20610,7 @@
       </c>
       <c r="G86" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO movie_casts(id, movie_id, actor_id, casting_type_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'Prometheus' AND duration = '2:04'), (SELECT id FROM actors WHERE first_name = 'Michael' AND last_name = 'Fassbender'), Lead, now(), now());</v>
+        <v>INSERT INTO movie_casts(id, movie_id, actor_id, casting_type_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'Prometheus' AND duration = '2:04'), (SELECT id FROM actors WHERE first_name = 'Michael' AND last_name = 'Fassbender'), (SELECT id FROM casting_types WHERE cast_type = 'Lead'), now(), now());</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
@@ -20633,7 +20636,7 @@
       </c>
       <c r="G87" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO movie_casts(id, movie_id, actor_id, casting_type_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'Prometheus' AND duration = '2:04'), (SELECT id FROM actors WHERE first_name = 'Charlize' AND last_name = 'Theron'), Lead, now(), now());</v>
+        <v>INSERT INTO movie_casts(id, movie_id, actor_id, casting_type_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'Prometheus' AND duration = '2:04'), (SELECT id FROM actors WHERE first_name = 'Charlize' AND last_name = 'Theron'), (SELECT id FROM casting_types WHERE cast_type = 'Lead'), now(), now());</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
@@ -20659,7 +20662,7 @@
       </c>
       <c r="G88" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO movie_casts(id, movie_id, actor_id, casting_type_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'Sphere' AND duration = '2:14'), (SELECT id FROM actors WHERE first_name = 'Dustin' AND last_name = 'Hoffman'), Lead, now(), now());</v>
+        <v>INSERT INTO movie_casts(id, movie_id, actor_id, casting_type_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'Sphere' AND duration = '2:14'), (SELECT id FROM actors WHERE first_name = 'Dustin' AND last_name = 'Hoffman'), (SELECT id FROM casting_types WHERE cast_type = 'Lead'), now(), now());</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
@@ -20685,7 +20688,7 @@
       </c>
       <c r="G89" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO movie_casts(id, movie_id, actor_id, casting_type_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'Sphere' AND duration = '2:14'), (SELECT id FROM actors WHERE first_name = 'Sharon' AND last_name = 'Stone'), Support, now(), now());</v>
+        <v>INSERT INTO movie_casts(id, movie_id, actor_id, casting_type_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'Sphere' AND duration = '2:14'), (SELECT id FROM actors WHERE first_name = 'Sharon' AND last_name = 'Stone'), (SELECT id FROM casting_types WHERE cast_type = 'Support'), now(), now());</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
@@ -20711,7 +20714,7 @@
       </c>
       <c r="G90" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO movie_casts(id, movie_id, actor_id, casting_type_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'Sphere' AND duration = '2:14'), (SELECT id FROM actors WHERE first_name = 'Samuel L.' AND last_name = 'Jackson'), Support, now(), now());</v>
+        <v>INSERT INTO movie_casts(id, movie_id, actor_id, casting_type_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'Sphere' AND duration = '2:14'), (SELECT id FROM actors WHERE first_name = 'Samuel L.' AND last_name = 'Jackson'), (SELECT id FROM casting_types WHERE cast_type = 'Support'), now(), now());</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
@@ -20737,7 +20740,7 @@
       </c>
       <c r="G91" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO movie_casts(id, movie_id, actor_id, casting_type_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'Star Wars: Episode IV – A New Hope' AND duration = '2:01'), (SELECT id FROM actors WHERE first_name = 'Mark' AND last_name = 'Hamill'), Lead, now(), now());</v>
+        <v>INSERT INTO movie_casts(id, movie_id, actor_id, casting_type_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'Star Wars: Episode IV – A New Hope' AND duration = '2:01'), (SELECT id FROM actors WHERE first_name = 'Mark' AND last_name = 'Hamill'), (SELECT id FROM casting_types WHERE cast_type = 'Lead'), now(), now());</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
@@ -20763,7 +20766,7 @@
       </c>
       <c r="G92" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO movie_casts(id, movie_id, actor_id, casting_type_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'Star Wars: Episode IV – A New Hope' AND duration = '2:01'), (SELECT id FROM actors WHERE first_name = 'Harrison' AND last_name = 'Ford'), Lead, now(), now());</v>
+        <v>INSERT INTO movie_casts(id, movie_id, actor_id, casting_type_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'Star Wars: Episode IV – A New Hope' AND duration = '2:01'), (SELECT id FROM actors WHERE first_name = 'Harrison' AND last_name = 'Ford'), (SELECT id FROM casting_types WHERE cast_type = 'Lead'), now(), now());</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
@@ -20789,7 +20792,7 @@
       </c>
       <c r="G93" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO movie_casts(id, movie_id, actor_id, casting_type_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'Star Wars: Episode IV – A New Hope' AND duration = '2:01'), (SELECT id FROM actors WHERE first_name = 'Carrie' AND last_name = 'Fisher'), Lead, now(), now());</v>
+        <v>INSERT INTO movie_casts(id, movie_id, actor_id, casting_type_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'Star Wars: Episode IV – A New Hope' AND duration = '2:01'), (SELECT id FROM actors WHERE first_name = 'Carrie' AND last_name = 'Fisher'), (SELECT id FROM casting_types WHERE cast_type = 'Lead'), now(), now());</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
@@ -20815,7 +20818,7 @@
       </c>
       <c r="G94" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO movie_casts(id, movie_id, actor_id, casting_type_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'The Big Short' AND duration = '2:10'), (SELECT id FROM actors WHERE first_name = 'Christian' AND last_name = 'Bale'), Lead, now(), now());</v>
+        <v>INSERT INTO movie_casts(id, movie_id, actor_id, casting_type_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'The Big Short' AND duration = '2:10'), (SELECT id FROM actors WHERE first_name = 'Christian' AND last_name = 'Bale'), (SELECT id FROM casting_types WHERE cast_type = 'Lead'), now(), now());</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
@@ -20841,7 +20844,7 @@
       </c>
       <c r="G95" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO movie_casts(id, movie_id, actor_id, casting_type_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'The Big Short' AND duration = '2:10'), (SELECT id FROM actors WHERE first_name = 'Steve' AND last_name = 'Carell'), Lead, now(), now());</v>
+        <v>INSERT INTO movie_casts(id, movie_id, actor_id, casting_type_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'The Big Short' AND duration = '2:10'), (SELECT id FROM actors WHERE first_name = 'Steve' AND last_name = 'Carell'), (SELECT id FROM casting_types WHERE cast_type = 'Lead'), now(), now());</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
@@ -20867,7 +20870,7 @@
       </c>
       <c r="G96" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO movie_casts(id, movie_id, actor_id, casting_type_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'The Big Short' AND duration = '2:10'), (SELECT id FROM actors WHERE first_name = 'Ryan' AND last_name = 'Gosling'), Lead, now(), now());</v>
+        <v>INSERT INTO movie_casts(id, movie_id, actor_id, casting_type_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'The Big Short' AND duration = '2:10'), (SELECT id FROM actors WHERE first_name = 'Ryan' AND last_name = 'Gosling'), (SELECT id FROM casting_types WHERE cast_type = 'Lead'), now(), now());</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
@@ -20893,7 +20896,7 @@
       </c>
       <c r="G97" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO movie_casts(id, movie_id, actor_id, casting_type_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'The Big Short' AND duration = '2:10'), (SELECT id FROM actors WHERE first_name = 'Brad' AND last_name = 'Pitt'), Lead, now(), now());</v>
+        <v>INSERT INTO movie_casts(id, movie_id, actor_id, casting_type_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'The Big Short' AND duration = '2:10'), (SELECT id FROM actors WHERE first_name = 'Brad' AND last_name = 'Pitt'), (SELECT id FROM casting_types WHERE cast_type = 'Lead'), now(), now());</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
@@ -20919,7 +20922,7 @@
       </c>
       <c r="G98" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO movie_casts(id, movie_id, actor_id, casting_type_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'Shall We Dance?' AND duration = '2:16'), (SELECT id FROM actors WHERE first_name = 'Kouji' AND last_name = 'Yakusho'), Lead, now(), now());</v>
+        <v>INSERT INTO movie_casts(id, movie_id, actor_id, casting_type_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'Shall We Dance?' AND duration = '2:16'), (SELECT id FROM actors WHERE first_name = 'Kouji' AND last_name = 'Yakusho'), (SELECT id FROM casting_types WHERE cast_type = 'Lead'), now(), now());</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
@@ -20945,7 +20948,7 @@
       </c>
       <c r="G99" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO movie_casts(id, movie_id, actor_id, casting_type_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'Shall We Dance?' AND duration = '2:16'), (SELECT id FROM actors WHERE first_name = 'Tamiyo' AND last_name = 'Kusakari'), Lead, now(), now());</v>
+        <v>INSERT INTO movie_casts(id, movie_id, actor_id, casting_type_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'Shall We Dance?' AND duration = '2:16'), (SELECT id FROM actors WHERE first_name = 'Tamiyo' AND last_name = 'Kusakari'), (SELECT id FROM casting_types WHERE cast_type = 'Lead'), now(), now());</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
@@ -20971,7 +20974,7 @@
       </c>
       <c r="G100" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO movie_casts(id, movie_id, actor_id, casting_type_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'Shall We Dance?' AND duration = '1:44'), (SELECT id FROM actors WHERE first_name = 'Richard' AND last_name = 'Gere'), Lead, now(), now());</v>
+        <v>INSERT INTO movie_casts(id, movie_id, actor_id, casting_type_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'Shall We Dance?' AND duration = '1:44'), (SELECT id FROM actors WHERE first_name = 'Richard' AND last_name = 'Gere'), (SELECT id FROM casting_types WHERE cast_type = 'Lead'), now(), now());</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
@@ -20997,7 +21000,7 @@
       </c>
       <c r="G101" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO movie_casts(id, movie_id, actor_id, casting_type_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'Shall We Dance?' AND duration = '1:44'), (SELECT id FROM actors WHERE first_name = 'Jennifer' AND last_name = 'Lopez'), Lead, now(), now());</v>
+        <v>INSERT INTO movie_casts(id, movie_id, actor_id, casting_type_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'Shall We Dance?' AND duration = '1:44'), (SELECT id FROM actors WHERE first_name = 'Jennifer' AND last_name = 'Lopez'), (SELECT id FROM casting_types WHERE cast_type = 'Lead'), now(), now());</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
@@ -21023,7 +21026,7 @@
       </c>
       <c r="G102" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO movie_casts(id, movie_id, actor_id, casting_type_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'Shall We Dance?' AND duration = '1:44'), (SELECT id FROM actors WHERE first_name = 'Susan' AND last_name = 'Sarandon'), Support, now(), now());</v>
+        <v>INSERT INTO movie_casts(id, movie_id, actor_id, casting_type_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'Shall We Dance?' AND duration = '1:44'), (SELECT id FROM actors WHERE first_name = 'Susan' AND last_name = 'Sarandon'), (SELECT id FROM casting_types WHERE cast_type = 'Support'), now(), now());</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
@@ -21049,7 +21052,7 @@
       </c>
       <c r="G103" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO movie_casts(id, movie_id, actor_id, casting_type_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'Forrest Gump' AND duration = '2:22'), (SELECT id FROM actors WHERE first_name = 'Tom' AND last_name = 'Hanks'), Lead, now(), now());</v>
+        <v>INSERT INTO movie_casts(id, movie_id, actor_id, casting_type_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'Forrest Gump' AND duration = '2:22'), (SELECT id FROM actors WHERE first_name = 'Tom' AND last_name = 'Hanks'), (SELECT id FROM casting_types WHERE cast_type = 'Lead'), now(), now());</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
@@ -21075,7 +21078,7 @@
       </c>
       <c r="G104" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO movie_casts(id, movie_id, actor_id, casting_type_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'Forrest Gump' AND duration = '2:22'), (SELECT id FROM actors WHERE first_name = 'Robin' AND last_name = 'Wright'), Support, now(), now());</v>
+        <v>INSERT INTO movie_casts(id, movie_id, actor_id, casting_type_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'Forrest Gump' AND duration = '2:22'), (SELECT id FROM actors WHERE first_name = 'Robin' AND last_name = 'Wright'), (SELECT id FROM casting_types WHERE cast_type = 'Support'), now(), now());</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
@@ -21101,7 +21104,7 @@
       </c>
       <c r="G105" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO movie_casts(id, movie_id, actor_id, casting_type_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'Forrest Gump' AND duration = '2:22'), (SELECT id FROM actors WHERE first_name = 'Gary' AND last_name = 'Sinise'), Support, now(), now());</v>
+        <v>INSERT INTO movie_casts(id, movie_id, actor_id, casting_type_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'Forrest Gump' AND duration = '2:22'), (SELECT id FROM actors WHERE first_name = 'Gary' AND last_name = 'Sinise'), (SELECT id FROM casting_types WHERE cast_type = 'Support'), now(), now());</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
@@ -21127,7 +21130,7 @@
       </c>
       <c r="G106" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO movie_casts(id, movie_id, actor_id, casting_type_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'Les Miserables' AND duration = '2:38'), (SELECT id FROM actors WHERE first_name = 'Hugh' AND last_name = 'Jackman'), Lead, now(), now());</v>
+        <v>INSERT INTO movie_casts(id, movie_id, actor_id, casting_type_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'Les Miserables' AND duration = '2:38'), (SELECT id FROM actors WHERE first_name = 'Hugh' AND last_name = 'Jackman'), (SELECT id FROM casting_types WHERE cast_type = 'Lead'), now(), now());</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
@@ -21153,7 +21156,7 @@
       </c>
       <c r="G107" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO movie_casts(id, movie_id, actor_id, casting_type_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'Les Miserables' AND duration = '2:38'), (SELECT id FROM actors WHERE first_name = 'Russell' AND last_name = 'Crowe'), Lead, now(), now());</v>
+        <v>INSERT INTO movie_casts(id, movie_id, actor_id, casting_type_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'Les Miserables' AND duration = '2:38'), (SELECT id FROM actors WHERE first_name = 'Russell' AND last_name = 'Crowe'), (SELECT id FROM casting_types WHERE cast_type = 'Lead'), now(), now());</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
@@ -21179,7 +21182,7 @@
       </c>
       <c r="G108" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO movie_casts(id, movie_id, actor_id, casting_type_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'Les Miserables' AND duration = '2:38'), (SELECT id FROM actors WHERE first_name = 'Anne' AND last_name = 'Hathaway'), Lead, now(), now());</v>
+        <v>INSERT INTO movie_casts(id, movie_id, actor_id, casting_type_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'Les Miserables' AND duration = '2:38'), (SELECT id FROM actors WHERE first_name = 'Anne' AND last_name = 'Hathaway'), (SELECT id FROM casting_types WHERE cast_type = 'Lead'), now(), now());</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
@@ -21205,7 +21208,7 @@
       </c>
       <c r="G109" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO movie_casts(id, movie_id, actor_id, casting_type_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'Les Miserables' AND duration = '2:38'), (SELECT id FROM actors WHERE first_name = 'Amanda' AND last_name = 'Seyfried'), Lead, now(), now());</v>
+        <v>INSERT INTO movie_casts(id, movie_id, actor_id, casting_type_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'Les Miserables' AND duration = '2:38'), (SELECT id FROM actors WHERE first_name = 'Amanda' AND last_name = 'Seyfried'), (SELECT id FROM casting_types WHERE cast_type = 'Lead'), now(), now());</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
@@ -21231,7 +21234,7 @@
       </c>
       <c r="G110" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO movie_casts(id, movie_id, actor_id, casting_type_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'Les Miserables' AND duration = '2:38'), (SELECT id FROM actors WHERE first_name = 'Eddie' AND last_name = 'Redmayne'), Lead, now(), now());</v>
+        <v>INSERT INTO movie_casts(id, movie_id, actor_id, casting_type_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'Les Miserables' AND duration = '2:38'), (SELECT id FROM actors WHERE first_name = 'Eddie' AND last_name = 'Redmayne'), (SELECT id FROM casting_types WHERE cast_type = 'Lead'), now(), now());</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
@@ -21257,7 +21260,7 @@
       </c>
       <c r="G111" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO movie_casts(id, movie_id, actor_id, casting_type_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'Gattaca' AND duration = '1:46'), (SELECT id FROM actors WHERE first_name = 'Ethan' AND last_name = 'Hawke'), Lead, now(), now());</v>
+        <v>INSERT INTO movie_casts(id, movie_id, actor_id, casting_type_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'Gattaca' AND duration = '1:46'), (SELECT id FROM actors WHERE first_name = 'Ethan' AND last_name = 'Hawke'), (SELECT id FROM casting_types WHERE cast_type = 'Lead'), now(), now());</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
@@ -21283,7 +21286,7 @@
       </c>
       <c r="G112" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO movie_casts(id, movie_id, actor_id, casting_type_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'Gattaca' AND duration = '1:46'), (SELECT id FROM actors WHERE first_name = 'Uma' AND last_name = 'Thurman'), Support, now(), now());</v>
+        <v>INSERT INTO movie_casts(id, movie_id, actor_id, casting_type_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'Gattaca' AND duration = '1:46'), (SELECT id FROM actors WHERE first_name = 'Uma' AND last_name = 'Thurman'), (SELECT id FROM casting_types WHERE cast_type = 'Support'), now(), now());</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
@@ -21309,7 +21312,7 @@
       </c>
       <c r="G113" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO movie_casts(id, movie_id, actor_id, casting_type_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'Gattaca' AND duration = '1:46'), (SELECT id FROM actors WHERE first_name = 'Jude' AND last_name = 'Law'), Support, now(), now());</v>
+        <v>INSERT INTO movie_casts(id, movie_id, actor_id, casting_type_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'Gattaca' AND duration = '1:46'), (SELECT id FROM actors WHERE first_name = 'Jude' AND last_name = 'Law'), (SELECT id FROM casting_types WHERE cast_type = 'Support'), now(), now());</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
@@ -21335,7 +21338,7 @@
       </c>
       <c r="G114" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO movie_casts(id, movie_id, actor_id, casting_type_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'Larry Crowne' AND duration = '1:38'), (SELECT id FROM actors WHERE first_name = 'Tom' AND last_name = 'Hanks'), Lead, now(), now());</v>
+        <v>INSERT INTO movie_casts(id, movie_id, actor_id, casting_type_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'Larry Crowne' AND duration = '1:38'), (SELECT id FROM actors WHERE first_name = 'Tom' AND last_name = 'Hanks'), (SELECT id FROM casting_types WHERE cast_type = 'Lead'), now(), now());</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
@@ -21361,7 +21364,7 @@
       </c>
       <c r="G115" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO movie_casts(id, movie_id, actor_id, casting_type_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'Larry Crowne' AND duration = '1:38'), (SELECT id FROM actors WHERE first_name = 'Julia' AND last_name = 'Roberts'), Support, now(), now());</v>
+        <v>INSERT INTO movie_casts(id, movie_id, actor_id, casting_type_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'Larry Crowne' AND duration = '1:38'), (SELECT id FROM actors WHERE first_name = 'Julia' AND last_name = 'Roberts'), (SELECT id FROM casting_types WHERE cast_type = 'Support'), now(), now());</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
@@ -21387,7 +21390,7 @@
       </c>
       <c r="G116" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO movie_casts(id, movie_id, actor_id, casting_type_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'Larry Crowne' AND duration = '1:38'), (SELECT id FROM actors WHERE first_name = 'Sarah' AND last_name = 'Mahoney'), Support, now(), now());</v>
+        <v>INSERT INTO movie_casts(id, movie_id, actor_id, casting_type_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'Larry Crowne' AND duration = '1:38'), (SELECT id FROM actors WHERE first_name = 'Sarah' AND last_name = 'Mahoney'), (SELECT id FROM casting_types WHERE cast_type = 'Support'), now(), now());</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
@@ -21413,7 +21416,7 @@
       </c>
       <c r="G117" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO movie_casts(id, movie_id, actor_id, casting_type_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'Up' AND duration = '1:36'), (SELECT id FROM actors WHERE first_name = 'Edward' AND last_name = 'Asner'), Lead, now(), now());</v>
+        <v>INSERT INTO movie_casts(id, movie_id, actor_id, casting_type_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'Up' AND duration = '1:36'), (SELECT id FROM actors WHERE first_name = 'Edward' AND last_name = 'Asner'), (SELECT id FROM casting_types WHERE cast_type = 'Lead'), now(), now());</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
@@ -21439,7 +21442,7 @@
       </c>
       <c r="G118" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO movie_casts(id, movie_id, actor_id, casting_type_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'Up' AND duration = '1:36'), (SELECT id FROM actors WHERE first_name = 'Jordan' AND last_name = 'Nagai'), Lead, now(), now());</v>
+        <v>INSERT INTO movie_casts(id, movie_id, actor_id, casting_type_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'Up' AND duration = '1:36'), (SELECT id FROM actors WHERE first_name = 'Jordan' AND last_name = 'Nagai'), (SELECT id FROM casting_types WHERE cast_type = 'Lead'), now(), now());</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
@@ -21465,7 +21468,7 @@
       </c>
       <c r="G119" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO movie_casts(id, movie_id, actor_id, casting_type_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'Toy Story' AND duration = '1:21'), (SELECT id FROM actors WHERE first_name = 'Tom' AND last_name = 'Hanks'), Lead, now(), now());</v>
+        <v>INSERT INTO movie_casts(id, movie_id, actor_id, casting_type_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'Toy Story' AND duration = '1:21'), (SELECT id FROM actors WHERE first_name = 'Tom' AND last_name = 'Hanks'), (SELECT id FROM casting_types WHERE cast_type = 'Lead'), now(), now());</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
@@ -21491,7 +21494,7 @@
       </c>
       <c r="G120" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO movie_casts(id, movie_id, actor_id, casting_type_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'Toy Story' AND duration = '1:21'), (SELECT id FROM actors WHERE first_name = 'Tim' AND last_name = 'Allen'), Lead, now(), now());</v>
+        <v>INSERT INTO movie_casts(id, movie_id, actor_id, casting_type_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'Toy Story' AND duration = '1:21'), (SELECT id FROM actors WHERE first_name = 'Tim' AND last_name = 'Allen'), (SELECT id FROM casting_types WHERE cast_type = 'Lead'), now(), now());</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
@@ -21517,7 +21520,7 @@
       </c>
       <c r="G121" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO movie_casts(id, movie_id, actor_id, casting_type_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'Toy Story' AND duration = '1:21'), (SELECT id FROM actors WHERE first_name = 'Don' AND last_name = 'Rickles'), Support, now(), now());</v>
+        <v>INSERT INTO movie_casts(id, movie_id, actor_id, casting_type_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'Toy Story' AND duration = '1:21'), (SELECT id FROM actors WHERE first_name = 'Don' AND last_name = 'Rickles'), (SELECT id FROM casting_types WHERE cast_type = 'Support'), now(), now());</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
@@ -21543,7 +21546,7 @@
       </c>
       <c r="G122" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO movie_casts(id, movie_id, actor_id, casting_type_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'Star Trek: Into Darkness' AND duration = '2:12'), (SELECT id FROM actors WHERE first_name = 'Chris' AND last_name = 'Pine'), Lead, now(), now());</v>
+        <v>INSERT INTO movie_casts(id, movie_id, actor_id, casting_type_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'Star Trek: Into Darkness' AND duration = '2:12'), (SELECT id FROM actors WHERE first_name = 'Chris' AND last_name = 'Pine'), (SELECT id FROM casting_types WHERE cast_type = 'Lead'), now(), now());</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
@@ -21569,7 +21572,7 @@
       </c>
       <c r="G123" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO movie_casts(id, movie_id, actor_id, casting_type_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'Star Trek: Into Darkness' AND duration = '2:12'), (SELECT id FROM actors WHERE first_name = 'Zachary' AND last_name = 'Quinto'), Lead, now(), now());</v>
+        <v>INSERT INTO movie_casts(id, movie_id, actor_id, casting_type_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'Star Trek: Into Darkness' AND duration = '2:12'), (SELECT id FROM actors WHERE first_name = 'Zachary' AND last_name = 'Quinto'), (SELECT id FROM casting_types WHERE cast_type = 'Lead'), now(), now());</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
@@ -21595,7 +21598,7 @@
       </c>
       <c r="G124" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO movie_casts(id, movie_id, actor_id, casting_type_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'Star Trek: Into Darkness' AND duration = '2:12'), (SELECT id FROM actors WHERE first_name = 'Zoe' AND last_name = 'Saldana'), Support, now(), now());</v>
+        <v>INSERT INTO movie_casts(id, movie_id, actor_id, casting_type_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'Star Trek: Into Darkness' AND duration = '2:12'), (SELECT id FROM actors WHERE first_name = 'Zoe' AND last_name = 'Saldana'), (SELECT id FROM casting_types WHERE cast_type = 'Support'), now(), now());</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
@@ -21621,7 +21624,7 @@
       </c>
       <c r="G125" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO movie_casts(id, movie_id, actor_id, casting_type_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'Star Trek: Into Darkness' AND duration = '2:12'), (SELECT id FROM actors WHERE first_name = 'Benedict' AND last_name = 'Cucumber'), Lead, now(), now());</v>
+        <v>INSERT INTO movie_casts(id, movie_id, actor_id, casting_type_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'Star Trek: Into Darkness' AND duration = '2:12'), (SELECT id FROM actors WHERE first_name = 'Benedict' AND last_name = 'Cucumber'), (SELECT id FROM casting_types WHERE cast_type = 'Lead'), now(), now());</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
@@ -21647,7 +21650,7 @@
       </c>
       <c r="G126" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO movie_casts(id, movie_id, actor_id, casting_type_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'Batman Begins' AND duration = '2:20'), (SELECT id FROM actors WHERE first_name = 'Christian' AND last_name = 'Bale'), Lead, now(), now());</v>
+        <v>INSERT INTO movie_casts(id, movie_id, actor_id, casting_type_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'Batman Begins' AND duration = '2:20'), (SELECT id FROM actors WHERE first_name = 'Christian' AND last_name = 'Bale'), (SELECT id FROM casting_types WHERE cast_type = 'Lead'), now(), now());</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
@@ -21673,7 +21676,7 @@
       </c>
       <c r="G127" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO movie_casts(id, movie_id, actor_id, casting_type_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'Batman Begins' AND duration = '2:20'), (SELECT id FROM actors WHERE first_name = 'Michael' AND last_name = 'Caine'), Support, now(), now());</v>
+        <v>INSERT INTO movie_casts(id, movie_id, actor_id, casting_type_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'Batman Begins' AND duration = '2:20'), (SELECT id FROM actors WHERE first_name = 'Michael' AND last_name = 'Caine'), (SELECT id FROM casting_types WHERE cast_type = 'Support'), now(), now());</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
@@ -21699,7 +21702,7 @@
       </c>
       <c r="G128" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO movie_casts(id, movie_id, actor_id, casting_type_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'Batman Begins' AND duration = '2:20'), (SELECT id FROM actors WHERE first_name = 'Katie' AND last_name = 'Holmes'), Support, now(), now());</v>
+        <v>INSERT INTO movie_casts(id, movie_id, actor_id, casting_type_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'Batman Begins' AND duration = '2:20'), (SELECT id FROM actors WHERE first_name = 'Katie' AND last_name = 'Holmes'), (SELECT id FROM casting_types WHERE cast_type = 'Support'), now(), now());</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
@@ -21725,7 +21728,7 @@
       </c>
       <c r="G129" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO movie_casts(id, movie_id, actor_id, casting_type_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'Batman Begins' AND duration = '2:20'), (SELECT id FROM actors WHERE first_name = 'Liam' AND last_name = 'Neeson'), Support, now(), now());</v>
+        <v>INSERT INTO movie_casts(id, movie_id, actor_id, casting_type_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'Batman Begins' AND duration = '2:20'), (SELECT id FROM actors WHERE first_name = 'Liam' AND last_name = 'Neeson'), (SELECT id FROM casting_types WHERE cast_type = 'Support'), now(), now());</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
@@ -21751,7 +21754,7 @@
       </c>
       <c r="G130" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO movie_casts(id, movie_id, actor_id, casting_type_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'Bridge of Spies' AND duration = '2:22'), (SELECT id FROM actors WHERE first_name = 'Tom' AND last_name = 'Hanks'), Lead, now(), now());</v>
+        <v>INSERT INTO movie_casts(id, movie_id, actor_id, casting_type_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'Bridge of Spies' AND duration = '2:22'), (SELECT id FROM actors WHERE first_name = 'Tom' AND last_name = 'Hanks'), (SELECT id FROM casting_types WHERE cast_type = 'Lead'), now(), now());</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
@@ -21776,8 +21779,8 @@
         <v>79</v>
       </c>
       <c r="G131" s="6" t="str">
-        <f t="shared" ref="G131:G144" si="2" xml:space="preserve"> "INSERT INTO movie_casts("&amp;A$1&amp;", "&amp;B$1&amp;", "&amp;C$1&amp;", "&amp;D$1&amp;", "&amp;E$1&amp;", "&amp;F$1&amp;") VALUES ("&amp;A131&amp;", "&amp;B131&amp;", "&amp;C131&amp;", "&amp;D131&amp;", "&amp;E131&amp;", "&amp;F131&amp;");"</f>
-        <v>INSERT INTO movie_casts(id, movie_id, actor_id, casting_type_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'Bridge of Spies' AND duration = '2:22'), (SELECT id FROM actors WHERE first_name = 'Mark' AND last_name = 'Rylance'), Support, now(), now());</v>
+        <f t="shared" ref="G131:G144" si="2" xml:space="preserve"> "INSERT INTO movie_casts("&amp;A$1&amp;", "&amp;B$1&amp;", "&amp;C$1&amp;", "&amp;D$1&amp;", "&amp;E$1&amp;", "&amp;F$1&amp;") VALUES ("&amp;A131&amp;", "&amp;B131&amp;", "&amp;C131&amp;", (SELECT id FROM casting_types WHERE cast_type = '"&amp;D131&amp;"'), "&amp;E131&amp;", "&amp;F131&amp;");"</f>
+        <v>INSERT INTO movie_casts(id, movie_id, actor_id, casting_type_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'Bridge of Spies' AND duration = '2:22'), (SELECT id FROM actors WHERE first_name = 'Mark' AND last_name = 'Rylance'), (SELECT id FROM casting_types WHERE cast_type = 'Support'), now(), now());</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
@@ -21803,7 +21806,7 @@
       </c>
       <c r="G132" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO movie_casts(id, movie_id, actor_id, casting_type_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'Bridge of Spies' AND duration = '2:22'), (SELECT id FROM actors WHERE first_name = 'Amy' AND last_name = 'Ryan'), Support, now(), now());</v>
+        <v>INSERT INTO movie_casts(id, movie_id, actor_id, casting_type_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'Bridge of Spies' AND duration = '2:22'), (SELECT id FROM actors WHERE first_name = 'Amy' AND last_name = 'Ryan'), (SELECT id FROM casting_types WHERE cast_type = 'Support'), now(), now());</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
@@ -21829,7 +21832,7 @@
       </c>
       <c r="G133" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO movie_casts(id, movie_id, actor_id, casting_type_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'Avatar' AND duration = '2:42'), (SELECT id FROM actors WHERE first_name = 'Sam' AND last_name = 'Worthington'), Lead, now(), now());</v>
+        <v>INSERT INTO movie_casts(id, movie_id, actor_id, casting_type_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'Avatar' AND duration = '2:42'), (SELECT id FROM actors WHERE first_name = 'Sam' AND last_name = 'Worthington'), (SELECT id FROM casting_types WHERE cast_type = 'Lead'), now(), now());</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
@@ -21855,7 +21858,7 @@
       </c>
       <c r="G134" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO movie_casts(id, movie_id, actor_id, casting_type_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'Avatar' AND duration = '2:42'), (SELECT id FROM actors WHERE first_name = 'Zoe' AND last_name = 'Saldana'), Lead, now(), now());</v>
+        <v>INSERT INTO movie_casts(id, movie_id, actor_id, casting_type_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'Avatar' AND duration = '2:42'), (SELECT id FROM actors WHERE first_name = 'Zoe' AND last_name = 'Saldana'), (SELECT id FROM casting_types WHERE cast_type = 'Lead'), now(), now());</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
@@ -21881,7 +21884,7 @@
       </c>
       <c r="G135" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO movie_casts(id, movie_id, actor_id, casting_type_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'Avatar' AND duration = '2:42'), (SELECT id FROM actors WHERE first_name = 'Sigourney' AND last_name = 'Weaver'), Support, now(), now());</v>
+        <v>INSERT INTO movie_casts(id, movie_id, actor_id, casting_type_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'Avatar' AND duration = '2:42'), (SELECT id FROM actors WHERE first_name = 'Sigourney' AND last_name = 'Weaver'), (SELECT id FROM casting_types WHERE cast_type = 'Support'), now(), now());</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
@@ -21907,7 +21910,7 @@
       </c>
       <c r="G136" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO movie_casts(id, movie_id, actor_id, casting_type_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'Deadpool' AND duration = '1:48'), (SELECT id FROM actors WHERE first_name = 'Ryan' AND last_name = 'Reynolds'), Lead, now(), now());</v>
+        <v>INSERT INTO movie_casts(id, movie_id, actor_id, casting_type_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'Deadpool' AND duration = '1:48'), (SELECT id FROM actors WHERE first_name = 'Ryan' AND last_name = 'Reynolds'), (SELECT id FROM casting_types WHERE cast_type = 'Lead'), now(), now());</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
@@ -21933,7 +21936,7 @@
       </c>
       <c r="G137" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO movie_casts(id, movie_id, actor_id, casting_type_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'Deadpool' AND duration = '1:48'), (SELECT id FROM actors WHERE first_name = 'Morena' AND last_name = 'Baccarin'), Support, now(), now());</v>
+        <v>INSERT INTO movie_casts(id, movie_id, actor_id, casting_type_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'Deadpool' AND duration = '1:48'), (SELECT id FROM actors WHERE first_name = 'Morena' AND last_name = 'Baccarin'), (SELECT id FROM casting_types WHERE cast_type = 'Support'), now(), now());</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
@@ -21959,7 +21962,7 @@
       </c>
       <c r="G138" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO movie_casts(id, movie_id, actor_id, casting_type_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'Deadpool' AND duration = '1:48'), (SELECT id FROM actors WHERE first_name = 'T.J.' AND last_name = 'Miller'), Support, now(), now());</v>
+        <v>INSERT INTO movie_casts(id, movie_id, actor_id, casting_type_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'Deadpool' AND duration = '1:48'), (SELECT id FROM actors WHERE first_name = 'T.J.' AND last_name = 'Miller'), (SELECT id FROM casting_types WHERE cast_type = 'Support'), now(), now());</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
@@ -21985,7 +21988,7 @@
       </c>
       <c r="G139" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO movie_casts(id, movie_id, actor_id, casting_type_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'Deadpool' AND duration = '1:48'), (SELECT id FROM actors WHERE first_name = 'Stan' AND last_name = 'Lee'), Cameo, now(), now());</v>
+        <v>INSERT INTO movie_casts(id, movie_id, actor_id, casting_type_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'Deadpool' AND duration = '1:48'), (SELECT id FROM actors WHERE first_name = 'Stan' AND last_name = 'Lee'), (SELECT id FROM casting_types WHERE cast_type = 'Cameo'), now(), now());</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
@@ -22011,7 +22014,7 @@
       </c>
       <c r="G140" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO movie_casts(id, movie_id, actor_id, casting_type_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'Amelie' AND duration = '2:02'), (SELECT id FROM actors WHERE first_name = 'Andrey' AND last_name = 'Tautou'), Lead, now(), now());</v>
+        <v>INSERT INTO movie_casts(id, movie_id, actor_id, casting_type_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'Amelie' AND duration = '2:02'), (SELECT id FROM actors WHERE first_name = 'Andrey' AND last_name = 'Tautou'), (SELECT id FROM casting_types WHERE cast_type = 'Lead'), now(), now());</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
@@ -22037,7 +22040,7 @@
       </c>
       <c r="G141" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO movie_casts(id, movie_id, actor_id, casting_type_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'Amelie' AND duration = '2:02'), (SELECT id FROM actors WHERE first_name = 'Mathieu' AND last_name = 'Kassovitz'), Support, now(), now());</v>
+        <v>INSERT INTO movie_casts(id, movie_id, actor_id, casting_type_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'Amelie' AND duration = '2:02'), (SELECT id FROM actors WHERE first_name = 'Mathieu' AND last_name = 'Kassovitz'), (SELECT id FROM casting_types WHERE cast_type = 'Support'), now(), now());</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
@@ -22063,7 +22066,7 @@
       </c>
       <c r="G142" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO movie_casts(id, movie_id, actor_id, casting_type_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'Catch Me If You Can' AND duration = '2:21'), (SELECT id FROM actors WHERE first_name = 'Christopher' AND last_name = 'Walken'), Support, now(), now());</v>
+        <v>INSERT INTO movie_casts(id, movie_id, actor_id, casting_type_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'Catch Me If You Can' AND duration = '2:21'), (SELECT id FROM actors WHERE first_name = 'Christopher' AND last_name = 'Walken'), (SELECT id FROM casting_types WHERE cast_type = 'Support'), now(), now());</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
@@ -22089,7 +22092,7 @@
       </c>
       <c r="G143" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO movie_casts(id, movie_id, actor_id, casting_type_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'Catch Me If You Can' AND duration = '2:21'), (SELECT id FROM actors WHERE first_name = 'Leonardo' AND last_name = 'DiCaprio'), Lead, now(), now());</v>
+        <v>INSERT INTO movie_casts(id, movie_id, actor_id, casting_type_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'Catch Me If You Can' AND duration = '2:21'), (SELECT id FROM actors WHERE first_name = 'Leonardo' AND last_name = 'DiCaprio'), (SELECT id FROM casting_types WHERE cast_type = 'Lead'), now(), now());</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
@@ -22115,7 +22118,7 @@
       </c>
       <c r="G144" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO movie_casts(id, movie_id, actor_id, casting_type_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'Catch Me If You Can' AND duration = '2:21'), (SELECT id FROM actors WHERE first_name = 'Tom' AND last_name = 'Hanks'), Lead, now(), now());</v>
+        <v>INSERT INTO movie_casts(id, movie_id, actor_id, casting_type_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'Catch Me If You Can' AND duration = '2:21'), (SELECT id FROM actors WHERE first_name = 'Tom' AND last_name = 'Hanks'), (SELECT id FROM casting_types WHERE cast_type = 'Lead'), now(), now());</v>
       </c>
     </row>
   </sheetData>
@@ -22127,7 +22130,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F126"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A95" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="F2" sqref="F2:F126"/>
     </sheetView>
   </sheetViews>
@@ -22135,7 +22138,7 @@
   <cols>
     <col min="1" max="1" width="11.42578125" customWidth="1"/>
     <col min="2" max="2" width="46.42578125" customWidth="1"/>
-    <col min="3" max="3" width="56.7109375" customWidth="1"/>
+    <col min="3" max="3" width="59.28515625" customWidth="1"/>
     <col min="4" max="5" width="11.42578125" customWidth="1"/>
     <col min="6" max="6" width="48.7109375" style="6" customWidth="1"/>
   </cols>
@@ -24631,7 +24634,7 @@
       </c>
       <c r="C109" t="str">
         <f xml:space="preserve"> "(SELECT id FROM roles WHERE character_name = '"&amp;roles!B106&amp;"')"</f>
-        <v>(SELECT id FROM roles WHERE character_name = 'Alfred Ludlow')</v>
+        <v>(SELECT id FROM roles WHERE character_name = 'Alfred')</v>
       </c>
       <c r="D109" t="s">
         <v>79</v>
@@ -24641,7 +24644,7 @@
       </c>
       <c r="F109" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO actor_roles(id, actor_id, role_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM actors WHERE first_name = 'Michael' AND last_name = 'Caine'), (SELECT id FROM roles WHERE character_name = 'Alfred Ludlow'), now(), now());</v>
+        <v>INSERT INTO actor_roles(id, actor_id, role_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM actors WHERE first_name = 'Michael' AND last_name = 'Caine'), (SELECT id FROM roles WHERE character_name = 'Alfred'), now(), now());</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
@@ -25044,8 +25047,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F145"/>
   <sheetViews>
-    <sheetView topLeftCell="C4" workbookViewId="0">
-      <selection activeCell="F145" sqref="F2:F145"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B123" sqref="B123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27985,7 +27988,7 @@
       </c>
       <c r="C128" t="str">
         <f xml:space="preserve"> "(SELECT id FROM roles WHERE character_name = '"&amp;roles!B106&amp;"')"</f>
-        <v>(SELECT id FROM roles WHERE character_name = 'Alfred Ludlow')</v>
+        <v>(SELECT id FROM roles WHERE character_name = 'Alfred')</v>
       </c>
       <c r="D128" t="s">
         <v>79</v>
@@ -27995,7 +27998,7 @@
       </c>
       <c r="F128" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO movie_roles(id, movie_id, role_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'Batman Begins' AND duration = '2:20'), (SELECT id FROM roles WHERE character_name = 'Alfred Ludlow'), now(), now());</v>
+        <v>INSERT INTO movie_roles(id, movie_id, role_id, created_at, updated_at) VALUES (DEFAULT, (SELECT id FROM movies WHERE movie_name = 'Batman Begins' AND duration = '2:20'), (SELECT id FROM roles WHERE character_name = 'Alfred'), now(), now());</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
@@ -38701,7 +38704,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E123"/>
   <sheetViews>
-    <sheetView topLeftCell="A103" workbookViewId="0">
+    <sheetView topLeftCell="A98" workbookViewId="0">
       <selection activeCell="E2" sqref="E2:E123"/>
     </sheetView>
   </sheetViews>
@@ -40607,7 +40610,7 @@
         <v>72</v>
       </c>
       <c r="B106" t="s">
-        <v>650</v>
+        <v>1220</v>
       </c>
       <c r="C106" t="s">
         <v>79</v>
@@ -40617,7 +40620,7 @@
       </c>
       <c r="E106" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO roles(id, character_name, created_at, updated_at) VALUES (DEFAULT, 'Alfred Ludlow', now(), now());</v>
+        <v>INSERT INTO roles(id, character_name, created_at, updated_at) VALUES (DEFAULT, 'Alfred', now(), now());</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
